--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C59E768-E9CA-4D05-AE6F-EAF537DA629A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC82503-BB86-4354-8DC9-9FDA27349C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Value</t>
   </si>
@@ -281,6 +281,9 @@
   <si>
     <t>M27-P5-600V [NM]</t>
   </si>
+  <si>
+    <t>Slope angle (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,26 +414,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +498,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Low Voltage</a:t>
+              <a:t>LV</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Cont. Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1072,102 +1086,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0476411136363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.94783070779681</c:v>
+                  <c:v>6.3878356955454549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.89566141559362</c:v>
+                  <c:v>5.214271854229855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926.84349212339077</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>43.946857217142977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.9426278344070855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>7.3204569243368782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.3608041707835579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.894783070779678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79155106363636374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1949960186592727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1950081564552728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1950283861152728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95297419824664731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.204292159673869</c:v>
+                  <c:v>10.434371575380725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,102 +2457,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0476411136363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.94783070779681</c:v>
+                  <c:v>6.3878356955454549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.89566141559362</c:v>
+                  <c:v>5.214271854229855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926.84349212339077</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>43.946857217142977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.9426278344070855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>7.3204569243368782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.3608041707835579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.894783070779678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79155106363636374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1949960186592727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1950081564552728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1950283861152728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95297419824664731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.204292159673869</c:v>
+                  <c:v>10.434371575380725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4030,102 +4044,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0476411136363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.94783070779681</c:v>
+                  <c:v>6.3878356955454549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.89566141559362</c:v>
+                  <c:v>5.214271854229855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926.84349212339077</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>43.946857217142977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.9426278344070855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>7.3204569243368782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.3608041707835579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.894783070779678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79155106363636374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1949960186592727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1950081564552728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1950283861152728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95297419824664731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.204292159673869</c:v>
+                  <c:v>10.434371575380725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,102 +5397,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0476411136363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.94783070779681</c:v>
+                  <c:v>6.3878356955454549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.89566141559362</c:v>
+                  <c:v>5.214271854229855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926.84349212339077</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>43.946857217142977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.9426278344070855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>7.3204569243368782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.3608041707835579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.894783070779678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79155106363636374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1949960186592727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1950081564552728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1950283861152728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95297419824664731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.204292159673869</c:v>
+                  <c:v>10.434371575380725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6736,102 +6750,102 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Sheet1!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0476411136363637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.94783070779681</c:v>
+                  <c:v>6.3878356955454549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>617.89566141559362</c:v>
+                  <c:v>5.214271854229855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>926.84349212339077</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1050.4226244065094</c:v>
+                  <c:v>1.0493377633207637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>43.946857217142977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.9426278344070855</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>7.3204569243368782</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.894783070779678</c:v>
+                  <c:v>8.3608041707835579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.894783070779678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$S$2:$S$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.79155106363636374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1949960186592727</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1950081564552728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1950283861152728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95297419824664731</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79159783461028377</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>33.204292159673869</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33.204292159673869</c:v>
+                  <c:v>10.434371575380725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7188,10 +7202,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7254,7 +7268,7 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7273,21 +7287,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
+                    <a:schemeClr val="accent4">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -7298,7 +7312,7 @@
               </a:gradFill>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -7372,43 +7386,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34</c:v>
+                  <c:v>1.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7477,6 +7491,1582 @@
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967380448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="967380448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>vehicle speed [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967380120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Peak Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>M13</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$22:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A80-44B0-8460-5801150D4BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>M15</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$35:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$35:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.773584905660378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.777777777777779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A80-44B0-8460-5801150D4BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>M17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$48:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$48:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.56782334384858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A80-44B0-8460-5801150D4BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2334.2724986811318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4155.0050476524148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3342724986811314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1167.1362493405659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.0476411136363637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3878356955454549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.214271854229855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0493377633207637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.946857217142977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9426278344070855</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3204569243368782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3608041707835579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.434371575380725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A80-44B0-8460-5801150D4BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="889723760"/>
+        <c:axId val="842235184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="889723760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed [rpm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842235184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842235184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>torque [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="889723760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Grade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7FB-4099-8B58-3D24EEA7157A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="967380120"/>
+        <c:axId val="967380448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="967380120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [%]</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7924,6 +9514,12 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7963,6 +9559,12 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -10975,17 +12577,1021 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -11015,13 +13621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>433386</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -11051,13 +13657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>214311</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -11087,13 +13693,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>404811</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>242887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>161924</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -11123,13 +13729,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>214311</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>261937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -11159,16 +13765,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>442911</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11188,6 +13794,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10379E8F-77CB-4448-B34A-7FDBE13E43A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>280988</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DF267B-FA3A-452C-8509-F46641C5F8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11493,10 +14175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:T148"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11504,11 +14186,11 @@
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="18" max="18" width="8" customWidth="1"/>
+    <col min="9" max="10" width="12" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -11518,7 +14200,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -11537,40 +14219,43 @@
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -11580,7 +14265,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -11591,7 +14276,7 @@
         <f>IF(F2&gt;$B$13,$B$13,F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="7">
         <v>0</v>
       </c>
       <c r="I2" s="1">
@@ -11602,46 +14287,49 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <f>$B$2*$B$3*SIN(J2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>$B$2*$B$3*$B$7*COS(J2)</f>
+        <f>$B$2*$B$3*SIN(K2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <f>$B$2*$B$3*$B$7*COS(K2)</f>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <f>$B$2*H2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="1">
-        <f>SUM(K2,L2,M2,N2)</f>
+      <c r="P2" s="1">
+        <f>SUM(L2,M2,N2,O2)</f>
         <v>1024.3602000000001</v>
       </c>
-      <c r="P2" s="1">
-        <f>O2*$B$9</f>
-        <v>348.28246800000005</v>
-      </c>
       <c r="Q2" s="1">
+        <f>P2*$B$9</f>
+        <v>460.96209000000005</v>
+      </c>
+      <c r="R2" s="1">
         <f>G2*60/2/PI()/$B$9</f>
         <v>0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>110</v>
       </c>
-      <c r="S2" s="1">
-        <f t="shared" ref="S2:S15" si="0">P2/$R$2/$B$14</f>
-        <v>0.79155106363636374</v>
-      </c>
       <c r="T2" s="1">
-        <f>Q2*R2</f>
+        <f t="shared" ref="T2:T15" si="0">Q2/$S$2/$B$14</f>
+        <v>1.0476411136363637</v>
+      </c>
+      <c r="U2" s="1">
+        <f>R2*S2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11651,70 +14339,73 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1">
         <f>F2+$B$12*2</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G15" si="1">IF(F3&gt;$B$13,$B$13,F3)</f>
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="12">
+        <f t="shared" ref="G3:G10" si="1">IF(F3&gt;$B$13,$B$13,F3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <f>(G3-G2)/(E3-E2)</f>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="1">
         <f>$I$2/G3</f>
-        <v>409744.08</v>
+        <v>40974.408000000003</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K15" si="2">$B$2*$B$3*SIN(J3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L15" si="3">$B$2*$B$3*$B$7*COS(J3)</f>
+        <f t="shared" ref="L3:L15" si="2">$B$2*$B$3*SIN(K3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M15" si="3">$B$2*$B$3*$B$7*COS(K3)</f>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M15" si="4">0.5*$B$5*$B$6*$B$4*G3^2</f>
-        <v>5.2359120000000006E-3</v>
-      </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N15" si="5">$B$2*H3</f>
-        <v>522.1</v>
+        <f t="shared" ref="N3:N15" si="4">0.5*$B$5*$B$6*$B$4*G3^2</f>
+        <v>0.52359119999999992</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O15" si="6">SUM(K3,L3,M3,N3)</f>
-        <v>1546.465435912</v>
+        <f t="shared" ref="O3:O15" si="5">$B$2*H3</f>
+        <v>5221</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P15" si="7">O3*$B$9</f>
-        <v>525.79824821008003</v>
+        <f t="shared" ref="P3:P15" si="6">SUM(L3,M3,N3,O3)</f>
+        <v>6245.8837911999999</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q15" si="8">G3*60/2/PI()/$B$9</f>
-        <v>2.8086166427981527</v>
+        <f t="shared" ref="Q3:Q15" si="7">P3*$B$9</f>
+        <v>2810.6477060400002</v>
       </c>
       <c r="R3" s="1">
+        <f t="shared" ref="R3:R15" si="8">G3*60/2/PI()/$B$9</f>
+        <v>21.220659078919379</v>
+      </c>
+      <c r="S3" s="1">
         <v>110</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <f t="shared" si="0"/>
-        <v>1.1949960186592727</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3:T15" si="9">Q3*R3</f>
-        <v>308.94783070779681</v>
+        <v>6.3878356955454549</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U15" si="9">R3*S3</f>
+        <v>2334.2724986811318</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -11724,70 +14415,73 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F15" si="10">F3+$B$12*2</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H15" si="11">(G4-G3)/(E4-E3)</f>
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="I4" s="1">
         <f>$I$2/G4</f>
-        <v>204872.04</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>2.0943648000000002E-2</v>
-      </c>
-      <c r="N4" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>522.1</v>
-      </c>
-      <c r="O4" s="1">
+        <v>4072.38</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>1546.4811436479999</v>
-      </c>
-      <c r="P4" s="1">
+        <v>5098.3991463580805</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>525.80358884032</v>
-      </c>
-      <c r="Q4" s="1">
+        <v>2294.2796158611363</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>5.6172332855963054</v>
-      </c>
-      <c r="R4" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S4" s="1">
         <v>110</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <f t="shared" si="0"/>
-        <v>1.1950081564552728</v>
-      </c>
-      <c r="T4" s="1">
+        <v>5.214271854229855</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="9"/>
-        <v>617.89566141559362</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11797,423 +14491,441 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="10"/>
-        <v>0.30000000000000004</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="H5" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="11"/>
-        <v>5.0000000000000017E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I15" si="12">$I$2/G5</f>
-        <v>136581.35999999999</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>4.7123208000000007E-2</v>
-      </c>
-      <c r="N5" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>522.10000000000014</v>
-      </c>
-      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>1546.5073232080001</v>
-      </c>
-      <c r="P5" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="7"/>
-        <v>525.81248989072003</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>8.4258499283944612</v>
-      </c>
-      <c r="R5" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S5" s="1">
         <v>110</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="0"/>
-        <v>1.1950283861152728</v>
-      </c>
-      <c r="T5" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U5" s="1">
         <f t="shared" si="9"/>
-        <v>926.84349212339077</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <v>0.36</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="H6" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="11"/>
-        <v>1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="12"/>
-        <v>120512.96470588235</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>6.0527142720000003E-2</v>
-      </c>
-      <c r="N6" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>208.83999999999989</v>
-      </c>
-      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>1233.26072714272</v>
-      </c>
-      <c r="P6" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="7"/>
-        <v>419.30864722852482</v>
-      </c>
-      <c r="Q6" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>9.5492965855137211</v>
-      </c>
-      <c r="R6" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S6" s="1">
         <v>110</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <f t="shared" si="0"/>
-        <v>0.95297419824664731</v>
-      </c>
-      <c r="T6" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U6" s="1">
         <f t="shared" si="9"/>
-        <v>1050.4226244065094</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>0.01</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="H7" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="12"/>
-        <v>120512.96470588235</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>6.0527142720000003E-2</v>
-      </c>
-      <c r="N7" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>1024.4207271427201</v>
-      </c>
-      <c r="P7" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q7" s="1">
         <f t="shared" si="7"/>
-        <v>348.30304722852486</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>9.5492965855137211</v>
-      </c>
-      <c r="R7" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S7" s="1">
         <v>110</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <f t="shared" si="0"/>
-        <v>0.79159783461028377</v>
-      </c>
-      <c r="T7" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U7" s="1">
         <f t="shared" si="9"/>
-        <v>1050.4226244065094</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>0.4</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1">
         <v>12</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="H8" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="12"/>
-        <v>120512.96470588235</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>6.0527142720000003E-2</v>
-      </c>
-      <c r="N8" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O8" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>1024.4207271427201</v>
-      </c>
-      <c r="P8" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="7"/>
-        <v>348.30304722852486</v>
-      </c>
-      <c r="Q8" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>9.5492965855137211</v>
-      </c>
-      <c r="R8" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S8" s="1">
         <v>110</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>0.79159783461028377</v>
-      </c>
-      <c r="T8" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="9"/>
-        <v>1050.4226244065094</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1">
         <v>14</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="H9" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="12"/>
-        <v>120512.96470588235</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>6.0527142720000003E-2</v>
-      </c>
-      <c r="N9" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>1024.4207271427201</v>
-      </c>
-      <c r="P9" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="7"/>
-        <v>348.30304722852486</v>
-      </c>
-      <c r="Q9" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="8"/>
-        <v>9.5492965855137211</v>
-      </c>
-      <c r="R9" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S9" s="1">
         <v>110</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <f t="shared" si="0"/>
-        <v>0.79159783461028377</v>
-      </c>
-      <c r="T9" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="9"/>
-        <v>1050.4226244065094</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1">
         <v>16</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="10"/>
-        <v>0.79999999999999993</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="H10" s="12">
+        <v>1.78</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="12"/>
-        <v>120512.96470588235</v>
+        <v>23019.330337078653</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="3"/>
         <v>1024.3602000000001</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="4"/>
-        <v>6.0527142720000003E-2</v>
-      </c>
-      <c r="N10" s="1">
+        <v>1.6589463580799999</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="6"/>
-        <v>1024.4207271427201</v>
-      </c>
-      <c r="P10" s="1">
+        <v>1026.01914635808</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="7"/>
-        <v>348.30304722852486</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>461.70861586113602</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="8"/>
-        <v>9.5492965855137211</v>
-      </c>
-      <c r="R10" s="1">
+        <v>37.772773160476497</v>
+      </c>
+      <c r="S10" s="1">
         <v>110</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <f t="shared" si="0"/>
-        <v>0.79159783461028377</v>
-      </c>
-      <c r="T10" s="1">
+        <v>1.0493377633207637</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" si="9"/>
-        <v>1050.4226244065094</v>
+        <v>4155.0050476524148</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -12223,364 +14935,382 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1">
         <v>18</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="10"/>
-        <v>0.89999999999999991</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="12"/>
-        <v>4097440.8000000003</v>
+        <v>40974408</v>
       </c>
       <c r="J11" s="1">
-        <f>ATAN2(100, $B$11)</f>
+        <f>B11</f>
+        <v>45</v>
+      </c>
+      <c r="K11" s="1">
+        <f>ATAN2(100, J11)</f>
         <v>0.42285392613294071</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <f t="shared" si="2"/>
         <v>42036.124294146292</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="3"/>
         <v>934.13609542547306</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="4"/>
-        <v>5.2359119999999993E-5</v>
-      </c>
-      <c r="N11" s="1">
+        <v>5.235911999999999E-7</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="6"/>
-        <v>42970.260441930885</v>
-      </c>
-      <c r="P11" s="1">
+        <v>42970.260390095355</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="7"/>
-        <v>14609.888550256503</v>
-      </c>
-      <c r="Q11" s="1">
+        <v>19336.61717554291</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="8"/>
-        <v>0.28086166427981524</v>
-      </c>
-      <c r="R11" s="1">
+        <v>2.1220659078919377E-2</v>
+      </c>
+      <c r="S11" s="1">
         <v>110</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <f t="shared" si="0"/>
-        <v>33.204292159673869</v>
-      </c>
-      <c r="T11" s="1">
-        <f>Q11*R11</f>
-        <v>30.894783070779678</v>
+        <v>43.946857217142977</v>
+      </c>
+      <c r="U11" s="1">
+        <f>R11*S11</f>
+        <v>2.3342724986811314</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="10"/>
-        <v>0.99999999999999989</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="11"/>
+        <v>0.2495</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="12"/>
+        <v>81948.816000000006</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12:K15" si="13">ATAN2(100, J12)</f>
+        <v>4.9958395721942765E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>5115.4107280168846</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>1023.0821456033768</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13089779999999998</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>2605.279</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="6"/>
+        <v>8743.9027714202621</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="7"/>
+        <v>3934.7562471391179</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="8"/>
+        <v>10.610329539459689</v>
+      </c>
+      <c r="S12" s="1">
+        <v>110</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9426278344070855</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="9"/>
+        <v>1167.1362493405659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1.78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="12"/>
-        <v>4097440.8000000003</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12:J15" si="13">ATAN2(100, $B$11)</f>
-        <v>0.42285392613294071</v>
-      </c>
-      <c r="K12" s="1">
+        <v>81948.816000000006</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="13"/>
+        <v>5.9928155121207881E-2</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="2"/>
-        <v>42036.124294146292</v>
-      </c>
-      <c r="L12" s="1">
+        <v>6135.1278908537652</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>934.13609542547306</v>
-      </c>
-      <c r="M12" s="1">
+        <v>1022.5213151422943</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="4"/>
-        <v>5.2359119999999993E-5</v>
-      </c>
-      <c r="N12" s="1">
+        <v>0.13089779999999998</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="6"/>
-        <v>42970.260441930885</v>
-      </c>
-      <c r="P12" s="1">
+        <v>7157.7801037960589</v>
+      </c>
+      <c r="Q13" s="1">
         <f t="shared" si="7"/>
-        <v>14609.888550256503</v>
-      </c>
-      <c r="Q12" s="1">
+        <v>3221.0010467082266</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="8"/>
-        <v>0.28086166427981524</v>
-      </c>
-      <c r="R12" s="1">
+        <v>10.610329539459689</v>
+      </c>
+      <c r="S13" s="1">
         <v>110</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T13" s="1">
         <f t="shared" si="0"/>
-        <v>33.204292159673869</v>
-      </c>
-      <c r="T12" s="1">
+        <v>7.3204569243368782</v>
+      </c>
+      <c r="U13" s="1">
         <f t="shared" si="9"/>
-        <v>30.894783070779678</v>
+        <v>1167.1362493405659</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>0.34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="10"/>
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H13" s="12">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="12"/>
-        <v>4097440.8000000003</v>
-      </c>
-      <c r="J13" s="1">
+        <v>81948.816000000006</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="13"/>
-        <v>0.42285392613294071</v>
-      </c>
-      <c r="K13" s="1">
+        <v>6.9886001634642508E-2</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>42036.124294146292</v>
-      </c>
-      <c r="L13" s="1">
+        <v>7153.0179216509323</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>934.13609542547306</v>
-      </c>
-      <c r="M13" s="1">
+        <v>1021.8597030929902</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>5.2359119999999993E-5</v>
-      </c>
-      <c r="N13" s="1">
+        <v>0.13089779999999998</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="6"/>
-        <v>42970.260441930885</v>
-      </c>
-      <c r="P13" s="1">
+        <v>8175.0085225439225</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="7"/>
-        <v>14609.888550256503</v>
-      </c>
-      <c r="Q13" s="1">
+        <v>3678.7538351447652</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="8"/>
-        <v>0.28086166427981524</v>
-      </c>
-      <c r="R13" s="1">
+        <v>10.610329539459689</v>
+      </c>
+      <c r="S14" s="1">
         <v>110</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T14" s="1">
         <f t="shared" si="0"/>
-        <v>33.204292159673869</v>
-      </c>
-      <c r="T13" s="1">
+        <v>8.3608041707835579</v>
+      </c>
+      <c r="U14" s="1">
         <f t="shared" si="9"/>
-        <v>30.894783070779678</v>
+        <v>1167.1362493405659</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1">
-        <v>24</v>
-      </c>
-      <c r="F14" s="1">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="1">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="10"/>
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H14" s="12">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="12"/>
-        <v>4097440.8000000003</v>
-      </c>
-      <c r="J14" s="1">
+        <v>81948.816000000006</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="13"/>
-        <v>0.42285392613294071</v>
-      </c>
-      <c r="K14" s="1">
+        <v>8.9758174189950524E-2</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="2"/>
-        <v>42036.124294146292</v>
-      </c>
-      <c r="L14" s="1">
+        <v>9182.1291783150391</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>934.13609542547306</v>
-      </c>
-      <c r="M14" s="1">
+        <v>1020.2365753683376</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="4"/>
-        <v>5.2359119999999993E-5</v>
-      </c>
-      <c r="N14" s="1">
+        <v>0.13089779999999998</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="6"/>
-        <v>42970.260441930885</v>
-      </c>
-      <c r="P14" s="1">
+        <v>10202.496651483376</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="7"/>
-        <v>14609.888550256503</v>
-      </c>
-      <c r="Q14" s="1">
+        <v>4591.123493167519</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="8"/>
-        <v>0.28086166427981524</v>
-      </c>
-      <c r="R14" s="1">
+        <v>10.610329539459689</v>
+      </c>
+      <c r="S15" s="1">
         <v>110</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T15" s="1">
         <f t="shared" si="0"/>
-        <v>33.204292159673869</v>
-      </c>
-      <c r="T14" s="1">
+        <v>10.434371575380725</v>
+      </c>
+      <c r="U15" s="1">
         <f t="shared" si="9"/>
-        <v>30.894783070779678</v>
+        <v>1167.1362493405659</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
-      <c r="E15" s="1">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="10"/>
-        <v>1.3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="12"/>
-        <v>4097440.8000000003</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="13"/>
-        <v>0.42285392613294071</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>42036.124294146292</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="3"/>
-        <v>934.13609542547306</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="4"/>
-        <v>5.2359119999999993E-5</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="6"/>
-        <v>42970.260441930885</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="7"/>
-        <v>14609.888550256503</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="8"/>
-        <v>0.28086166427981524</v>
-      </c>
-      <c r="R15" s="1">
-        <v>110</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="0"/>
-        <v>33.204292159673869</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="9"/>
-        <v>30.894783070779678</v>
-      </c>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
-      <c r="I16" s="1"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
-      <c r="I17" s="1"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>59</v>
       </c>
@@ -12590,12 +15320,13 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -12618,7 +15349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -12626,8 +15357,8 @@
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="13">
+      <c r="D22" s="10"/>
+      <c r="E22" s="8">
         <v>0</v>
       </c>
       <c r="F22" s="1">
@@ -12650,17 +15381,17 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <v>65000</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="13">
         <f>B23*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="13">
+      <c r="D23" s="10"/>
+      <c r="E23" s="8">
         <v>500</v>
       </c>
       <c r="F23" s="1">
@@ -12679,19 +15410,19 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" ref="K23:K31" si="14">H23*$J$22/$F$22</f>
+        <f>H23*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="13">
+      <c r="D24" s="10"/>
+      <c r="E24" s="8">
         <v>1000</v>
       </c>
       <c r="F24" s="1">
@@ -12710,20 +15441,20 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="14"/>
+        <f>H24*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12">
         <v>1</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="13">
         <f>B25*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="13">
+      <c r="D25" s="10"/>
+      <c r="E25" s="8">
         <v>1800</v>
       </c>
       <c r="F25" s="1">
@@ -12742,19 +15473,19 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="14"/>
+        <f>H25*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="13">
+      <c r="D26" s="10"/>
+      <c r="E26" s="8">
         <v>2000</v>
       </c>
       <c r="F26" s="1">
@@ -12774,20 +15505,20 @@
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="14"/>
+        <f>H26*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="13">
         <f>B27*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="13">
+      <c r="D27" s="10"/>
+      <c r="E27" s="8">
         <v>2500</v>
       </c>
       <c r="F27" s="1">
@@ -12803,23 +15534,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27:J31" si="15">F27*$J$22/$F$22</f>
+        <f>F27*$J$22/$F$22</f>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="14"/>
+        <f>H27*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="13">
+      <c r="D28" s="10"/>
+      <c r="E28" s="8">
         <v>3000</v>
       </c>
       <c r="F28" s="1">
@@ -12835,24 +15566,24 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="15"/>
+        <f>F28*$J$22/$F$22</f>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="14"/>
+        <f>H28*$J$22/$F$22</f>
         <v>59.428571428571445</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
         <v>10.4</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="13">
         <f>B29*2.23694</f>
         <v>23.264176000000003</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="13">
+      <c r="D29" s="10"/>
+      <c r="E29" s="8">
         <v>3500</v>
       </c>
       <c r="F29" s="1">
@@ -12868,23 +15599,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="15"/>
+        <f>F29*$J$22/$F$22</f>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="14"/>
+        <f>H29*$J$22/$F$22</f>
         <v>50.938775510204088</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="13">
+      <c r="D30" s="10"/>
+      <c r="E30" s="8">
         <v>4000</v>
       </c>
       <c r="F30" s="1">
@@ -12900,24 +15631,24 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="15"/>
+        <f>F30*$J$22/$F$22</f>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="14"/>
+        <f>H30*$J$22/$F$22</f>
         <v>44.571428571428577</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
-        <v>1.21</v>
-      </c>
-      <c r="C31" s="7">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12">
+        <v>6.4</v>
+      </c>
+      <c r="C31" s="13">
         <f>B31*0.277778</f>
-        <v>0.33611138000000002</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="13">
+        <v>1.7777792000000003</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8">
         <v>4500</v>
       </c>
       <c r="F31" s="1">
@@ -12933,37 +15664,38 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="15"/>
+        <f>F31*$J$22/$F$22</f>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="14"/>
+        <f>H31*$J$22/$F$22</f>
         <v>39.619047619047628</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12">
         <v>1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="13">
         <f>B33*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="9" t="s">
         <v>60</v>
       </c>
@@ -12973,28 +15705,29 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="10" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="6" t="s">
         <v>56</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -13004,16 +15737,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
+    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="13">
         <f>B35*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="13">
+      <c r="D35" s="10"/>
+      <c r="E35" s="8">
         <v>0</v>
       </c>
       <c r="F35" s="1">
@@ -13036,9 +15769,9 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="8"/>
-      <c r="E36" s="13">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="10"/>
+      <c r="E36" s="8">
         <v>500</v>
       </c>
       <c r="F36" s="1">
@@ -13058,13 +15791,13 @@
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ref="K36:K44" si="16">H36*$J$35/$F$35</f>
+        <f>H36*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="8"/>
-      <c r="E37" s="13">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="10"/>
+      <c r="E37" s="8">
         <v>1000</v>
       </c>
       <c r="F37" s="1">
@@ -13080,17 +15813,17 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ref="J37:J44" si="17">F37*$J$35/$F$35</f>
+        <f>F37*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="16"/>
+        <f>H37*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="8"/>
-      <c r="E38" s="13">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="8">
         <v>1500</v>
       </c>
       <c r="F38" s="1">
@@ -13106,17 +15839,17 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="17"/>
+        <f>F38*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="16"/>
+        <f>H38*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
-      <c r="E39" s="13">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="8">
         <v>2000</v>
       </c>
       <c r="F39" s="1">
@@ -13132,17 +15865,17 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="17"/>
+        <f>F39*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="16"/>
+        <f>H39*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="8"/>
-      <c r="E40" s="13">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="8">
         <v>2650</v>
       </c>
       <c r="F40" s="1">
@@ -13158,17 +15891,17 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="17"/>
+        <f>F40*$J$35/$F$35</f>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="16"/>
+        <f>H40*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="8"/>
-      <c r="E41" s="13">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="8">
         <v>3000</v>
       </c>
       <c r="F41" s="1">
@@ -13184,17 +15917,17 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="17"/>
+        <f>F41*$J$35/$F$35</f>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="16"/>
+        <f>H41*$J$35/$F$35</f>
         <v>105.26896551724138</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="8"/>
-      <c r="E42" s="13">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="8">
         <v>3500</v>
       </c>
       <c r="F42" s="1">
@@ -13210,17 +15943,17 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="17"/>
+        <f>F42*$J$35/$F$35</f>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="16"/>
+        <f>H42*$J$35/$F$35</f>
         <v>90.23054187192119</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="8"/>
-      <c r="E43" s="13">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="8">
         <v>4000</v>
       </c>
       <c r="F43" s="1">
@@ -13236,17 +15969,17 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="17"/>
+        <f>F43*$J$35/$F$35</f>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="16"/>
+        <f>H43*$J$35/$F$35</f>
         <v>78.951724137931052</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="8"/>
-      <c r="E44" s="13">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="8">
         <v>4500</v>
       </c>
       <c r="F44" s="1">
@@ -13262,22 +15995,23 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="17"/>
+        <f>F44*$J$35/$F$35</f>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="16"/>
+        <f>H44*$J$35/$F$35</f>
         <v>70.179310344827584</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E46" s="9" t="s">
         <v>61</v>
       </c>
@@ -13287,21 +16021,22 @@
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E47" s="10" t="s">
+    <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="6" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -13311,8 +16046,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E48" s="13">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="8">
         <v>0</v>
       </c>
       <c r="F48" s="1">
@@ -13336,8 +16071,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E49" s="13">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="8">
         <v>500</v>
       </c>
       <c r="F49" s="1">
@@ -13357,12 +16092,12 @@
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" ref="K49:K60" si="18">H49*$J$48/$F$48</f>
+        <f>H49*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E50" s="13">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E50" s="8">
         <v>1000</v>
       </c>
       <c r="F50" s="1">
@@ -13378,16 +16113,16 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ref="J50:J60" si="19">F50*$J$48/$F$48</f>
+        <f>F50*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="18"/>
+        <f>H50*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E51" s="13">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
         <v>1500</v>
       </c>
       <c r="F51" s="1">
@@ -13403,16 +16138,16 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="19"/>
+        <f>F51*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="18"/>
+        <f>H51*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E52" s="13">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E52" s="8">
         <v>2000</v>
       </c>
       <c r="F52" s="1">
@@ -13428,16 +16163,16 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="19"/>
+        <f>F52*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="18"/>
+        <f>H52*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E53" s="13">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E53" s="8">
         <v>2400</v>
       </c>
       <c r="F53" s="1">
@@ -13453,16 +16188,16 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="19"/>
+        <f>F53*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="18"/>
+        <f>H53*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E54" s="13">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E54" s="8">
         <v>2600</v>
       </c>
       <c r="F54" s="1">
@@ -13478,16 +16213,16 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="19"/>
+        <f>F54*$J$48/$F$48</f>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="18"/>
+        <f>H54*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E55" s="13">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E55" s="8">
         <v>3170</v>
       </c>
       <c r="F55" s="1">
@@ -13503,16 +16238,16 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="19"/>
+        <f>F55*$J$48/$F$48</f>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="18"/>
+        <f>H55*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E56" s="13">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E56" s="8">
         <v>4000</v>
       </c>
       <c r="F56" s="1">
@@ -13528,16 +16263,16 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="19"/>
+        <f>F56*$J$48/$F$48</f>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="18"/>
+        <f>H56*$J$48/$F$48</f>
         <v>189.60562499999997</v>
       </c>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E57" s="13">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E57" s="8">
         <v>4500</v>
       </c>
       <c r="F57" s="1">
@@ -13553,16 +16288,16 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="19"/>
+        <f>F57*$J$48/$F$48</f>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="18"/>
+        <f>H57*$J$48/$F$48</f>
         <v>168.53833333333333</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E58" s="13">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E58" s="8">
         <v>5000</v>
       </c>
       <c r="F58" s="1">
@@ -13578,16 +16313,16 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="19"/>
+        <f>F58*$J$48/$F$48</f>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="18"/>
+        <f>H58*$J$48/$F$48</f>
         <v>151.68450000000001</v>
       </c>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E59" s="13">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E59" s="8">
         <v>5500</v>
       </c>
       <c r="F59" s="1">
@@ -13603,16 +16338,16 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="19"/>
+        <f>F59*$J$48/$F$48</f>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="18"/>
+        <f>H59*$J$48/$F$48</f>
         <v>137.89499999999998</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E60" s="13">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E60" s="8">
         <v>6000</v>
       </c>
       <c r="F60" s="1">
@@ -13628,15 +16363,15 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="19"/>
+        <f>F60*$J$48/$F$48</f>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="18"/>
+        <f>H60*$J$48/$F$48</f>
         <v>126.40374999999999</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="9" t="s">
         <v>63</v>
       </c>
@@ -13646,27 +16381,29 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E63" s="10" t="s">
+    <row r="63" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="H63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="2"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <v>0</v>
       </c>
@@ -13682,8 +16419,9 @@
       <c r="I64" s="1">
         <v>45</v>
       </c>
+      <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E65" s="1">
         <v>1000</v>
       </c>
@@ -13699,8 +16437,9 @@
       <c r="I65" s="1">
         <v>45</v>
       </c>
+      <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
         <v>2000</v>
       </c>
@@ -13716,8 +16455,9 @@
       <c r="I66" s="1">
         <v>45</v>
       </c>
+      <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E67" s="1">
         <v>3000</v>
       </c>
@@ -13733,8 +16473,9 @@
       <c r="I67" s="1">
         <v>45</v>
       </c>
+      <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E68" s="1">
         <v>4000</v>
       </c>
@@ -13750,8 +16491,9 @@
       <c r="I68" s="1">
         <v>45</v>
       </c>
+      <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E69" s="1">
         <v>5000</v>
       </c>
@@ -13767,8 +16509,9 @@
       <c r="I69" s="1">
         <v>45</v>
       </c>
+      <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <v>6000</v>
       </c>
@@ -13784,8 +16527,9 @@
       <c r="I70" s="1">
         <v>45</v>
       </c>
+      <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E71" s="1">
         <v>7000</v>
       </c>
@@ -13801,8 +16545,9 @@
       <c r="I71" s="1">
         <v>45</v>
       </c>
+      <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E72" s="1">
         <v>8000</v>
       </c>
@@ -13818,8 +16563,9 @@
       <c r="I72" s="1">
         <v>45</v>
       </c>
+      <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E73" s="1">
         <v>8500</v>
       </c>
@@ -13835,8 +16581,9 @@
       <c r="I73" s="1">
         <v>45</v>
       </c>
+      <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E74" s="1">
         <v>9330</v>
       </c>
@@ -13852,8 +16599,9 @@
       <c r="I74" s="1">
         <v>45</v>
       </c>
+      <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E75" s="1">
         <v>11000</v>
       </c>
@@ -13869,8 +16617,9 @@
       <c r="I75" s="1">
         <v>38.168181818181822</v>
       </c>
+      <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E76" s="1">
         <v>12000</v>
       </c>
@@ -13886,8 +16635,9 @@
       <c r="I76" s="1">
         <v>34.987500000000004</v>
       </c>
+      <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E77" s="1">
         <v>13000</v>
       </c>
@@ -13903,8 +16653,9 @@
       <c r="I77" s="1">
         <v>32.29615384615385</v>
       </c>
+      <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E78" s="1">
         <v>14000</v>
       </c>
@@ -13920,8 +16671,9 @@
       <c r="I78" s="1">
         <v>29.989285714285717</v>
       </c>
+      <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E79" s="1">
         <v>15000</v>
       </c>
@@ -13938,8 +16690,9 @@
         <v>27.990000000000006</v>
       </c>
       <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
     </row>
-    <row r="81" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" s="9" t="s">
         <v>62</v>
       </c>
@@ -13949,27 +16702,29 @@
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E82" s="10" t="s">
+    <row r="82" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J82" s="10"/>
-      <c r="K82" s="2"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" s="1">
         <v>0</v>
       </c>
@@ -13985,8 +16740,9 @@
       <c r="I83" s="1">
         <v>85</v>
       </c>
+      <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" s="1">
         <v>500</v>
       </c>
@@ -14002,8 +16758,9 @@
       <c r="I84" s="1">
         <v>85</v>
       </c>
+      <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" s="1">
         <v>1000</v>
       </c>
@@ -14019,8 +16776,9 @@
       <c r="I85" s="1">
         <v>85</v>
       </c>
+      <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" s="1">
         <v>1500</v>
       </c>
@@ -14036,8 +16794,9 @@
       <c r="I86" s="1">
         <v>85</v>
       </c>
+      <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87" s="1">
         <v>2000</v>
       </c>
@@ -14053,8 +16812,9 @@
       <c r="I87" s="1">
         <v>85</v>
       </c>
+      <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88" s="1">
         <v>2500</v>
       </c>
@@ -14070,8 +16830,9 @@
       <c r="I88" s="1">
         <v>85</v>
       </c>
+      <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89" s="1">
         <v>3000</v>
       </c>
@@ -14087,8 +16848,9 @@
       <c r="I89" s="1">
         <v>85</v>
       </c>
+      <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90" s="1">
         <v>3500</v>
       </c>
@@ -14104,8 +16866,9 @@
       <c r="I90" s="1">
         <v>85</v>
       </c>
+      <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" s="1">
         <v>4000</v>
       </c>
@@ -14121,8 +16884,9 @@
       <c r="I91" s="1">
         <v>85</v>
       </c>
+      <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" s="1">
         <v>4500</v>
       </c>
@@ -14138,8 +16902,9 @@
       <c r="I92" s="1">
         <v>85</v>
       </c>
+      <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E93" s="1">
         <v>5000</v>
       </c>
@@ -14155,8 +16920,9 @@
       <c r="I93" s="1">
         <v>85</v>
       </c>
+      <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E94" s="1">
         <v>5500</v>
       </c>
@@ -14172,8 +16938,9 @@
       <c r="I94" s="1">
         <v>85</v>
       </c>
+      <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E95" s="1">
         <v>6000</v>
       </c>
@@ -14189,8 +16956,9 @@
       <c r="I95" s="1">
         <v>85</v>
       </c>
+      <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E96" s="1">
         <v>6500</v>
       </c>
@@ -14206,8 +16974,9 @@
       <c r="I96" s="1">
         <v>85</v>
       </c>
+      <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E97" s="1">
         <v>6740</v>
       </c>
@@ -14223,8 +16992,9 @@
       <c r="I97" s="1">
         <v>85</v>
       </c>
+      <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E98" s="1">
         <v>7500</v>
       </c>
@@ -14240,8 +17010,9 @@
       <c r="I98" s="1">
         <v>80.567461317409908</v>
       </c>
+      <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E99" s="1">
         <v>8000</v>
       </c>
@@ -14257,8 +17028,9 @@
       <c r="I99" s="1">
         <v>77.127111904473779</v>
       </c>
+      <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E100" s="1">
         <v>8500</v>
       </c>
@@ -14274,8 +17046,9 @@
       <c r="I100" s="1">
         <v>73.68676249153765</v>
       </c>
+      <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E101" s="1">
         <v>9000</v>
       </c>
@@ -14291,8 +17064,9 @@
       <c r="I101" s="1">
         <v>70.246413078601506</v>
       </c>
+      <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E102" s="1">
         <v>9500</v>
       </c>
@@ -14308,8 +17082,9 @@
       <c r="I102" s="1">
         <v>66.806063665665391</v>
       </c>
+      <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E103" s="1">
         <v>10000</v>
       </c>
@@ -14325,8 +17100,9 @@
       <c r="I103" s="1">
         <v>63.365714252729248</v>
       </c>
+      <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E104" s="1">
         <v>10500</v>
       </c>
@@ -14342,8 +17118,9 @@
       <c r="I104" s="1">
         <v>59.925364839793119</v>
       </c>
+      <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E105" s="1">
         <v>11000</v>
       </c>
@@ -14359,8 +17136,9 @@
       <c r="I105" s="1">
         <v>56.48501542685699</v>
       </c>
+      <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E106" s="1">
         <v>11500</v>
       </c>
@@ -14376,8 +17154,9 @@
       <c r="I106" s="1">
         <v>53.04466601392086</v>
       </c>
+      <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E107" s="1">
         <v>12000</v>
       </c>
@@ -14393,8 +17172,9 @@
       <c r="I107" s="1">
         <v>49.604316600984731</v>
       </c>
+      <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E108" s="1">
         <v>12500</v>
       </c>
@@ -14410,8 +17190,9 @@
       <c r="I108" s="1">
         <v>46.163967188048602</v>
       </c>
+      <c r="J108" s="1"/>
     </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E111" s="9" t="s">
         <v>64</v>
       </c>
@@ -14421,27 +17202,29 @@
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E112" s="10" t="s">
+    <row r="112" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E112" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="10" t="s">
+      <c r="F112" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G112" s="10" t="s">
+      <c r="G112" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H112" s="10" t="s">
+      <c r="H112" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I112" s="10" t="s">
+      <c r="I112" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J112" s="10"/>
-      <c r="K112" s="2"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" s="1">
         <v>0</v>
       </c>
@@ -14457,8 +17240,9 @@
       <c r="I113" s="1">
         <v>162</v>
       </c>
+      <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" s="1">
         <v>500</v>
       </c>
@@ -14474,8 +17258,9 @@
       <c r="I114" s="1">
         <v>162</v>
       </c>
+      <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" s="1">
         <v>1000</v>
       </c>
@@ -14491,8 +17276,9 @@
       <c r="I115" s="1">
         <v>162</v>
       </c>
+      <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" s="1">
         <v>1500</v>
       </c>
@@ -14508,8 +17294,9 @@
       <c r="I116" s="1">
         <v>162</v>
       </c>
+      <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" s="1">
         <v>2000</v>
       </c>
@@ -14525,8 +17312,9 @@
       <c r="I117" s="1">
         <v>162</v>
       </c>
+      <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" s="1">
         <v>2500</v>
       </c>
@@ -14542,8 +17330,9 @@
       <c r="I118" s="1">
         <v>162</v>
       </c>
+      <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" s="1">
         <v>3000</v>
       </c>
@@ -14559,8 +17348,9 @@
       <c r="I119" s="1">
         <v>162</v>
       </c>
+      <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" s="1">
         <v>3590</v>
       </c>
@@ -14576,8 +17366,9 @@
       <c r="I120" s="1">
         <v>162</v>
       </c>
+      <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" s="1">
         <v>4000</v>
       </c>
@@ -14593,8 +17384,9 @@
       <c r="I121" s="1">
         <v>162</v>
       </c>
+      <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" s="1">
         <v>4265</v>
       </c>
@@ -14610,8 +17402,9 @@
       <c r="I122" s="1">
         <v>154.55808321809837</v>
       </c>
+      <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" s="1">
         <v>5000</v>
       </c>
@@ -14627,8 +17420,9 @@
       <c r="I123" s="1">
         <v>141.60094918149667</v>
       </c>
+      <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" s="1">
         <v>5500</v>
       </c>
@@ -14644,8 +17438,9 @@
       <c r="I124" s="1">
         <v>132.78657228584922</v>
       </c>
+      <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" s="1">
         <v>6000</v>
       </c>
@@ -14661,8 +17456,9 @@
       <c r="I125" s="1">
         <v>123.97219539020179</v>
       </c>
+      <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" s="1">
         <v>6500</v>
       </c>
@@ -14678,8 +17474,9 @@
       <c r="I126" s="1">
         <v>115.15781849455435</v>
       </c>
+      <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" s="1">
         <v>7000</v>
       </c>
@@ -14695,8 +17492,9 @@
       <c r="I127" s="1">
         <v>106.34344159890691</v>
       </c>
+      <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" s="1">
         <v>7350</v>
       </c>
@@ -14712,8 +17510,9 @@
       <c r="I128" s="1">
         <v>100.17337777195371</v>
       </c>
+      <c r="J128" s="1"/>
     </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E131" s="9" t="s">
         <v>65</v>
       </c>
@@ -14723,27 +17522,29 @@
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E132" s="10" t="s">
+    <row r="132" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E132" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F132" s="10" t="s">
+      <c r="F132" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G132" s="10" t="s">
+      <c r="G132" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="H132" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I132" s="10" t="s">
+      <c r="I132" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="2"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E133">
         <v>0</v>
       </c>
@@ -14759,8 +17560,9 @@
       <c r="I133" s="1">
         <v>215</v>
       </c>
+      <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E134">
         <v>500</v>
       </c>
@@ -14776,8 +17578,9 @@
       <c r="I134" s="1">
         <v>215</v>
       </c>
+      <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E135">
         <v>1000</v>
       </c>
@@ -14793,8 +17596,9 @@
       <c r="I135" s="1">
         <v>215</v>
       </c>
+      <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E136">
         <v>1500</v>
       </c>
@@ -14810,8 +17614,9 @@
       <c r="I136" s="1">
         <v>215</v>
       </c>
+      <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E137">
         <v>2000</v>
       </c>
@@ -14827,8 +17632,9 @@
       <c r="I137" s="1">
         <v>215</v>
       </c>
+      <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E138">
         <v>2500</v>
       </c>
@@ -14844,8 +17650,9 @@
       <c r="I138" s="1">
         <v>215</v>
       </c>
+      <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E139">
         <v>3000</v>
       </c>
@@ -14861,8 +17668,9 @@
       <c r="I139" s="1">
         <v>215</v>
       </c>
+      <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E140">
         <v>3590</v>
       </c>
@@ -14878,8 +17686,9 @@
       <c r="I140" s="1">
         <v>192.3883307658559</v>
       </c>
+      <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E141">
         <v>4000</v>
       </c>
@@ -14895,8 +17704,9 @@
       <c r="I141" s="1">
         <v>181.09838253948158</v>
       </c>
+      <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E142">
         <v>4265</v>
       </c>
@@ -14912,8 +17722,9 @@
       <c r="I142" s="1">
         <v>173.80122088097136</v>
       </c>
+      <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E143">
         <v>5000</v>
       </c>
@@ -14929,8 +17740,9 @@
       <c r="I143" s="1">
         <v>153.56192345076374</v>
       </c>
+      <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E144">
         <v>5500</v>
       </c>
@@ -14946,8 +17758,9 @@
       <c r="I144" s="1">
         <v>139.79369390640485</v>
       </c>
+      <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E145">
         <v>6000</v>
       </c>
@@ -14963,8 +17776,9 @@
       <c r="I145" s="1">
         <v>126.02546436204594</v>
       </c>
+      <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>6500</v>
       </c>
@@ -14980,8 +17794,9 @@
       <c r="I146" s="1">
         <v>112.25723481768702</v>
       </c>
+      <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E147">
         <v>7000</v>
       </c>
@@ -14997,8 +17812,9 @@
       <c r="I147" s="1">
         <v>98.489005273328104</v>
       </c>
+      <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>7350</v>
       </c>
@@ -15014,17 +17830,18 @@
       <c r="I148" s="1">
         <v>88.851244592276856</v>
       </c>
+      <c r="J148" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E62:K62"/>
-    <mergeCell ref="E81:K81"/>
-    <mergeCell ref="E111:K111"/>
-    <mergeCell ref="E131:K131"/>
+    <mergeCell ref="E62:L62"/>
+    <mergeCell ref="E81:L81"/>
+    <mergeCell ref="E111:L111"/>
+    <mergeCell ref="E131:L131"/>
     <mergeCell ref="D1:D44"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="E46:K46"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="E33:L33"/>
+    <mergeCell ref="E46:L46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15033,18 +17850,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15265,18 +18082,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC82503-BB86-4354-8DC9-9FDA27349C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB52AD-897C-4B49-B3E8-BF4E959CB0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -419,15 +419,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,6 +430,15 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14178,7 +14178,7 @@
   <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14200,7 +14200,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -14265,7 +14265,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
@@ -14491,7 +14491,7 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="B6">
         <v>0.36</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1">
         <v>8</v>
       </c>
@@ -14637,7 +14637,7 @@
       <c r="B7">
         <v>0.01</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1">
         <v>10</v>
       </c>
@@ -14710,7 +14710,7 @@
       <c r="B8">
         <v>0.4</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1">
         <v>12</v>
       </c>
@@ -14786,7 +14786,7 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1">
         <v>14</v>
       </c>
@@ -14859,7 +14859,7 @@
       <c r="B10">
         <v>0.8</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1">
         <v>16</v>
       </c>
@@ -14935,7 +14935,7 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1">
         <v>18</v>
       </c>
@@ -15011,7 +15011,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1">
         <v>22</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1">
         <v>24</v>
       </c>
@@ -15227,7 +15227,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1">
         <v>26</v>
       </c>
@@ -15294,39 +15294,39 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
+      <c r="D16" s="14"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
+      <c r="D17" s="14"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -15357,7 +15357,7 @@
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8">
         <v>0</v>
       </c>
@@ -15377,20 +15377,20 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f>H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="14">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="12">
+      <c r="B23" s="9">
         <v>65000</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="10">
         <f>B23*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="8">
         <v>500</v>
       </c>
@@ -15410,18 +15410,18 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f>H23*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="8">
         <v>1000</v>
       </c>
@@ -15441,19 +15441,19 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f>H24*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12">
+      <c r="B25" s="9">
         <v>1</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <f>B25*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="8">
         <v>1800</v>
       </c>
@@ -15473,18 +15473,18 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f>H25*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="8">
         <v>2000</v>
       </c>
@@ -15501,23 +15501,23 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f>F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="15">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f>H26*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="12">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <f>B27*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="8">
         <v>2500</v>
       </c>
@@ -15534,22 +15534,22 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f>F27*$J$22/$F$22</f>
+        <f t="shared" si="15"/>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f>H27*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8">
         <v>3000</v>
       </c>
@@ -15566,23 +15566,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f>F28*$J$22/$F$22</f>
+        <f t="shared" si="15"/>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f>H28*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>59.428571428571445</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12">
+      <c r="B29" s="9">
         <v>10.4</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <f>B29*2.23694</f>
         <v>23.264176000000003</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="8">
         <v>3500</v>
       </c>
@@ -15599,22 +15599,22 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f>F29*$J$22/$F$22</f>
+        <f t="shared" si="15"/>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f>H29*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>50.938775510204088</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="8">
         <v>4000</v>
       </c>
@@ -15631,23 +15631,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f>F30*$J$22/$F$22</f>
+        <f t="shared" si="15"/>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f>H30*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>44.571428571428577</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>6.4</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <f>B31*0.277778</f>
         <v>1.7777792000000003</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="8">
         <v>4500</v>
       </c>
@@ -15664,22 +15664,22 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f>F31*$J$22/$F$22</f>
+        <f t="shared" si="15"/>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f>H31*$J$22/$F$22</f>
+        <f t="shared" si="14"/>
         <v>39.619047619047628</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -15688,33 +15688,33 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12">
+      <c r="B33" s="9">
         <v>1</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <f>B33*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="6" t="s">
         <v>52</v>
       </c>
@@ -15738,14 +15738,14 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="12">
+      <c r="B35" s="9">
         <v>1</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <f>B35*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="8">
         <v>0</v>
       </c>
@@ -15765,12 +15765,12 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f>H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="16">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="10"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="8">
         <v>500</v>
       </c>
@@ -15787,16 +15787,16 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f>F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="17">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f>H36*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="10"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="8">
         <v>1000</v>
       </c>
@@ -15813,16 +15813,16 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f>F37*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f>H37*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="8">
         <v>1500</v>
       </c>
@@ -15839,16 +15839,16 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f>F38*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f>H38*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="8">
         <v>2000</v>
       </c>
@@ -15865,16 +15865,16 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f>F39*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f>H39*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="8">
         <v>2650</v>
       </c>
@@ -15891,16 +15891,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f>F40*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f>H40*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="8">
         <v>3000</v>
       </c>
@@ -15917,16 +15917,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f>F41*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f>H41*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="8">
         <v>3500</v>
       </c>
@@ -15943,16 +15943,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f>F42*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f>H42*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="8">
         <v>4000</v>
       </c>
@@ -15969,16 +15969,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f>F43*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f>H43*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="8">
         <v>4500</v>
       </c>
@@ -15995,11 +15995,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f>F44*$J$35/$F$35</f>
+        <f t="shared" si="17"/>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f>H44*$J$35/$F$35</f>
+        <f t="shared" si="16"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -16012,16 +16012,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="6" t="s">
@@ -16067,7 +16067,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f>H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="18">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -16088,11 +16088,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f>F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="19">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f>H49*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16113,11 +16113,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f>F50*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f>H50*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16138,11 +16138,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f>F51*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f>H51*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16163,11 +16163,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f>F52*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f>H52*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16188,11 +16188,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f>F53*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f>H53*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16213,11 +16213,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f>F54*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f>H54*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16238,11 +16238,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f>F55*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f>H55*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16263,11 +16263,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f>F56*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f>H56*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -16288,11 +16288,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f>F57*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f>H57*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -16313,11 +16313,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f>F58*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f>H58*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -16338,11 +16338,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f>F59*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f>H59*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -16363,25 +16363,25 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f>F60*$J$48/$F$48</f>
+        <f t="shared" si="19"/>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f>H60*$J$48/$F$48</f>
+        <f t="shared" si="18"/>
         <v>126.40374999999999</v>
       </c>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
     </row>
     <row r="63" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="6" t="s">
@@ -16693,16 +16693,16 @@
       <c r="K79" s="1"/>
     </row>
     <row r="81" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
     </row>
     <row r="82" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="6" t="s">
@@ -17193,16 +17193,16 @@
       <c r="J108" s="1"/>
     </row>
     <row r="111" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
     </row>
     <row r="112" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="6" t="s">
@@ -17513,16 +17513,16 @@
       <c r="J128" s="1"/>
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
     </row>
     <row r="132" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E132" s="6" t="s">
@@ -17850,21 +17850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -18081,24 +18066,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18115,4 +18098,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EB52AD-897C-4B49-B3E8-BF4E959CB0C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597F7E8-DD8C-4AC5-9A8C-6FAB86AD4844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="885" yWindow="435" windowWidth="29700" windowHeight="20415" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Application" sheetId="1" r:id="rId1"/>
+    <sheet name="Gearbox" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>Value</t>
   </si>
@@ -284,6 +285,78 @@
   <si>
     <t>Slope angle (%)</t>
   </si>
+  <si>
+    <t>F03L1-x-19</t>
+  </si>
+  <si>
+    <t>F03T1-x-19</t>
+  </si>
+  <si>
+    <t>F06L1-x-19</t>
+  </si>
+  <si>
+    <t>F06T1-x-19</t>
+  </si>
+  <si>
+    <t>F12L1-x-19</t>
+  </si>
+  <si>
+    <t>F12T</t>
+  </si>
+  <si>
+    <t>F06V1-Z-19-SX</t>
+  </si>
+  <si>
+    <t>F06V1-Z-19-HX</t>
+  </si>
+  <si>
+    <t>Max Input Speed [rpm]</t>
+  </si>
+  <si>
+    <t>Max Input Torque [Nm]</t>
+  </si>
+  <si>
+    <t>Max Output Torque [Nm]</t>
+  </si>
+  <si>
+    <t>Ratios</t>
+  </si>
+  <si>
+    <t>1.0 - 3.94</t>
+  </si>
+  <si>
+    <t>600x2</t>
+  </si>
+  <si>
+    <t>3600x2</t>
+  </si>
+  <si>
+    <t>Ve002</t>
+  </si>
+  <si>
+    <t>PS Gearbox</t>
+  </si>
+  <si>
+    <t>Planetory Gearbox</t>
+  </si>
+  <si>
+    <t>Cont. Torque [Nm]</t>
+  </si>
+  <si>
+    <t>Ve005</t>
+  </si>
+  <si>
+    <t>Ve009</t>
+  </si>
+  <si>
+    <t>Ve01/01S</t>
+  </si>
+  <si>
+    <t>VE07</t>
+  </si>
+  <si>
+    <t>Gear Ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -343,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -395,11 +468,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,6 +577,41 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,6 +619,42 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -617,7 +834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$31</c:f>
+              <c:f>Application!$E$22:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -656,7 +873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$22:$H$31</c:f>
+              <c:f>Application!$H$22:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -768,7 +985,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$E$44</c:f>
+              <c:f>Application!$E$35:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -807,7 +1024,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$35:$H$44</c:f>
+              <c:f>Application!$H$35:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -919,7 +1136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$48:$E$60</c:f>
+              <c:f>Application!$E$48:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -967,7 +1184,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$48:$H$60</c:f>
+              <c:f>Application!$H$48:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1086,7 +1303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1137,7 +1354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1616,7 +1833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$63</c:f>
+              <c:f>Application!$F$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,7 +1904,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$64:$E$79</c:f>
+              <c:f>Application!$E$64:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1744,7 +1961,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$64:$F$79</c:f>
+              <c:f>Application!$F$64:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1811,7 +2028,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$63</c:f>
+              <c:f>Application!$G$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1882,7 +2099,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$64:$E$79</c:f>
+              <c:f>Application!$E$64:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1939,7 +2156,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$64:$G$79</c:f>
+              <c:f>Application!$G$64:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2006,7 +2223,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$63</c:f>
+              <c:f>Application!$H$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2077,7 +2294,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$64:$E$79</c:f>
+              <c:f>Application!$E$64:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2134,7 +2351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$64:$H$79</c:f>
+              <c:f>Application!$H$64:$H$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2201,7 +2418,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$63</c:f>
+              <c:f>Application!$I$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,7 +2489,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$64:$E$79</c:f>
+              <c:f>Application!$E$64:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2329,7 +2546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$64:$I$79</c:f>
+              <c:f>Application!$I$64:$I$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2457,7 +2674,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2508,7 +2725,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2985,7 +3202,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$82</c:f>
+              <c:f>Application!$F$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3056,7 +3273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$83:$E$108</c:f>
+              <c:f>Application!$E$83:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3143,7 +3360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$83:$F$108</c:f>
+              <c:f>Application!$F$83:$F$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3240,7 +3457,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$82</c:f>
+              <c:f>Application!$G$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3311,7 +3528,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$83:$E$108</c:f>
+              <c:f>Application!$E$83:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3398,7 +3615,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$83:$G$108</c:f>
+              <c:f>Application!$G$83:$G$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3495,7 +3712,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$82</c:f>
+              <c:f>Application!$H$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3566,7 +3783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$83:$E$108</c:f>
+              <c:f>Application!$E$83:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3653,7 +3870,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$83:$H$108</c:f>
+              <c:f>Application!$H$83:$H$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3750,7 +3967,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$82</c:f>
+              <c:f>Application!$I$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3821,7 +4038,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$83:$E$108</c:f>
+              <c:f>Application!$E$83:$E$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3908,7 +4125,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$83:$I$108</c:f>
+              <c:f>Application!$I$83:$I$108</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4044,7 +4261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4095,7 +4312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4581,7 +4798,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$112</c:f>
+              <c:f>Application!$F$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4652,7 +4869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$113:$E$128</c:f>
+              <c:f>Application!$E$113:$E$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4709,7 +4926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$113:$F$128</c:f>
+              <c:f>Application!$F$113:$F$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4776,7 +4993,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$112</c:f>
+              <c:f>Application!$G$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4847,7 +5064,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$113:$E$128</c:f>
+              <c:f>Application!$E$113:$E$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4904,7 +5121,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$113:$G$128</c:f>
+              <c:f>Application!$G$113:$G$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4971,7 +5188,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$112</c:f>
+              <c:f>Application!$H$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5042,7 +5259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$113:$E$128</c:f>
+              <c:f>Application!$E$113:$E$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5099,7 +5316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$113:$H$128</c:f>
+              <c:f>Application!$H$113:$H$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5166,7 +5383,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$112</c:f>
+              <c:f>Application!$I$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5237,7 +5454,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$113:$E$128</c:f>
+              <c:f>Application!$E$113:$E$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5294,7 +5511,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$113:$I$128</c:f>
+              <c:f>Application!$I$113:$I$128</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5397,7 +5614,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5448,7 +5665,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -5934,7 +6151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$132</c:f>
+              <c:f>Application!$F$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6005,7 +6222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$133:$E$148</c:f>
+              <c:f>Application!$E$133:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6062,7 +6279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$133:$F$148</c:f>
+              <c:f>Application!$F$133:$F$148</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6129,7 +6346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$132</c:f>
+              <c:f>Application!$G$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6200,7 +6417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$133:$E$148</c:f>
+              <c:f>Application!$E$133:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6257,7 +6474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$133:$G$148</c:f>
+              <c:f>Application!$G$133:$G$148</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6324,7 +6541,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$132</c:f>
+              <c:f>Application!$H$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6395,7 +6612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$133:$E$148</c:f>
+              <c:f>Application!$E$133:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6452,7 +6669,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$133:$H$148</c:f>
+              <c:f>Application!$H$133:$H$148</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6519,7 +6736,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$132</c:f>
+              <c:f>Application!$I$132</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6590,7 +6807,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$133:$E$148</c:f>
+              <c:f>Application!$E$133:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6647,7 +6864,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$133:$I$148</c:f>
+              <c:f>Application!$I$133:$I$148</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6750,7 +6967,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6801,7 +7018,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7256,7 +7473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Application!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7327,7 +7544,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$15</c:f>
+              <c:f>Application!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7378,7 +7595,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$15</c:f>
+              <c:f>Application!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -7897,7 +8114,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$22:$E$31</c:f>
+              <c:f>Application!$E$22:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7936,7 +8153,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$22:$F$31</c:f>
+              <c:f>Application!$F$22:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8048,7 +8265,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$35:$E$44</c:f>
+              <c:f>Application!$E$35:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8087,7 +8304,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$35:$F$44</c:f>
+              <c:f>Application!$F$35:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8199,7 +8416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$48:$E$60</c:f>
+              <c:f>Application!$E$48:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8247,7 +8464,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$48:$F$60</c:f>
+              <c:f>Application!$F$48:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8366,7 +8583,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$15</c:f>
+              <c:f>Application!$U$2:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -8417,7 +8634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$15</c:f>
+              <c:f>Application!$T$2:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -8903,7 +9120,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$15</c:f>
+              <c:f>Application!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -8954,7 +9171,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$15</c:f>
+              <c:f>Application!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -14177,8 +14394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14200,7 +14417,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -14265,7 +14482,7 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -14318,6 +14535,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="1">
+        <f>$B$15</f>
         <v>110</v>
       </c>
       <c r="T2" s="1">
@@ -14339,7 +14557,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
@@ -14394,6 +14612,7 @@
         <v>21.220659078919379</v>
       </c>
       <c r="S3" s="1">
+        <f t="shared" ref="S3:S15" si="9">$B$15</f>
         <v>110</v>
       </c>
       <c r="T3" s="1">
@@ -14401,7 +14620,7 @@
         <v>6.3878356955454549</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U15" si="9">R3*S3</f>
+        <f t="shared" ref="U3:U15" si="10">R3*S3</f>
         <v>2334.2724986811318</v>
       </c>
     </row>
@@ -14415,12 +14634,12 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F15" si="10">F3+$B$12*2</f>
+        <f t="shared" ref="F4:F15" si="11">F3+$B$12*2</f>
         <v>2</v>
       </c>
       <c r="G4" s="1">
@@ -14428,7 +14647,7 @@
         <v>1.78</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H15" si="11">(G4-G3)/(E4-E3)</f>
+        <f t="shared" ref="H4:H15" si="12">(G4-G3)/(E4-E3)</f>
         <v>0.39</v>
       </c>
       <c r="I4" s="1">
@@ -14470,6 +14689,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S4" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T4" s="1">
@@ -14477,7 +14697,7 @@
         <v>5.214271854229855</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14491,12 +14711,12 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G5" s="1">
@@ -14504,11 +14724,11 @@
         <v>1.78</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I15" si="12">$I$2/G5</f>
+        <f t="shared" ref="I5:I15" si="13">$I$2/G5</f>
         <v>23019.330337078653</v>
       </c>
       <c r="J5" s="1">
@@ -14546,6 +14766,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S5" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T5" s="1">
@@ -14553,7 +14774,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14564,12 +14785,12 @@
       <c r="B6">
         <v>0.36</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="G6" s="1">
@@ -14577,11 +14798,11 @@
         <v>1.78</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23019.330337078653</v>
       </c>
       <c r="J6" s="1">
@@ -14619,6 +14840,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S6" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T6" s="1">
@@ -14626,7 +14848,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14637,12 +14859,12 @@
       <c r="B7">
         <v>0.01</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="G7" s="1">
@@ -14650,11 +14872,11 @@
         <v>1.78</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23019.330337078653</v>
       </c>
       <c r="J7" s="1">
@@ -14692,6 +14914,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S7" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T7" s="1">
@@ -14699,7 +14922,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14710,12 +14933,12 @@
       <c r="B8">
         <v>0.4</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="1">
         <v>12</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="G8" s="1">
@@ -14723,11 +14946,11 @@
         <v>1.78</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23019.330337078653</v>
       </c>
       <c r="J8" s="1">
@@ -14765,6 +14988,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S8" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T8" s="1">
@@ -14772,7 +14996,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14786,12 +15010,12 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="1">
         <v>14</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G9" s="1">
@@ -14799,11 +15023,11 @@
         <v>1.78</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23019.330337078653</v>
       </c>
       <c r="J9" s="1">
@@ -14841,6 +15065,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S9" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T9" s="1">
@@ -14848,7 +15073,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14859,12 +15084,12 @@
       <c r="B10">
         <v>0.8</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="1">
         <v>16</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="G10" s="1">
@@ -14872,11 +15097,11 @@
         <v>1.78</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23019.330337078653</v>
       </c>
       <c r="J10" s="1">
@@ -14914,6 +15139,7 @@
         <v>37.772773160476497</v>
       </c>
       <c r="S10" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T10" s="1">
@@ -14921,7 +15147,7 @@
         <v>1.0493377633207637</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4155.0050476524148</v>
       </c>
     </row>
@@ -14935,12 +15161,12 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="1">
         <v>18</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="G11" s="1">
@@ -14950,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40974408</v>
       </c>
       <c r="J11" s="1">
@@ -14990,6 +15216,7 @@
         <v>2.1220659078919377E-2</v>
       </c>
       <c r="S11" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T11" s="1">
@@ -15011,30 +15238,30 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="G12" s="1">
         <v>0.5</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2495</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81948.816000000006</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" ref="K12:K15" si="13">ATAN2(100, J12)</f>
+        <f t="shared" ref="K12:K15" si="14">ATAN2(100, J12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="L12" s="1">
@@ -15066,6 +15293,7 @@
         <v>10.610329539459689</v>
       </c>
       <c r="S12" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T12" s="1">
@@ -15073,7 +15301,7 @@
         <v>8.9426278344070855</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1167.1362493405659</v>
       </c>
     </row>
@@ -15087,30 +15315,30 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="1">
         <v>22</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="G13" s="1">
         <v>0.5</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81948.816000000006</v>
       </c>
       <c r="J13" s="1">
         <v>6</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.9928155121207881E-2</v>
       </c>
       <c r="L13" s="1">
@@ -15142,6 +15370,7 @@
         <v>10.610329539459689</v>
       </c>
       <c r="S13" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T13" s="1">
@@ -15149,7 +15378,7 @@
         <v>7.3204569243368782</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1167.1362493405659</v>
       </c>
     </row>
@@ -15160,30 +15389,30 @@
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="1">
         <v>24</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="G14" s="1">
         <v>0.5</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81948.816000000006</v>
       </c>
       <c r="J14" s="1">
         <v>7</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.9886001634642508E-2</v>
       </c>
       <c r="L14" s="1">
@@ -15215,6 +15444,7 @@
         <v>10.610329539459689</v>
       </c>
       <c r="S14" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T14" s="1">
@@ -15222,35 +15452,41 @@
         <v>8.3608041707835579</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1167.1362493405659</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="14"/>
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="1">
         <v>26</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="G15" s="1">
         <v>0.5</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81948.816000000006</v>
       </c>
       <c r="J15" s="1">
         <v>9</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9758174189950524E-2</v>
       </c>
       <c r="L15" s="1">
@@ -15282,6 +15518,7 @@
         <v>10.610329539459689</v>
       </c>
       <c r="S15" s="1">
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="T15" s="1">
@@ -15289,44 +15526,44 @@
         <v>10.434371575380725</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1167.1362493405659</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
+      <c r="D16" s="27"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="14"/>
+      <c r="D17" s="27"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="14"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -15357,7 +15594,7 @@
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="8">
         <v>0</v>
       </c>
@@ -15377,7 +15614,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="14">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="15">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15390,7 +15627,7 @@
         <f>B23*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="8">
         <v>500</v>
       </c>
@@ -15410,7 +15647,7 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15421,7 +15658,7 @@
       <c r="C24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="8">
         <v>1000</v>
       </c>
@@ -15441,7 +15678,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15453,7 +15690,7 @@
         <f>B25*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="8">
         <v>1800</v>
       </c>
@@ -15473,7 +15710,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15484,7 +15721,7 @@
       <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="8">
         <v>2000</v>
       </c>
@@ -15501,11 +15738,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="15">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="16">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15517,7 +15754,7 @@
         <f>B27*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="8">
         <v>2500</v>
       </c>
@@ -15534,11 +15771,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
+        <f t="shared" si="16"/>
+        <v>149.76</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="15"/>
-        <v>149.76</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="14"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -15549,7 +15786,7 @@
       <c r="C28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="8">
         <v>3000</v>
       </c>
@@ -15566,11 +15803,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="16"/>
+        <v>124.8</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="15"/>
-        <v>124.8</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="14"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -15582,7 +15819,7 @@
         <f>B29*2.23694</f>
         <v>23.264176000000003</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="8">
         <v>3500</v>
       </c>
@@ -15599,11 +15836,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" si="16"/>
+        <v>106.97142857142858</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="15"/>
-        <v>106.97142857142858</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="14"/>
         <v>50.938775510204088</v>
       </c>
     </row>
@@ -15614,7 +15851,7 @@
       <c r="C30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="8">
         <v>4000</v>
       </c>
@@ -15631,11 +15868,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="16"/>
+        <v>93.6</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="15"/>
-        <v>93.6</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="14"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -15647,7 +15884,7 @@
         <f>B31*0.277778</f>
         <v>1.7777792000000003</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="8">
         <v>4500</v>
       </c>
@@ -15664,11 +15901,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="16"/>
+        <v>83.2</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="15"/>
-        <v>83.2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="14"/>
         <v>39.619047619047628</v>
       </c>
     </row>
@@ -15679,7 +15916,7 @@
       <c r="C32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -15695,17 +15932,17 @@
         <f>B33*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
@@ -15714,7 +15951,7 @@
       <c r="C34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="6" t="s">
         <v>52</v>
       </c>
@@ -15745,7 +15982,7 @@
         <f>B35*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="8">
         <v>0</v>
       </c>
@@ -15765,12 +16002,12 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="16">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="17">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="14"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="8">
         <v>500</v>
       </c>
@@ -15787,16 +16024,16 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="17">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="18">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="14"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="8">
         <v>1000</v>
       </c>
@@ -15813,16 +16050,16 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="18"/>
+        <v>384</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="17"/>
-        <v>384</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="14"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="8">
         <v>1500</v>
       </c>
@@ -15839,16 +16076,16 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="18"/>
+        <v>384</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="17"/>
-        <v>384</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="14"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="8">
         <v>2000</v>
       </c>
@@ -15865,16 +16102,16 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="18"/>
+        <v>384</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="17"/>
-        <v>384</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="14"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8">
         <v>2650</v>
       </c>
@@ -15891,16 +16128,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="18"/>
+        <v>289.81132075471697</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="17"/>
-        <v>289.81132075471697</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="16"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="14"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="8">
         <v>3000</v>
       </c>
@@ -15917,16 +16154,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="18"/>
+        <v>256</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="17"/>
-        <v>256</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="16"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="14"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="8">
         <v>3500</v>
       </c>
@@ -15943,16 +16180,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="18"/>
+        <v>219.42857142857147</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="17"/>
-        <v>219.42857142857147</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="16"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="14"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="8">
         <v>4000</v>
       </c>
@@ -15969,16 +16206,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="18"/>
+        <v>192</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="17"/>
-        <v>192</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="16"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="14"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="8">
         <v>4500</v>
       </c>
@@ -15995,11 +16232,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
+        <f t="shared" si="18"/>
+        <v>170.66666666666669</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="17"/>
-        <v>170.66666666666669</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="16"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -16012,16 +16249,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="6" t="s">
@@ -16067,7 +16304,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="18">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="19">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -16088,11 +16325,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="19">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="20">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16113,11 +16350,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="20"/>
+        <v>638</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="19"/>
-        <v>638</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16138,11 +16375,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="20"/>
+        <v>638</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="19"/>
-        <v>638</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16163,11 +16400,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="20"/>
+        <v>638</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="19"/>
-        <v>638</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16188,11 +16425,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="20"/>
+        <v>638</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="19"/>
-        <v>638</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16213,11 +16450,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="20"/>
+        <v>588.92307692307691</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="19"/>
-        <v>588.92307692307691</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16238,11 +16475,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="20"/>
+        <v>483.02839116719241</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="19"/>
-        <v>483.02839116719241</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="18"/>
         <v>239.25</v>
       </c>
     </row>
@@ -16263,11 +16500,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="20"/>
+        <v>382.8</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="19"/>
-        <v>382.8</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="18"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -16288,11 +16525,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="20"/>
+        <v>340.26666666666665</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="19"/>
-        <v>340.26666666666665</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="18"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -16313,11 +16550,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="20"/>
+        <v>306.24</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="19"/>
-        <v>306.24</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="18"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -16338,11 +16575,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="20"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="19"/>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="18"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -16363,25 +16600,25 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="20"/>
+        <v>255.2</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="19"/>
-        <v>255.2</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="18"/>
         <v>126.40374999999999</v>
       </c>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
     </row>
     <row r="63" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="6" t="s">
@@ -16693,16 +16930,16 @@
       <c r="K79" s="1"/>
     </row>
     <row r="81" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
     </row>
     <row r="82" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="6" t="s">
@@ -17193,16 +17430,16 @@
       <c r="J108" s="1"/>
     </row>
     <row r="111" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E111" s="13" t="s">
+      <c r="E111" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
     </row>
     <row r="112" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="6" t="s">
@@ -17513,16 +17750,16 @@
       <c r="J128" s="1"/>
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E131" s="13" t="s">
+      <c r="E131" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="26"/>
     </row>
     <row r="132" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E132" s="6" t="s">
@@ -17849,7 +18086,659 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05C09A9-CE96-4D11-BF33-EA09C13CA751}">
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="32">
+        <v>15000</v>
+      </c>
+      <c r="C2" s="32">
+        <v>300</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1330</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1.35</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="32">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="32">
+        <v>125</v>
+      </c>
+      <c r="J2" s="32">
+        <v>250</v>
+      </c>
+      <c r="K2" s="22">
+        <v>35.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="20">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="23">
+        <v>47.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>250</v>
+      </c>
+      <c r="J4" s="14">
+        <v>500</v>
+      </c>
+      <c r="K4" s="24">
+        <v>52.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I5" s="14">
+        <v>450</v>
+      </c>
+      <c r="J5" s="14">
+        <v>900</v>
+      </c>
+      <c r="K5" s="24">
+        <v>57.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="21">
+        <v>4.43</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1106</v>
+      </c>
+      <c r="I6" s="32">
+        <v>500</v>
+      </c>
+      <c r="J6" s="32">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="22">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="37">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="37">
+        <v>300</v>
+      </c>
+      <c r="D7" s="37">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="25">
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="20">
+        <v>6.04</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="25">
+        <v>45.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="20">
+        <v>7.04</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="23">
+        <v>50.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="20">
+        <v>8.08</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="32">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="32">
+        <v>3500</v>
+      </c>
+      <c r="J10" s="32">
+        <v>7000</v>
+      </c>
+      <c r="K10" s="22">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="20">
+        <v>9.1</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="25">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="20">
+        <v>10.11</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="25">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="20">
+        <v>11.05</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="25">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="20">
+        <v>11.9</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="25">
+        <v>57.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="21">
+        <v>13.35</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="23">
+        <v>64.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="37">
+        <v>12000</v>
+      </c>
+      <c r="C16" s="37">
+        <v>600</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2100</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="20">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="20">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="37">
+        <v>12000</v>
+      </c>
+      <c r="C20" s="37">
+        <v>600</v>
+      </c>
+      <c r="D20" s="37">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="20">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="20">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="20">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="20">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="20">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="20">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="21">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="37">
+        <v>7500</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1200</v>
+      </c>
+      <c r="D28" s="37">
+        <v>4770</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="20">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="21">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37">
+        <v>265</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="19">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="20">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="21">
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="37">
+        <v>12500</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="19">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="37">
+        <v>12500</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="19">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="21">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -18066,22 +18955,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18100,19 +18988,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D597F7E8-DD8C-4AC5-9A8C-6FAB86AD4844}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408B78F6-FB71-4FE3-ACFE-33BBBF09DDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="435" windowWidth="29700" windowHeight="20415" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>Value</t>
   </si>
@@ -223,52 +223,10 @@
     <t>M17C3, 48V, 25DegC, 3 turns, Concentrated, 5m/s air flow, 14.5 Kg, 0.005 kgm^2</t>
   </si>
   <si>
-    <t>M21Px, 25°C Amb, 55°C Coolant, 5m/s air flow, 23 Kg, 0.01 kgm^2</t>
-  </si>
-  <si>
-    <t>M19Px, 25°C Amb, 55°C Coolant, 5m/s air flow, 19.5 Kg, 0.008 kgm^2</t>
-  </si>
-  <si>
     <t>M24Px, 25°C Amb, 55°C Coolant, 5m/s air flow, 23 Kg, 0.01 kgm^2</t>
   </si>
   <si>
     <t>M27Px, 25°C Amb, 55°C Coolant, 5m/s air flow, 23 Kg, 0.01 kgm^2</t>
-  </si>
-  <si>
-    <t>M19-P4-360V [NM]</t>
-  </si>
-  <si>
-    <t>M19-P4-600V [NM]</t>
-  </si>
-  <si>
-    <t>M19-P5-360V [NM]</t>
-  </si>
-  <si>
-    <t>M19-P5-600V [NM]</t>
-  </si>
-  <si>
-    <t>M21-P4-360V [NM]</t>
-  </si>
-  <si>
-    <t>M21-P4-600V [NM]</t>
-  </si>
-  <si>
-    <t>M21-P5-360V [NM]</t>
-  </si>
-  <si>
-    <t>M21-P5-600V [NM]</t>
-  </si>
-  <si>
-    <t>M24-P4-360V [NM]</t>
-  </si>
-  <si>
-    <t>M24-P4-600V [NM]</t>
-  </si>
-  <si>
-    <t>M24-P5-360V [NM]</t>
-  </si>
-  <si>
-    <t>M24-P5-600V [NM]</t>
   </si>
   <si>
     <t>M27-P4-360V [NM]</t>
@@ -356,6 +314,93 @@
   </si>
   <si>
     <t>Gear Ratio</t>
+  </si>
+  <si>
+    <t>Axle Ratio</t>
+  </si>
+  <si>
+    <t>Kmph</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>M19-P4-360V Ct</t>
+  </si>
+  <si>
+    <t>M19-P5-360V Ct</t>
+  </si>
+  <si>
+    <t>M19-P4-600V Ct</t>
+  </si>
+  <si>
+    <t>M19-P5-600V Ct</t>
+  </si>
+  <si>
+    <t>M19-P4-360V Pk</t>
+  </si>
+  <si>
+    <t>M19-P4-600V Pk</t>
+  </si>
+  <si>
+    <t>M19-P5-360V Pk</t>
+  </si>
+  <si>
+    <t>M19-P5-600V Pk</t>
+  </si>
+  <si>
+    <t>M19Px, 25°C Amb, 55°C Coolant, 19.5 Kg, 0.008 kgm^2</t>
+  </si>
+  <si>
+    <t>M21Px, 25°C Amb, 55°C Coolant, 23 Kg, 0.01 kgm^2</t>
+  </si>
+  <si>
+    <t>M24-P5-600V Ct</t>
+  </si>
+  <si>
+    <t>M24-P4-360V Pk</t>
+  </si>
+  <si>
+    <t>M24-P4-600V Pk</t>
+  </si>
+  <si>
+    <t>M24-P5-360V Pk</t>
+  </si>
+  <si>
+    <t>M24-P5-600V Pk</t>
+  </si>
+  <si>
+    <t>M24-P4-360V Ct</t>
+  </si>
+  <si>
+    <t>M24-P4-600V Ct</t>
+  </si>
+  <si>
+    <t>M24-P5-360V Ct</t>
+  </si>
+  <si>
+    <t>M21-P4-360V Ct</t>
+  </si>
+  <si>
+    <t>M21-P4-600V Ct</t>
+  </si>
+  <si>
+    <t>M21-P5-360V Ct</t>
+  </si>
+  <si>
+    <t>M21-P5-600V Ct</t>
+  </si>
+  <si>
+    <t>M21-P4-360V Pk</t>
+  </si>
+  <si>
+    <t>M21-P4-600V Pk</t>
+  </si>
+  <si>
+    <t>M21-P5-360V Pk</t>
+  </si>
+  <si>
+    <t>M21-P5-600V Pk</t>
   </si>
 </sst>
 </file>
@@ -545,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -553,12 +598,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,12 +609,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -621,13 +654,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,23 +681,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,43 +1377,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,46 +1425,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1837,7 +1903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M19-P4-360V [NM]</c:v>
+                  <c:v>M19-P4-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2032,7 +2098,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M19-P4-600V [NM]</c:v>
+                  <c:v>M19-P4-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2227,7 +2293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M19-P5-360V [NM]</c:v>
+                  <c:v>M19-P5-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2422,7 +2488,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M19-P5-600V [NM]</c:v>
+                  <c:v>M19-P5-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2682,43 +2748,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,46 +2796,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,6 +2844,807 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-48AC-4E6C-BA1D-895B9BB39BD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M19-P4-360V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$64:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$J$64:$J$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114.72202294971503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>106.62849758056161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.58173489598491</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>95.864108839587573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.34792147310138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.254396103947968</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.160870734794557</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.06734536564116</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.973819996487748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC26-4D4A-A3BC-F6E3CE28E2F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$K$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M19-P4-600V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$64:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$K$64:$K$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>124.19735663996107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>115.80717414761034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107.41699165525962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.026809162908904</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>90.636626670558172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC26-4D4A-A3BC-F6E3CE28E2F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$L$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M19-P5-360V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$64:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$L$64:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.64203082384611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.4805680900495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.31910535625289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.157642622456279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.076911255557974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81.302897186506783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.673254421066432</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59.51179168726982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.350328953473209</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.188866219676584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.027403485879972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DC26-4D4A-A3BC-F6E3CE28E2F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$M$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M19-P5-600V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$64:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9330</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$M$64:$M$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.38859188537734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.44131236645103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.46305116571979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.092834877856774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.722618589993758</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.352402302130741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.982186014267725</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DC26-4D4A-A3BC-F6E3CE28E2F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3206,7 +4073,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M21-P4-360V [NM]</c:v>
+                  <c:v>M21-P4-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3461,7 +4328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M21-P4-600V [NM]</c:v>
+                  <c:v>M21-P4-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3716,7 +4583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M21-P5-360V [NM]</c:v>
+                  <c:v>M21-P5-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3971,7 +4838,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M21-P5-600V [NM]</c:v>
+                  <c:v>M21-P5-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4269,43 +5136,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,46 +5184,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4802,7 +5669,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M24-P4-360V [NM]</c:v>
+                  <c:v>M24-P4-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4997,7 +5864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M24-P4-600V [NM]</c:v>
+                  <c:v>M24-P4-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5192,7 +6059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M24-P5-360V [NM]</c:v>
+                  <c:v>M24-P5-360V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5387,7 +6254,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M24-P5-600V [NM]</c:v>
+                  <c:v>M24-P5-600V Ct</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5622,43 +6489,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,46 +6537,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6975,43 +7842,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,46 +7890,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7603,28 +8470,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>14.879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78</c:v>
+                  <c:v>19.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1E-3</c:v>
@@ -8591,43 +9458,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1553.7075293394614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3107.4150586789228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>4661.1225880183829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6214.8301173578457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>7001.0813066001938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,46 +9506,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0476411136363637</c:v>
+                  <c:v>1.6276880761633012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3878356955454549</c:v>
+                  <c:v>276.66083299860986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.214271854229855</c:v>
+                  <c:v>278.79055749378108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>282.34009831906639</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>287.30945547446601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>154.86283008784213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0493377633207637</c:v>
+                  <c:v>16.041998583598552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.946857217142977</c:v>
+                  <c:v>264.76065268615702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9426278344070855</c:v>
+                  <c:v>83.419692073714415</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3204569243368782</c:v>
+                  <c:v>66.622625150522595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3608041707835579</c:v>
+                  <c:v>77.404287898108777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.434371575380725</c:v>
+                  <c:v>98.896492859048436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9152,7 +10019,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -9179,28 +10046,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>14.879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78</c:v>
+                  <c:v>19.84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.78</c:v>
+                  <c:v>22.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1E-3</c:v>
@@ -14394,8 +15261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
   <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P121" sqref="P121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14417,7 +15284,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -14436,7 +15303,7 @@
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>25</v>
@@ -14477,12 +15344,12 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10442</v>
+        <v>7257</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -14493,12 +15360,12 @@
         <f>IF(F2&gt;$B$13,$B$13,F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <f>$B$2*$B$3*$B$8</f>
-        <v>40974.408000000003</v>
+        <v>28476.468000000001</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -14512,7 +15379,7 @@
       </c>
       <c r="M2" s="1">
         <f>$B$2*$B$3*$B$7*COS(K2)</f>
-        <v>1024.3602000000001</v>
+        <v>106.786755</v>
       </c>
       <c r="N2" s="1">
         <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
@@ -14524,23 +15391,23 @@
       </c>
       <c r="P2" s="1">
         <f>SUM(L2,M2,N2,O2)</f>
-        <v>1024.3602000000001</v>
+        <v>106.786755</v>
       </c>
       <c r="Q2" s="1">
         <f>P2*$B$9</f>
-        <v>460.96209000000005</v>
+        <v>42.714702000000003</v>
       </c>
       <c r="R2" s="1">
         <f>G2*60/2/PI()/$B$9</f>
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <f>$B$15</f>
-        <v>110</v>
+        <f>$B$15*$B$16</f>
+        <v>13.12128</v>
       </c>
       <c r="T2" s="1">
-        <f t="shared" ref="T2:T15" si="0">Q2/$S$2/$B$14</f>
-        <v>1.0476411136363637</v>
+        <f>Q2/S2/$B$14</f>
+        <v>1.6276880761633012</v>
       </c>
       <c r="U2" s="1">
         <f>R2*S2</f>
@@ -14557,25 +15424,25 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1">
         <f>F2+$B$12*2</f>
-        <v>1</v>
+        <v>4.96</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="1">IF(F3&gt;$B$13,$B$13,F3)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
+        <f t="shared" ref="G3:G10" si="0">IF(F3&gt;$B$13,$B$13,F3)</f>
+        <v>4.96</v>
+      </c>
+      <c r="H3" s="5">
         <f>(G3-G2)/(E3-E2)</f>
-        <v>0.5</v>
+        <v>2.48</v>
       </c>
       <c r="I3" s="1">
         <f>$I$2/G3</f>
-        <v>40974.408000000003</v>
+        <v>5741.2233870967748</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -14584,44 +15451,44 @@
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L15" si="2">$B$2*$B$3*SIN(K3)</f>
+        <f t="shared" ref="L3:L15" si="1">$B$2*$B$3*SIN(K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M15" si="3">$B$2*$B$3*$B$7*COS(K3)</f>
-        <v>1024.3602000000001</v>
+        <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*$B$7*COS(K3)</f>
+        <v>106.786755</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N15" si="4">0.5*$B$5*$B$6*$B$4*G3^2</f>
-        <v>0.52359119999999992</v>
+        <f t="shared" ref="N3:N15" si="3">0.5*$B$5*$B$6*$B$4*G3^2</f>
+        <v>46.574519040000006</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O15" si="5">$B$2*H3</f>
-        <v>5221</v>
+        <f t="shared" ref="O3:O15" si="4">$B$2*H3</f>
+        <v>17997.36</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P15" si="6">SUM(L3,M3,N3,O3)</f>
-        <v>6245.8837911999999</v>
+        <f t="shared" ref="P3:P15" si="5">SUM(L3,M3,N3,O3)</f>
+        <v>18150.721274039999</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q15" si="7">P3*$B$9</f>
-        <v>2810.6477060400002</v>
+        <f t="shared" ref="Q3:Q15" si="6">P3*$B$9</f>
+        <v>7260.2885096159998</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R15" si="8">G3*60/2/PI()/$B$9</f>
-        <v>21.220659078919379</v>
+        <f t="shared" ref="R3:R15" si="7">G3*60/2/PI()/$B$9</f>
+        <v>118.41127766037013</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S15" si="9">$B$15</f>
-        <v>110</v>
+        <f t="shared" ref="S3:S15" si="8">$B$15*$B$16</f>
+        <v>13.12128</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3878356955454549</v>
+        <f t="shared" ref="T3:T15" si="9">Q3/S3/$B$14</f>
+        <v>276.66083299860986</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" ref="U3:U15" si="10">R3*S3</f>
-        <v>2334.2724986811318</v>
+        <v>1553.7075293394614</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -14629,30 +15496,30 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>2.42</v>
+        <v>4.2</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F15" si="11">F3+$B$12*2</f>
-        <v>2</v>
+        <v>9.92</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>9.92</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H15" si="12">(G4-G3)/(E4-E3)</f>
-        <v>0.39</v>
+        <v>2.48</v>
       </c>
       <c r="I4" s="1">
         <f>$I$2/G4</f>
-        <v>23019.330337078653</v>
+        <v>2870.6116935483874</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -14661,44 +15528,44 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+        <v>106.786755</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N4" s="1">
+        <v>186.29807616000002</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O4" s="1">
+        <v>17997.36</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="5"/>
-        <v>4072.38</v>
-      </c>
-      <c r="P4" s="1">
+        <v>18290.444831159999</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="6"/>
-        <v>5098.3991463580805</v>
-      </c>
-      <c r="Q4" s="1">
+        <v>7316.1779324640002</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="7"/>
-        <v>2294.2796158611363</v>
-      </c>
-      <c r="R4" s="1">
+        <v>236.82255532074026</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S4" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T4" s="1">
-        <f t="shared" si="0"/>
-        <v>5.214271854229855</v>
+        <v>278.79055749378108</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>3107.4150586789228</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -14711,25 +15578,25 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="1">
         <v>6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>14.879999999999999</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>14.879999999999999</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4799999999999995</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I15" si="13">$I$2/G5</f>
-        <v>23019.330337078653</v>
+        <v>1913.7411290322582</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -14738,44 +15605,44 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
+        <v>106.786755</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N5" s="1">
+        <v>419.17067135999997</v>
+      </c>
+      <c r="O5" s="1">
         <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O5" s="1">
+        <v>17997.359999999997</v>
+      </c>
+      <c r="P5" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+        <v>18523.317426359998</v>
+      </c>
+      <c r="Q5" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q5" s="1">
+        <v>7409.3269705439998</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R5" s="1">
+        <v>355.23383298111031</v>
+      </c>
+      <c r="S5" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S5" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T5" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>282.34009831906639</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>4661.1225880183829</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -14783,27 +15650,27 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
-      </c>
-      <c r="D6" s="27"/>
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="23"/>
       <c r="E6" s="1">
         <v>8</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>19.84</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>19.84</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.4800000000000004</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="13"/>
-        <v>23019.330337078653</v>
+        <v>1435.3058467741937</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -14812,44 +15679,44 @@
         <v>0</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+        <v>106.786755</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N6" s="1">
+        <v>745.19230464000009</v>
+      </c>
+      <c r="O6" s="1">
         <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O6" s="1">
+        <v>17997.360000000004</v>
+      </c>
+      <c r="P6" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+        <v>18849.339059640006</v>
+      </c>
+      <c r="Q6" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q6" s="1">
+        <v>7539.7356238560023</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R6" s="1">
+        <v>473.64511064148053</v>
+      </c>
+      <c r="S6" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S6" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T6" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>287.30945547446601</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>6214.8301173578457</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -14857,27 +15724,27 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="27"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="D7" s="23"/>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>24.8</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>22.35</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.2550000000000008</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="13"/>
-        <v>23019.330337078653</v>
+        <v>1274.1148993288591</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -14886,44 +15753,44 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+        <v>106.786755</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N7" s="1">
+        <v>945.67102087500007</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O7" s="1">
+        <v>9107.5350000000053</v>
+      </c>
+      <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
+        <v>10159.992775875005</v>
+      </c>
+      <c r="Q7" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q7" s="1">
+        <v>4063.9971103500025</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R7" s="1">
+        <v>533.56694671557909</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S7" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T7" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>154.86283008784213</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>7001.0813066001938</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -14933,25 +15800,25 @@
       <c r="B8">
         <v>0.4</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="1">
         <v>12</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>29.76</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>22.35</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="13"/>
-        <v>23019.330337078653</v>
+        <v>1274.1148993288591</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -14960,44 +15827,44 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="2"/>
+        <v>106.786755</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>945.67102087500007</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
+        <v>1052.4577758750002</v>
+      </c>
+      <c r="Q8" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q8" s="1">
+        <v>420.98311035000006</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R8" s="1">
+        <v>533.56694671557909</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S8" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T8" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>16.041998583598552</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>7001.0813066001938</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -15005,30 +15872,30 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1">
         <v>14</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>34.72</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>22.35</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="13"/>
-        <v>23019.330337078653</v>
+        <v>1274.1148993288591</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -15037,44 +15904,44 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="2"/>
+        <v>106.786755</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>945.67102087500007</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
+        <v>1052.4577758750002</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q9" s="1">
+        <v>420.98311035000006</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R9" s="1">
+        <v>533.56694671557909</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S9" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>16.041998583598552</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>7001.0813066001938</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -15082,27 +15949,27 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="27"/>
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="1">
         <v>16</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>39.68</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.78</v>
-      </c>
-      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>22.35</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="13"/>
-        <v>23019.330337078653</v>
+        <v>1274.1148993288591</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -15111,44 +15978,44 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="2"/>
+        <v>106.786755</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>945.67102087500007</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>1024.3602000000001</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
+        <v>1052.4577758750002</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="6"/>
-        <v>1026.01914635808</v>
-      </c>
-      <c r="Q10" s="1">
+        <v>420.98311035000006</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="7"/>
-        <v>461.70861586113602</v>
-      </c>
-      <c r="R10" s="1">
+        <v>533.56694671557909</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="8"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S10" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T10" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0493377633207637</v>
+        <v>16.041998583598552</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>7001.0813066001938</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -15156,76 +16023,76 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="1">
         <v>18</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>44.64</v>
       </c>
       <c r="G11" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="13"/>
-        <v>40974408</v>
+        <v>28476468</v>
       </c>
       <c r="J11" s="1">
         <f>B11</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1">
         <f>ATAN2(100, J11)</f>
-        <v>0.42285392613294071</v>
+        <v>0.24497866312686414</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>17266.394913017837</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="2"/>
-        <v>42036.124294146292</v>
-      </c>
-      <c r="M11" s="1">
+        <v>103.59836947810702</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>934.13609542547306</v>
-      </c>
-      <c r="N11" s="1">
+        <v>1.89315E-6</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="4"/>
-        <v>5.235911999999999E-7</v>
-      </c>
-      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
+        <v>17369.993284389093</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="6"/>
-        <v>42970.260390095355</v>
-      </c>
-      <c r="Q11" s="1">
+        <v>6947.9973137556372</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="7"/>
-        <v>19336.61717554291</v>
-      </c>
-      <c r="R11" s="1">
+        <v>2.3873241463784299E-2</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="8"/>
-        <v>2.1220659078919377E-2</v>
-      </c>
-      <c r="S11" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T11" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="0"/>
-        <v>43.946857217142977</v>
+        <v>264.76065268615702</v>
       </c>
       <c r="U11" s="1">
         <f>R11*S11</f>
-        <v>2.3342724986811314</v>
+        <v>0.31324748575392364</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -15233,29 +16100,29 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>2.48</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1">
         <v>20</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>49.6</v>
       </c>
       <c r="G12" s="1">
         <v>0.5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <f t="shared" si="12"/>
         <v>0.2495</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="13"/>
-        <v>81948.816000000006</v>
+        <v>56952.936000000002</v>
       </c>
       <c r="J12" s="1">
         <v>5</v>
@@ -15265,44 +16132,44 @@
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>3555.1173772475126</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="2"/>
-        <v>5115.4107280168846</v>
-      </c>
-      <c r="M12" s="1">
+        <v>106.65352131742537</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>1023.0821456033768</v>
-      </c>
-      <c r="N12" s="1">
+        <v>0.47328750000000003</v>
+      </c>
+      <c r="O12" s="1">
         <f t="shared" si="4"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O12" s="1">
+        <v>1810.6215</v>
+      </c>
+      <c r="P12" s="1">
         <f t="shared" si="5"/>
-        <v>2605.279</v>
-      </c>
-      <c r="P12" s="1">
+        <v>5472.865686064938</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="6"/>
-        <v>8743.9027714202621</v>
-      </c>
-      <c r="Q12" s="1">
+        <v>2189.1462744259752</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="7"/>
-        <v>3934.7562471391179</v>
-      </c>
-      <c r="R12" s="1">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="8"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S12" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T12" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="0"/>
-        <v>8.9426278344070855</v>
+        <v>83.419692073714415</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -15310,29 +16177,29 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>1.78</v>
+        <v>22.35</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="1">
         <v>22</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>54.56</v>
       </c>
       <c r="G13" s="1">
         <v>0.5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="13"/>
-        <v>81948.816000000006</v>
+        <v>56952.936000000002</v>
       </c>
       <c r="J13" s="1">
         <v>6</v>
@@ -15342,44 +16209,44 @@
         <v>5.9928155121207881E-2</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>4263.8022509026787</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="2"/>
-        <v>6135.1278908537652</v>
-      </c>
-      <c r="M13" s="1">
+        <v>106.59505627256696</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>1022.5213151422943</v>
-      </c>
-      <c r="N13" s="1">
+        <v>0.47328750000000003</v>
+      </c>
+      <c r="O13" s="1">
         <f t="shared" si="4"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
+        <v>4370.8705946752452</v>
+      </c>
+      <c r="Q13" s="1">
         <f t="shared" si="6"/>
-        <v>7157.7801037960589</v>
-      </c>
-      <c r="Q13" s="1">
+        <v>1748.3482378700983</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="7"/>
-        <v>3221.0010467082266</v>
-      </c>
-      <c r="R13" s="1">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="8"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S13" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T13" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="0"/>
-        <v>7.3204569243368782</v>
+        <v>66.622625150522595</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -15387,26 +16254,26 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="1">
         <v>24</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>59.52</v>
       </c>
       <c r="G14" s="1">
         <v>0.5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="13"/>
-        <v>81948.816000000006</v>
+        <v>56952.936000000002</v>
       </c>
       <c r="J14" s="1">
         <v>7</v>
@@ -15416,71 +16283,71 @@
         <v>6.9886001634642508E-2</v>
       </c>
       <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>4971.2173010362776</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>7153.0179216509323</v>
-      </c>
-      <c r="M14" s="1">
+        <v>106.52608502220595</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>1021.8597030929902</v>
-      </c>
-      <c r="N14" s="1">
+        <v>0.47328750000000003</v>
+      </c>
+      <c r="O14" s="1">
         <f t="shared" si="4"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
+        <v>5078.2166735584833</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="6"/>
-        <v>8175.0085225439225</v>
-      </c>
-      <c r="Q14" s="1">
+        <v>2031.2866694233935</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="7"/>
-        <v>3678.7538351447652</v>
-      </c>
-      <c r="R14" s="1">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="8"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S14" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T14" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="0"/>
-        <v>8.3608041707835579</v>
+        <v>77.404287898108777</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>110</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>2.88</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="1">
         <v>26</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>64.48</v>
       </c>
       <c r="G15" s="1">
         <v>0.5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="13"/>
-        <v>81948.816000000006</v>
+        <v>56952.936000000002</v>
       </c>
       <c r="J15" s="1">
         <v>9</v>
@@ -15490,80 +16357,87 @@
         <v>8.9758174189950524E-2</v>
       </c>
       <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>6381.4127032208617</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="2"/>
-        <v>9182.1291783150391</v>
-      </c>
-      <c r="M15" s="1">
+        <v>106.35687838701435</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="3"/>
-        <v>1020.2365753683376</v>
-      </c>
-      <c r="N15" s="1">
+        <v>0.47328750000000003</v>
+      </c>
+      <c r="O15" s="1">
         <f t="shared" si="4"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
+        <v>6488.2428691078758</v>
+      </c>
+      <c r="Q15" s="1">
         <f t="shared" si="6"/>
-        <v>10202.496651483376</v>
-      </c>
-      <c r="Q15" s="1">
+        <v>2595.2971476431503</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="7"/>
-        <v>4591.123493167519</v>
-      </c>
-      <c r="R15" s="1">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="8"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S15" s="1">
+        <v>13.12128</v>
+      </c>
+      <c r="T15" s="1">
         <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="0"/>
-        <v>10.434371575380725</v>
+        <v>98.896492859048436</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="27"/>
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>4.556</v>
+      </c>
+      <c r="D16" s="23"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="27"/>
+      <c r="D17" s="23"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="27"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="27"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
@@ -15588,14 +16462,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="8">
+      <c r="D22" s="23"/>
+      <c r="E22" s="6">
         <v>0</v>
       </c>
       <c r="F22" s="1">
@@ -15620,15 +16494,15 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>65000</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f>B23*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="8">
+      <c r="D23" s="23"/>
+      <c r="E23" s="6">
         <v>500</v>
       </c>
       <c r="F23" s="1">
@@ -15652,14 +16526,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="8">
+      <c r="D24" s="23"/>
+      <c r="E24" s="6">
         <v>1000</v>
       </c>
       <c r="F24" s="1">
@@ -15683,15 +16557,15 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <f>B25*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="8">
+      <c r="D25" s="23"/>
+      <c r="E25" s="6">
         <v>1800</v>
       </c>
       <c r="F25" s="1">
@@ -15715,14 +16589,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="8">
+      <c r="D26" s="23"/>
+      <c r="E26" s="6">
         <v>2000</v>
       </c>
       <c r="F26" s="1">
@@ -15747,15 +16621,15 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f>B27*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="8">
+      <c r="D27" s="23"/>
+      <c r="E27" s="6">
         <v>2500</v>
       </c>
       <c r="F27" s="1">
@@ -15780,14 +16654,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="8">
+      <c r="D28" s="23"/>
+      <c r="E28" s="6">
         <v>3000</v>
       </c>
       <c r="F28" s="1">
@@ -15812,15 +16686,15 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="C29" s="10">
-        <f>B29*2.23694</f>
-        <v>23.264176000000003</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="8">
+      <c r="B29" s="7">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8">
+        <f>B29/2.23694</f>
+        <v>22.351962949386213</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="6">
         <v>3500</v>
       </c>
       <c r="F29" s="1">
@@ -15845,14 +16719,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="8">
+      <c r="D30" s="23"/>
+      <c r="E30" s="6">
         <v>4000</v>
       </c>
       <c r="F30" s="1">
@@ -15877,15 +16751,15 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="7">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8">
         <f>B31*0.277778</f>
-        <v>1.7777792000000003</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="8">
+        <v>27.777800000000003</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="6">
         <v>4500</v>
       </c>
       <c r="F31" s="1">
@@ -15910,13 +16784,13 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="27"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -15925,46 +16799,46 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>1</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <f>B33*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -15975,15 +16849,15 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <f>B35*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="8">
+      <c r="D35" s="23"/>
+      <c r="E35" s="6">
         <v>0</v>
       </c>
       <c r="F35" s="1">
@@ -16007,8 +16881,12 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="27"/>
-      <c r="E36" s="8">
+      <c r="B36" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="6">
         <v>500</v>
       </c>
       <c r="F36" s="1">
@@ -16033,8 +16911,14 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D37" s="27"/>
-      <c r="E37" s="8">
+      <c r="B37" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="44">
+        <v>100</v>
+      </c>
+      <c r="D37" s="23"/>
+      <c r="E37" s="6">
         <v>1000</v>
       </c>
       <c r="F37" s="1">
@@ -16059,8 +16943,14 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D38" s="27"/>
-      <c r="E38" s="8">
+      <c r="B38" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="44">
+        <v>11.2</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="6">
         <v>1500</v>
       </c>
       <c r="F38" s="1">
@@ -16084,9 +16974,16 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D39" s="27"/>
-      <c r="E39" s="8">
+    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="46">
+        <f>1000*C37/3600/C38</f>
+        <v>2.4801587301587302</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="6">
         <v>2000</v>
       </c>
       <c r="F39" s="1">
@@ -16111,8 +17008,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="27"/>
-      <c r="E40" s="8">
+      <c r="D40" s="23"/>
+      <c r="E40" s="6">
         <v>2650</v>
       </c>
       <c r="F40" s="1">
@@ -16137,8 +17034,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="27"/>
-      <c r="E41" s="8">
+      <c r="D41" s="23"/>
+      <c r="E41" s="6">
         <v>3000</v>
       </c>
       <c r="F41" s="1">
@@ -16163,8 +17060,8 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="27"/>
-      <c r="E42" s="8">
+      <c r="D42" s="23"/>
+      <c r="E42" s="6">
         <v>3500</v>
       </c>
       <c r="F42" s="1">
@@ -16189,8 +17086,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="27"/>
-      <c r="E43" s="8">
+      <c r="D43" s="23"/>
+      <c r="E43" s="6">
         <v>4000</v>
       </c>
       <c r="F43" s="1">
@@ -16215,8 +17112,8 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="27"/>
-      <c r="E44" s="8">
+      <c r="D44" s="23"/>
+      <c r="E44" s="6">
         <v>4500</v>
       </c>
       <c r="F44" s="1">
@@ -16249,31 +17146,31 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="4" t="s">
         <v>56</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -16284,7 +17181,7 @@
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E48" s="8">
+      <c r="E48" s="6">
         <v>0</v>
       </c>
       <c r="F48" s="1">
@@ -16308,8 +17205,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E49" s="8">
+    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E49" s="6">
         <v>500</v>
       </c>
       <c r="F49" s="1">
@@ -16333,8 +17230,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E50" s="8">
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E50" s="6">
         <v>1000</v>
       </c>
       <c r="F50" s="1">
@@ -16358,8 +17255,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E51" s="8">
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E51" s="6">
         <v>1500</v>
       </c>
       <c r="F51" s="1">
@@ -16383,8 +17280,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E52" s="8">
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E52" s="6">
         <v>2000</v>
       </c>
       <c r="F52" s="1">
@@ -16408,8 +17305,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E53" s="8">
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E53" s="6">
         <v>2400</v>
       </c>
       <c r="F53" s="1">
@@ -16433,8 +17330,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E54" s="8">
+    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="6">
         <v>2600</v>
       </c>
       <c r="F54" s="1">
@@ -16458,8 +17355,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="8">
+    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E55" s="6">
         <v>3170</v>
       </c>
       <c r="F55" s="1">
@@ -16483,8 +17380,8 @@
         <v>239.25</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E56" s="8">
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E56" s="6">
         <v>4000</v>
       </c>
       <c r="F56" s="1">
@@ -16508,8 +17405,8 @@
         <v>189.60562499999997</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E57" s="8">
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E57" s="6">
         <v>4500</v>
       </c>
       <c r="F57" s="1">
@@ -16533,8 +17430,8 @@
         <v>168.53833333333333</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E58" s="8">
+    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E58" s="6">
         <v>5000</v>
       </c>
       <c r="F58" s="1">
@@ -16558,8 +17455,8 @@
         <v>151.68450000000001</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E59" s="8">
+    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E59" s="6">
         <v>5500</v>
       </c>
       <c r="F59" s="1">
@@ -16583,8 +17480,8 @@
         <v>137.89499999999998</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E60" s="8">
+    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E60" s="6">
         <v>6000</v>
       </c>
       <c r="F60" s="1">
@@ -16608,39 +17505,49 @@
         <v>126.40374999999999</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E62" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
     </row>
-    <row r="63" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E63" s="6" t="s">
+    <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="2"/>
+      <c r="F63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E64" s="1">
         <v>0</v>
       </c>
@@ -16656,9 +17563,20 @@
       <c r="I64" s="1">
         <v>45</v>
       </c>
-      <c r="J64" s="1"/>
+      <c r="J64" s="1">
+        <v>130</v>
+      </c>
+      <c r="K64">
+        <v>130</v>
+      </c>
+      <c r="L64">
+        <v>132</v>
+      </c>
+      <c r="M64">
+        <v>132</v>
+      </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E65" s="1">
         <v>1000</v>
       </c>
@@ -16674,9 +17592,20 @@
       <c r="I65" s="1">
         <v>45</v>
       </c>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1">
+        <v>130</v>
+      </c>
+      <c r="K65">
+        <v>130</v>
+      </c>
+      <c r="L65">
+        <v>132</v>
+      </c>
+      <c r="M65">
+        <v>132</v>
+      </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E66" s="1">
         <v>2000</v>
       </c>
@@ -16692,9 +17621,20 @@
       <c r="I66" s="1">
         <v>45</v>
       </c>
-      <c r="J66" s="1"/>
+      <c r="J66" s="1">
+        <v>130</v>
+      </c>
+      <c r="K66">
+        <v>130</v>
+      </c>
+      <c r="L66">
+        <v>132</v>
+      </c>
+      <c r="M66">
+        <v>132</v>
+      </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E67" s="1">
         <v>3000</v>
       </c>
@@ -16710,9 +17650,20 @@
       <c r="I67" s="1">
         <v>45</v>
       </c>
-      <c r="J67" s="1"/>
+      <c r="J67" s="1">
+        <v>130</v>
+      </c>
+      <c r="K67">
+        <v>130</v>
+      </c>
+      <c r="L67">
+        <v>132</v>
+      </c>
+      <c r="M67">
+        <v>132</v>
+      </c>
     </row>
-    <row r="68" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E68" s="1">
         <v>4000</v>
       </c>
@@ -16728,9 +17679,20 @@
       <c r="I68" s="1">
         <v>45</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="1">
+        <v>130</v>
+      </c>
+      <c r="K68">
+        <v>130</v>
+      </c>
+      <c r="L68">
+        <v>132</v>
+      </c>
+      <c r="M68">
+        <v>132</v>
+      </c>
     </row>
-    <row r="69" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E69" s="1">
         <v>5000</v>
       </c>
@@ -16746,9 +17708,20 @@
       <c r="I69" s="1">
         <v>45</v>
       </c>
-      <c r="J69" s="1"/>
+      <c r="J69" s="1">
+        <v>130</v>
+      </c>
+      <c r="K69">
+        <v>130</v>
+      </c>
+      <c r="L69">
+        <v>116.64203082384611</v>
+      </c>
+      <c r="M69">
+        <v>132</v>
+      </c>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="1">
         <v>6000</v>
       </c>
@@ -16764,9 +17737,20 @@
       <c r="I70" s="1">
         <v>45</v>
       </c>
-      <c r="J70" s="1"/>
+      <c r="J70" s="1">
+        <v>130</v>
+      </c>
+      <c r="K70">
+        <v>130</v>
+      </c>
+      <c r="L70">
+        <v>108.4805680900495</v>
+      </c>
+      <c r="M70">
+        <v>132</v>
+      </c>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="1">
         <v>7000</v>
       </c>
@@ -16782,9 +17766,20 @@
       <c r="I71" s="1">
         <v>45</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1">
+        <v>114.72202294971503</v>
+      </c>
+      <c r="K71">
+        <v>130</v>
+      </c>
+      <c r="L71">
+        <v>100.31910535625289</v>
+      </c>
+      <c r="M71">
+        <v>132</v>
+      </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="1">
         <v>8000</v>
       </c>
@@ -16800,9 +17795,20 @@
       <c r="I72" s="1">
         <v>45</v>
       </c>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1">
+        <v>106.62849758056161</v>
+      </c>
+      <c r="K72">
+        <v>130</v>
+      </c>
+      <c r="L72">
+        <v>92.157642622456279</v>
+      </c>
+      <c r="M72">
+        <v>132</v>
+      </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="1">
         <v>8500</v>
       </c>
@@ -16818,9 +17824,20 @@
       <c r="I73" s="1">
         <v>45</v>
       </c>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1">
+        <v>102.58173489598491</v>
+      </c>
+      <c r="K73">
+        <v>130</v>
+      </c>
+      <c r="L73">
+        <v>88.076911255557974</v>
+      </c>
+      <c r="M73">
+        <v>124.38859188537734</v>
+      </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E74" s="1">
         <v>9330</v>
       </c>
@@ -16836,9 +17853,20 @@
       <c r="I74" s="1">
         <v>45</v>
       </c>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1">
+        <v>95.864108839587573</v>
+      </c>
+      <c r="K74">
+        <v>130</v>
+      </c>
+      <c r="L74">
+        <v>81.302897186506783</v>
+      </c>
+      <c r="M74">
+        <v>117.44131236645103</v>
+      </c>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="1">
         <v>11000</v>
       </c>
@@ -16854,9 +17882,20 @@
       <c r="I75" s="1">
         <v>38.168181818181822</v>
       </c>
-      <c r="J75" s="1"/>
+      <c r="J75" s="1">
+        <v>82.34792147310138</v>
+      </c>
+      <c r="K75">
+        <v>124.19735663996107</v>
+      </c>
+      <c r="L75">
+        <v>67.673254421066432</v>
+      </c>
+      <c r="M75">
+        <v>103.46305116571979</v>
+      </c>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E76" s="1">
         <v>12000</v>
       </c>
@@ -16872,9 +17911,20 @@
       <c r="I76" s="1">
         <v>34.987500000000004</v>
       </c>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1">
+        <v>74.254396103947968</v>
+      </c>
+      <c r="K76">
+        <v>115.80717414761034</v>
+      </c>
+      <c r="L76">
+        <v>59.51179168726982</v>
+      </c>
+      <c r="M76">
+        <v>95.092834877856774</v>
+      </c>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E77" s="1">
         <v>13000</v>
       </c>
@@ -16890,9 +17940,20 @@
       <c r="I77" s="1">
         <v>32.29615384615385</v>
       </c>
-      <c r="J77" s="1"/>
+      <c r="J77" s="1">
+        <v>66.160870734794557</v>
+      </c>
+      <c r="K77">
+        <v>107.41699165525962</v>
+      </c>
+      <c r="L77">
+        <v>51.350328953473209</v>
+      </c>
+      <c r="M77">
+        <v>86.722618589993758</v>
+      </c>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E78" s="1">
         <v>14000</v>
       </c>
@@ -16908,9 +17969,20 @@
       <c r="I78" s="1">
         <v>29.989285714285717</v>
       </c>
-      <c r="J78" s="1"/>
+      <c r="J78" s="1">
+        <v>58.06734536564116</v>
+      </c>
+      <c r="K78">
+        <v>99.026809162908904</v>
+      </c>
+      <c r="L78">
+        <v>43.188866219676584</v>
+      </c>
+      <c r="M78">
+        <v>78.352402302130741</v>
+      </c>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E79" s="1">
         <v>15000</v>
       </c>
@@ -16926,42 +17998,61 @@
       <c r="I79" s="1">
         <v>27.990000000000006</v>
       </c>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="J79" s="1">
+        <v>49.973819996487748</v>
+      </c>
+      <c r="K79" s="1">
+        <v>90.636626670558172</v>
+      </c>
+      <c r="L79">
+        <v>35.027403485879972</v>
+      </c>
+      <c r="M79">
+        <v>69.982186014267725</v>
+      </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E81" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E81" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E82" s="6" t="s">
+    <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="2"/>
+      <c r="F82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="1">
         <v>0</v>
       </c>
@@ -16979,7 +18070,7 @@
       </c>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="1">
         <v>500</v>
       </c>
@@ -16997,7 +18088,7 @@
       </c>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="1">
         <v>1000</v>
       </c>
@@ -17015,7 +18106,7 @@
       </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E86" s="1">
         <v>1500</v>
       </c>
@@ -17033,7 +18124,7 @@
       </c>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E87" s="1">
         <v>2000</v>
       </c>
@@ -17051,7 +18142,7 @@
       </c>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E88" s="1">
         <v>2500</v>
       </c>
@@ -17069,7 +18160,7 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E89" s="1">
         <v>3000</v>
       </c>
@@ -17087,7 +18178,7 @@
       </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E90" s="1">
         <v>3500</v>
       </c>
@@ -17105,7 +18196,7 @@
       </c>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E91" s="1">
         <v>4000</v>
       </c>
@@ -17123,7 +18214,7 @@
       </c>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E92" s="1">
         <v>4500</v>
       </c>
@@ -17141,7 +18232,7 @@
       </c>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E93" s="1">
         <v>5000</v>
       </c>
@@ -17159,7 +18250,7 @@
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E94" s="1">
         <v>5500</v>
       </c>
@@ -17177,7 +18268,7 @@
       </c>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E95" s="1">
         <v>6000</v>
       </c>
@@ -17195,7 +18286,7 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E96" s="1">
         <v>6500</v>
       </c>
@@ -17213,7 +18304,7 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E97" s="1">
         <v>6740</v>
       </c>
@@ -17231,7 +18322,7 @@
       </c>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E98" s="1">
         <v>7500</v>
       </c>
@@ -17249,7 +18340,7 @@
       </c>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E99" s="1">
         <v>8000</v>
       </c>
@@ -17267,7 +18358,7 @@
       </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E100" s="1">
         <v>8500</v>
       </c>
@@ -17285,7 +18376,7 @@
       </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E101" s="1">
         <v>9000</v>
       </c>
@@ -17303,7 +18394,7 @@
       </c>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E102" s="1">
         <v>9500</v>
       </c>
@@ -17321,7 +18412,7 @@
       </c>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E103" s="1">
         <v>10000</v>
       </c>
@@ -17339,7 +18430,7 @@
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E104" s="1">
         <v>10500</v>
       </c>
@@ -17357,7 +18448,7 @@
       </c>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E105" s="1">
         <v>11000</v>
       </c>
@@ -17375,7 +18466,7 @@
       </c>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E106" s="1">
         <v>11500</v>
       </c>
@@ -17393,7 +18484,7 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E107" s="1">
         <v>12000</v>
       </c>
@@ -17411,7 +18502,7 @@
       </c>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E108" s="1">
         <v>12500</v>
       </c>
@@ -17429,39 +18520,48 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E111" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
+    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E111" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
     </row>
-    <row r="112" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E112" s="6" t="s">
+    <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E112" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="2"/>
+      <c r="F112" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E113" s="1">
         <v>0</v>
       </c>
@@ -17477,9 +18577,14 @@
       <c r="I113" s="1">
         <v>162</v>
       </c>
-      <c r="J113" s="1"/>
+      <c r="J113" s="1">
+        <v>368</v>
+      </c>
+      <c r="K113">
+        <v>368</v>
+      </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E114" s="1">
         <v>500</v>
       </c>
@@ -17495,9 +18600,14 @@
       <c r="I114" s="1">
         <v>162</v>
       </c>
-      <c r="J114" s="1"/>
+      <c r="J114" s="1">
+        <v>368</v>
+      </c>
+      <c r="K114">
+        <v>368</v>
+      </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E115" s="1">
         <v>1000</v>
       </c>
@@ -17513,9 +18623,14 @@
       <c r="I115" s="1">
         <v>162</v>
       </c>
-      <c r="J115" s="1"/>
+      <c r="J115" s="1">
+        <v>368</v>
+      </c>
+      <c r="K115">
+        <v>368</v>
+      </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E116" s="1">
         <v>1500</v>
       </c>
@@ -17531,9 +18646,14 @@
       <c r="I116" s="1">
         <v>162</v>
       </c>
-      <c r="J116" s="1"/>
+      <c r="J116" s="1">
+        <v>368</v>
+      </c>
+      <c r="K116">
+        <v>368</v>
+      </c>
     </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E117" s="1">
         <v>2000</v>
       </c>
@@ -17549,9 +18669,14 @@
       <c r="I117" s="1">
         <v>162</v>
       </c>
-      <c r="J117" s="1"/>
+      <c r="J117" s="1">
+        <v>368</v>
+      </c>
+      <c r="K117">
+        <v>368</v>
+      </c>
     </row>
-    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E118" s="1">
         <v>2500</v>
       </c>
@@ -17567,9 +18692,14 @@
       <c r="I118" s="1">
         <v>162</v>
       </c>
-      <c r="J118" s="1"/>
+      <c r="J118" s="1">
+        <v>368</v>
+      </c>
+      <c r="K118">
+        <v>368</v>
+      </c>
     </row>
-    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E119" s="1">
         <v>3000</v>
       </c>
@@ -17585,9 +18715,14 @@
       <c r="I119" s="1">
         <v>162</v>
       </c>
-      <c r="J119" s="1"/>
+      <c r="J119" s="1">
+        <v>319.40671090013922</v>
+      </c>
+      <c r="K119">
+        <v>368</v>
+      </c>
     </row>
-    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E120" s="1">
         <v>3590</v>
       </c>
@@ -17603,9 +18738,14 @@
       <c r="I120" s="1">
         <v>162</v>
       </c>
-      <c r="J120" s="1"/>
+      <c r="J120" s="1">
+        <v>297.46113606154358</v>
+      </c>
+      <c r="K120">
+        <v>368</v>
+      </c>
     </row>
-    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E121" s="1">
         <v>4000</v>
       </c>
@@ -17621,9 +18761,14 @@
       <c r="I121" s="1">
         <v>162</v>
       </c>
-      <c r="J121" s="1"/>
+      <c r="J121" s="1">
+        <v>282.21082134319744</v>
+      </c>
+      <c r="K121">
+        <v>368</v>
+      </c>
     </row>
-    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E122" s="1">
         <v>4265</v>
       </c>
@@ -17639,9 +18784,14 @@
       <c r="I122" s="1">
         <v>154.55808321809837</v>
       </c>
-      <c r="J122" s="1"/>
+      <c r="J122" s="1">
+        <v>272.35391061060784</v>
+      </c>
+      <c r="K122">
+        <v>368</v>
+      </c>
     </row>
-    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E123" s="1">
         <v>5000</v>
       </c>
@@ -17657,9 +18807,14 @@
       <c r="I123" s="1">
         <v>141.60094918149667</v>
       </c>
-      <c r="J123" s="1"/>
+      <c r="J123" s="1">
+        <v>245.01493178625566</v>
+      </c>
+      <c r="K123">
+        <v>368</v>
+      </c>
     </row>
-    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E124" s="1">
         <v>5500</v>
       </c>
@@ -17675,9 +18830,14 @@
       <c r="I124" s="1">
         <v>132.78657228584922</v>
       </c>
-      <c r="J124" s="1"/>
+      <c r="J124" s="1">
+        <v>226.41698700778477</v>
+      </c>
+      <c r="K124">
+        <v>341.12545630406316</v>
+      </c>
     </row>
-    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E125" s="1">
         <v>6000</v>
       </c>
@@ -17693,9 +18853,14 @@
       <c r="I125" s="1">
         <v>123.97219539020179</v>
       </c>
-      <c r="J125" s="1"/>
+      <c r="J125" s="1">
+        <v>207.81904222931391</v>
+      </c>
+      <c r="K125">
+        <v>321.1607532589764</v>
+      </c>
     </row>
-    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E126" s="1">
         <v>6500</v>
       </c>
@@ -17711,9 +18876,14 @@
       <c r="I126" s="1">
         <v>115.15781849455435</v>
       </c>
-      <c r="J126" s="1"/>
+      <c r="J126" s="1">
+        <v>189.22109745084302</v>
+      </c>
+      <c r="K126">
+        <v>301.19605021388963</v>
+      </c>
     </row>
-    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E127" s="1">
         <v>7000</v>
       </c>
@@ -17729,9 +18899,14 @@
       <c r="I127" s="1">
         <v>106.34344159890691</v>
       </c>
-      <c r="J127" s="1"/>
+      <c r="J127" s="1">
+        <v>170.62315267237216</v>
+      </c>
+      <c r="K127">
+        <v>281.23134716880287</v>
+      </c>
     </row>
-    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E128" s="1">
         <v>7350</v>
       </c>
@@ -17747,38 +18922,43 @@
       <c r="I128" s="1">
         <v>100.17337777195371</v>
       </c>
-      <c r="J128" s="1"/>
+      <c r="J128" s="1">
+        <v>157.60459132744251</v>
+      </c>
+      <c r="K128">
+        <v>267.25605503724216</v>
+      </c>
     </row>
     <row r="131" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E131" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="26"/>
+      <c r="E131" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="22"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
     </row>
     <row r="132" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
+      <c r="F132" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
       <c r="L132" s="2"/>
     </row>
     <row r="133" spans="5:12" x14ac:dyDescent="0.25">
@@ -18070,11 +19250,12 @@
       <c r="J148" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E62:L62"/>
+  <mergeCells count="9">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E131:L131"/>
+    <mergeCell ref="E111:L111"/>
     <mergeCell ref="E81:L81"/>
-    <mergeCell ref="E111:L111"/>
-    <mergeCell ref="E131:L131"/>
+    <mergeCell ref="E62:M62"/>
     <mergeCell ref="D1:D44"/>
     <mergeCell ref="E20:L20"/>
     <mergeCell ref="E33:L33"/>
@@ -18091,7 +19272,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18106,596 +19287,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>94</v>
+      <c r="K1" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="32">
+      <c r="A2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="31">
         <v>15000</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>300</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>1330</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="15">
         <v>1.35</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="32">
+      <c r="G2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="31">
         <v>4000</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <v>125</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="31">
         <v>250</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="18">
         <v>35.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="20">
+      <c r="A3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="16">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="23">
+      <c r="G3" s="36"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="19">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="20">
+      <c r="A4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="16">
         <v>3.5</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="G4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="10">
         <v>5000</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>250</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <v>500</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="20">
         <v>52.31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="20">
+      <c r="A5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="10">
         <v>5000</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>450</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="10">
         <v>900</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="20">
         <v>57.11</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="21">
+      <c r="A6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="17">
         <v>4.43</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="32">
+      <c r="G6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="31">
         <v>1106</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>500</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <v>1000</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="18">
         <v>21.26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="37">
+      <c r="A7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="28">
         <v>15000</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="28">
         <v>300</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="28">
         <v>4000</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>5.2</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="25">
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="21">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="20">
+      <c r="A8" s="26"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="16">
         <v>6.04</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="25">
+      <c r="G8" s="35"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="21">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="20">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="16">
         <v>7.04</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="23">
+      <c r="G9" s="36"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="19">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="20">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16">
         <v>8.08</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="31">
         <v>5000</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>3500</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <v>7000</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="18">
         <v>18.78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="20">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="16">
         <v>9.1</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="25">
+      <c r="G11" s="35"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="21">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="20">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="16">
         <v>10.11</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="25">
+      <c r="G12" s="35"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="21">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="20">
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="16">
         <v>11.05</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="25">
+      <c r="G13" s="35"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="21">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="20">
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="16">
         <v>11.9</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="25">
+      <c r="G14" s="35"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="21">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="21">
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="17">
         <v>13.35</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="23">
+      <c r="G15" s="36"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="19">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="37">
+      <c r="A16" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="28">
         <v>12000</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="28">
         <v>600</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="28">
         <v>2100</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="20">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="16">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="20">
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="16">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="21">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="17">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="37">
+      <c r="A20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="28">
         <v>12000</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="28">
         <v>600</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="28">
         <v>6500</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <v>5.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="20">
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="16">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="20">
+      <c r="A22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="16">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="20">
+      <c r="A23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="16">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="20">
+      <c r="A24" s="26"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="16">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="20">
+      <c r="A25" s="26"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="16">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="20">
+      <c r="A26" s="26"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="16">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="21">
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="17">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="37">
+      <c r="A28" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="28">
         <v>7500</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="28">
         <v>1200</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="28">
         <v>4770</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>95</v>
+      <c r="E28" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="20">
+      <c r="A29" s="26"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="20">
+      <c r="A30" s="26"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="20">
+      <c r="A31" s="26"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="16">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="21">
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="17">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37">
+      <c r="A33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28">
         <v>265</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="19">
+      <c r="D33" s="28"/>
+      <c r="E33" s="15">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="20">
+      <c r="A34" s="26"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="16">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="21">
+      <c r="A35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="17">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="37">
+      <c r="A36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="28">
         <v>12500</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="19">
+      <c r="C36" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="15">
         <v>5.67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="21">
+      <c r="A37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="37">
+      <c r="A38" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="28">
         <v>12500</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="C38" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="15">
         <v>5.67</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="21">
+      <c r="A39" s="27"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="17">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -18712,17 +19887,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -18730,12 +19911,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18956,15 +20134,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18989,10 +20171,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/JLG/60FT_Boom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{0D9695E0-4620-4509-9A87-EB14C5946FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3BD2B62E-7697-4D2E-9A98-1D3D452C6CFB}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{0D9695E0-4620-4509-9A87-EB14C5946FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF16564D-DEB0-41E3-A321-36BD19C1BDC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="2790" yWindow="240" windowWidth="32820" windowHeight="20415" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -2786,7 +2786,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Acc+Application!$U$2:$U$10</c:v>
+            <c:v>Acc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -16519,7 +16519,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95D0F4A2-D7A5-4DAF-9BFA-7435D72E787A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16530,16 +16530,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442911</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17087,7 +17087,7 @@
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG49" sqref="AG49"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/JLG/60FT_Boom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{0D9695E0-4620-4509-9A87-EB14C5946FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF16564D-DEB0-41E3-A321-36BD19C1BDC6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BF4B0-4091-4A8C-AA68-3EF03FD5BC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="240" windowWidth="32820" windowHeight="20415" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
   <si>
     <t>Value</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Kg/m^2</t>
-  </si>
-  <si>
-    <t>Road load coefficient</t>
   </si>
   <si>
     <t>Coefficient of adhesion/friction</t>
@@ -416,6 +413,15 @@
   <si>
     <t>M27-P5-600V Pk</t>
   </si>
+  <si>
+    <t>Road load coefficient/Coef. Of RR</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
 </sst>
 </file>
 
@@ -449,24 +455,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -622,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -635,12 +629,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -676,52 +664,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,38 +718,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -976,28 +1036,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>12.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.78</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1E-3</c:v>
@@ -1461,7 +1521,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1488,28 +1548,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.78</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78</c:v>
+                  <c:v>12.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.78</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.78</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1E-3</c:v>
@@ -2831,28 +2891,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1315.6394401664795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>2631.278880332959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3946.9183204994392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>5262.5577606659181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6578.1972008323974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,31 +2924,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0456345227272728</c:v>
+                  <c:v>5.425626920544337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3756018319090915</c:v>
+                  <c:v>121.69271122695348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2042879905934907</c:v>
+                  <c:v>122.05920778094821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>122.67003537093946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>123.52519399692711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>124.62468365891129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>42.023044413959589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2946,7 +3006,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +3018,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.862683960646891</c:v>
+                  <c:v>206.54029330268992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,16 +3076,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,16 +3097,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9254999011344225</c:v>
+                  <c:v>46.313999325500376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3064360029586233</c:v>
+                  <c:v>37.912940943158432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3447906287455709</c:v>
+                  <c:v>43.300793666352043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.414386442834029</c:v>
+                  <c:v>54.039588646338551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5066,8 +5126,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg1">
@@ -5101,28 +5161,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1315.6394401664795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>2631.278880332959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3946.9183204994392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>5262.5577606659181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6578.1972008323974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,31 +5194,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0456345227272728</c:v>
+                  <c:v>5.425626920544337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3756018319090915</c:v>
+                  <c:v>121.69271122695348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2042879905934907</c:v>
+                  <c:v>122.05920778094821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>122.67003537093946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>123.52519399692711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>124.62468365891129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>42.023044413959589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5190,8 +5250,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -5220,7 +5280,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,7 +5292,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.862683960646891</c:v>
+                  <c:v>206.54029330268992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5264,8 +5324,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -5290,16 +5350,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5311,16 +5371,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9254999011344225</c:v>
+                  <c:v>46.313999325500376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3064360029586233</c:v>
+                  <c:v>37.912940943158432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3447906287455709</c:v>
+                  <c:v>43.300793666352043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.414386442834029</c:v>
+                  <c:v>54.039588646338551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7826,8 +7886,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2"/>
@@ -7859,28 +7919,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1315.6394401664795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>2631.278880332959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3946.9183204994392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>5262.5577606659181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6578.1972008323974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7892,31 +7952,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0456345227272728</c:v>
+                  <c:v>5.425626920544337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3756018319090915</c:v>
+                  <c:v>121.69271122695348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2042879905934907</c:v>
+                  <c:v>122.05920778094821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>122.67003537093946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>123.52519399692711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>124.62468365891129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>42.023044413959589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7948,8 +8008,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -7978,7 +8038,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7990,7 +8050,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.862683960646891</c:v>
+                  <c:v>206.54029330268992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8022,8 +8082,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -8048,16 +8108,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8069,16 +8129,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9254999011344225</c:v>
+                  <c:v>46.313999325500376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3064360029586233</c:v>
+                  <c:v>37.912940943158432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3447906287455709</c:v>
+                  <c:v>43.300793666352043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.414386442834029</c:v>
+                  <c:v>54.039588646338551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10142,8 +10202,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="bg2"/>
@@ -10175,28 +10235,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1315.6394401664795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>2631.278880332959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3946.9183204994392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>5262.5577606659181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6578.1972008323974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10208,31 +10268,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0456345227272728</c:v>
+                  <c:v>5.425626920544337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3756018319090915</c:v>
+                  <c:v>121.69271122695348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2042879905934907</c:v>
+                  <c:v>122.05920778094821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>122.67003537093946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>123.52519399692711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>124.62468365891129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>42.023044413959589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,8 +10324,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -10290,7 +10350,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10302,7 +10362,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.862683960646891</c:v>
+                  <c:v>206.54029330268992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10334,8 +10394,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -10360,16 +10420,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10381,16 +10441,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9254999011344225</c:v>
+                  <c:v>46.313999325500376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3064360029586233</c:v>
+                  <c:v>37.912940943158432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3447906287455709</c:v>
+                  <c:v>43.300793666352043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.414386442834029</c:v>
+                  <c:v>54.039588646338551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10903,7 +10963,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000000-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11098,7 +11158,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000001-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11293,7 +11353,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000002-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11488,7 +11548,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000003-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11511,7 +11571,6 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -11684,7 +11743,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000004-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11707,7 +11766,6 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -11880,7 +11938,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000005-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11905,7 +11963,6 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -12083,7 +12140,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000006-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12108,7 +12165,6 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -12286,7 +12342,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000007-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12310,11 +12366,11 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:ln w="9525" cap="rnd">
                 <a:noFill/>
@@ -12339,28 +12395,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2334.2724986811318</c:v>
+                  <c:v>1315.6394401664795</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>2631.278880332959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>3946.9183204994392</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>5262.5577606659181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6578.1972008323974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4155.0050476524148</c:v>
+                  <c:v>6954.0941837371056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12372,31 +12428,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.0456345227272728</c:v>
+                  <c:v>5.425626920544337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3756018319090915</c:v>
+                  <c:v>121.69271122695348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2042879905934907</c:v>
+                  <c:v>122.05920778094821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>122.67003537093946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>123.52519399692711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>124.62468365891129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>42.023044413959589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0473311724116727</c:v>
+                  <c:v>8.8387819029850743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12404,7 +12460,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000008-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12428,8 +12484,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -12454,7 +12510,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3342724986811314</c:v>
+                  <c:v>0.31324748575392364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12466,7 +12522,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.862683960646891</c:v>
+                  <c:v>206.54029330268992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12474,7 +12530,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{00000009-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12498,8 +12554,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
@@ -12524,16 +12580,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1167.1362493405659</c:v>
+                  <c:v>156.62374287696184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12545,16 +12601,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9254999011344225</c:v>
+                  <c:v>46.313999325500376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3064360029586233</c:v>
+                  <c:v>37.912940943158432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3447906287455709</c:v>
+                  <c:v>43.300793666352043</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.414386442834029</c:v>
+                  <c:v>54.039588646338551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12562,7 +12618,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-37B1-4F88-90E4-CF04EDA431AF}"/>
+              <c16:uniqueId val="{0000000A-8B2B-4505-9B15-CE0688BC716A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12574,14 +12630,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="947303128"/>
-        <c:axId val="947305752"/>
+        <c:axId val="911859352"/>
+        <c:axId val="911860664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="947303128"/>
+        <c:axId val="911859352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12633,12 +12688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947305752"/>
+        <c:crossAx val="911860664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="947305752"/>
+        <c:axId val="911860664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12692,7 +12747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947303128"/>
+        <c:crossAx val="911859352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16519,7 +16574,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95D0F4A2-D7A5-4DAF-9BFA-7435D72E787A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="170" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16566,16 +16621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>280988</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16609,7 +16664,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6286500"/>
+    <xdr:ext cx="8662883" cy="6292062"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -16751,22 +16806,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
+      <xdr:colOff>209548</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C04C96-5ACD-4C26-A332-86668DEB8CAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B462229B-233E-452A-B05F-19403926FB8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16785,6 +16840,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A1:C20" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CCDE3EDB-E054-413C-AFDE-56A29684A6C8}" name="Input Parameters"/>
+    <tableColumn id="2" xr3:uid="{FC7363B9-A23E-4AAE-9BB9-63CBCC8A657B}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{57D0556C-CEC2-492E-8A9C-6508482DEA6B}" name="Unit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98FDFAA6-6389-47BD-9831-E178C8BD82DB}" name="Table5" displayName="Table5" ref="B22:C40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B22:C40" xr:uid="{04793704-1FFF-4B61-A846-74179FE748ED}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{98CC5645-18D7-42BB-BD7B-D49FC4CDC906}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2D7F94C4-4A51-49FB-B113-8DBB0ABFFE7A}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17087,1213 +17165,1235 @@
   <dimension ref="A1:U150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="10" width="12" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>51</v>
+      <c r="D1" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>10422</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="41">
+        <v>7257</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="30">
+      <c r="D2" s="27"/>
+      <c r="E2" s="20">
         <v>0</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="20">
         <v>0</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="20">
         <f>IF(F2&gt;$B$13,$B$13,F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="21">
         <v>0</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="20">
         <f>$B$2*$B$3*$B$8</f>
-        <v>40895.928000000007</v>
-      </c>
-      <c r="J2" s="30">
+        <v>28476.468000000001</v>
+      </c>
+      <c r="J2" s="20">
         <v>0</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="20">
         <v>0</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="20">
         <f>$B$2*$B$3*SIN(K2)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="20">
         <f>$B$2*$B$3*$B$7*COS(K2)</f>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N2" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="N2" s="20">
         <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="20">
         <f>$B$2*H2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="20">
         <f>SUM(L2,M2,N2,O2)</f>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="Q2" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="Q2" s="20">
         <f>P2*$B$9</f>
-        <v>460.07919000000004</v>
-      </c>
-      <c r="R2" s="30">
+        <v>284.76468</v>
+      </c>
+      <c r="R2" s="20">
         <f>G2*60/2/PI()/$B$9</f>
         <v>0</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="20">
         <f>$B$15*$B$16</f>
-        <v>110</v>
-      </c>
-      <c r="T2" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T2" s="20">
         <f>Q2/S2/$B$14</f>
-        <v>1.0456345227272728</v>
-      </c>
-      <c r="U2" s="30">
+        <v>5.425626920544337</v>
+      </c>
+      <c r="U2" s="20">
         <f>R2*S2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="41">
         <v>9.81</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="30">
+      <c r="D3" s="27"/>
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="20">
         <f>F2+$B$12*2</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="30">
+        <v>4.2</v>
+      </c>
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G10" si="0">IF(F3&gt;$B$13,$B$13,F3)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="H3" s="21">
         <f>(G3-G2)/(E3-E2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="I3" s="20">
         <f>$I$2/G3</f>
-        <v>40895.928000000007</v>
-      </c>
-      <c r="J3" s="30">
+        <v>6780.1114285714284</v>
+      </c>
+      <c r="J3" s="20">
         <v>0</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="20">
         <v>0</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="20">
         <f t="shared" ref="L3:L15" si="1">$B$2*$B$3*SIN(K3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="20">
         <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*$B$7*COS(K3)</f>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N3" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="N3" s="20">
         <f t="shared" ref="N3:N15" si="3">0.5*$B$5*$B$6*$B$4*G3^2</f>
-        <v>0.52359119999999992</v>
-      </c>
-      <c r="O3" s="30">
+        <v>16.029679680000001</v>
+      </c>
+      <c r="O3" s="20">
         <f t="shared" ref="O3:O15" si="4">$B$2*H3</f>
-        <v>5211</v>
-      </c>
-      <c r="P3" s="30">
+        <v>15239.7</v>
+      </c>
+      <c r="P3" s="20">
         <f t="shared" ref="P3:P15" si="5">SUM(L3,M3,N3,O3)</f>
-        <v>6233.9217912000004</v>
-      </c>
-      <c r="Q3" s="30">
+        <v>15967.641379680001</v>
+      </c>
+      <c r="Q3" s="20">
         <f t="shared" ref="Q3:Q15" si="6">P3*$B$9</f>
-        <v>2805.2648060400002</v>
-      </c>
-      <c r="R3" s="30">
+        <v>6387.0565518720005</v>
+      </c>
+      <c r="R3" s="20">
         <f t="shared" ref="R3:R15" si="7">G3*60/2/PI()/$B$9</f>
-        <v>21.220659078919379</v>
-      </c>
-      <c r="S3" s="30">
+        <v>100.26761414789407</v>
+      </c>
+      <c r="S3" s="20">
         <f t="shared" ref="S3:S15" si="8">$B$15*$B$16</f>
-        <v>110</v>
-      </c>
-      <c r="T3" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T3" s="20">
         <f t="shared" ref="T3:T15" si="9">Q3/S3/$B$14</f>
-        <v>6.3756018319090915</v>
-      </c>
-      <c r="U3" s="30">
+        <v>121.69271122695348</v>
+      </c>
+      <c r="U3" s="20">
         <f t="shared" ref="U3:U15" si="10">R3*S3</f>
-        <v>2334.2724986811318</v>
+        <v>1315.6394401664795</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="41">
+        <v>4.2</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>2.42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="30">
+      <c r="D4" s="27"/>
+      <c r="E4" s="20">
         <v>4</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="20">
         <f t="shared" ref="F4:F15" si="11">F3+$B$12*2</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="30">
+        <v>8.4</v>
+      </c>
+      <c r="G4" s="20">
         <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H4" s="31">
+        <v>8.4</v>
+      </c>
+      <c r="H4" s="21">
         <f t="shared" ref="H4:H15" si="12">(G4-G3)/(E4-E3)</f>
-        <v>0.39</v>
-      </c>
-      <c r="I4" s="30">
+        <v>2.1</v>
+      </c>
+      <c r="I4" s="20">
         <f>$I$2/G4</f>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J4" s="30">
+        <v>3390.0557142857142</v>
+      </c>
+      <c r="J4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="20">
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="20">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N4" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O4" s="30">
+        <v>64.118718720000004</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="4"/>
-        <v>4064.58</v>
-      </c>
-      <c r="P4" s="30">
+        <v>15239.7</v>
+      </c>
+      <c r="P4" s="20">
         <f t="shared" si="5"/>
-        <v>5088.6371463580799</v>
-      </c>
-      <c r="Q4" s="30">
+        <v>16015.730418720001</v>
+      </c>
+      <c r="Q4" s="20">
         <f t="shared" si="6"/>
-        <v>2289.8867158611361</v>
-      </c>
-      <c r="R4" s="30">
+        <v>6406.2921674880008</v>
+      </c>
+      <c r="R4" s="20">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S4" s="30">
+        <v>200.53522829578813</v>
+      </c>
+      <c r="S4" s="20">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T4" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T4" s="20">
         <f t="shared" si="9"/>
-        <v>5.2042879905934907</v>
-      </c>
-      <c r="U4" s="30">
+        <v>122.05920778094821</v>
+      </c>
+      <c r="U4" s="20">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>2631.278880332959</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="41">
         <v>1.202</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="30">
+      <c r="D5" s="27"/>
+      <c r="E5" s="20">
         <v>6</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="20">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="G5" s="30">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="G5" s="20">
         <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H5" s="31">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="12"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" ref="I5:I15" si="13">$I$2/G5</f>
+        <v>2260.0371428571425</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="2"/>
+        <v>711.9117</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="3"/>
+        <v>144.26711712000005</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="4"/>
+        <v>15239.700000000004</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="5"/>
+        <v>16095.878817120005</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="6"/>
+        <v>6438.3515268480023</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="7"/>
+        <v>300.80284244368227</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="9"/>
+        <v>122.67003537093946</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="10"/>
+        <v>3946.9183204994392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="41">
+        <v>0.36</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="20">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="11"/>
+        <v>16.8</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="12"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="13"/>
+        <v>1695.0278571428571</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="2"/>
+        <v>711.9117</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="3"/>
+        <v>256.47487488000002</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="4"/>
+        <v>15239.699999999997</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="5"/>
+        <v>16208.086574879997</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="6"/>
+        <v>6483.2346299519995</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="7"/>
+        <v>401.07045659157626</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="9"/>
+        <v>123.52519399692711</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="10"/>
+        <v>5262.5577606659181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="12"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="13"/>
+        <v>1356.0222857142858</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="2"/>
+        <v>711.9117</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="3"/>
+        <v>400.74199200000004</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="4"/>
+        <v>15239.699999999997</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="5"/>
+        <v>16352.353691999997</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="6"/>
+        <v>6540.9414767999988</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="7"/>
+        <v>501.33807073947031</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="9"/>
+        <v>124.62468365891129</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="10"/>
+        <v>6578.1972008323974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="20">
+        <v>12</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="11"/>
+        <v>25.2</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>22.2</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="12"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="13"/>
+        <v>1282.7237837837838</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="2"/>
+        <v>711.9117</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="3"/>
+        <v>447.84962208000002</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="4"/>
+        <v>4354.1999999999971</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="5"/>
+        <v>5513.9613220799965</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="6"/>
+        <v>2205.5845288319988</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="7"/>
+        <v>529.98596049601144</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="9"/>
+        <v>42.023044413959589</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="10"/>
+        <v>6954.0941837371056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="41">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="20">
+        <v>14</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="11"/>
+        <v>29.4</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>22.2</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I5" s="30">
-        <f t="shared" ref="I5:I15" si="13">$I$2/G5</f>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J5" s="30">
+      <c r="I9" s="20">
+        <f t="shared" si="13"/>
+        <v>1282.7237837837838</v>
+      </c>
+      <c r="J9" s="20">
         <v>0</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K9" s="20">
         <v>0</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L9" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M9" s="20">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N5" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O5" s="30">
+        <v>447.84962208000002</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P9" s="20">
         <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q5" s="30">
+        <v>1159.7613220799999</v>
+      </c>
+      <c r="Q9" s="20">
         <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R5" s="30">
+        <v>463.90452883199998</v>
+      </c>
+      <c r="R9" s="20">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S5" s="30">
+        <v>529.98596049601144</v>
+      </c>
+      <c r="S9" s="20">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T5" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T9" s="20">
         <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U5" s="30">
+        <v>8.8387819029850743</v>
+      </c>
+      <c r="U9" s="20">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>6954.0941837371056</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="41">
+        <v>0.95</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="20">
         <v>16</v>
       </c>
-      <c r="B6">
-        <v>0.36</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="30">
-        <v>8</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="F10" s="20">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="G6" s="30">
+        <v>33.6</v>
+      </c>
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H6" s="31">
+        <v>22.2</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I10" s="20">
         <f t="shared" si="13"/>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J6" s="30">
+        <v>1282.7237837837838</v>
+      </c>
+      <c r="J10" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K10" s="20">
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M10" s="20">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N6" s="30">
+        <v>711.9117</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O6" s="30">
+        <v>447.84962208000002</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P10" s="20">
         <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q6" s="30">
+        <v>1159.7613220799999</v>
+      </c>
+      <c r="Q10" s="20">
         <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R6" s="30">
+        <v>463.90452883199998</v>
+      </c>
+      <c r="R10" s="20">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S6" s="30">
+        <v>529.98596049601144</v>
+      </c>
+      <c r="S10" s="20">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T6" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T10" s="20">
         <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U6" s="30">
+        <v>8.8387819029850743</v>
+      </c>
+      <c r="U10" s="20">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>6954.0941837371056</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="30">
-        <v>10</v>
-      </c>
-      <c r="F7" s="30">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="41">
+        <v>40</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="24">
+        <v>18</v>
+      </c>
+      <c r="F11" s="24">
         <f t="shared" si="11"/>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="13"/>
+        <v>28476468</v>
+      </c>
+      <c r="J11" s="24">
+        <f>B11</f>
+        <v>40</v>
+      </c>
+      <c r="K11" s="24">
+        <f>ATAN2(100, J11)</f>
+        <v>0.3805063771123649</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="1"/>
+        <v>26439.736776739977</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="2"/>
+        <v>660.99341941849946</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="3"/>
+        <v>9.0871199999999999E-7</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <f t="shared" si="5"/>
+        <v>27100.730197067191</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="6"/>
+        <v>10840.292078826877</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="7"/>
+        <v>2.3873241463784299E-2</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="9"/>
+        <v>206.54029330268992</v>
+      </c>
+      <c r="U11" s="24">
+        <f>R11*S11</f>
+        <v>0.31324748575392364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="41">
+        <v>2.1</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="30">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="D12" s="27"/>
+      <c r="E12" s="22">
+        <v>20</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="11"/>
+        <v>42.000000000000007</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="12"/>
+        <v>0.2495</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="13"/>
+        <v>56952.936000000002</v>
+      </c>
+      <c r="J12" s="22">
+        <v>5</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" ref="K12:K15" si="14">ATAN2(100, J12)</f>
+        <v>4.9958395721942765E-2</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="1"/>
+        <v>3555.1173772475126</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="2"/>
+        <v>711.02347544950248</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="3"/>
+        <v>0.22717800000000002</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="4"/>
+        <v>1810.6215</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="5"/>
+        <v>6076.9895306970157</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="6"/>
+        <v>2430.7958122788064</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="7"/>
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" si="8"/>
+        <v>13.12128</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="9"/>
+        <v>46.313999325500376</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="10"/>
+        <v>156.62374287696184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="22">
+        <v>22</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="11"/>
+        <v>46.20000000000001</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I13" s="22">
         <f t="shared" si="13"/>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30">
+        <v>56952.936000000002</v>
+      </c>
+      <c r="J13" s="22">
+        <v>6</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="14"/>
+        <v>5.9928155121207881E-2</v>
+      </c>
+      <c r="L13" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="30">
+        <v>4263.8022509026787</v>
+      </c>
+      <c r="M13" s="22">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N7" s="30">
+        <v>710.63370848377986</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O7" s="30">
+        <v>0.22717800000000002</v>
+      </c>
+      <c r="O13" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P13" s="22">
         <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q7" s="30">
+        <v>4974.6631373864584</v>
+      </c>
+      <c r="Q13" s="22">
         <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R7" s="30">
+        <v>1989.8652549545834</v>
+      </c>
+      <c r="R13" s="22">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S7" s="30">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S13" s="22">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T7" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T13" s="22">
         <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U7" s="30">
+        <v>37.912940943158432</v>
+      </c>
+      <c r="U13" s="22">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="30">
-        <v>12</v>
-      </c>
-      <c r="F8" s="30">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="41">
+        <v>4</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="22">
+        <v>24</v>
+      </c>
+      <c r="F14" s="22">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="G8" s="30">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H8" s="31">
+        <v>50.400000000000013</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I14" s="22">
         <f t="shared" si="13"/>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J8" s="30">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30">
-        <v>0</v>
-      </c>
-      <c r="L8" s="30">
+        <v>56952.936000000002</v>
+      </c>
+      <c r="J14" s="22">
+        <v>7</v>
+      </c>
+      <c r="K14" s="22">
+        <f t="shared" si="14"/>
+        <v>6.9886001634642508E-2</v>
+      </c>
+      <c r="L14" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="30">
+        <v>4971.2173010362776</v>
+      </c>
+      <c r="M14" s="22">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N8" s="30">
+        <v>710.17390014803959</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O8" s="30">
+        <v>0.22717800000000002</v>
+      </c>
+      <c r="O14" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P14" s="22">
         <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q8" s="30">
+        <v>5681.6183791843168</v>
+      </c>
+      <c r="Q14" s="22">
         <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R8" s="30">
+        <v>2272.6473516737269</v>
+      </c>
+      <c r="R14" s="22">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S8" s="30">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S14" s="22">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T8" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T14" s="22">
         <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U8" s="30">
+        <v>43.300793666352043</v>
+      </c>
+      <c r="U14" s="22">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="30">
-        <v>14</v>
-      </c>
-      <c r="F9" s="30">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="41">
+        <v>2.88</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="22">
+        <v>26</v>
+      </c>
+      <c r="F15" s="22">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="G9" s="30">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H9" s="31">
+        <v>54.600000000000016</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I15" s="22">
         <f t="shared" si="13"/>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J9" s="30">
-        <v>0</v>
-      </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="30">
+        <v>56952.936000000002</v>
+      </c>
+      <c r="J15" s="22">
+        <v>9</v>
+      </c>
+      <c r="K15" s="22">
+        <f t="shared" si="14"/>
+        <v>8.9758174189950524E-2</v>
+      </c>
+      <c r="L15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
+        <v>6381.4127032208617</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N9" s="30">
+        <v>709.04585591342902</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O9" s="30">
+        <v>0.22717800000000002</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P15" s="22">
         <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q9" s="30">
+        <v>7090.6857371342912</v>
+      </c>
+      <c r="Q15" s="22">
         <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R9" s="30">
+        <v>2836.2742948537166</v>
+      </c>
+      <c r="R15" s="22">
         <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S9" s="30">
+        <v>11.93662073189215</v>
+      </c>
+      <c r="S15" s="22">
         <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T9" s="30">
+        <v>13.12128</v>
+      </c>
+      <c r="T15" s="22">
         <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U9" s="30">
+        <v>54.039588646338551</v>
+      </c>
+      <c r="U15" s="22">
         <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="30">
-        <v>16</v>
-      </c>
-      <c r="F10" s="30">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="H10" s="31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" si="13"/>
-        <v>22975.240449438206</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <f t="shared" si="2"/>
-        <v>1022.3982000000001</v>
-      </c>
-      <c r="N10" s="30">
-        <f t="shared" si="3"/>
-        <v>1.6589463580799999</v>
-      </c>
-      <c r="O10" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <f t="shared" si="5"/>
-        <v>1024.05714635808</v>
-      </c>
-      <c r="Q10" s="30">
-        <f t="shared" si="6"/>
-        <v>460.82571586113602</v>
-      </c>
-      <c r="R10" s="30">
-        <f t="shared" si="7"/>
-        <v>37.772773160476497</v>
-      </c>
-      <c r="S10" s="30">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T10" s="30">
-        <f t="shared" si="9"/>
-        <v>1.0473311724116727</v>
-      </c>
-      <c r="U10" s="30">
-        <f t="shared" si="10"/>
-        <v>4155.0050476524148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="34">
-        <v>18</v>
-      </c>
-      <c r="F11" s="34">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="G11" s="34">
-        <v>1E-3</v>
-      </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <f t="shared" si="13"/>
-        <v>40895928.000000007</v>
-      </c>
-      <c r="J11" s="34">
-        <f>B11</f>
-        <v>45</v>
-      </c>
-      <c r="K11" s="34">
-        <f>ATAN2(100, J11)</f>
-        <v>0.42285392613294071</v>
-      </c>
-      <c r="L11" s="34">
-        <f t="shared" si="1"/>
-        <v>41955.610744454381</v>
-      </c>
-      <c r="M11" s="34">
-        <f t="shared" si="2"/>
-        <v>932.34690543231955</v>
-      </c>
-      <c r="N11" s="34">
-        <f t="shared" si="3"/>
-        <v>5.235911999999999E-7</v>
-      </c>
-      <c r="O11" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="34">
-        <f t="shared" si="5"/>
-        <v>42887.957650410295</v>
-      </c>
-      <c r="Q11" s="34">
-        <f t="shared" si="6"/>
-        <v>19299.580942684632</v>
-      </c>
-      <c r="R11" s="34">
-        <f t="shared" si="7"/>
-        <v>2.1220659078919377E-2</v>
-      </c>
-      <c r="S11" s="34">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T11" s="34">
-        <f t="shared" si="9"/>
-        <v>43.862683960646891</v>
-      </c>
-      <c r="U11" s="34">
-        <f>R11*S11</f>
-        <v>2.3342724986811314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="32">
-        <v>20</v>
-      </c>
-      <c r="F12" s="32">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="G12" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="33">
-        <f t="shared" si="12"/>
-        <v>0.2495</v>
-      </c>
-      <c r="I12" s="32">
-        <f t="shared" si="13"/>
-        <v>81791.856000000014</v>
-      </c>
-      <c r="J12" s="32">
-        <v>5</v>
-      </c>
-      <c r="K12" s="32">
-        <f t="shared" ref="K12:K15" si="14">ATAN2(100, J12)</f>
-        <v>4.9958395721942765E-2</v>
-      </c>
-      <c r="L12" s="32">
-        <f t="shared" si="1"/>
-        <v>5105.6129675724933</v>
-      </c>
-      <c r="M12" s="32">
-        <f t="shared" si="2"/>
-        <v>1021.1225935144985</v>
-      </c>
-      <c r="N12" s="32">
-        <f t="shared" si="3"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O12" s="32">
-        <f t="shared" si="4"/>
-        <v>2600.2890000000002</v>
-      </c>
-      <c r="P12" s="32">
-        <f t="shared" si="5"/>
-        <v>8727.1554588869913</v>
-      </c>
-      <c r="Q12" s="32">
-        <f t="shared" si="6"/>
-        <v>3927.2199564991461</v>
-      </c>
-      <c r="R12" s="32">
-        <f t="shared" si="7"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S12" s="32">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T12" s="32">
-        <f t="shared" si="9"/>
-        <v>8.9254999011344225</v>
-      </c>
-      <c r="U12" s="32">
-        <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>1.78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="32">
-        <v>22</v>
-      </c>
-      <c r="F13" s="32">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="G13" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
-        <f t="shared" si="13"/>
-        <v>81791.856000000014</v>
-      </c>
-      <c r="J13" s="32">
-        <v>6</v>
-      </c>
-      <c r="K13" s="32">
-        <f t="shared" si="14"/>
-        <v>5.9928155121207881E-2</v>
-      </c>
-      <c r="L13" s="32">
-        <f t="shared" si="1"/>
-        <v>6123.3770234129415</v>
-      </c>
-      <c r="M13" s="32">
-        <f t="shared" si="2"/>
-        <v>1020.5628372354904</v>
-      </c>
-      <c r="N13" s="32">
-        <f t="shared" si="3"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O13" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="32">
-        <f t="shared" si="5"/>
-        <v>7144.0707584484317</v>
-      </c>
-      <c r="Q13" s="32">
-        <f t="shared" si="6"/>
-        <v>3214.8318413017942</v>
-      </c>
-      <c r="R13" s="32">
-        <f t="shared" si="7"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S13" s="32">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T13" s="32">
-        <f t="shared" si="9"/>
-        <v>7.3064360029586233</v>
-      </c>
-      <c r="U13" s="32">
-        <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="32">
-        <v>24</v>
-      </c>
-      <c r="F14" s="32">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="G14" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="32">
-        <f t="shared" si="13"/>
-        <v>81791.856000000014</v>
-      </c>
-      <c r="J14" s="32">
-        <v>7</v>
-      </c>
-      <c r="K14" s="32">
-        <f t="shared" si="14"/>
-        <v>6.9886001634642508E-2</v>
-      </c>
-      <c r="L14" s="32">
-        <f t="shared" si="1"/>
-        <v>7139.3174467962099</v>
-      </c>
-      <c r="M14" s="32">
-        <f t="shared" si="2"/>
-        <v>1019.9024923994584</v>
-      </c>
-      <c r="N14" s="32">
-        <f t="shared" si="3"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O14" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="32">
-        <f t="shared" si="5"/>
-        <v>8159.350836995668</v>
-      </c>
-      <c r="Q14" s="32">
-        <f t="shared" si="6"/>
-        <v>3671.7078766480508</v>
-      </c>
-      <c r="R14" s="32">
-        <f t="shared" si="7"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S14" s="32">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T14" s="32">
-        <f t="shared" si="9"/>
-        <v>8.3447906287455709</v>
-      </c>
-      <c r="U14" s="32">
-        <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15">
-        <v>110</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="32">
-        <v>26</v>
-      </c>
-      <c r="F15" s="32">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="G15" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
-        <f t="shared" si="13"/>
-        <v>81791.856000000014</v>
-      </c>
-      <c r="J15" s="32">
-        <v>9</v>
-      </c>
-      <c r="K15" s="32">
-        <f t="shared" si="14"/>
-        <v>8.9758174189950524E-2</v>
-      </c>
-      <c r="L15" s="32">
-        <f t="shared" si="1"/>
-        <v>9164.5422616739452</v>
-      </c>
-      <c r="M15" s="32">
-        <f t="shared" si="2"/>
-        <v>1018.2824735193273</v>
-      </c>
-      <c r="N15" s="32">
-        <f t="shared" si="3"/>
-        <v>0.13089779999999998</v>
-      </c>
-      <c r="O15" s="32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="32">
-        <f t="shared" si="5"/>
-        <v>10182.955632993273</v>
-      </c>
-      <c r="Q15" s="32">
-        <f t="shared" si="6"/>
-        <v>4582.3300348469729</v>
-      </c>
-      <c r="R15" s="32">
-        <f t="shared" si="7"/>
-        <v>10.610329539459689</v>
-      </c>
-      <c r="S15" s="32">
-        <f t="shared" si="8"/>
-        <v>110</v>
-      </c>
-      <c r="T15" s="32">
-        <f t="shared" si="9"/>
-        <v>10.414386442834029</v>
-      </c>
-      <c r="U15" s="32">
-        <f t="shared" si="10"/>
-        <v>1167.1362493405659</v>
+        <v>156.62374287696184</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="39"/>
+      <c r="A16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="41">
+        <v>4.556</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="27"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="39"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="27"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="39"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="39"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="39"/>
-      <c r="E20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="39"/>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="39"/>
+      <c r="B22" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="27"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -18317,16 +18417,15 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="6">
-        <v>65000</v>
-      </c>
-      <c r="C23" s="7">
-        <f>B23*0.453592</f>
-        <v>29483.48</v>
-      </c>
-      <c r="D23" s="39"/>
+      <c r="B23" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -18351,13 +18450,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="39"/>
+      <c r="B24" s="47">
+        <v>65000</v>
+      </c>
+      <c r="C24" s="47">
+        <f>B24*0.453592</f>
+        <v>29483.48</v>
+      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -18381,15 +18481,14 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <f>B25*0.0254</f>
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="D25" s="39"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -18414,13 +18513,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="39"/>
+      <c r="B26" s="47">
+        <v>1</v>
+      </c>
+      <c r="C26" s="47">
+        <f>B26*0.0254</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -18445,15 +18545,14 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
-        <f>B27*4.44822</f>
-        <v>4.4482200000000001</v>
-      </c>
-      <c r="D27" s="39"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -18479,13 +18578,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="39"/>
+      <c r="B28" s="47">
+        <v>1</v>
+      </c>
+      <c r="C28" s="47">
+        <f>B28*4.44822</f>
+        <v>4.4482200000000001</v>
+      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -18510,15 +18610,14 @@
         <v>59.428571428571445</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6">
-        <v>50</v>
-      </c>
-      <c r="C29" s="7">
-        <f>B29/2.23694</f>
-        <v>22.351962949386213</v>
-      </c>
-      <c r="D29" s="39"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="27"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -18544,13 +18643,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="39"/>
+      <c r="B30" s="47">
+        <v>50</v>
+      </c>
+      <c r="C30" s="47">
+        <f>B30/2.23694</f>
+        <v>22.351962949386213</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -18575,15 +18675,14 @@
         <v>44.571428571428577</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
-        <v>100</v>
-      </c>
-      <c r="C31" s="7">
-        <f>B31*0.277778</f>
-        <v>27.777800000000003</v>
-      </c>
-      <c r="D31" s="39"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="27"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -18609,13 +18708,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="39"/>
+      <c r="B32" s="47">
+        <v>80</v>
+      </c>
+      <c r="C32" s="47">
+        <f>B32*0.277778</f>
+        <v>22.222240000000003</v>
+      </c>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -18623,65 +18723,64 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
-        <f>B33*1.35582</f>
-        <v>1.35582</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="47">
+        <v>1</v>
+      </c>
+      <c r="C34" s="47">
+        <f>B34*1.35582</f>
+        <v>1.35582</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7">
-        <f>B35*0.7457</f>
-        <v>0.74570000000000003</v>
-      </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -18706,11 +18805,14 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="39"/>
+      <c r="B36" s="47">
+        <v>1</v>
+      </c>
+      <c r="C36" s="47">
+        <f>B36*0.7457</f>
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -18736,13 +18838,11 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="26">
-        <v>100</v>
-      </c>
-      <c r="D37" s="39"/>
+      <c r="B37" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -18768,13 +18868,13 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="D38" s="39"/>
+      <c r="B38" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="43">
+        <v>100</v>
+      </c>
+      <c r="D38" s="27"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -18799,15 +18899,14 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="28">
-        <f>1000*C37/3600/C38</f>
-        <v>2.4801587301587302</v>
-      </c>
-      <c r="D39" s="39"/>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="43">
+        <v>11.2</v>
+      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -18833,7 +18932,14 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D40" s="39"/>
+      <c r="B40" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="45">
+        <f>1000*C38/3600/C39</f>
+        <v>2.4801587301587302</v>
+      </c>
+      <c r="D40" s="27"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -18859,7 +18965,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="39"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -18885,7 +18991,7 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="39"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -18911,7 +19017,7 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="39"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -18937,7 +19043,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="39"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -18971,38 +19077,38 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="E46" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -19331,45 +19437,45 @@
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
+      <c r="E62" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="E63" s="29" t="s">
-        <v>52</v>
+      <c r="E63" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
@@ -19837,44 +19943,44 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
+      <c r="E81" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
     </row>
     <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
@@ -20632,44 +20738,44 @@
       </c>
     </row>
     <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
+      <c r="E111" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="26"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="26"/>
     </row>
     <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="I112" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="K112" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="L112" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="113" spans="5:13" x14ac:dyDescent="0.25">
@@ -21224,44 +21330,44 @@
       </c>
     </row>
     <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
+      <c r="E133" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="26"/>
     </row>
     <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F134" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="I134" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="J134" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="L134" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L134" s="2" t="s">
+      <c r="M134" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="135" spans="5:13" x14ac:dyDescent="0.25">
@@ -21730,7 +21836,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="E133:L133"/>
     <mergeCell ref="E111:L111"/>
     <mergeCell ref="E81:L81"/>
@@ -21739,10 +21844,15 @@
     <mergeCell ref="E20:L20"/>
     <mergeCell ref="E33:L33"/>
     <mergeCell ref="E46:L46"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -21750,8 +21860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21781,596 +21891,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="H1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="A2" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="35">
         <v>15000</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="35">
         <v>300</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="35">
         <v>1330</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="44">
+      <c r="G2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="35">
         <v>4000</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="35">
         <v>125</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="35">
         <v>250</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="15">
         <v>35.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="18">
+      <c r="G3" s="40"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="13">
         <v>3.5</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7">
         <v>5000</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>250</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>500</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>52.31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="7">
         <v>5000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>450</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>900</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="17">
         <v>57.11</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="16">
+      <c r="A6" s="40"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="44">
+      <c r="G6" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="35">
         <v>1106</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="35">
         <v>500</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="35">
         <v>1000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <v>21.26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="49">
+      <c r="A7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="32">
         <v>15000</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="32">
         <v>300</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="32">
         <v>4000</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="20">
+      <c r="G7" s="39"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="20">
+      <c r="G8" s="39"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="18">
+      <c r="G9" s="40"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="44">
+      <c r="G10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="35">
         <v>5000</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="35">
         <v>3500</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="35">
         <v>7000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>18.78</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="20">
+      <c r="G11" s="39"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="20">
+      <c r="G12" s="39"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="20">
+      <c r="G13" s="39"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="20">
+      <c r="G14" s="39"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="16">
+      <c r="A15" s="31"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="18">
+      <c r="G15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="49">
+      <c r="A16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="32">
         <v>12000</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="32">
         <v>600</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="32">
         <v>2100</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="16">
+      <c r="A19" s="31"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="49">
+      <c r="A20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="32">
         <v>12000</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="32">
         <v>600</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="32">
         <v>6500</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>5.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="15">
+      <c r="A23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="15">
+      <c r="A24" s="30"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="16">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="49">
+      <c r="A28" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="32">
         <v>7500</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="32">
         <v>1200</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="32">
         <v>4770</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>75</v>
+      <c r="E28" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="15">
+      <c r="A29" s="30"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="15">
+      <c r="A30" s="30"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="15">
+      <c r="A31" s="30"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="16">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49">
+      <c r="A33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32">
         <v>265</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="14">
+      <c r="D33" s="32"/>
+      <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="16">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="49">
+      <c r="A36" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="32">
         <v>12500</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="16">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="49">
+      <c r="A38" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="32">
         <v>12500</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="16">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -22387,17 +22491,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22405,12 +22515,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22631,15 +22738,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22664,10 +22775,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6BF4B0-4091-4A8C-AA68-3EF03FD5BC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF43E5F-DC8A-44A6-9A6D-8D9A2B50CFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
   <si>
     <t>Value</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>M17C3, 48V, 25DegC, 3 turns, Concentrated, 5m/s air flow, 14.5 Kg, 0.005 kgm^2</t>
-  </si>
-  <si>
-    <t>Slope angle (%)</t>
   </si>
   <si>
     <t>F03L1-x-19</t>
@@ -421,6 +418,12 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t>Grade (%)</t>
+  </si>
+  <si>
+    <t>Vehicle Speed Masked (kmph)</t>
   </si>
 </sst>
 </file>
@@ -673,51 +676,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,9 +689,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +697,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,6 +786,29 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -800,29 +826,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,14 +855,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21174197534946307"/>
-          <c:y val="1.1644830825976102E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vehicle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Velocity and Grade</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -918,7 +949,9 @@
           <c:spPr>
             <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1028,7 +1061,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Application!$G$2:$G$15</c:f>
+              <c:f>Application!$V$2:$V$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1036,43 +1069,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2</c:v>
+                  <c:v>15.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4</c:v>
+                  <c:v>30.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.600000000000001</c:v>
+                  <c:v>45.360000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.8</c:v>
+                  <c:v>60.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>75.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.2</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.2</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1E-3</c:v>
+                  <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>39.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>20.015999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,6 +1127,168 @@
         </c:dLbls>
         <c:axId val="967380120"/>
         <c:axId val="967380448"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Grade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AEC-4945-AEE1-85676FD583FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="784764976"/>
+        <c:axId val="778794072"/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="967380120"/>
@@ -1253,7 +1448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>vehicle speed [m/s]</a:t>
+                  <a:t>vehicle speed [Km/hr]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1324,427 +1519,13 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Grade</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Application!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7FB-4099-8B58-3D24EEA7157A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="967380120"/>
-        <c:axId val="967380448"/>
-      </c:scatterChart>
       <c:valAx>
-        <c:axId val="967380120"/>
+        <c:axId val="778794072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Grade</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="967380448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="967380448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1765,7 +1546,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>vehicle speed [m/s]</a:t>
+                  <a:t>Grade [%]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1799,7 +1580,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1832,8 +1613,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="967380120"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="784764976"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="784764976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="778794072"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1899,7 +1694,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2924,31 +2719,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.425626920544337</c:v>
+                  <c:v>10.851253841088674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.69271122695348</c:v>
+                  <c:v>243.38542245390695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.05920778094821</c:v>
+                  <c:v>244.11841556189643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.67003537093946</c:v>
+                  <c:v>245.34007074187892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.52519399692711</c:v>
+                  <c:v>247.05038799385423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.62468365891129</c:v>
+                  <c:v>249.24936731782259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.023044413959589</c:v>
+                  <c:v>84.046088827919178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3018,7 +2813,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.54029330268992</c:v>
+                  <c:v>273.70882582259145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3076,16 +2871,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>4698.7122863088543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>3445.7223432931601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1566.2374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1741.6560207918155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,16 +2892,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46.313999325500376</c:v>
+                  <c:v>68.142758217140639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.912940943158432</c:v>
+                  <c:v>120.44737931210653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.300793666352043</c:v>
+                  <c:v>172.04546450645537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.039588646338551</c:v>
+                  <c:v>322.63028406975417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3441,7 +3236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5194,31 +4989,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.425626920544337</c:v>
+                  <c:v>10.851253841088674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.69271122695348</c:v>
+                  <c:v>243.38542245390695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.05920778094821</c:v>
+                  <c:v>244.11841556189643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.67003537093946</c:v>
+                  <c:v>245.34007074187892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.52519399692711</c:v>
+                  <c:v>247.05038799385423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.62468365891129</c:v>
+                  <c:v>249.24936731782259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.023044413959589</c:v>
+                  <c:v>84.046088827919178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5292,7 +5087,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.54029330268992</c:v>
+                  <c:v>273.70882582259145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,16 +5145,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>4698.7122863088543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>3445.7223432931601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1566.2374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1741.6560207918155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,16 +5166,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46.313999325500376</c:v>
+                  <c:v>68.142758217140639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.912940943158432</c:v>
+                  <c:v>120.44737931210653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.300793666352043</c:v>
+                  <c:v>172.04546450645537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.039588646338551</c:v>
+                  <c:v>322.63028406975417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,7 +5516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7952,31 +7747,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.425626920544337</c:v>
+                  <c:v>10.851253841088674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.69271122695348</c:v>
+                  <c:v>243.38542245390695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.05920778094821</c:v>
+                  <c:v>244.11841556189643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.67003537093946</c:v>
+                  <c:v>245.34007074187892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.52519399692711</c:v>
+                  <c:v>247.05038799385423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.62468365891129</c:v>
+                  <c:v>249.24936731782259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.023044413959589</c:v>
+                  <c:v>84.046088827919178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,7 +7845,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.54029330268992</c:v>
+                  <c:v>273.70882582259145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8108,16 +7903,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>4698.7122863088543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>3445.7223432931601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1566.2374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1741.6560207918155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8129,16 +7924,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46.313999325500376</c:v>
+                  <c:v>68.142758217140639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.912940943158432</c:v>
+                  <c:v>120.44737931210653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.300793666352043</c:v>
+                  <c:v>172.04546450645537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.039588646338551</c:v>
+                  <c:v>322.63028406975417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8373,7 +8168,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10268,31 +10063,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.425626920544337</c:v>
+                  <c:v>10.851253841088674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.69271122695348</c:v>
+                  <c:v>243.38542245390695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.05920778094821</c:v>
+                  <c:v>244.11841556189643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.67003537093946</c:v>
+                  <c:v>245.34007074187892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.52519399692711</c:v>
+                  <c:v>247.05038799385423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.62468365891129</c:v>
+                  <c:v>249.24936731782259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.023044413959589</c:v>
+                  <c:v>84.046088827919178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10362,7 +10157,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.54029330268992</c:v>
+                  <c:v>273.70882582259145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10420,16 +10215,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>4698.7122863088543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>3445.7223432931601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1566.2374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1741.6560207918155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,16 +10236,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46.313999325500376</c:v>
+                  <c:v>68.142758217140639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.912940943158432</c:v>
+                  <c:v>120.44737931210653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.300793666352043</c:v>
+                  <c:v>172.04546450645537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.039588646338551</c:v>
+                  <c:v>322.63028406975417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10685,7 +10480,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12428,31 +12223,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.425626920544337</c:v>
+                  <c:v>10.851253841088674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121.69271122695348</c:v>
+                  <c:v>243.38542245390695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.05920778094821</c:v>
+                  <c:v>244.11841556189643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.67003537093946</c:v>
+                  <c:v>245.34007074187892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.52519399692711</c:v>
+                  <c:v>247.05038799385423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.62468365891129</c:v>
+                  <c:v>249.24936731782259</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.023044413959589</c:v>
+                  <c:v>84.046088827919178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8387819029850743</c:v>
+                  <c:v>17.677563805970149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12522,7 +12317,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>206.54029330268992</c:v>
+                  <c:v>273.70882582259145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12580,16 +12375,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>4698.7122863088543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>3445.7223432931601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1566.2374287696184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>156.62374287696184</c:v>
+                  <c:v>1741.6560207918155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12601,16 +12396,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46.313999325500376</c:v>
+                  <c:v>68.142758217140639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.912940943158432</c:v>
+                  <c:v>120.44737931210653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.300793666352043</c:v>
+                  <c:v>172.04546450645537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.039588646338551</c:v>
+                  <c:v>322.63028406975417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12851,8 +12646,42 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -12977,46 +12806,6 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16068,508 +15857,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95D0F4A2-D7A5-4DAF-9BFA-7435D72E787A}">
   <sheetPr/>
@@ -16586,15 +15873,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>442911</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:colOff>604836</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16619,44 +15906,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DF267B-FA3A-452C-8509-F46641C5F8F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16664,7 +15913,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662883" cy="6292062"/>
+    <xdr:ext cx="8662147" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -16843,7 +16092,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:C20" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CCDE3EDB-E054-413C-AFDE-56A29684A6C8}" name="Input Parameters"/>
@@ -17162,10 +16411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:U150"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17178,17 +16427,17 @@
     <col min="19" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -17207,7 +16456,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>24</v>
@@ -17242,18 +16491,21 @@
       <c r="U1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="26">
         <v>7257</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
@@ -17311,24 +16563,28 @@
       </c>
       <c r="T2" s="20">
         <f>Q2/S2/$B$14</f>
-        <v>5.425626920544337</v>
+        <v>10.851253841088674</v>
       </c>
       <c r="U2" s="20">
         <f>R2*S2</f>
         <v>0</v>
       </c>
+      <c r="V2" s="20">
+        <f>3600*G2/1000</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="26">
         <v>9.81</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
@@ -17388,29 +16644,33 @@
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T15" si="9">Q3/S3/$B$14</f>
-        <v>121.69271122695348</v>
+        <v>243.38542245390695</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" ref="U3:U15" si="10">R3*S3</f>
         <v>1315.6394401664795</v>
       </c>
+      <c r="V3" s="20">
+        <f t="shared" ref="V3:V15" si="11">3600*G3/1000</f>
+        <v>15.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="26">
         <v>4.2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="20">
         <v>4</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F15" si="11">F3+$B$12*2</f>
+        <f t="shared" ref="F4:F15" si="12">F3+$B$12*2</f>
         <v>8.4</v>
       </c>
       <c r="G4" s="20">
@@ -17418,7 +16678,7 @@
         <v>8.4</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H15" si="12">(G4-G3)/(E4-E3)</f>
+        <f t="shared" ref="H4:H15" si="13">(G4-G3)/(E4-E3)</f>
         <v>2.1</v>
       </c>
       <c r="I4" s="20">
@@ -17465,29 +16725,33 @@
       </c>
       <c r="T4" s="20">
         <f t="shared" si="9"/>
-        <v>122.05920778094821</v>
+        <v>244.11841556189643</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="10"/>
         <v>2631.278880332959</v>
       </c>
+      <c r="V4" s="20">
+        <f t="shared" si="11"/>
+        <v>30.24</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="26">
         <v>1.202</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="20">
         <v>6</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.600000000000001</v>
       </c>
       <c r="G5" s="20">
@@ -17495,11 +16759,11 @@
         <v>12.600000000000001</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ref="I5:I15" si="13">$I$2/G5</f>
+        <f t="shared" ref="I5:I15" si="14">$I$2/G5</f>
         <v>2260.0371428571425</v>
       </c>
       <c r="J5" s="20">
@@ -17542,27 +16806,31 @@
       </c>
       <c r="T5" s="20">
         <f t="shared" si="9"/>
-        <v>122.67003537093946</v>
+        <v>245.34007074187892</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="10"/>
         <v>3946.9183204994392</v>
       </c>
+      <c r="V5" s="20">
+        <f t="shared" si="11"/>
+        <v>45.360000000000007</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="26">
         <v>0.36</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="20">
         <v>8</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.8</v>
       </c>
       <c r="G6" s="20">
@@ -17570,11 +16838,11 @@
         <v>16.8</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1695.0278571428571</v>
       </c>
       <c r="J6" s="20">
@@ -17617,27 +16885,31 @@
       </c>
       <c r="T6" s="20">
         <f t="shared" si="9"/>
-        <v>123.52519399692711</v>
+        <v>247.05038799385423</v>
       </c>
       <c r="U6" s="20">
         <f t="shared" si="10"/>
         <v>5262.5577606659181</v>
       </c>
+      <c r="V6" s="20">
+        <f t="shared" si="11"/>
+        <v>60.48</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="41">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="26">
         <v>0.01</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="20">
         <v>10</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="G7" s="20">
@@ -17645,11 +16917,11 @@
         <v>21</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1356.0222857142858</v>
       </c>
       <c r="J7" s="20">
@@ -17692,27 +16964,31 @@
       </c>
       <c r="T7" s="20">
         <f t="shared" si="9"/>
-        <v>124.62468365891129</v>
+        <v>249.24936731782259</v>
       </c>
       <c r="U7" s="20">
         <f t="shared" si="10"/>
         <v>6578.1972008323974</v>
       </c>
+      <c r="V7" s="20">
+        <f t="shared" si="11"/>
+        <v>75.599999999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="26">
         <v>0.4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="20">
         <v>12</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>25.2</v>
       </c>
       <c r="G8" s="20">
@@ -17720,11 +16996,11 @@
         <v>22.2</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1282.7237837837838</v>
       </c>
       <c r="J8" s="20">
@@ -17767,29 +17043,33 @@
       </c>
       <c r="T8" s="20">
         <f t="shared" si="9"/>
-        <v>42.023044413959589</v>
+        <v>84.046088827919178</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="10"/>
         <v>6954.0941837371056</v>
       </c>
+      <c r="V8" s="20">
+        <f t="shared" si="11"/>
+        <v>79.92</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="26">
         <v>0.4</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="20">
         <v>14</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>29.4</v>
       </c>
       <c r="G9" s="20">
@@ -17797,11 +17077,11 @@
         <v>22.2</v>
       </c>
       <c r="H9" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1282.7237837837838</v>
       </c>
       <c r="J9" s="20">
@@ -17844,27 +17124,31 @@
       </c>
       <c r="T9" s="20">
         <f t="shared" si="9"/>
-        <v>8.8387819029850743</v>
+        <v>17.677563805970149</v>
       </c>
       <c r="U9" s="20">
         <f t="shared" si="10"/>
         <v>6954.0941837371056</v>
       </c>
+      <c r="V9" s="20">
+        <f t="shared" si="11"/>
+        <v>79.92</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="26">
         <v>0.95</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="20">
         <v>16</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>33.6</v>
       </c>
       <c r="G10" s="20">
@@ -17872,11 +17156,11 @@
         <v>22.2</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1282.7237837837838</v>
       </c>
       <c r="J10" s="20">
@@ -17919,29 +17203,33 @@
       </c>
       <c r="T10" s="20">
         <f t="shared" si="9"/>
-        <v>8.8387819029850743</v>
+        <v>17.677563805970149</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="10"/>
         <v>6954.0941837371056</v>
       </c>
+      <c r="V10" s="20">
+        <f t="shared" si="11"/>
+        <v>79.92</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="41">
-        <v>40</v>
-      </c>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="26">
+        <v>25</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="24">
         <v>18</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37.800000000000004</v>
       </c>
       <c r="G11" s="24">
@@ -17951,24 +17239,24 @@
         <v>0</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28476468</v>
       </c>
       <c r="J11" s="24">
         <f>B11</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K11" s="24">
         <f>ATAN2(100, J11)</f>
-        <v>0.3805063771123649</v>
+        <v>0.24497866312686414</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="1"/>
-        <v>26439.736776739977</v>
+        <v>17266.394913017837</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="2"/>
-        <v>660.99341941849946</v>
+        <v>690.65579652071347</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="3"/>
@@ -17980,11 +17268,11 @@
       </c>
       <c r="P11" s="24">
         <f t="shared" si="5"/>
-        <v>27100.730197067191</v>
+        <v>17957.050710447264</v>
       </c>
       <c r="Q11" s="24">
         <f t="shared" si="6"/>
-        <v>10840.292078826877</v>
+        <v>7182.8202841789061</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="7"/>
@@ -17996,47 +17284,50 @@
       </c>
       <c r="T11" s="24">
         <f t="shared" si="9"/>
-        <v>206.54029330268992</v>
+        <v>273.70882582259145</v>
       </c>
       <c r="U11" s="24">
         <f>R11*S11</f>
         <v>0.31324748575392364</v>
       </c>
+      <c r="V11" s="24">
+        <f t="shared" si="11"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="26">
         <v>2.1</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="22">
         <v>20</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42.000000000000007</v>
       </c>
       <c r="G12" s="22">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="H12" s="23">
-        <f t="shared" si="12"/>
-        <v>0.2495</v>
+        <v>0</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="13"/>
-        <v>56952.936000000002</v>
+        <f t="shared" si="14"/>
+        <v>1898.4312</v>
       </c>
       <c r="J12" s="22">
         <v>5</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" ref="K12:K15" si="14">ATAN2(100, J12)</f>
+        <f t="shared" ref="K12:K15" si="15">ATAN2(100, J12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="L12" s="22">
@@ -18049,23 +17340,23 @@
       </c>
       <c r="N12" s="22">
         <f t="shared" si="3"/>
-        <v>0.22717800000000002</v>
+        <v>204.46020000000001</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="4"/>
-        <v>1810.6215</v>
+        <v>0</v>
       </c>
       <c r="P12" s="22">
         <f t="shared" si="5"/>
-        <v>6076.9895306970157</v>
+        <v>4470.6010526970158</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="6"/>
-        <v>2430.7958122788064</v>
+        <v>1788.2404210788063</v>
       </c>
       <c r="R12" s="22">
         <f t="shared" si="7"/>
-        <v>11.93662073189215</v>
+        <v>358.09862195676448</v>
       </c>
       <c r="S12" s="22">
         <f t="shared" si="8"/>
@@ -18073,60 +17364,63 @@
       </c>
       <c r="T12" s="22">
         <f t="shared" si="9"/>
-        <v>46.313999325500376</v>
+        <v>68.142758217140639</v>
       </c>
       <c r="U12" s="22">
         <f t="shared" si="10"/>
-        <v>156.62374287696184</v>
+        <v>4698.7122863088543</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="11"/>
+        <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="26">
         <v>22.2</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="22">
         <v>22</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>46.20000000000001</v>
       </c>
       <c r="G13" s="22">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="H13" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="13"/>
-        <v>56952.936000000002</v>
+        <f t="shared" si="14"/>
+        <v>2588.7698181818182</v>
       </c>
       <c r="J13" s="22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="14"/>
-        <v>5.9928155121207881E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.9668652491162038E-2</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="1"/>
-        <v>4263.8022509026787</v>
+        <v>7083.7861764561685</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="2"/>
-        <v>710.63370848377986</v>
+        <v>708.37861764561671</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="3"/>
-        <v>0.22717800000000002</v>
+        <v>109.95415200000001</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="4"/>
@@ -18134,15 +17428,15 @@
       </c>
       <c r="P13" s="22">
         <f t="shared" si="5"/>
-        <v>4974.6631373864584</v>
+        <v>7902.1189461017857</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="6"/>
-        <v>1989.8652549545834</v>
+        <v>3160.8475784407146</v>
       </c>
       <c r="R13" s="22">
         <f t="shared" si="7"/>
-        <v>11.93662073189215</v>
+        <v>262.60565610162729</v>
       </c>
       <c r="S13" s="22">
         <f t="shared" si="8"/>
@@ -18150,58 +17444,61 @@
       </c>
       <c r="T13" s="22">
         <f t="shared" si="9"/>
-        <v>37.912940943158432</v>
+        <v>120.44737931210653</v>
       </c>
       <c r="U13" s="22">
         <f t="shared" si="10"/>
-        <v>156.62374287696184</v>
+        <v>3445.7223432931601</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="11"/>
+        <v>39.6</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="41">
-        <v>4</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="27"/>
+      <c r="B14" s="26">
+        <v>2</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="22">
         <v>24</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>50.400000000000013</v>
       </c>
       <c r="G14" s="22">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H14" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="13"/>
-        <v>56952.936000000002</v>
+        <f t="shared" si="14"/>
+        <v>5695.2936</v>
       </c>
       <c r="J14" s="22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="14"/>
-        <v>6.9886001634642508E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.14888994760949725</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="1"/>
-        <v>4971.2173010362776</v>
+        <v>10560.530402434044</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="2"/>
-        <v>710.17390014803959</v>
+        <v>704.03536016226951</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="3"/>
-        <v>0.22717800000000002</v>
+        <v>22.7178</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="4"/>
@@ -18209,15 +17506,15 @@
       </c>
       <c r="P14" s="22">
         <f t="shared" si="5"/>
-        <v>5681.6183791843168</v>
+        <v>11287.283562596314</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="6"/>
-        <v>2272.6473516737269</v>
+        <v>4514.9134250385259</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="7"/>
-        <v>11.93662073189215</v>
+        <v>119.3662073189215</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="8"/>
@@ -18225,58 +17522,61 @@
       </c>
       <c r="T14" s="22">
         <f t="shared" si="9"/>
-        <v>43.300793666352043</v>
+        <v>172.04546450645537</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="10"/>
-        <v>156.62374287696184</v>
+        <v>1566.2374287696184</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="41">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="26">
         <v>2.88</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="22">
         <v>26</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54.600000000000016</v>
       </c>
       <c r="G15" s="22">
-        <v>0.5</v>
+        <v>5.56</v>
       </c>
       <c r="H15" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="13"/>
-        <v>56952.936000000002</v>
+        <f t="shared" si="14"/>
+        <v>5121.6669064748203</v>
       </c>
       <c r="J15" s="22">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="14"/>
-        <v>8.9758174189950524E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.2914567944778671</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="1"/>
-        <v>6381.4127032208617</v>
+        <v>20456.632170494246</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="2"/>
-        <v>709.04585591342902</v>
+        <v>681.88773901647482</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="3"/>
-        <v>0.22717800000000002</v>
+        <v>28.091559283199999</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="4"/>
@@ -18284,15 +17584,15 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="5"/>
-        <v>7090.6857371342912</v>
+        <v>21166.611468793919</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="6"/>
-        <v>2836.2742948537166</v>
+        <v>8466.6445875175687</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="7"/>
-        <v>11.93662073189215</v>
+        <v>132.7352225386407</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="8"/>
@@ -18300,69 +17600,73 @@
       </c>
       <c r="T15" s="22">
         <f t="shared" si="9"/>
-        <v>54.039588646338551</v>
+        <v>322.63028406975417</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="10"/>
-        <v>156.62374287696184</v>
+        <v>1741.6560207918155</v>
+      </c>
+      <c r="V15" s="22">
+        <f t="shared" si="11"/>
+        <v>20.015999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="41">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="26">
         <v>4.556</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="35"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="35"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
@@ -18387,13 +17691,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -18413,19 +17717,19 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="15">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="16">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -18445,19 +17749,19 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="47">
+      <c r="B24" s="31">
         <v>65000</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="31">
         <f>B24*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -18477,18 +17781,18 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -18508,19 +17812,19 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="47">
+      <c r="B26" s="31">
         <v>1</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="31">
         <f>B26*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -18537,22 +17841,22 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="16">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="17">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -18569,23 +17873,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
+        <f t="shared" si="17"/>
+        <v>149.76</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="16"/>
-        <v>149.76</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="47">
+      <c r="B28" s="31">
         <v>1</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="31">
         <f>B28*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -18602,22 +17906,22 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="17"/>
+        <v>124.8</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="16"/>
-        <v>124.8</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="15"/>
         <v>59.428571428571445</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -18634,23 +17938,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" si="17"/>
+        <v>106.97142857142858</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="16"/>
-        <v>106.97142857142858</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="15"/>
         <v>50.938775510204088</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="47">
+      <c r="B30" s="31">
         <v>50</v>
       </c>
-      <c r="C30" s="47">
+      <c r="C30" s="31">
         <f>B30/2.23694</f>
         <v>22.351962949386213</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -18667,22 +17971,22 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="17"/>
+        <v>93.6</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="16"/>
-        <v>93.6</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="15"/>
         <v>44.571428571428577</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -18699,23 +18003,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="17"/>
+        <v>83.2</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="16"/>
-        <v>83.2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="15"/>
         <v>39.619047619047628</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="47">
-        <v>80</v>
-      </c>
-      <c r="C32" s="47">
+      <c r="B32" s="31">
+        <v>20</v>
+      </c>
+      <c r="C32" s="31">
         <f>B32*0.277778</f>
-        <v>22.222240000000003</v>
-      </c>
-      <c r="D32" s="27"/>
+        <v>5.5555600000000007</v>
+      </c>
+      <c r="D32" s="35"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -18724,33 +18028,33 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="47">
+      <c r="B34" s="31">
         <v>1</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="31">
         <f>B34*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D34" s="27"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="4" t="s">
         <v>51</v>
       </c>
@@ -18774,13 +18078,13 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -18800,19 +18104,19 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="17">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="18">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="47">
+      <c r="B36" s="31">
         <v>1</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="31">
         <f>B36*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -18829,20 +18133,20 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="18">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="19">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -18859,22 +18163,22 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="19"/>
+        <v>384</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="18"/>
-        <v>384</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="43">
+      <c r="B38" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="28">
         <v>100</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -18891,22 +18195,22 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="19"/>
+        <v>384</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="18"/>
-        <v>384</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="43">
+      <c r="B39" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="28">
         <v>11.2</v>
       </c>
-      <c r="D39" s="27"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -18923,23 +18227,23 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="19"/>
+        <v>384</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="18"/>
-        <v>384</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="30">
         <f>1000*C38/3600/C39</f>
         <v>2.4801587301587302</v>
       </c>
-      <c r="D40" s="27"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -18956,16 +18260,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="19"/>
+        <v>289.81132075471697</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="18"/>
-        <v>289.81132075471697</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="27"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -18982,16 +18286,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="19"/>
+        <v>256</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="18"/>
-        <v>256</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="17"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="27"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -19008,16 +18312,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="19"/>
+        <v>219.42857142857147</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="18"/>
-        <v>219.42857142857147</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="17"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="27"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -19034,16 +18338,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="19"/>
+        <v>192</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="18"/>
-        <v>192</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="17"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="27"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -19060,11 +18364,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
+        <f t="shared" si="19"/>
+        <v>170.66666666666669</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="18"/>
-        <v>170.66666666666669</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="17"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -19077,16 +18381,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
@@ -19132,7 +18436,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="19">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="20">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -19153,11 +18457,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="20">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="21">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19178,11 +18482,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="21"/>
+        <v>638</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="20"/>
-        <v>638</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19203,11 +18507,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="21"/>
+        <v>638</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="20"/>
-        <v>638</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19228,11 +18532,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="21"/>
+        <v>638</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="20"/>
-        <v>638</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19253,11 +18557,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="21"/>
+        <v>638</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="20"/>
-        <v>638</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19278,11 +18582,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="21"/>
+        <v>588.92307692307691</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="20"/>
-        <v>588.92307692307691</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19303,11 +18607,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="21"/>
+        <v>483.02839116719241</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="20"/>
-        <v>483.02839116719241</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -19328,11 +18632,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="21"/>
+        <v>382.8</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="20"/>
-        <v>382.8</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="19"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -19353,11 +18657,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="21"/>
+        <v>340.26666666666665</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="20"/>
-        <v>340.26666666666665</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="19"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -19378,11 +18682,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="21"/>
+        <v>306.24</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="20"/>
-        <v>306.24</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="19"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -19403,11 +18707,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="21"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="20"/>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="19"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -19428,54 +18732,54 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="21"/>
+        <v>255.2</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="20"/>
-        <v>255.2</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="19"/>
         <v>126.40374999999999</v>
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
+      <c r="E62" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
     </row>
     <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
         <v>51</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
@@ -19943,44 +19247,44 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
+      <c r="E81" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
     </row>
     <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
@@ -20738,44 +20042,44 @@
       </c>
     </row>
     <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="26"/>
+      <c r="E111" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="34"/>
     </row>
     <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="I112" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="K112" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="L112" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="113" spans="5:13" x14ac:dyDescent="0.25">
@@ -21330,44 +20634,44 @@
       </c>
     </row>
     <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
+      <c r="E133" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
     </row>
     <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F134" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="I134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="J134" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="L134" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L134" s="2" t="s">
+      <c r="M134" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="135" spans="5:13" x14ac:dyDescent="0.25">
@@ -21836,6 +21140,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="E133:L133"/>
     <mergeCell ref="E111:L111"/>
     <mergeCell ref="E81:L81"/>
@@ -21844,7 +21149,6 @@
     <mergeCell ref="E20:L20"/>
     <mergeCell ref="E33:L33"/>
     <mergeCell ref="E46:L46"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21860,7 +21164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
@@ -21892,62 +21196,62 @@
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>52</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="35">
+        <v>61</v>
+      </c>
+      <c r="B2" s="41">
         <v>15000</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="41">
         <v>300</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="41">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="35">
+        <v>76</v>
+      </c>
+      <c r="H2" s="41">
         <v>4000</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="41">
         <v>125</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="41">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -21956,30 +21260,30 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
       <c r="G3" s="40"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>5000</v>
@@ -21996,14 +21300,14 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="7">
         <v>5000</v>
@@ -22020,22 +21324,22 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="35">
+        <v>82</v>
+      </c>
+      <c r="H6" s="41">
         <v>1106</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="41">
         <v>500</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="41">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -22043,79 +21347,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="A7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="46">
         <v>15000</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="46">
         <v>300</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="46">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
       <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
       <c r="G8" s="39"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
       <c r="G9" s="40"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="35">
+        <v>83</v>
+      </c>
+      <c r="H10" s="41">
         <v>5000</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="41">
         <v>3500</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="41">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -22123,96 +21427,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
       <c r="G11" s="39"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
       <c r="G12" s="39"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
       <c r="G13" s="39"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
       <c r="G14" s="39"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
       <c r="G15" s="40"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="32">
+      <c r="A16" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="46">
         <v>12000</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="46">
         <v>600</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="46">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -22220,43 +21524,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="32">
+      <c r="A20" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="46">
         <v>12000</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="46">
         <v>600</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="46">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -22264,217 +21568,223 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="32">
+      <c r="A28" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="46">
         <v>7500</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="46">
         <v>1200</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="46">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32">
+      <c r="A33" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46">
         <v>265</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="32">
+      <c r="A36" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="46">
         <v>12500</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>75</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="E36" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="32">
+      <c r="A38" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="46">
         <v>12500</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>75</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>76</v>
       </c>
       <c r="E38" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -22491,23 +21801,17 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -22515,9 +21819,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22738,19 +22045,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22775,9 +22078,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF43E5F-DC8A-44A6-9A6D-8D9A2B50CFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D475CB0-52FA-4EB6-8353-C3562F34744D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -698,6 +704,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,7 +716,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -719,33 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,22 +1076,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.12</c:v>
+                  <c:v>12.528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.24</c:v>
+                  <c:v>25.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.360000000000007</c:v>
+                  <c:v>37.584000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.48</c:v>
+                  <c:v>50.112000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.599999999999994</c:v>
+                  <c:v>62.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.92</c:v>
+                  <c:v>75.168000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>79.92</c:v>
@@ -1096,16 +1103,16 @@
                   <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.6</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.015999999999998</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,7 +1262,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1264,7 +1271,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>30</c:v>
@@ -1629,6 +1636,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="778794072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2686,28 +2694,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1315.6394401664795</c:v>
+                  <c:v>712.71073477720108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2631.278880332959</c:v>
+                  <c:v>1425.4214695544022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3946.9183204994392</c:v>
+                  <c:v>2138.1322043316031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.5577606659181</c:v>
+                  <c:v>2850.8429391088043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6578.1972008323974</c:v>
+                  <c:v>3563.5536738860055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4276.2644086632063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,31 +2727,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.851253841088674</c:v>
+                  <c:v>17.610312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.38542245390695</c:v>
+                  <c:v>464.36505445273809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.11841556189643</c:v>
+                  <c:v>465.96856602523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.34007074187892</c:v>
+                  <c:v>468.64108531273797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.05038799385423</c:v>
+                  <c:v>472.38261231523813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.24936731782259</c:v>
+                  <c:v>477.1931470327379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.046088827919178</c:v>
+                  <c:v>483.07268946523817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>208.61822031845242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>39.362267937499993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,7 +2809,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31324748575392364</c:v>
+                  <c:v>0.2048019352808049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,7 +2821,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273.70882582259145</c:v>
+                  <c:v>739.76562896724909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,16 +2879,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4698.7122863088543</c:v>
+                  <c:v>409.60387056160982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3445.7223432931601</c:v>
+                  <c:v>204.80193528080491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566.2374287696184</c:v>
+                  <c:v>163.8415482246439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.6560207918155</c:v>
+                  <c:v>102.40096764040246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2892,16 +2900,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.142758217140639</c:v>
+                  <c:v>143.39589024592149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.44737931210653</c:v>
+                  <c:v>267.89442135936059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.04546450645537</c:v>
+                  <c:v>510.6774971411856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.63028406975417</c:v>
+                  <c:v>739.77666290748823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4956,28 +4964,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1315.6394401664795</c:v>
+                  <c:v>712.71073477720108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2631.278880332959</c:v>
+                  <c:v>1425.4214695544022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3946.9183204994392</c:v>
+                  <c:v>2138.1322043316031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.5577606659181</c:v>
+                  <c:v>2850.8429391088043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6578.1972008323974</c:v>
+                  <c:v>3563.5536738860055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4276.2644086632063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4989,31 +4997,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.851253841088674</c:v>
+                  <c:v>17.610312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.38542245390695</c:v>
+                  <c:v>464.36505445273809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.11841556189643</c:v>
+                  <c:v>465.96856602523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.34007074187892</c:v>
+                  <c:v>468.64108531273797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.05038799385423</c:v>
+                  <c:v>472.38261231523813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.24936731782259</c:v>
+                  <c:v>477.1931470327379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.046088827919178</c:v>
+                  <c:v>483.07268946523817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>208.61822031845242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>39.362267937499993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5083,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31324748575392364</c:v>
+                  <c:v>0.2048019352808049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,7 +5095,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273.70882582259145</c:v>
+                  <c:v>739.76562896724909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5145,16 +5153,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4698.7122863088543</c:v>
+                  <c:v>409.60387056160982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3445.7223432931601</c:v>
+                  <c:v>204.80193528080491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566.2374287696184</c:v>
+                  <c:v>163.8415482246439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.6560207918155</c:v>
+                  <c:v>102.40096764040246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5166,16 +5174,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.142758217140639</c:v>
+                  <c:v>143.39589024592149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.44737931210653</c:v>
+                  <c:v>267.89442135936059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.04546450645537</c:v>
+                  <c:v>510.6774971411856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.63028406975417</c:v>
+                  <c:v>739.77666290748823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,28 +7722,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1315.6394401664795</c:v>
+                  <c:v>712.71073477720108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2631.278880332959</c:v>
+                  <c:v>1425.4214695544022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3946.9183204994392</c:v>
+                  <c:v>2138.1322043316031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.5577606659181</c:v>
+                  <c:v>2850.8429391088043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6578.1972008323974</c:v>
+                  <c:v>3563.5536738860055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4276.2644086632063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7747,31 +7755,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.851253841088674</c:v>
+                  <c:v>17.610312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.38542245390695</c:v>
+                  <c:v>464.36505445273809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.11841556189643</c:v>
+                  <c:v>465.96856602523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.34007074187892</c:v>
+                  <c:v>468.64108531273797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.05038799385423</c:v>
+                  <c:v>472.38261231523813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.24936731782259</c:v>
+                  <c:v>477.1931470327379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.046088827919178</c:v>
+                  <c:v>483.07268946523817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>208.61822031845242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>39.362267937499993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7833,7 +7841,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31324748575392364</c:v>
+                  <c:v>0.2048019352808049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7845,7 +7853,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273.70882582259145</c:v>
+                  <c:v>739.76562896724909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7903,16 +7911,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4698.7122863088543</c:v>
+                  <c:v>409.60387056160982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3445.7223432931601</c:v>
+                  <c:v>204.80193528080491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566.2374287696184</c:v>
+                  <c:v>163.8415482246439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.6560207918155</c:v>
+                  <c:v>102.40096764040246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7924,16 +7932,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.142758217140639</c:v>
+                  <c:v>143.39589024592149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.44737931210653</c:v>
+                  <c:v>267.89442135936059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.04546450645537</c:v>
+                  <c:v>510.6774971411856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.63028406975417</c:v>
+                  <c:v>739.77666290748823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10030,28 +10038,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1315.6394401664795</c:v>
+                  <c:v>712.71073477720108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2631.278880332959</c:v>
+                  <c:v>1425.4214695544022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3946.9183204994392</c:v>
+                  <c:v>2138.1322043316031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.5577606659181</c:v>
+                  <c:v>2850.8429391088043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6578.1972008323974</c:v>
+                  <c:v>3563.5536738860055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4276.2644086632063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10063,31 +10071,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.851253841088674</c:v>
+                  <c:v>17.610312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.38542245390695</c:v>
+                  <c:v>464.36505445273809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.11841556189643</c:v>
+                  <c:v>465.96856602523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.34007074187892</c:v>
+                  <c:v>468.64108531273797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.05038799385423</c:v>
+                  <c:v>472.38261231523813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.24936731782259</c:v>
+                  <c:v>477.1931470327379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.046088827919178</c:v>
+                  <c:v>483.07268946523817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>208.61822031845242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>39.362267937499993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10145,7 +10153,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31324748575392364</c:v>
+                  <c:v>0.2048019352808049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10157,7 +10165,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273.70882582259145</c:v>
+                  <c:v>739.76562896724909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10215,16 +10223,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4698.7122863088543</c:v>
+                  <c:v>409.60387056160982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3445.7223432931601</c:v>
+                  <c:v>204.80193528080491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566.2374287696184</c:v>
+                  <c:v>163.8415482246439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.6560207918155</c:v>
+                  <c:v>102.40096764040246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10236,16 +10244,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.142758217140639</c:v>
+                  <c:v>143.39589024592149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.44737931210653</c:v>
+                  <c:v>267.89442135936059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.04546450645537</c:v>
+                  <c:v>510.6774971411856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.63028406975417</c:v>
+                  <c:v>739.77666290748823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12190,28 +12198,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1315.6394401664795</c:v>
+                  <c:v>712.71073477720108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2631.278880332959</c:v>
+                  <c:v>1425.4214695544022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3946.9183204994392</c:v>
+                  <c:v>2138.1322043316031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.5577606659181</c:v>
+                  <c:v>2850.8429391088043</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6578.1972008323974</c:v>
+                  <c:v>3563.5536738860055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4276.2644086632063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6954.0941837371056</c:v>
+                  <c:v>4546.6029632338686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12223,31 +12231,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>10.851253841088674</c:v>
+                  <c:v>17.610312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243.38542245390695</c:v>
+                  <c:v>464.36505445273809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244.11841556189643</c:v>
+                  <c:v>465.96856602523809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.34007074187892</c:v>
+                  <c:v>468.64108531273797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247.05038799385423</c:v>
+                  <c:v>472.38261231523813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.24936731782259</c:v>
+                  <c:v>477.1931470327379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.046088827919178</c:v>
+                  <c:v>483.07268946523817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>208.61822031845242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.677563805970149</c:v>
+                  <c:v>39.362267937499993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12305,7 +12313,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31324748575392364</c:v>
+                  <c:v>0.2048019352808049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12317,7 +12325,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273.70882582259145</c:v>
+                  <c:v>739.76562896724909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12375,16 +12383,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4698.7122863088543</c:v>
+                  <c:v>409.60387056160982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3445.7223432931601</c:v>
+                  <c:v>204.80193528080491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1566.2374287696184</c:v>
+                  <c:v>163.8415482246439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1741.6560207918155</c:v>
+                  <c:v>102.40096764040246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12396,16 +12404,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>68.142758217140639</c:v>
+                  <c:v>143.39589024592149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120.44737931210653</c:v>
+                  <c:v>267.89442135936059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172.04546450645537</c:v>
+                  <c:v>510.6774971411856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.63028406975417</c:v>
+                  <c:v>739.77666290748823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16413,8 +16421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
   <dimension ref="A1:V150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16437,7 +16445,7 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>50</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -16500,12 +16508,12 @@
         <v>3</v>
       </c>
       <c r="B2" s="26">
-        <v>7257</v>
+        <v>11000</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
@@ -16521,7 +16529,7 @@
       </c>
       <c r="I2" s="20">
         <f>$B$2*$B$3*$B$8</f>
-        <v>28476.468000000001</v>
+        <v>43164</v>
       </c>
       <c r="J2" s="20">
         <v>0</v>
@@ -16535,7 +16543,7 @@
       </c>
       <c r="M2" s="20">
         <f>$B$2*$B$3*$B$7*COS(K2)</f>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N2" s="20">
         <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
@@ -16547,11 +16555,11 @@
       </c>
       <c r="P2" s="20">
         <f>SUM(L2,M2,N2,O2)</f>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="Q2" s="20">
         <f>P2*$B$9</f>
-        <v>284.76468</v>
+        <v>355.02389999999997</v>
       </c>
       <c r="R2" s="20">
         <f>G2*60/2/PI()/$B$9</f>
@@ -16559,11 +16567,11 @@
       </c>
       <c r="S2" s="20">
         <f>$B$15*$B$16</f>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T2" s="20">
         <f>Q2/S2/$B$14</f>
-        <v>10.851253841088674</v>
+        <v>17.610312499999999</v>
       </c>
       <c r="U2" s="20">
         <f>R2*S2</f>
@@ -16584,25 +16592,25 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
       <c r="F3" s="20">
         <f>F2+$B$12*2</f>
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="G3" s="20">
         <f t="shared" ref="G3:G10" si="0">IF(F3&gt;$B$13,$B$13,F3)</f>
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="H3" s="21">
         <f>(G3-G2)/(E3-E2)</f>
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="I3" s="20">
         <f>$I$2/G3</f>
-        <v>6780.1114285714284</v>
+        <v>12403.448275862069</v>
       </c>
       <c r="J3" s="20">
         <v>0</v>
@@ -16616,43 +16624,43 @@
       </c>
       <c r="M3" s="20">
         <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*$B$7*COS(K3)</f>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" ref="N3:N15" si="3">0.5*$B$5*$B$6*$B$4*G3^2</f>
-        <v>16.029679680000001</v>
+        <v>22.926803760000002</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O15" si="4">$B$2*H3</f>
-        <v>15239.7</v>
+        <v>19140</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" ref="P3:P15" si="5">SUM(L3,M3,N3,O3)</f>
-        <v>15967.641379680001</v>
+        <v>19918.29680376</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" ref="Q3:Q15" si="6">P3*$B$9</f>
-        <v>6387.0565518720005</v>
+        <v>9361.5994977671999</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" ref="R3:R15" si="7">G3*60/2/PI()/$B$9</f>
-        <v>100.26761414789407</v>
+        <v>70.70543003742074</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" ref="S3:S15" si="8">$B$15*$B$16</f>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" ref="T3:T15" si="9">Q3/S3/$B$14</f>
-        <v>243.38542245390695</v>
+        <v>464.36505445273809</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" ref="U3:U15" si="10">R3*S3</f>
-        <v>1315.6394401664795</v>
+        <v>712.71073477720108</v>
       </c>
       <c r="V3" s="20">
         <f t="shared" ref="V3:V15" si="11">3600*G3/1000</f>
-        <v>15.12</v>
+        <v>12.528</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -16665,25 +16673,25 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="20">
         <v>4</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" ref="F4:F15" si="12">F3+$B$12*2</f>
-        <v>8.4</v>
+        <v>6.96</v>
       </c>
       <c r="G4" s="20">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>6.96</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H15" si="13">(G4-G3)/(E4-E3)</f>
-        <v>2.1</v>
+        <f t="shared" ref="H4:H10" si="13">(G4-G3)/(E4-E3)</f>
+        <v>1.74</v>
       </c>
       <c r="I4" s="20">
         <f>$I$2/G4</f>
-        <v>3390.0557142857142</v>
+        <v>6201.7241379310344</v>
       </c>
       <c r="J4" s="20">
         <v>0</v>
@@ -16697,43 +16705,43 @@
       </c>
       <c r="M4" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N4" s="20">
         <f t="shared" si="3"/>
-        <v>64.118718720000004</v>
+        <v>91.707215040000008</v>
       </c>
       <c r="O4" s="20">
         <f t="shared" si="4"/>
-        <v>15239.7</v>
+        <v>19140</v>
       </c>
       <c r="P4" s="20">
         <f t="shared" si="5"/>
-        <v>16015.730418720001</v>
+        <v>19987.077215040001</v>
       </c>
       <c r="Q4" s="20">
         <f t="shared" si="6"/>
-        <v>6406.2921674880008</v>
+        <v>9393.9262910687994</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" si="7"/>
-        <v>200.53522829578813</v>
+        <v>141.41086007484148</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="9"/>
-        <v>244.11841556189643</v>
+        <v>465.96856602523809</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="10"/>
-        <v>2631.278880332959</v>
+        <v>1425.4214695544022</v>
       </c>
       <c r="V4" s="20">
         <f t="shared" si="11"/>
-        <v>30.24</v>
+        <v>25.056000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -16746,25 +16754,25 @@
       <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="20">
         <v>6</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="12"/>
-        <v>12.600000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="G5" s="20">
         <f t="shared" si="0"/>
-        <v>12.600000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" si="13"/>
-        <v>2.1000000000000005</v>
+        <v>1.7399999999999998</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" ref="I5:I15" si="14">$I$2/G5</f>
-        <v>2260.0371428571425</v>
+        <v>4134.4827586206902</v>
       </c>
       <c r="J5" s="20">
         <v>0</v>
@@ -16778,43 +16786,43 @@
       </c>
       <c r="M5" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N5" s="20">
         <f t="shared" si="3"/>
-        <v>144.26711712000005</v>
+        <v>206.34123383999997</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="4"/>
-        <v>15239.700000000004</v>
+        <v>19139.999999999996</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="5"/>
-        <v>16095.878817120005</v>
+        <v>20101.711233839997</v>
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="6"/>
-        <v>6438.3515268480023</v>
+        <v>9447.804279904798</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="7"/>
-        <v>300.80284244368227</v>
+        <v>212.11629011226222</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="9"/>
-        <v>245.34007074187892</v>
+        <v>468.64108531273797</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="10"/>
-        <v>3946.9183204994392</v>
+        <v>2138.1322043316031</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="11"/>
-        <v>45.360000000000007</v>
+        <v>37.584000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -16822,28 +16830,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="26">
-        <v>0.36</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="35"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="20">
         <v>8</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="12"/>
-        <v>16.8</v>
+        <v>13.92</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>13.92</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="13"/>
-        <v>2.0999999999999996</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="14"/>
-        <v>1695.0278571428571</v>
+        <v>3100.8620689655172</v>
       </c>
       <c r="J6" s="20">
         <v>0</v>
@@ -16857,43 +16865,43 @@
       </c>
       <c r="M6" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N6" s="20">
         <f t="shared" si="3"/>
-        <v>256.47487488000002</v>
+        <v>366.82886016000003</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="4"/>
-        <v>15239.699999999997</v>
+        <v>19140.000000000004</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="5"/>
-        <v>16208.086574879997</v>
+        <v>20262.198860160002</v>
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="6"/>
-        <v>6483.2346299519995</v>
+        <v>9523.2334642752012</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="7"/>
-        <v>401.07045659157626</v>
+        <v>282.82172014968296</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="9"/>
-        <v>247.05038799385423</v>
+        <v>472.38261231523813</v>
       </c>
       <c r="U6" s="20">
         <f t="shared" si="10"/>
-        <v>5262.5577606659181</v>
+        <v>2850.8429391088043</v>
       </c>
       <c r="V6" s="20">
         <f t="shared" si="11"/>
-        <v>60.48</v>
+        <v>50.112000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -16901,28 +16909,28 @@
         <v>124</v>
       </c>
       <c r="B7" s="26">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="20">
         <v>10</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="H7" s="21">
         <f t="shared" si="13"/>
-        <v>2.0999999999999996</v>
+        <v>1.7399999999999993</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="14"/>
-        <v>1356.0222857142858</v>
+        <v>2480.6896551724139</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -16936,43 +16944,43 @@
       </c>
       <c r="M7" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N7" s="20">
         <f t="shared" si="3"/>
-        <v>400.74199200000004</v>
+        <v>573.17009399999995</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="4"/>
-        <v>15239.699999999997</v>
+        <v>19139.999999999993</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="5"/>
-        <v>16352.353691999997</v>
+        <v>20468.540093999993</v>
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="6"/>
-        <v>6540.9414767999988</v>
+        <v>9620.2138441799962</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="7"/>
-        <v>501.33807073947031</v>
+        <v>353.5271501871037</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="9"/>
-        <v>249.24936731782259</v>
+        <v>477.1931470327379</v>
       </c>
       <c r="U7" s="20">
         <f t="shared" si="10"/>
-        <v>6578.1972008323974</v>
+        <v>3563.5536738860055</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" si="11"/>
-        <v>75.599999999999994</v>
+        <v>62.639999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -16983,25 +16991,25 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="20">
         <v>12</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" si="12"/>
-        <v>25.2</v>
+        <v>20.88</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" si="0"/>
-        <v>22.2</v>
+        <v>20.88</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" si="13"/>
-        <v>0.59999999999999964</v>
+        <v>1.7400000000000002</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="14"/>
-        <v>1282.7237837837838</v>
+        <v>2067.2413793103451</v>
       </c>
       <c r="J8" s="20">
         <v>0</v>
@@ -17015,43 +17023,43 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" si="3"/>
-        <v>447.84962208000002</v>
+        <v>825.36493535999989</v>
       </c>
       <c r="O8" s="20">
         <f t="shared" si="4"/>
-        <v>4354.1999999999971</v>
+        <v>19140.000000000004</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="5"/>
-        <v>5513.9613220799965</v>
+        <v>20720.734935360004</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="6"/>
-        <v>2205.5845288319988</v>
+        <v>9738.7454196192011</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="7"/>
-        <v>529.98596049601144</v>
+        <v>424.23258022452444</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="9"/>
-        <v>84.046088827919178</v>
+        <v>483.07268946523817</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="10"/>
-        <v>6954.0941837371056</v>
+        <v>4276.2644086632063</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="11"/>
-        <v>79.92</v>
+        <v>75.168000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -17059,18 +17067,18 @@
         <v>9</v>
       </c>
       <c r="B9" s="26">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="20">
         <v>14</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="12"/>
-        <v>29.4</v>
+        <v>24.36</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="0"/>
@@ -17078,11 +17086,11 @@
       </c>
       <c r="H9" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.66000000000000014</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="14"/>
-        <v>1282.7237837837838</v>
+        <v>1944.3243243243244</v>
       </c>
       <c r="J9" s="20">
         <v>0</v>
@@ -17096,39 +17104,39 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="3"/>
-        <v>447.84962208000002</v>
+        <v>933.02004599999998</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7260.0000000000018</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="5"/>
-        <v>1159.7613220799999</v>
+        <v>8948.3900460000023</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="6"/>
-        <v>463.90452883199998</v>
+        <v>4205.7433216200006</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="7"/>
-        <v>529.98596049601144</v>
+        <v>451.05188127320127</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="9"/>
-        <v>17.677563805970149</v>
+        <v>208.61822031845242</v>
       </c>
       <c r="U9" s="20">
         <f t="shared" si="10"/>
-        <v>6954.0941837371056</v>
+        <v>4546.6029632338686</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="11"/>
@@ -17143,13 +17151,13 @@
         <v>0.95</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="35"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="20">
         <v>16</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="12"/>
-        <v>33.6</v>
+        <v>27.84</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="0"/>
@@ -17161,7 +17169,7 @@
       </c>
       <c r="I10" s="20">
         <f t="shared" si="14"/>
-        <v>1282.7237837837838</v>
+        <v>1944.3243243243244</v>
       </c>
       <c r="J10" s="20">
         <v>0</v>
@@ -17175,11 +17183,11 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="2"/>
-        <v>711.9117</v>
+        <v>755.37</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="3"/>
-        <v>447.84962208000002</v>
+        <v>933.02004599999998</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="4"/>
@@ -17187,27 +17195,27 @@
       </c>
       <c r="P10" s="20">
         <f t="shared" si="5"/>
-        <v>1159.7613220799999</v>
+        <v>1688.390046</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="6"/>
-        <v>463.90452883199998</v>
+        <v>793.54332161999992</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="7"/>
-        <v>529.98596049601144</v>
+        <v>451.05188127320127</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="9"/>
-        <v>17.677563805970149</v>
+        <v>39.362267937499993</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="10"/>
-        <v>6954.0941837371056</v>
+        <v>4546.6029632338686</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="11"/>
@@ -17219,18 +17227,18 @@
         <v>16</v>
       </c>
       <c r="B11" s="26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="24">
         <v>18</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="12"/>
-        <v>37.800000000000004</v>
+        <v>31.32</v>
       </c>
       <c r="G11" s="24">
         <v>1E-3</v>
@@ -17240,27 +17248,27 @@
       </c>
       <c r="I11" s="24">
         <f t="shared" si="14"/>
-        <v>28476468</v>
+        <v>43164000</v>
       </c>
       <c r="J11" s="24">
         <f>B11</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" s="24">
         <f>ATAN2(100, J11)</f>
-        <v>0.24497866312686414</v>
+        <v>0.2914567944778671</v>
       </c>
       <c r="L11" s="24">
         <f t="shared" si="1"/>
-        <v>17266.394913017837</v>
+        <v>31007.710331464335</v>
       </c>
       <c r="M11" s="24">
         <f t="shared" si="2"/>
-        <v>690.65579652071347</v>
+        <v>723.51324106750121</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="3"/>
-        <v>9.0871199999999999E-7</v>
+        <v>1.89315E-6</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" si="4"/>
@@ -17268,27 +17276,27 @@
       </c>
       <c r="P11" s="24">
         <f t="shared" si="5"/>
-        <v>17957.050710447264</v>
+        <v>31731.223574424985</v>
       </c>
       <c r="Q11" s="24">
         <f t="shared" si="6"/>
-        <v>7182.8202841789061</v>
+        <v>14913.675079979743</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="7"/>
-        <v>2.3873241463784299E-2</v>
+        <v>2.0317652309603661E-2</v>
       </c>
       <c r="S11" s="24">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" si="9"/>
-        <v>273.70882582259145</v>
+        <v>739.76562896724909</v>
       </c>
       <c r="U11" s="24">
         <f>R11*S11</f>
-        <v>0.31324748575392364</v>
+        <v>0.2048019352808049</v>
       </c>
       <c r="V11" s="24">
         <f t="shared" si="11"/>
@@ -17300,30 +17308,30 @@
         <v>18</v>
       </c>
       <c r="B12" s="26">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="22">
         <v>20</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="12"/>
-        <v>42.000000000000007</v>
-      </c>
-      <c r="G12" s="22">
-        <v>15</v>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G12" s="50">
+        <v>2</v>
       </c>
       <c r="H12" s="23">
         <v>0</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="14"/>
-        <v>1898.4312</v>
-      </c>
-      <c r="J12" s="22">
+        <v>21582</v>
+      </c>
+      <c r="J12" s="50">
         <v>5</v>
       </c>
       <c r="K12" s="22">
@@ -17332,15 +17340,15 @@
       </c>
       <c r="L12" s="22">
         <f t="shared" si="1"/>
-        <v>3555.1173772475126</v>
+        <v>5388.7682444154116</v>
       </c>
       <c r="M12" s="22">
         <f t="shared" si="2"/>
-        <v>711.02347544950248</v>
+        <v>754.42755421815752</v>
       </c>
       <c r="N12" s="22">
         <f t="shared" si="3"/>
-        <v>204.46020000000001</v>
+        <v>7.5726000000000004</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="4"/>
@@ -17348,31 +17356,31 @@
       </c>
       <c r="P12" s="22">
         <f t="shared" si="5"/>
-        <v>4470.6010526970158</v>
+        <v>6150.7683986335696</v>
       </c>
       <c r="Q12" s="22">
         <f t="shared" si="6"/>
-        <v>1788.2404210788063</v>
+        <v>2890.8611473577776</v>
       </c>
       <c r="R12" s="22">
         <f t="shared" si="7"/>
-        <v>358.09862195676448</v>
+        <v>40.635304619207325</v>
       </c>
       <c r="S12" s="22">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T12" s="22">
         <f t="shared" si="9"/>
-        <v>68.142758217140639</v>
+        <v>143.39589024592149</v>
       </c>
       <c r="U12" s="22">
         <f t="shared" si="10"/>
-        <v>4698.7122863088543</v>
+        <v>409.60387056160982</v>
       </c>
       <c r="V12" s="22">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -17385,25 +17393,25 @@
       <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="22">
         <v>22</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="12"/>
-        <v>46.20000000000001</v>
-      </c>
-      <c r="G13" s="22">
-        <v>11</v>
+        <v>38.279999999999994</v>
+      </c>
+      <c r="G13" s="50">
+        <v>1</v>
       </c>
       <c r="H13" s="23">
         <v>0</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="14"/>
-        <v>2588.7698181818182</v>
-      </c>
-      <c r="J13" s="22">
+        <v>43164</v>
+      </c>
+      <c r="J13" s="50">
         <v>10</v>
       </c>
       <c r="K13" s="22">
@@ -17412,15 +17420,15 @@
       </c>
       <c r="L13" s="22">
         <f t="shared" si="1"/>
-        <v>7083.7861764561685</v>
+        <v>10737.446319555995</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="2"/>
-        <v>708.37861764561671</v>
+        <v>751.62124236891952</v>
       </c>
       <c r="N13" s="22">
         <f t="shared" si="3"/>
-        <v>109.95415200000001</v>
+        <v>1.8931500000000001</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="4"/>
@@ -17428,31 +17436,31 @@
       </c>
       <c r="P13" s="22">
         <f t="shared" si="5"/>
-        <v>7902.1189461017857</v>
+        <v>11490.960711924914</v>
       </c>
       <c r="Q13" s="22">
         <f t="shared" si="6"/>
-        <v>3160.8475784407146</v>
+        <v>5400.7515346047094</v>
       </c>
       <c r="R13" s="22">
         <f t="shared" si="7"/>
-        <v>262.60565610162729</v>
+        <v>20.317652309603663</v>
       </c>
       <c r="S13" s="22">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T13" s="22">
         <f t="shared" si="9"/>
-        <v>120.44737931210653</v>
+        <v>267.89442135936059</v>
       </c>
       <c r="U13" s="22">
         <f t="shared" si="10"/>
-        <v>3445.7223432931601</v>
+        <v>204.80193528080491</v>
       </c>
       <c r="V13" s="22">
         <f t="shared" si="11"/>
-        <v>39.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -17463,42 +17471,42 @@
         <v>2</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="22">
         <v>24</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="12"/>
-        <v>50.400000000000013</v>
-      </c>
-      <c r="G14" s="22">
-        <v>5</v>
+        <v>41.759999999999991</v>
+      </c>
+      <c r="G14" s="50">
+        <v>0.8</v>
       </c>
       <c r="H14" s="23">
         <v>0</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="14"/>
-        <v>5695.2936</v>
-      </c>
-      <c r="J14" s="22">
-        <v>15</v>
+        <v>53955</v>
+      </c>
+      <c r="J14" s="50">
+        <v>20</v>
       </c>
       <c r="K14" s="22">
         <f t="shared" si="15"/>
-        <v>0.14888994760949725</v>
+        <v>0.19739555984988078</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="1"/>
-        <v>10560.530402434044</v>
+        <v>21162.89214276144</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="2"/>
-        <v>704.03536016226951</v>
+        <v>740.70122499665035</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="3"/>
-        <v>22.7178</v>
+        <v>1.2116160000000002</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="4"/>
@@ -17506,31 +17514,31 @@
       </c>
       <c r="P14" s="22">
         <f t="shared" si="5"/>
-        <v>11287.283562596314</v>
+        <v>21904.804983758091</v>
       </c>
       <c r="Q14" s="22">
         <f t="shared" si="6"/>
-        <v>4514.9134250385259</v>
+        <v>10295.258342366302</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="7"/>
-        <v>119.3662073189215</v>
+        <v>16.254121847682928</v>
       </c>
       <c r="S14" s="22">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T14" s="22">
         <f t="shared" si="9"/>
-        <v>172.04546450645537</v>
+        <v>510.6774971411856</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="10"/>
-        <v>1566.2374287696184</v>
+        <v>163.8415482246439</v>
       </c>
       <c r="V14" s="22">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -17541,25 +17549,25 @@
         <v>2.88</v>
       </c>
       <c r="C15" s="26"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="22">
         <v>26</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="12"/>
-        <v>54.600000000000016</v>
-      </c>
-      <c r="G15" s="22">
-        <v>5.56</v>
+        <v>45.239999999999988</v>
+      </c>
+      <c r="G15" s="50">
+        <v>0.5</v>
       </c>
       <c r="H15" s="23">
         <v>0</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="14"/>
-        <v>5121.6669064748203</v>
-      </c>
-      <c r="J15" s="22">
+        <v>86328</v>
+      </c>
+      <c r="J15" s="50">
         <v>30</v>
       </c>
       <c r="K15" s="22">
@@ -17568,15 +17576,15 @@
       </c>
       <c r="L15" s="22">
         <f t="shared" si="1"/>
-        <v>20456.632170494246</v>
+        <v>31007.710331464335</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="2"/>
-        <v>681.88773901647482</v>
+        <v>723.51324106750121</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="3"/>
-        <v>28.091559283199999</v>
+        <v>0.47328750000000003</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="4"/>
@@ -17584,31 +17592,31 @@
       </c>
       <c r="P15" s="22">
         <f t="shared" si="5"/>
-        <v>21166.611468793919</v>
+        <v>31731.696860031836</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="6"/>
-        <v>8466.6445875175687</v>
+        <v>14913.897524214963</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="7"/>
-        <v>132.7352225386407</v>
+        <v>10.158826154801831</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="8"/>
-        <v>13.12128</v>
+        <v>10.08</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="9"/>
-        <v>322.63028406975417</v>
+        <v>739.77666290748823</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="10"/>
-        <v>1741.6560207918155</v>
+        <v>102.40096764040246</v>
       </c>
       <c r="V15" s="22">
         <f t="shared" si="11"/>
-        <v>20.015999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -17616,10 +17624,10 @@
         <v>85</v>
       </c>
       <c r="B16" s="26">
-        <v>4.556</v>
+        <v>3.5</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="35"/>
+      <c r="D16" s="36"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
@@ -17628,7 +17636,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="35"/>
+      <c r="D17" s="36"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -17636,37 +17644,37 @@
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="36"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
@@ -17697,7 +17705,7 @@
       <c r="C22" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -17729,7 +17737,7 @@
       <c r="C23" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -17761,7 +17769,7 @@
         <f>B24*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -17792,7 +17800,7 @@
       <c r="C25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -17824,7 +17832,7 @@
         <f>B26*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D26" s="35"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -17856,7 +17864,7 @@
       <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -17889,7 +17897,7 @@
         <f>B28*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -17921,7 +17929,7 @@
       <c r="C29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -17954,7 +17962,7 @@
         <f>B30/2.23694</f>
         <v>22.351962949386213</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -17986,7 +17994,7 @@
       <c r="C31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -18019,7 +18027,7 @@
         <f>B32*0.277778</f>
         <v>5.5555600000000007</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -18034,17 +18042,17 @@
       <c r="C33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
@@ -18054,7 +18062,7 @@
         <f>B34*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="4" t="s">
         <v>51</v>
       </c>
@@ -18084,7 +18092,7 @@
       <c r="C35" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -18116,7 +18124,7 @@
         <f>B36*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D36" s="35"/>
+      <c r="D36" s="36"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -18146,7 +18154,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="33"/>
-      <c r="D37" s="35"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -18178,7 +18186,7 @@
       <c r="C38" s="28">
         <v>100</v>
       </c>
-      <c r="D38" s="35"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -18208,9 +18216,9 @@
         <v>87</v>
       </c>
       <c r="C39" s="28">
-        <v>11.2</v>
-      </c>
-      <c r="D39" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="D39" s="36"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -18241,9 +18249,9 @@
       </c>
       <c r="C40" s="30">
         <f>1000*C38/3600/C39</f>
-        <v>2.4801587301587302</v>
-      </c>
-      <c r="D40" s="35"/>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="D40" s="36"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -18269,7 +18277,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="35"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -18295,7 +18303,7 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="35"/>
+      <c r="D42" s="36"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -18321,7 +18329,7 @@
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="35"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -18347,7 +18355,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="35"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -18381,16 +18389,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
@@ -18741,17 +18749,17 @@
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
     </row>
     <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
@@ -19247,16 +19255,16 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
     </row>
     <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
@@ -20042,16 +20050,16 @@
       </c>
     </row>
     <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="34"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="34"/>
-      <c r="L111" s="34"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="35"/>
     </row>
     <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
@@ -20634,16 +20642,16 @@
       </c>
     </row>
     <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="34" t="s">
+      <c r="E133" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="34"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="34"/>
-      <c r="L133" s="34"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
     </row>
     <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
@@ -21164,7 +21172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
@@ -21227,31 +21235,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="44">
         <v>15000</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="44">
         <v>300</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="44">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="44">
         <v>4000</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="44">
         <v>125</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="44">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -21259,26 +21267,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -21299,10 +21307,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -21323,23 +21331,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="44">
         <v>1106</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="44">
         <v>500</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="44">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -21347,79 +21355,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>15000</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>300</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="44">
         <v>5000</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="44">
         <v>3500</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="44">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -21427,96 +21435,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="41">
         <v>12000</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>600</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -21524,43 +21532,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>12000</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>600</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -21568,79 +21576,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="41">
         <v>7500</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="41">
         <v>1200</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -21648,83 +21656,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41">
         <v>265</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="41">
         <v>12500</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E36" s="12">
@@ -21732,25 +21740,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="41">
         <v>12500</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="41" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="12">
@@ -21758,33 +21766,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -21801,17 +21803,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21819,12 +21827,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22045,15 +22050,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22078,10 +22087,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/TrovaCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D475CB0-52FA-4EB6-8353-C3562F34744D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B96C6DE6-D80B-45EE-A17B-89420AD46C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{39F182C3-0817-48F9-901E-E9D73C7012DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>Value</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Drag coefficient</t>
-  </si>
-  <si>
-    <t>Gradient</t>
   </si>
   <si>
     <t>%</t>
@@ -425,6 +422,15 @@
   <si>
     <t>Vehicle Speed Masked (kmph)</t>
   </si>
+  <si>
+    <t>Startability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradability </t>
+  </si>
+  <si>
+    <t>Max Speed on Max Grade</t>
+  </si>
 </sst>
 </file>
 
@@ -704,6 +710,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,22 +723,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -743,16 +741,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2694,28 +2700,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712.71073477720108</c:v>
+                  <c:v>975.02788021603192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425.4214695544022</c:v>
+                  <c:v>1950.0557604320638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2138.1322043316031</c:v>
+                  <c:v>2925.0836406480958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.8429391088043</c:v>
+                  <c:v>3900.1115208641277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3563.5536738860055</c:v>
+                  <c:v>4875.1394010801596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4276.2644086632063</c:v>
+                  <c:v>5850.1672812961915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,31 +2733,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.610312499999999</c:v>
+                  <c:v>12.872512690355329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.36505445273809</c:v>
+                  <c:v>339.43435452382886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.96856602523809</c:v>
+                  <c:v>340.6064645057578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.64108531273797</c:v>
+                  <c:v>342.55998114230596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.38261231523813</c:v>
+                  <c:v>345.29490443347362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.1931470327379</c:v>
+                  <c:v>348.81123437926021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483.07268946523817</c:v>
+                  <c:v>353.10897097966648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.61822031845242</c:v>
+                  <c:v>152.49250622262511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.362267937499993</c:v>
+                  <c:v>28.772419203045683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,7 +2815,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.2048019352808049</c:v>
+                  <c:v>0.28018042534943444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,7 +2827,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>739.76562896724909</c:v>
+                  <c:v>540.74238868672023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2879,16 +2885,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>409.60387056160982</c:v>
+                  <c:v>560.36085069886894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.80193528080491</c:v>
+                  <c:v>280.18042534943447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.8415482246439</c:v>
+                  <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40096764040246</c:v>
+                  <c:v>140.09021267471724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,16 +2906,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>143.39589024592149</c:v>
+                  <c:v>104.81730048432841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.89442135936059</c:v>
+                  <c:v>195.8213029225783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.6774971411856</c:v>
+                  <c:v>373.28710450929304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.77666290748823</c:v>
+                  <c:v>540.75045410496602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,28 +4970,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712.71073477720108</c:v>
+                  <c:v>975.02788021603192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425.4214695544022</c:v>
+                  <c:v>1950.0557604320638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2138.1322043316031</c:v>
+                  <c:v>2925.0836406480958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.8429391088043</c:v>
+                  <c:v>3900.1115208641277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3563.5536738860055</c:v>
+                  <c:v>4875.1394010801596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4276.2644086632063</c:v>
+                  <c:v>5850.1672812961915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,31 +5003,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.610312499999999</c:v>
+                  <c:v>12.872512690355329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.36505445273809</c:v>
+                  <c:v>339.43435452382886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.96856602523809</c:v>
+                  <c:v>340.6064645057578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.64108531273797</c:v>
+                  <c:v>342.55998114230596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.38261231523813</c:v>
+                  <c:v>345.29490443347362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.1931470327379</c:v>
+                  <c:v>348.81123437926021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483.07268946523817</c:v>
+                  <c:v>353.10897097966648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.61822031845242</c:v>
+                  <c:v>152.49250622262511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.362267937499993</c:v>
+                  <c:v>28.772419203045683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,7 +5089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.2048019352808049</c:v>
+                  <c:v>0.28018042534943444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5095,7 +5101,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>739.76562896724909</c:v>
+                  <c:v>540.74238868672023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5153,16 +5159,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>409.60387056160982</c:v>
+                  <c:v>560.36085069886894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.80193528080491</c:v>
+                  <c:v>280.18042534943447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.8415482246439</c:v>
+                  <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40096764040246</c:v>
+                  <c:v>140.09021267471724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5174,16 +5180,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>143.39589024592149</c:v>
+                  <c:v>104.81730048432841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.89442135936059</c:v>
+                  <c:v>195.8213029225783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.6774971411856</c:v>
+                  <c:v>373.28710450929304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.77666290748823</c:v>
+                  <c:v>540.75045410496602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,28 +7728,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712.71073477720108</c:v>
+                  <c:v>975.02788021603192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425.4214695544022</c:v>
+                  <c:v>1950.0557604320638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2138.1322043316031</c:v>
+                  <c:v>2925.0836406480958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.8429391088043</c:v>
+                  <c:v>3900.1115208641277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3563.5536738860055</c:v>
+                  <c:v>4875.1394010801596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4276.2644086632063</c:v>
+                  <c:v>5850.1672812961915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7755,31 +7761,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.610312499999999</c:v>
+                  <c:v>12.872512690355329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.36505445273809</c:v>
+                  <c:v>339.43435452382886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.96856602523809</c:v>
+                  <c:v>340.6064645057578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.64108531273797</c:v>
+                  <c:v>342.55998114230596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.38261231523813</c:v>
+                  <c:v>345.29490443347362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.1931470327379</c:v>
+                  <c:v>348.81123437926021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483.07268946523817</c:v>
+                  <c:v>353.10897097966648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.61822031845242</c:v>
+                  <c:v>152.49250622262511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.362267937499993</c:v>
+                  <c:v>28.772419203045683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7841,7 +7847,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.2048019352808049</c:v>
+                  <c:v>0.28018042534943444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7853,7 +7859,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>739.76562896724909</c:v>
+                  <c:v>540.74238868672023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,16 +7917,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>409.60387056160982</c:v>
+                  <c:v>560.36085069886894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.80193528080491</c:v>
+                  <c:v>280.18042534943447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.8415482246439</c:v>
+                  <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40096764040246</c:v>
+                  <c:v>140.09021267471724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7932,16 +7938,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>143.39589024592149</c:v>
+                  <c:v>104.81730048432841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.89442135936059</c:v>
+                  <c:v>195.8213029225783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.6774971411856</c:v>
+                  <c:v>373.28710450929304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.77666290748823</c:v>
+                  <c:v>540.75045410496602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10038,28 +10044,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712.71073477720108</c:v>
+                  <c:v>975.02788021603192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425.4214695544022</c:v>
+                  <c:v>1950.0557604320638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2138.1322043316031</c:v>
+                  <c:v>2925.0836406480958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.8429391088043</c:v>
+                  <c:v>3900.1115208641277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3563.5536738860055</c:v>
+                  <c:v>4875.1394010801596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4276.2644086632063</c:v>
+                  <c:v>5850.1672812961915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10071,31 +10077,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.610312499999999</c:v>
+                  <c:v>12.872512690355329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.36505445273809</c:v>
+                  <c:v>339.43435452382886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.96856602523809</c:v>
+                  <c:v>340.6064645057578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.64108531273797</c:v>
+                  <c:v>342.55998114230596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.38261231523813</c:v>
+                  <c:v>345.29490443347362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.1931470327379</c:v>
+                  <c:v>348.81123437926021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483.07268946523817</c:v>
+                  <c:v>353.10897097966648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.61822031845242</c:v>
+                  <c:v>152.49250622262511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.362267937499993</c:v>
+                  <c:v>28.772419203045683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10153,7 +10159,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.2048019352808049</c:v>
+                  <c:v>0.28018042534943444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10165,7 +10171,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>739.76562896724909</c:v>
+                  <c:v>540.74238868672023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10223,16 +10229,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>409.60387056160982</c:v>
+                  <c:v>560.36085069886894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.80193528080491</c:v>
+                  <c:v>280.18042534943447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.8415482246439</c:v>
+                  <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40096764040246</c:v>
+                  <c:v>140.09021267471724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10244,16 +10250,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>143.39589024592149</c:v>
+                  <c:v>104.81730048432841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.89442135936059</c:v>
+                  <c:v>195.8213029225783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.6774971411856</c:v>
+                  <c:v>373.28710450929304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.77666290748823</c:v>
+                  <c:v>540.75045410496602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12198,28 +12204,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712.71073477720108</c:v>
+                  <c:v>975.02788021603192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1425.4214695544022</c:v>
+                  <c:v>1950.0557604320638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2138.1322043316031</c:v>
+                  <c:v>2925.0836406480958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.8429391088043</c:v>
+                  <c:v>3900.1115208641277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3563.5536738860055</c:v>
+                  <c:v>4875.1394010801596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4276.2644086632063</c:v>
+                  <c:v>5850.1672812961915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4546.6029632338686</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12231,31 +12237,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.610312499999999</c:v>
+                  <c:v>12.872512690355329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464.36505445273809</c:v>
+                  <c:v>339.43435452382886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>465.96856602523809</c:v>
+                  <c:v>340.6064645057578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468.64108531273797</c:v>
+                  <c:v>342.55998114230596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>472.38261231523813</c:v>
+                  <c:v>345.29490443347362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>477.1931470327379</c:v>
+                  <c:v>348.81123437926021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>483.07268946523817</c:v>
+                  <c:v>353.10897097966648</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>208.61822031845242</c:v>
+                  <c:v>152.49250622262511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.362267937499993</c:v>
+                  <c:v>28.772419203045683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12313,7 +12319,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.2048019352808049</c:v>
+                  <c:v>0.28018042534943444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12325,7 +12331,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>739.76562896724909</c:v>
+                  <c:v>540.74238868672023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12383,16 +12389,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>409.60387056160982</c:v>
+                  <c:v>560.36085069886894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.80193528080491</c:v>
+                  <c:v>280.18042534943447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.8415482246439</c:v>
+                  <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.40096764040246</c:v>
+                  <c:v>140.09021267471724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12404,16 +12410,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>143.39589024592149</c:v>
+                  <c:v>104.81730048432841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267.89442135936059</c:v>
+                  <c:v>195.8213029225783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>510.6774971411856</c:v>
+                  <c:v>373.28710450929304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>739.77666290748823</c:v>
+                  <c:v>540.75045410496602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16100,8 +16106,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:C20" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C18" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:C18" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CCDE3EDB-E054-413C-AFDE-56A29684A6C8}" name="Input Parameters"/>
     <tableColumn id="2" xr3:uid="{FC7363B9-A23E-4AAE-9BB9-63CBCC8A657B}" name="Value"/>
@@ -16112,8 +16118,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98FDFAA6-6389-47BD-9831-E178C8BD82DB}" name="Table5" displayName="Table5" ref="B22:C40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B22:C40" xr:uid="{04793704-1FFF-4B61-A846-74179FE748ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98FDFAA6-6389-47BD-9831-E178C8BD82DB}" name="Table5" displayName="Table5" ref="B20:C38" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B20:C38" xr:uid="{04793704-1FFF-4B61-A846-74179FE748ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{98CC5645-18D7-42BB-BD7B-D49FC4CDC906}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2D7F94C4-4A51-49FB-B113-8DBB0ABFFE7A}" name="Column2"/>
@@ -16422,7 +16428,7 @@
   <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16445,62 +16451,62 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>50</v>
+      <c r="D1" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -16513,7 +16519,7 @@
       <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
@@ -16521,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="20">
-        <f>IF(F2&gt;$B$13,$B$13,F2)</f>
+        <f>IF(F2&gt;$B$15,$B$15,F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="21">
@@ -16566,12 +16572,12 @@
         <v>0</v>
       </c>
       <c r="S2" s="20">
-        <f>$B$15*$B$16</f>
-        <v>10.08</v>
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
       </c>
       <c r="T2" s="20">
-        <f>Q2/S2/$B$14</f>
-        <v>17.610312499999999</v>
+        <f>Q2/S2/$B$16</f>
+        <v>12.872512690355329</v>
       </c>
       <c r="U2" s="20">
         <f>R2*S2</f>
@@ -16592,16 +16598,16 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="20">
         <v>2</v>
       </c>
       <c r="F3" s="20">
-        <f>F2+$B$12*2</f>
+        <f>F2+$B$14*2</f>
         <v>3.48</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G10" si="0">IF(F3&gt;$B$13,$B$13,F3)</f>
+        <f>IF(F3&gt;$B$15,$B$15,F3)</f>
         <v>3.48</v>
       </c>
       <c r="H3" s="21">
@@ -16619,47 +16625,47 @@
         <v>0</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L15" si="1">$B$2*$B$3*SIN(K3)</f>
+        <f t="shared" ref="L3:L15" si="0">$B$2*$B$3*SIN(K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*$B$7*COS(K3)</f>
+        <f t="shared" ref="M3:M15" si="1">$B$2*$B$3*$B$7*COS(K3)</f>
         <v>755.37</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="3">0.5*$B$5*$B$6*$B$4*G3^2</f>
+        <f t="shared" ref="N3:N15" si="2">0.5*$B$5*$B$6*$B$4*G3^2</f>
         <v>22.926803760000002</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="4">$B$2*H3</f>
+        <f t="shared" ref="O3:O15" si="3">$B$2*H3</f>
         <v>19140</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" ref="P3:P15" si="5">SUM(L3,M3,N3,O3)</f>
+        <f t="shared" ref="P3:P15" si="4">SUM(L3,M3,N3,O3)</f>
         <v>19918.29680376</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q15" si="6">P3*$B$9</f>
+        <f t="shared" ref="Q3:Q15" si="5">P3*$B$9</f>
         <v>9361.5994977671999</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R15" si="7">G3*60/2/PI()/$B$9</f>
+        <f t="shared" ref="R3:R15" si="6">G3*60/2/PI()/$B$9</f>
         <v>70.70543003742074</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S15" si="8">$B$15*$B$16</f>
-        <v>10.08</v>
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" ref="T3:T15" si="9">Q3/S3/$B$14</f>
-        <v>464.36505445273809</v>
+        <f>Q3/S3/$B$16</f>
+        <v>339.43435452382886</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U15" si="10">R3*S3</f>
-        <v>712.71073477720108</v>
+        <f t="shared" ref="U3:U15" si="7">R3*S3</f>
+        <v>975.02788021603192</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V15" si="11">3600*G3/1000</f>
+        <f t="shared" ref="V3:V15" si="8">3600*G3/1000</f>
         <v>12.528</v>
       </c>
     </row>
@@ -16673,20 +16679,20 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="20">
         <v>4</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F15" si="12">F3+$B$12*2</f>
+        <f>F3+$B$14*2</f>
         <v>6.96</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F4&gt;$B$15,$B$15,F4)</f>
         <v>6.96</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H10" si="13">(G4-G3)/(E4-E3)</f>
+        <f t="shared" ref="H4:H10" si="9">(G4-G3)/(E4-E3)</f>
         <v>1.74</v>
       </c>
       <c r="I4" s="20">
@@ -16700,47 +16706,47 @@
         <v>0</v>
       </c>
       <c r="L4" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N4" s="20">
+        <v>91.707215040000008</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="3"/>
-        <v>91.707215040000008</v>
-      </c>
-      <c r="O4" s="20">
+        <v>19140</v>
+      </c>
+      <c r="P4" s="20">
         <f t="shared" si="4"/>
-        <v>19140</v>
-      </c>
-      <c r="P4" s="20">
+        <v>19987.077215040001</v>
+      </c>
+      <c r="Q4" s="20">
         <f t="shared" si="5"/>
-        <v>19987.077215040001</v>
-      </c>
-      <c r="Q4" s="20">
+        <v>9393.9262910687994</v>
+      </c>
+      <c r="R4" s="20">
         <f t="shared" si="6"/>
-        <v>9393.9262910687994</v>
-      </c>
-      <c r="R4" s="20">
+        <v>141.41086007484148</v>
+      </c>
+      <c r="S4" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T4" s="20">
+        <f>Q4/S4/$B$16</f>
+        <v>340.6064645057578</v>
+      </c>
+      <c r="U4" s="20">
         <f t="shared" si="7"/>
-        <v>141.41086007484148</v>
-      </c>
-      <c r="S4" s="20">
+        <v>1950.0557604320638</v>
+      </c>
+      <c r="V4" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T4" s="20">
-        <f t="shared" si="9"/>
-        <v>465.96856602523809</v>
-      </c>
-      <c r="U4" s="20">
-        <f t="shared" si="10"/>
-        <v>1425.4214695544022</v>
-      </c>
-      <c r="V4" s="20">
-        <f t="shared" si="11"/>
         <v>25.056000000000001</v>
       </c>
     </row>
@@ -16754,24 +16760,24 @@
       <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="20">
         <v>6</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="12"/>
+        <f>F4+$B$14*2</f>
         <v>10.44</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F5&gt;$B$15,$B$15,F5)</f>
         <v>10.44</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1.7399999999999998</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ref="I5:I15" si="14">$I$2/G5</f>
+        <f t="shared" ref="I5:I15" si="10">$I$2/G5</f>
         <v>4134.4827586206902</v>
       </c>
       <c r="J5" s="20">
@@ -16781,47 +16787,47 @@
         <v>0</v>
       </c>
       <c r="L5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N5" s="20">
+        <v>206.34123383999997</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="3"/>
-        <v>206.34123383999997</v>
-      </c>
-      <c r="O5" s="20">
+        <v>19139.999999999996</v>
+      </c>
+      <c r="P5" s="20">
         <f t="shared" si="4"/>
-        <v>19139.999999999996</v>
-      </c>
-      <c r="P5" s="20">
+        <v>20101.711233839997</v>
+      </c>
+      <c r="Q5" s="20">
         <f t="shared" si="5"/>
-        <v>20101.711233839997</v>
-      </c>
-      <c r="Q5" s="20">
+        <v>9447.804279904798</v>
+      </c>
+      <c r="R5" s="20">
         <f t="shared" si="6"/>
-        <v>9447.804279904798</v>
-      </c>
-      <c r="R5" s="20">
+        <v>212.11629011226222</v>
+      </c>
+      <c r="S5" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T5" s="20">
+        <f>Q5/S5/$B$16</f>
+        <v>342.55998114230596</v>
+      </c>
+      <c r="U5" s="20">
         <f t="shared" si="7"/>
-        <v>212.11629011226222</v>
-      </c>
-      <c r="S5" s="20">
+        <v>2925.0836406480958</v>
+      </c>
+      <c r="V5" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="9"/>
-        <v>468.64108531273797</v>
-      </c>
-      <c r="U5" s="20">
-        <f t="shared" si="10"/>
-        <v>2138.1322043316031</v>
-      </c>
-      <c r="V5" s="20">
-        <f t="shared" si="11"/>
         <v>37.584000000000003</v>
       </c>
     </row>
@@ -16833,24 +16839,24 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="20">
         <v>8</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="12"/>
+        <f>F5+$B$14*2</f>
         <v>13.92</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F6&gt;$B$15,$B$15,F6)</f>
         <v>13.92</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3100.8620689655172</v>
       </c>
       <c r="J6" s="20">
@@ -16860,76 +16866,76 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N6" s="20">
+        <v>366.82886016000003</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" si="3"/>
-        <v>366.82886016000003</v>
-      </c>
-      <c r="O6" s="20">
+        <v>19140.000000000004</v>
+      </c>
+      <c r="P6" s="20">
         <f t="shared" si="4"/>
-        <v>19140.000000000004</v>
-      </c>
-      <c r="P6" s="20">
+        <v>20262.198860160002</v>
+      </c>
+      <c r="Q6" s="20">
         <f t="shared" si="5"/>
-        <v>20262.198860160002</v>
-      </c>
-      <c r="Q6" s="20">
+        <v>9523.2334642752012</v>
+      </c>
+      <c r="R6" s="20">
         <f t="shared" si="6"/>
-        <v>9523.2334642752012</v>
-      </c>
-      <c r="R6" s="20">
+        <v>282.82172014968296</v>
+      </c>
+      <c r="S6" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T6" s="20">
+        <f>Q6/S6/$B$16</f>
+        <v>345.29490443347362</v>
+      </c>
+      <c r="U6" s="20">
         <f t="shared" si="7"/>
-        <v>282.82172014968296</v>
-      </c>
-      <c r="S6" s="20">
+        <v>3900.1115208641277</v>
+      </c>
+      <c r="V6" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="9"/>
-        <v>472.38261231523813</v>
-      </c>
-      <c r="U6" s="20">
-        <f t="shared" si="10"/>
-        <v>2850.8429391088043</v>
-      </c>
-      <c r="V6" s="20">
-        <f t="shared" si="11"/>
         <v>50.112000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="26">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="20">
         <v>10</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="12"/>
+        <f>F6+$B$14*2</f>
         <v>17.399999999999999</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F7&gt;$B$15,$B$15,F7)</f>
         <v>17.399999999999999</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1.7399999999999993</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2480.6896551724139</v>
       </c>
       <c r="J7" s="20">
@@ -16939,47 +16945,47 @@
         <v>0</v>
       </c>
       <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N7" s="20">
+        <v>573.17009399999995</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" si="3"/>
-        <v>573.17009399999995</v>
-      </c>
-      <c r="O7" s="20">
+        <v>19139.999999999993</v>
+      </c>
+      <c r="P7" s="20">
         <f t="shared" si="4"/>
-        <v>19139.999999999993</v>
-      </c>
-      <c r="P7" s="20">
+        <v>20468.540093999993</v>
+      </c>
+      <c r="Q7" s="20">
         <f t="shared" si="5"/>
-        <v>20468.540093999993</v>
-      </c>
-      <c r="Q7" s="20">
+        <v>9620.2138441799962</v>
+      </c>
+      <c r="R7" s="20">
         <f t="shared" si="6"/>
-        <v>9620.2138441799962</v>
-      </c>
-      <c r="R7" s="20">
+        <v>353.5271501871037</v>
+      </c>
+      <c r="S7" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T7" s="20">
+        <f>Q7/S7/$B$16</f>
+        <v>348.81123437926021</v>
+      </c>
+      <c r="U7" s="20">
         <f t="shared" si="7"/>
-        <v>353.5271501871037</v>
-      </c>
-      <c r="S7" s="20">
+        <v>4875.1394010801596</v>
+      </c>
+      <c r="V7" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="9"/>
-        <v>477.1931470327379</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" si="10"/>
-        <v>3563.5536738860055</v>
-      </c>
-      <c r="V7" s="20">
-        <f t="shared" si="11"/>
         <v>62.639999999999993</v>
       </c>
     </row>
@@ -16991,24 +16997,24 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="20">
         <v>12</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" si="12"/>
+        <f>F7+$B$14*2</f>
         <v>20.88</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F8&gt;$B$15,$B$15,F8)</f>
         <v>20.88</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>1.7400000000000002</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2067.2413793103451</v>
       </c>
       <c r="J8" s="20">
@@ -17018,47 +17024,47 @@
         <v>0</v>
       </c>
       <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N8" s="20">
+        <v>825.36493535999989</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" si="3"/>
-        <v>825.36493535999989</v>
-      </c>
-      <c r="O8" s="20">
+        <v>19140.000000000004</v>
+      </c>
+      <c r="P8" s="20">
         <f t="shared" si="4"/>
-        <v>19140.000000000004</v>
-      </c>
-      <c r="P8" s="20">
+        <v>20720.734935360004</v>
+      </c>
+      <c r="Q8" s="20">
         <f t="shared" si="5"/>
-        <v>20720.734935360004</v>
-      </c>
-      <c r="Q8" s="20">
+        <v>9738.7454196192011</v>
+      </c>
+      <c r="R8" s="20">
         <f t="shared" si="6"/>
-        <v>9738.7454196192011</v>
-      </c>
-      <c r="R8" s="20">
+        <v>424.23258022452444</v>
+      </c>
+      <c r="S8" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T8" s="20">
+        <f>Q8/S8/$B$16</f>
+        <v>353.10897097966648</v>
+      </c>
+      <c r="U8" s="20">
         <f t="shared" si="7"/>
-        <v>424.23258022452444</v>
-      </c>
-      <c r="S8" s="20">
+        <v>5850.1672812961915</v>
+      </c>
+      <c r="V8" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T8" s="20">
-        <f t="shared" si="9"/>
-        <v>483.07268946523817</v>
-      </c>
-      <c r="U8" s="20">
-        <f t="shared" si="10"/>
-        <v>4276.2644086632063</v>
-      </c>
-      <c r="V8" s="20">
-        <f t="shared" si="11"/>
         <v>75.168000000000006</v>
       </c>
     </row>
@@ -17072,24 +17078,24 @@
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="20">
         <v>14</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="12"/>
+        <f>F8+$B$14*2</f>
         <v>24.36</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F9&gt;$B$15,$B$15,F9)</f>
         <v>22.2</v>
       </c>
       <c r="H9" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1944.3243243243244</v>
       </c>
       <c r="J9" s="20">
@@ -17099,47 +17105,47 @@
         <v>0</v>
       </c>
       <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N9" s="20">
+        <v>933.02004599999998</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" si="3"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O9" s="20">
+        <v>7260.0000000000018</v>
+      </c>
+      <c r="P9" s="20">
         <f t="shared" si="4"/>
-        <v>7260.0000000000018</v>
-      </c>
-      <c r="P9" s="20">
+        <v>8948.3900460000023</v>
+      </c>
+      <c r="Q9" s="20">
         <f t="shared" si="5"/>
-        <v>8948.3900460000023</v>
-      </c>
-      <c r="Q9" s="20">
+        <v>4205.7433216200006</v>
+      </c>
+      <c r="R9" s="20">
         <f t="shared" si="6"/>
-        <v>4205.7433216200006</v>
-      </c>
-      <c r="R9" s="20">
+        <v>451.05188127320127</v>
+      </c>
+      <c r="S9" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T9" s="20">
+        <f>Q9/S9/$B$16</f>
+        <v>152.49250622262511</v>
+      </c>
+      <c r="U9" s="20">
         <f t="shared" si="7"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S9" s="20">
+        <v>6220.0054427574451</v>
+      </c>
+      <c r="V9" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T9" s="20">
-        <f t="shared" si="9"/>
-        <v>208.61822031845242</v>
-      </c>
-      <c r="U9" s="20">
-        <f t="shared" si="10"/>
-        <v>4546.6029632338686</v>
-      </c>
-      <c r="V9" s="20">
-        <f t="shared" si="11"/>
         <v>79.92</v>
       </c>
     </row>
@@ -17151,24 +17157,24 @@
         <v>0.95</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="20">
         <v>16</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="12"/>
+        <f>F9+$B$14*2</f>
         <v>27.84</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="0"/>
+        <f>IF(F10&gt;$B$15,$B$15,F10)</f>
         <v>22.2</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1944.3243243243244</v>
       </c>
       <c r="J10" s="20">
@@ -17178,66 +17184,66 @@
         <v>0</v>
       </c>
       <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
         <f t="shared" si="1"/>
+        <v>755.37</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="2"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="20">
-        <f t="shared" si="2"/>
-        <v>755.37</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="3"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O10" s="20">
+      <c r="P10" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+        <v>1688.390046</v>
+      </c>
+      <c r="Q10" s="20">
         <f t="shared" si="5"/>
-        <v>1688.390046</v>
-      </c>
-      <c r="Q10" s="20">
+        <v>793.54332161999992</v>
+      </c>
+      <c r="R10" s="20">
         <f t="shared" si="6"/>
-        <v>793.54332161999992</v>
-      </c>
-      <c r="R10" s="20">
+        <v>451.05188127320127</v>
+      </c>
+      <c r="S10" s="20">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T10" s="20">
+        <f>Q10/S10/$B$16</f>
+        <v>28.772419203045683</v>
+      </c>
+      <c r="U10" s="20">
         <f t="shared" si="7"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S10" s="20">
+        <v>6220.0054427574451</v>
+      </c>
+      <c r="V10" s="20">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T10" s="20">
-        <f t="shared" si="9"/>
-        <v>39.362267937499993</v>
-      </c>
-      <c r="U10" s="20">
-        <f t="shared" si="10"/>
-        <v>4546.6029632338686</v>
-      </c>
-      <c r="V10" s="20">
-        <f t="shared" si="11"/>
         <v>79.92</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B11" s="26">
         <v>30</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="37"/>
       <c r="E11" s="24">
         <v>18</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="12"/>
+        <f>F10+$B$14*2</f>
         <v>31.32</v>
       </c>
       <c r="G11" s="24">
@@ -17247,11 +17253,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>43164000</v>
       </c>
       <c r="J11" s="24">
-        <f>B11</f>
+        <f>Table2[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
       <c r="K11" s="24">
@@ -17259,453 +17265,475 @@
         <v>0.2914567944778671</v>
       </c>
       <c r="L11" s="24">
+        <f t="shared" si="0"/>
+        <v>31007.710331464335</v>
+      </c>
+      <c r="M11" s="24">
         <f t="shared" si="1"/>
-        <v>31007.710331464335</v>
-      </c>
-      <c r="M11" s="24">
+        <v>723.51324106750121</v>
+      </c>
+      <c r="N11" s="24">
         <f t="shared" si="2"/>
-        <v>723.51324106750121</v>
-      </c>
-      <c r="N11" s="24">
+        <v>1.89315E-6</v>
+      </c>
+      <c r="O11" s="24">
         <f t="shared" si="3"/>
-        <v>1.89315E-6</v>
-      </c>
-      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="24">
+        <v>31731.223574424985</v>
+      </c>
+      <c r="Q11" s="24">
         <f t="shared" si="5"/>
-        <v>31731.223574424985</v>
-      </c>
-      <c r="Q11" s="24">
+        <v>14913.675079979743</v>
+      </c>
+      <c r="R11" s="24">
         <f t="shared" si="6"/>
-        <v>14913.675079979743</v>
-      </c>
-      <c r="R11" s="24">
-        <f t="shared" si="7"/>
         <v>2.0317652309603661E-2</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" si="8"/>
-        <v>10.08</v>
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
       </c>
       <c r="T11" s="24">
-        <f t="shared" si="9"/>
-        <v>739.76562896724909</v>
+        <f>Q11/S11/$B$16</f>
+        <v>540.74238868672023</v>
       </c>
       <c r="U11" s="24">
         <f>R11*S11</f>
-        <v>0.2048019352808049</v>
+        <v>0.28018042534943444</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B12" s="26">
-        <v>1.74</v>
+        <v>30</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="22">
         <v>20</v>
       </c>
       <c r="F12" s="22">
-        <f t="shared" si="12"/>
+        <f>F11+$B$14*2</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="34">
         <v>2</v>
       </c>
       <c r="H12" s="23">
         <v>0</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>21582</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="34">
         <v>5</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" ref="K12:K15" si="15">ATAN2(100, J12)</f>
+        <f t="shared" ref="K12:K15" si="11">ATAN2(100, J12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="L12" s="22">
+        <f t="shared" si="0"/>
+        <v>5388.7682444154116</v>
+      </c>
+      <c r="M12" s="22">
         <f t="shared" si="1"/>
-        <v>5388.7682444154116</v>
-      </c>
-      <c r="M12" s="22">
+        <v>754.42755421815752</v>
+      </c>
+      <c r="N12" s="22">
         <f t="shared" si="2"/>
-        <v>754.42755421815752</v>
-      </c>
-      <c r="N12" s="22">
+        <v>7.5726000000000004</v>
+      </c>
+      <c r="O12" s="22">
         <f t="shared" si="3"/>
-        <v>7.5726000000000004</v>
-      </c>
-      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
+        <v>6150.7683986335696</v>
+      </c>
+      <c r="Q12" s="22">
         <f t="shared" si="5"/>
-        <v>6150.7683986335696</v>
-      </c>
-      <c r="Q12" s="22">
+        <v>2890.8611473577776</v>
+      </c>
+      <c r="R12" s="22">
         <f t="shared" si="6"/>
-        <v>2890.8611473577776</v>
-      </c>
-      <c r="R12" s="22">
+        <v>40.635304619207325</v>
+      </c>
+      <c r="S12" s="22">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T12" s="22">
+        <f>Q12/S12/$B$16</f>
+        <v>104.81730048432841</v>
+      </c>
+      <c r="U12" s="22">
         <f t="shared" si="7"/>
-        <v>40.635304619207325</v>
-      </c>
-      <c r="S12" s="22">
+        <v>560.36085069886894</v>
+      </c>
+      <c r="V12" s="22">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="9"/>
-        <v>143.39589024592149</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" si="10"/>
-        <v>409.60387056160982</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="26">
-        <v>22.2</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="22">
         <v>22</v>
       </c>
       <c r="F13" s="22">
-        <f t="shared" si="12"/>
+        <f>F12+$B$14*2</f>
         <v>38.279999999999994</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="34">
         <v>1</v>
       </c>
       <c r="H13" s="23">
         <v>0</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>43164</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="34">
         <v>10</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>9.9668652491162038E-2</v>
       </c>
       <c r="L13" s="22">
+        <f t="shared" si="0"/>
+        <v>10737.446319555995</v>
+      </c>
+      <c r="M13" s="22">
         <f t="shared" si="1"/>
-        <v>10737.446319555995</v>
-      </c>
-      <c r="M13" s="22">
+        <v>751.62124236891952</v>
+      </c>
+      <c r="N13" s="22">
         <f t="shared" si="2"/>
-        <v>751.62124236891952</v>
-      </c>
-      <c r="N13" s="22">
+        <v>1.8931500000000001</v>
+      </c>
+      <c r="O13" s="22">
         <f t="shared" si="3"/>
-        <v>1.8931500000000001</v>
-      </c>
-      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
+        <v>11490.960711924914</v>
+      </c>
+      <c r="Q13" s="22">
         <f t="shared" si="5"/>
-        <v>11490.960711924914</v>
-      </c>
-      <c r="Q13" s="22">
+        <v>5400.7515346047094</v>
+      </c>
+      <c r="R13" s="22">
         <f t="shared" si="6"/>
-        <v>5400.7515346047094</v>
-      </c>
-      <c r="R13" s="22">
+        <v>20.317652309603663</v>
+      </c>
+      <c r="S13" s="22">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T13" s="22">
+        <f>Q13/S13/$B$16</f>
+        <v>195.8213029225783</v>
+      </c>
+      <c r="U13" s="22">
         <f t="shared" si="7"/>
-        <v>20.317652309603663</v>
-      </c>
-      <c r="S13" s="22">
+        <v>280.18042534943447</v>
+      </c>
+      <c r="V13" s="22">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T13" s="22">
-        <f t="shared" si="9"/>
-        <v>267.89442135936059</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="10"/>
-        <v>204.80193528080491</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="11"/>
         <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B14" s="26">
-        <v>2</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="36"/>
+        <v>1.74</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37"/>
       <c r="E14" s="22">
         <v>24</v>
       </c>
       <c r="F14" s="22">
-        <f t="shared" si="12"/>
+        <f>F13+$B$14*2</f>
         <v>41.759999999999991</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="34">
         <v>0.8</v>
       </c>
       <c r="H14" s="23">
         <v>0</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>53955</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="34">
         <v>20</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.19739555984988078</v>
       </c>
       <c r="L14" s="22">
+        <f t="shared" si="0"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="M14" s="22">
         <f t="shared" si="1"/>
-        <v>21162.89214276144</v>
-      </c>
-      <c r="M14" s="22">
+        <v>740.70122499665035</v>
+      </c>
+      <c r="N14" s="22">
         <f t="shared" si="2"/>
-        <v>740.70122499665035</v>
-      </c>
-      <c r="N14" s="22">
+        <v>1.2116160000000002</v>
+      </c>
+      <c r="O14" s="22">
         <f t="shared" si="3"/>
-        <v>1.2116160000000002</v>
-      </c>
-      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
+        <v>21904.804983758091</v>
+      </c>
+      <c r="Q14" s="22">
         <f t="shared" si="5"/>
-        <v>21904.804983758091</v>
-      </c>
-      <c r="Q14" s="22">
+        <v>10295.258342366302</v>
+      </c>
+      <c r="R14" s="22">
         <f t="shared" si="6"/>
-        <v>10295.258342366302</v>
-      </c>
-      <c r="R14" s="22">
+        <v>16.254121847682928</v>
+      </c>
+      <c r="S14" s="22">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T14" s="22">
+        <f>Q14/S14/$B$16</f>
+        <v>373.28710450929304</v>
+      </c>
+      <c r="U14" s="22">
         <f t="shared" si="7"/>
-        <v>16.254121847682928</v>
-      </c>
-      <c r="S14" s="22">
+        <v>224.14434027954755</v>
+      </c>
+      <c r="V14" s="22">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T14" s="22">
-        <f t="shared" si="9"/>
-        <v>510.6774971411856</v>
-      </c>
-      <c r="U14" s="22">
-        <f t="shared" si="10"/>
-        <v>163.8415482246439</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="11"/>
         <v>2.88</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B15" s="26">
-        <v>2.88</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="36"/>
+        <v>22.2</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="37"/>
       <c r="E15" s="22">
         <v>26</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="12"/>
+        <f>F14+$B$14*2</f>
         <v>45.239999999999988</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="34">
+        <f>B13</f>
         <v>0.5</v>
       </c>
       <c r="H15" s="23">
         <v>0</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>86328</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="34">
+        <f>B12</f>
         <v>30</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0.2914567944778671</v>
       </c>
       <c r="L15" s="22">
+        <f t="shared" si="0"/>
+        <v>31007.710331464335</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="1"/>
-        <v>31007.710331464335</v>
-      </c>
-      <c r="M15" s="22">
+        <v>723.51324106750121</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="2"/>
-        <v>723.51324106750121</v>
-      </c>
-      <c r="N15" s="22">
+        <v>0.47328750000000003</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="3"/>
-        <v>0.47328750000000003</v>
-      </c>
-      <c r="O15" s="22">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
+        <v>31731.696860031836</v>
+      </c>
+      <c r="Q15" s="22">
         <f t="shared" si="5"/>
-        <v>31731.696860031836</v>
-      </c>
-      <c r="Q15" s="22">
+        <v>14913.897524214963</v>
+      </c>
+      <c r="R15" s="22">
         <f t="shared" si="6"/>
-        <v>14913.897524214963</v>
-      </c>
-      <c r="R15" s="22">
+        <v>10.158826154801831</v>
+      </c>
+      <c r="S15" s="22">
+        <f>$B$17*$B$18</f>
+        <v>13.79</v>
+      </c>
+      <c r="T15" s="22">
+        <f>Q15/S15/$B$16</f>
+        <v>540.75045410496602</v>
+      </c>
+      <c r="U15" s="22">
         <f t="shared" si="7"/>
-        <v>10.158826154801831</v>
-      </c>
-      <c r="S15" s="22">
+        <v>140.09021267471724</v>
+      </c>
+      <c r="V15" s="22">
         <f t="shared" si="8"/>
-        <v>10.08</v>
-      </c>
-      <c r="T15" s="22">
-        <f t="shared" si="9"/>
-        <v>739.77666290748823</v>
-      </c>
-      <c r="U15" s="22">
-        <f t="shared" si="10"/>
-        <v>102.40096764040246</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B16" s="26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="26">
+        <v>3.94</v>
+      </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="26">
+        <v>3.5</v>
+      </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="36"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="36"/>
+      <c r="A19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="37"/>
       <c r="E21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="36"/>
+      <c r="B22" s="31">
+        <v>65000</v>
+      </c>
+      <c r="C22" s="31">
+        <f>B22*0.453592</f>
+        <v>29483.48</v>
+      </c>
+      <c r="D22" s="37"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -17725,19 +17753,18 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="16">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="12">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="36"/>
+      <c r="C23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="37"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -17757,19 +17784,19 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
-        <v>65000</v>
+        <v>1</v>
       </c>
       <c r="C24" s="31">
-        <f>B24*0.453592</f>
-        <v>29483.48</v>
-      </c>
-      <c r="D24" s="36"/>
+        <f>B24*0.0254</f>
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="D24" s="37"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -17789,18 +17816,18 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="D25" s="37"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -17820,7 +17847,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17829,10 +17856,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="31">
-        <f>B26*0.0254</f>
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="D26" s="36"/>
+        <f>B26*4.44822</f>
+        <v>4.4482200000000001</v>
+      </c>
+      <c r="D26" s="37"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -17849,22 +17876,22 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="17">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="13">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="37"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -17881,23 +17908,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="31">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C28" s="31">
-        <f>B28*4.44822</f>
-        <v>4.4482200000000001</v>
-      </c>
-      <c r="D28" s="36"/>
+        <f>B28/2.23694</f>
+        <v>22.351962949386213</v>
+      </c>
+      <c r="D28" s="37"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -17914,11 +17941,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -17927,9 +17954,9 @@
         <v>44</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="36"/>
+        <v>19</v>
+      </c>
+      <c r="D29" s="37"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -17946,23 +17973,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>50.938775510204088</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C30" s="31">
-        <f>B30/2.23694</f>
-        <v>22.351962949386213</v>
-      </c>
-      <c r="D30" s="36"/>
+        <f>B30*0.277778</f>
+        <v>27.777800000000003</v>
+      </c>
+      <c r="D30" s="37"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -17979,11 +18006,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -17992,9 +18019,9 @@
         <v>45</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="36"/>
+        <v>46</v>
+      </c>
+      <c r="D31" s="37"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -18011,23 +18038,23 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>39.619047619047628</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C32" s="31">
-        <f>B32*0.277778</f>
-        <v>5.5555600000000007</v>
-      </c>
-      <c r="D32" s="36"/>
+        <f>B32*1.35582</f>
+        <v>1.35582</v>
+      </c>
+      <c r="D32" s="37"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -18037,62 +18064,60 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
         <v>1</v>
       </c>
       <c r="C34" s="31">
-        <f>B34*1.35582</f>
-        <v>1.35582</v>
-      </c>
-      <c r="D34" s="36"/>
+        <f>B34*0.7457</f>
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="D34" s="37"/>
       <c r="E34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="36"/>
+      <c r="B35" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -18112,19 +18137,18 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="18">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="14">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="31">
-        <v>1</v>
-      </c>
-      <c r="C36" s="31">
-        <f>B36*0.7457</f>
-        <v>0.74570000000000003</v>
-      </c>
-      <c r="D36" s="36"/>
+      <c r="B36" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="28">
+        <v>100</v>
+      </c>
+      <c r="D36" s="37"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -18141,20 +18165,22 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="19">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="15">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="28">
+        <v>16</v>
+      </c>
+      <c r="D37" s="37"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -18171,22 +18197,23 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="28">
-        <v>100</v>
-      </c>
-      <c r="D38" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="C38" s="30">
+        <f>1000*C36/3600/C37</f>
+        <v>1.7361111111111112</v>
+      </c>
+      <c r="D38" s="37"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -18203,22 +18230,16 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="28">
-        <v>16</v>
-      </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -18235,23 +18256,16 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="30">
-        <f>1000*C38/3600/C39</f>
-        <v>1.7361111111111112</v>
-      </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -18268,16 +18282,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D41" s="36"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -18294,16 +18308,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -18320,16 +18334,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="36"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -18346,16 +18360,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="36"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -18372,11 +18386,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -18389,38 +18403,38 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
+      <c r="E46" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -18444,7 +18458,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="20">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="16">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -18465,11 +18479,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="21">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="17">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18490,11 +18504,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18515,11 +18529,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18540,11 +18554,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18565,11 +18579,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18590,11 +18604,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18615,11 +18629,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18640,11 +18654,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -18665,11 +18679,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -18690,11 +18704,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -18715,11 +18729,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -18740,54 +18754,54 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>126.40374999999999</v>
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
+      <c r="E62" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
     </row>
     <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.25">
@@ -19255,44 +19269,44 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
+      <c r="E81" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
     </row>
     <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="I82" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="J82" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="K82" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="L82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.25">
@@ -20050,44 +20064,44 @@
       </c>
     </row>
     <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="35"/>
-      <c r="L111" s="35"/>
+      <c r="E111" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
     </row>
     <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F112" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="I112" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J112" s="4" t="s">
+      <c r="K112" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="L112" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="M112" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="113" spans="5:13" x14ac:dyDescent="0.25">
@@ -20642,44 +20656,44 @@
       </c>
     </row>
     <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
-      <c r="L133" s="35"/>
+      <c r="E133" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
+      <c r="L133" s="36"/>
     </row>
     <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F134" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="H134" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="I134" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="J134" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="K134" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="L134" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L134" s="2" t="s">
+      <c r="M134" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="M134" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="135" spans="5:13" x14ac:dyDescent="0.25">
@@ -21148,7 +21162,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="E133:L133"/>
     <mergeCell ref="E111:L111"/>
     <mergeCell ref="E81:L81"/>
@@ -21173,7 +21187,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC30" sqref="AC30"/>
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21204,62 +21218,62 @@
   <sheetData>
     <row r="1" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="44">
+      <c r="A2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="42">
         <v>15000</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="42">
         <v>300</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="42">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="44">
+      <c r="G2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="42">
         <v>4000</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="42">
         <v>125</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="42">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -21267,31 +21281,31 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
         <v>5000</v>
@@ -21307,15 +21321,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>5000</v>
@@ -21331,23 +21345,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="44">
+      <c r="G6" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="42">
         <v>1106</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="42">
         <v>500</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="42">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -21355,79 +21369,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="41">
+      <c r="A7" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="47">
         <v>15000</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="47">
         <v>300</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="47">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="44">
+      <c r="G10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="42">
         <v>5000</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="42">
         <v>3500</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="42">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -21435,96 +21449,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="41">
+      <c r="A16" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="47">
         <v>12000</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="47">
         <v>600</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="47">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -21532,43 +21546,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="41">
+      <c r="A20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="47">
         <v>12000</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="47">
         <v>600</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="47">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -21576,217 +21590,223 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="41">
+      <c r="A28" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="47">
         <v>7500</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="47">
         <v>1200</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="47">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41">
+      <c r="A33" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47">
         <v>265</v>
       </c>
-      <c r="D33" s="41"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="41">
+      <c r="A36" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="47">
         <v>12500</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="47" t="s">
         <v>74</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>75</v>
       </c>
       <c r="E36" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="41">
+      <c r="A38" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="47">
         <v>12500</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="47" t="s">
         <v>74</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="12">
         <v>5.67</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -21803,23 +21823,17 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21827,9 +21841,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22050,19 +22067,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22087,9 +22100,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/TrovaCV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{B96C6DE6-D80B-45EE-A17B-89420AD46C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{39F182C3-0817-48F9-901E-E9D73C7012DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98FF66-6BE2-48D6-91EB-40BD2C03B266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
   <si>
     <t>Value</t>
   </si>
@@ -431,6 +431,9 @@
   <si>
     <t>Max Speed on Max Grade</t>
   </si>
+  <si>
+    <t>Time Step</t>
+  </si>
 </sst>
 </file>
 
@@ -439,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,8 +466,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +512,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -627,11 +643,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,13 +755,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,26 +782,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1023,6 +1060,57 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -1031,94 +1119,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$V$2:$V$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.584000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.112000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.639999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.168000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79.92</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>79.92</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Application!$E$2:$E$15</c:f>
+              <c:f>Application!$G$2:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1193,43 +1230,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1305,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1280,7 +1317,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,11 +1381,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>time</a:t>
+                  <a:t>vehicle</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> [s]</a:t>
+                  <a:t> speed [km/hr] </a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1424,6 +1461,7 @@
         <c:axId val="967380448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1461,8 +1499,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>vehicle speed [Km/hr]</a:t>
+                  <a:t>time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1653,6 +1696,36 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2700,22 +2773,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975.02788021603192</c:v>
+                  <c:v>1120.7217013977379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0557604320638</c:v>
+                  <c:v>2241.4434027954758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2925.0836406480958</c:v>
+                  <c:v>3362.1651041932137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3900.1115208641277</c:v>
+                  <c:v>4482.8868055909516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4875.1394010801596</c:v>
+                  <c:v>5603.6085069886894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5850.1672812961915</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6220.0054427574451</c:v>
@@ -2733,31 +2806,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.872512690355329</c:v>
+                  <c:v>43.415474619289341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>339.43435452382886</c:v>
+                  <c:v>296.82506446700512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.6064645057578</c:v>
+                  <c:v>298.373630964467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.55998114230596</c:v>
+                  <c:v>300.95457512690353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.29490443347362</c:v>
+                  <c:v>304.56789695431473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348.81123437926021</c:v>
+                  <c:v>309.21359644670048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353.10897097966648</c:v>
+                  <c:v>198.40675169035529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.49250622262511</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.772419203045683</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,7 +2900,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>540.74238868672023</c:v>
+                  <c:v>1258.9259594020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2894,7 +2967,7 @@
                   <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.09021267471724</c:v>
+                  <c:v>84.054127604830342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,16 +2979,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.81730048432841</c:v>
+                  <c:v>353.21397416696402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.8213029225783</c:v>
+                  <c:v>660.37530049042368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.28710450929304</c:v>
+                  <c:v>1258.9466069230596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540.75045410496602</c:v>
+                  <c:v>1258.9288629319428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4970,22 +5043,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975.02788021603192</c:v>
+                  <c:v>1120.7217013977379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0557604320638</c:v>
+                  <c:v>2241.4434027954758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2925.0836406480958</c:v>
+                  <c:v>3362.1651041932137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3900.1115208641277</c:v>
+                  <c:v>4482.8868055909516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4875.1394010801596</c:v>
+                  <c:v>5603.6085069886894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5850.1672812961915</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6220.0054427574451</c:v>
@@ -5003,31 +5076,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.872512690355329</c:v>
+                  <c:v>43.415474619289341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>339.43435452382886</c:v>
+                  <c:v>296.82506446700512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.6064645057578</c:v>
+                  <c:v>298.373630964467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.55998114230596</c:v>
+                  <c:v>300.95457512690353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.29490443347362</c:v>
+                  <c:v>304.56789695431473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348.81123437926021</c:v>
+                  <c:v>309.21359644670048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353.10897097966648</c:v>
+                  <c:v>198.40675169035529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.49250622262511</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.772419203045683</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5101,7 +5174,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>540.74238868672023</c:v>
+                  <c:v>1258.9259594020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5168,7 +5241,7 @@
                   <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.09021267471724</c:v>
+                  <c:v>84.054127604830342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,16 +5253,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.81730048432841</c:v>
+                  <c:v>353.21397416696402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.8213029225783</c:v>
+                  <c:v>660.37530049042368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.28710450929304</c:v>
+                  <c:v>1258.9466069230596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540.75045410496602</c:v>
+                  <c:v>1258.9288629319428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,22 +7801,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975.02788021603192</c:v>
+                  <c:v>1120.7217013977379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0557604320638</c:v>
+                  <c:v>2241.4434027954758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2925.0836406480958</c:v>
+                  <c:v>3362.1651041932137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3900.1115208641277</c:v>
+                  <c:v>4482.8868055909516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4875.1394010801596</c:v>
+                  <c:v>5603.6085069886894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5850.1672812961915</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6220.0054427574451</c:v>
@@ -7761,31 +7834,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.872512690355329</c:v>
+                  <c:v>43.415474619289341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>339.43435452382886</c:v>
+                  <c:v>296.82506446700512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.6064645057578</c:v>
+                  <c:v>298.373630964467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.55998114230596</c:v>
+                  <c:v>300.95457512690353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.29490443347362</c:v>
+                  <c:v>304.56789695431473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348.81123437926021</c:v>
+                  <c:v>309.21359644670048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353.10897097966648</c:v>
+                  <c:v>198.40675169035529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.49250622262511</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.772419203045683</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7859,7 +7932,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>540.74238868672023</c:v>
+                  <c:v>1258.9259594020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7926,7 +7999,7 @@
                   <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.09021267471724</c:v>
+                  <c:v>84.054127604830342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7938,16 +8011,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.81730048432841</c:v>
+                  <c:v>353.21397416696402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.8213029225783</c:v>
+                  <c:v>660.37530049042368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.28710450929304</c:v>
+                  <c:v>1258.9466069230596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540.75045410496602</c:v>
+                  <c:v>1258.9288629319428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10044,22 +10117,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975.02788021603192</c:v>
+                  <c:v>1120.7217013977379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0557604320638</c:v>
+                  <c:v>2241.4434027954758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2925.0836406480958</c:v>
+                  <c:v>3362.1651041932137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3900.1115208641277</c:v>
+                  <c:v>4482.8868055909516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4875.1394010801596</c:v>
+                  <c:v>5603.6085069886894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5850.1672812961915</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6220.0054427574451</c:v>
@@ -10077,31 +10150,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.872512690355329</c:v>
+                  <c:v>43.415474619289341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>339.43435452382886</c:v>
+                  <c:v>296.82506446700512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.6064645057578</c:v>
+                  <c:v>298.373630964467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.55998114230596</c:v>
+                  <c:v>300.95457512690353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.29490443347362</c:v>
+                  <c:v>304.56789695431473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348.81123437926021</c:v>
+                  <c:v>309.21359644670048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353.10897097966648</c:v>
+                  <c:v>198.40675169035529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.49250622262511</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.772419203045683</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10171,7 +10244,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>540.74238868672023</c:v>
+                  <c:v>1258.9259594020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10238,7 +10311,7 @@
                   <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.09021267471724</c:v>
+                  <c:v>84.054127604830342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10250,16 +10323,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.81730048432841</c:v>
+                  <c:v>353.21397416696402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.8213029225783</c:v>
+                  <c:v>660.37530049042368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.28710450929304</c:v>
+                  <c:v>1258.9466069230596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540.75045410496602</c:v>
+                  <c:v>1258.9288629319428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12204,22 +12277,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>975.02788021603192</c:v>
+                  <c:v>1120.7217013977379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1950.0557604320638</c:v>
+                  <c:v>2241.4434027954758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2925.0836406480958</c:v>
+                  <c:v>3362.1651041932137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3900.1115208641277</c:v>
+                  <c:v>4482.8868055909516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4875.1394010801596</c:v>
+                  <c:v>5603.6085069886894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5850.1672812961915</c:v>
+                  <c:v>6220.0054427574451</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6220.0054427574451</c:v>
@@ -12237,31 +12310,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.872512690355329</c:v>
+                  <c:v>43.415474619289341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>339.43435452382886</c:v>
+                  <c:v>296.82506446700512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>340.6064645057578</c:v>
+                  <c:v>298.373630964467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>342.55998114230596</c:v>
+                  <c:v>300.95457512690353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>345.29490443347362</c:v>
+                  <c:v>304.56789695431473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>348.81123437926021</c:v>
+                  <c:v>309.21359644670048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>353.10897097966648</c:v>
+                  <c:v>198.40675169035529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.49250622262511</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.772419203045683</c:v>
+                  <c:v>59.315381131979699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12331,7 +12404,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>540.74238868672023</c:v>
+                  <c:v>1258.9259594020218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12398,7 +12471,7 @@
                   <c:v>224.14434027954755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.09021267471724</c:v>
+                  <c:v>84.054127604830342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12410,16 +12483,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>104.81730048432841</c:v>
+                  <c:v>353.21397416696402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>195.8213029225783</c:v>
+                  <c:v>660.37530049042368</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373.28710450929304</c:v>
+                  <c:v>1258.9466069230596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540.75045410496602</c:v>
+                  <c:v>1258.9288629319428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15892,10 +15965,10 @@
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16428,7 +16501,7 @@
   <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16514,7 +16587,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="26">
-        <v>11000</v>
+        <v>37100</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2</v>
@@ -16527,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="20">
-        <f>IF(F2&gt;$B$15,$B$15,F2)</f>
+        <f t="shared" ref="G2:G10" si="0">IF(F2&gt;$B$15,$B$15,F2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="21">
@@ -16535,7 +16608,7 @@
       </c>
       <c r="I2" s="20">
         <f>$B$2*$B$3*$B$8</f>
-        <v>43164</v>
+        <v>145580.4</v>
       </c>
       <c r="J2" s="20">
         <v>0</v>
@@ -16549,7 +16622,7 @@
       </c>
       <c r="M2" s="20">
         <f>$B$2*$B$3*$B$7*COS(K2)</f>
-        <v>755.37</v>
+        <v>2547.6570000000002</v>
       </c>
       <c r="N2" s="20">
         <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
@@ -16561,23 +16634,23 @@
       </c>
       <c r="P2" s="20">
         <f>SUM(L2,M2,N2,O2)</f>
-        <v>755.37</v>
+        <v>2547.6570000000002</v>
       </c>
       <c r="Q2" s="20">
         <f>P2*$B$9</f>
-        <v>355.02389999999997</v>
+        <v>1197.39879</v>
       </c>
       <c r="R2" s="20">
         <f>G2*60/2/PI()/$B$9</f>
         <v>0</v>
       </c>
       <c r="S2" s="20">
-        <f>$B$17*$B$18</f>
+        <f t="shared" ref="S2:S15" si="1">$B$17*$B$18</f>
         <v>13.79</v>
       </c>
       <c r="T2" s="20">
-        <f>Q2/S2/$B$16</f>
-        <v>12.872512690355329</v>
+        <f t="shared" ref="T2:T15" si="2">Q2/S2/$B$16</f>
+        <v>43.415474619289341</v>
       </c>
       <c r="U2" s="20">
         <f>R2*S2</f>
@@ -16600,23 +16673,24 @@
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="20">
-        <v>2</v>
+        <f>E2+$B$40</f>
+        <v>10</v>
       </c>
       <c r="F3" s="20">
-        <f>F2+$B$14*2</f>
-        <v>3.48</v>
+        <f>F2+$B$14*(E3-E2)</f>
+        <v>4</v>
       </c>
       <c r="G3" s="20">
-        <f>IF(F3&gt;$B$15,$B$15,F3)</f>
-        <v>3.48</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H3" s="21">
         <f>(G3-G2)/(E3-E2)</f>
-        <v>1.74</v>
+        <v>0.4</v>
       </c>
       <c r="I3" s="20">
         <f>$I$2/G3</f>
-        <v>12403.448275862069</v>
+        <v>36395.1</v>
       </c>
       <c r="J3" s="20">
         <v>0</v>
@@ -16625,48 +16699,48 @@
         <v>0</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L15" si="0">$B$2*$B$3*SIN(K3)</f>
+        <f t="shared" ref="L3:L15" si="3">$B$2*$B$3*SIN(K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="1">$B$2*$B$3*$B$7*COS(K3)</f>
-        <v>755.37</v>
+        <f t="shared" ref="M3:M15" si="4">$B$2*$B$3*$B$7*COS(K3)</f>
+        <v>2547.6570000000002</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="2">0.5*$B$5*$B$6*$B$4*G3^2</f>
-        <v>22.926803760000002</v>
+        <f t="shared" ref="N3:N15" si="5">0.5*$B$5*$B$6*$B$4*G3^2</f>
+        <v>30.290400000000002</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="3">$B$2*H3</f>
-        <v>19140</v>
+        <f t="shared" ref="O3:O15" si="6">$B$2*H3</f>
+        <v>14840</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" ref="P3:P15" si="4">SUM(L3,M3,N3,O3)</f>
-        <v>19918.29680376</v>
+        <f t="shared" ref="P3:P15" si="7">SUM(L3,M3,N3,O3)</f>
+        <v>17417.947400000001</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q15" si="5">P3*$B$9</f>
-        <v>9361.5994977671999</v>
+        <f t="shared" ref="Q3:Q15" si="8">P3*$B$9</f>
+        <v>8186.4352779999999</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R15" si="6">G3*60/2/PI()/$B$9</f>
-        <v>70.70543003742074</v>
+        <f t="shared" ref="R3:R15" si="9">G3*60/2/PI()/$B$9</f>
+        <v>81.27060923841465</v>
       </c>
       <c r="S3" s="20">
-        <f>$B$17*$B$18</f>
+        <f t="shared" si="1"/>
         <v>13.79</v>
       </c>
       <c r="T3" s="20">
-        <f>Q3/S3/$B$16</f>
-        <v>339.43435452382886</v>
+        <f t="shared" si="2"/>
+        <v>296.82506446700512</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U15" si="7">R3*S3</f>
-        <v>975.02788021603192</v>
+        <f t="shared" ref="U3:U15" si="10">R3*S3</f>
+        <v>1120.7217013977379</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V15" si="8">3600*G3/1000</f>
-        <v>12.528</v>
+        <f t="shared" ref="V3:V15" si="11">3600*G3/1000</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -16681,23 +16755,24 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="20">
-        <v>4</v>
+        <f t="shared" ref="E4:E15" si="12">E3+$B$40</f>
+        <v>20</v>
       </c>
       <c r="F4" s="20">
-        <f>F3+$B$14*2</f>
-        <v>6.96</v>
+        <f t="shared" ref="F4:F15" si="13">F3+$B$14*(E4-E3)</f>
+        <v>8</v>
       </c>
       <c r="G4" s="20">
-        <f>IF(F4&gt;$B$15,$B$15,F4)</f>
-        <v>6.96</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H4" s="21">
-        <f t="shared" ref="H4:H10" si="9">(G4-G3)/(E4-E3)</f>
-        <v>1.74</v>
+        <f t="shared" ref="H4:H10" si="14">(G4-G3)/(E4-E3)</f>
+        <v>0.4</v>
       </c>
       <c r="I4" s="20">
         <f>$I$2/G4</f>
-        <v>6201.7241379310344</v>
+        <v>18197.55</v>
       </c>
       <c r="J4" s="20">
         <v>0</v>
@@ -16706,48 +16781,48 @@
         <v>0</v>
       </c>
       <c r="L4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M4" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" si="5"/>
+        <v>121.16160000000001</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="6"/>
+        <v>14840</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" si="7"/>
+        <v>17508.818599999999</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="8"/>
+        <v>8229.1447419999986</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="9"/>
+        <v>162.5412184768293</v>
+      </c>
+      <c r="S4" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N4" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T4" s="20">
         <f t="shared" si="2"/>
-        <v>91.707215040000008</v>
-      </c>
-      <c r="O4" s="20">
-        <f t="shared" si="3"/>
-        <v>19140</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="4"/>
-        <v>19987.077215040001</v>
-      </c>
-      <c r="Q4" s="20">
-        <f t="shared" si="5"/>
-        <v>9393.9262910687994</v>
-      </c>
-      <c r="R4" s="20">
-        <f t="shared" si="6"/>
-        <v>141.41086007484148</v>
-      </c>
-      <c r="S4" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T4" s="20">
-        <f>Q4/S4/$B$16</f>
-        <v>340.6064645057578</v>
+        <v>298.373630964467</v>
       </c>
       <c r="U4" s="20">
-        <f t="shared" si="7"/>
-        <v>1950.0557604320638</v>
+        <f t="shared" si="10"/>
+        <v>2241.4434027954758</v>
       </c>
       <c r="V4" s="20">
-        <f t="shared" si="8"/>
-        <v>25.056000000000001</v>
+        <f t="shared" si="11"/>
+        <v>28.8</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -16762,23 +16837,24 @@
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="20">
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>30</v>
       </c>
       <c r="F5" s="20">
-        <f>F4+$B$14*2</f>
-        <v>10.44</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="G5" s="20">
-        <f>IF(F5&gt;$B$15,$B$15,F5)</f>
-        <v>10.44</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H5" s="21">
-        <f t="shared" si="9"/>
-        <v>1.7399999999999998</v>
+        <f t="shared" si="14"/>
+        <v>0.4</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" ref="I5:I15" si="10">$I$2/G5</f>
-        <v>4134.4827586206902</v>
+        <f t="shared" ref="I5:I15" si="15">$I$2/G5</f>
+        <v>12131.699999999999</v>
       </c>
       <c r="J5" s="20">
         <v>0</v>
@@ -16787,48 +16863,48 @@
         <v>0</v>
       </c>
       <c r="L5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M5" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="5"/>
+        <v>272.61360000000002</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="6"/>
+        <v>14840</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="7"/>
+        <v>17660.2706</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="8"/>
+        <v>8300.3271819999991</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="9"/>
+        <v>243.81182771524394</v>
+      </c>
+      <c r="S5" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N5" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T5" s="20">
         <f t="shared" si="2"/>
-        <v>206.34123383999997</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" si="3"/>
-        <v>19139.999999999996</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="4"/>
-        <v>20101.711233839997</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="5"/>
-        <v>9447.804279904798</v>
-      </c>
-      <c r="R5" s="20">
-        <f t="shared" si="6"/>
-        <v>212.11629011226222</v>
-      </c>
-      <c r="S5" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T5" s="20">
-        <f>Q5/S5/$B$16</f>
-        <v>342.55998114230596</v>
+        <v>300.95457512690353</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" si="7"/>
-        <v>2925.0836406480958</v>
+        <f t="shared" si="10"/>
+        <v>3362.1651041932137</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="8"/>
-        <v>37.584000000000003</v>
+        <f t="shared" si="11"/>
+        <v>43.2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -16841,23 +16917,24 @@
       <c r="C6" s="26"/>
       <c r="D6" s="37"/>
       <c r="E6" s="20">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>40</v>
       </c>
       <c r="F6" s="20">
-        <f>F5+$B$14*2</f>
-        <v>13.92</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="G6" s="20">
-        <f>IF(F6&gt;$B$15,$B$15,F6)</f>
-        <v>13.92</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="9"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="14"/>
+        <v>0.4</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="10"/>
-        <v>3100.8620689655172</v>
+        <f t="shared" si="15"/>
+        <v>9098.7749999999996</v>
       </c>
       <c r="J6" s="20">
         <v>0</v>
@@ -16866,48 +16943,48 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M6" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="5"/>
+        <v>484.64640000000003</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="6"/>
+        <v>14840</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="7"/>
+        <v>17872.303400000001</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="8"/>
+        <v>8399.9825980000005</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="9"/>
+        <v>325.0824369536586</v>
+      </c>
+      <c r="S6" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N6" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T6" s="20">
         <f t="shared" si="2"/>
-        <v>366.82886016000003</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" si="3"/>
-        <v>19140.000000000004</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="4"/>
-        <v>20262.198860160002</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="5"/>
-        <v>9523.2334642752012</v>
-      </c>
-      <c r="R6" s="20">
-        <f t="shared" si="6"/>
-        <v>282.82172014968296</v>
-      </c>
-      <c r="S6" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T6" s="20">
-        <f>Q6/S6/$B$16</f>
-        <v>345.29490443347362</v>
+        <v>304.56789695431473</v>
       </c>
       <c r="U6" s="20">
-        <f t="shared" si="7"/>
-        <v>3900.1115208641277</v>
+        <f t="shared" si="10"/>
+        <v>4482.8868055909516</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="8"/>
-        <v>50.112000000000002</v>
+        <f t="shared" si="11"/>
+        <v>57.6</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -16920,23 +16997,24 @@
       <c r="C7" s="26"/>
       <c r="D7" s="37"/>
       <c r="E7" s="20">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>50</v>
       </c>
       <c r="F7" s="20">
-        <f>F6+$B$14*2</f>
-        <v>17.399999999999999</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="G7" s="20">
-        <f>IF(F7&gt;$B$15,$B$15,F7)</f>
-        <v>17.399999999999999</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="9"/>
-        <v>1.7399999999999993</v>
+        <f t="shared" si="14"/>
+        <v>0.4</v>
       </c>
       <c r="I7" s="20">
-        <f t="shared" si="10"/>
-        <v>2480.6896551724139</v>
+        <f t="shared" si="15"/>
+        <v>7279.0199999999995</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -16945,48 +17023,48 @@
         <v>0</v>
       </c>
       <c r="L7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M7" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="5"/>
+        <v>757.26</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="6"/>
+        <v>14840</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="7"/>
+        <v>18144.917000000001</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="8"/>
+        <v>8528.1109899999992</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="9"/>
+        <v>406.35304619207324</v>
+      </c>
+      <c r="S7" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N7" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T7" s="20">
         <f t="shared" si="2"/>
-        <v>573.17009399999995</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="3"/>
-        <v>19139.999999999993</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="4"/>
-        <v>20468.540093999993</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="5"/>
-        <v>9620.2138441799962</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" si="6"/>
-        <v>353.5271501871037</v>
-      </c>
-      <c r="S7" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T7" s="20">
-        <f>Q7/S7/$B$16</f>
-        <v>348.81123437926021</v>
+        <v>309.21359644670048</v>
       </c>
       <c r="U7" s="20">
-        <f t="shared" si="7"/>
-        <v>4875.1394010801596</v>
+        <f t="shared" si="10"/>
+        <v>5603.6085069886894</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" si="8"/>
-        <v>62.639999999999993</v>
+        <f t="shared" si="11"/>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -16999,23 +17077,24 @@
       <c r="C8" s="26"/>
       <c r="D8" s="37"/>
       <c r="E8" s="20">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>60</v>
       </c>
       <c r="F8" s="20">
-        <f>F7+$B$14*2</f>
-        <v>20.88</v>
+        <f t="shared" si="13"/>
+        <v>24</v>
       </c>
       <c r="G8" s="20">
-        <f>IF(F8&gt;$B$15,$B$15,F8)</f>
-        <v>20.88</v>
+        <f t="shared" si="0"/>
+        <v>22.2</v>
       </c>
       <c r="H8" s="21">
-        <f t="shared" si="9"/>
-        <v>1.7400000000000002</v>
+        <f t="shared" si="14"/>
+        <v>0.21999999999999992</v>
       </c>
       <c r="I8" s="20">
-        <f t="shared" si="10"/>
-        <v>2067.2413793103451</v>
+        <f t="shared" si="15"/>
+        <v>6557.6756756756758</v>
       </c>
       <c r="J8" s="20">
         <v>0</v>
@@ -17024,48 +17103,48 @@
         <v>0</v>
       </c>
       <c r="L8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M8" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="5"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="6"/>
+        <v>8161.9999999999973</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="7"/>
+        <v>11642.677045999997</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="8"/>
+        <v>5472.0582116199985</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="9"/>
+        <v>451.05188127320127</v>
+      </c>
+      <c r="S8" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N8" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T8" s="20">
         <f t="shared" si="2"/>
-        <v>825.36493535999989</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" si="3"/>
-        <v>19140.000000000004</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="4"/>
-        <v>20720.734935360004</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="5"/>
-        <v>9738.7454196192011</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" si="6"/>
-        <v>424.23258022452444</v>
-      </c>
-      <c r="S8" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T8" s="20">
-        <f>Q8/S8/$B$16</f>
-        <v>353.10897097966648</v>
+        <v>198.40675169035529</v>
       </c>
       <c r="U8" s="20">
-        <f t="shared" si="7"/>
-        <v>5850.1672812961915</v>
+        <f t="shared" si="10"/>
+        <v>6220.0054427574451</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="8"/>
-        <v>75.168000000000006</v>
+        <f t="shared" si="11"/>
+        <v>79.92</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -17080,23 +17159,24 @@
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="20">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>70</v>
       </c>
       <c r="F9" s="20">
-        <f>F8+$B$14*2</f>
-        <v>24.36</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="G9" s="20">
-        <f>IF(F9&gt;$B$15,$B$15,F9)</f>
+        <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
       <c r="H9" s="21">
-        <f t="shared" si="9"/>
-        <v>0.66000000000000014</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="I9" s="20">
-        <f t="shared" si="10"/>
-        <v>1944.3243243243244</v>
+        <f t="shared" si="15"/>
+        <v>6557.6756756756758</v>
       </c>
       <c r="J9" s="20">
         <v>0</v>
@@ -17105,47 +17185,47 @@
         <v>0</v>
       </c>
       <c r="L9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M9" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="5"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="7"/>
+        <v>3480.6770460000002</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="8"/>
+        <v>1635.91821162</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="9"/>
+        <v>451.05188127320127</v>
+      </c>
+      <c r="S9" s="20">
         <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N9" s="20">
+        <v>13.79</v>
+      </c>
+      <c r="T9" s="20">
         <f t="shared" si="2"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O9" s="20">
-        <f t="shared" si="3"/>
-        <v>7260.0000000000018</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="4"/>
-        <v>8948.3900460000023</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="5"/>
-        <v>4205.7433216200006</v>
-      </c>
-      <c r="R9" s="20">
-        <f t="shared" si="6"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S9" s="20">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T9" s="20">
-        <f>Q9/S9/$B$16</f>
-        <v>152.49250622262511</v>
+        <v>59.315381131979699</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6220.0054427574451</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>79.92</v>
       </c>
     </row>
@@ -17159,23 +17239,24 @@
       <c r="C10" s="26"/>
       <c r="D10" s="37"/>
       <c r="E10" s="20">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="F10" s="20">
-        <f>F9+$B$14*2</f>
-        <v>27.84</v>
+        <f t="shared" si="13"/>
+        <v>32</v>
       </c>
       <c r="G10" s="20">
-        <f>IF(F10&gt;$B$15,$B$15,F10)</f>
+        <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
       <c r="H10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I10" s="20">
-        <f t="shared" si="10"/>
-        <v>1944.3243243243244</v>
+        <f t="shared" si="15"/>
+        <v>6557.6756756756758</v>
       </c>
       <c r="J10" s="20">
         <v>0</v>
@@ -17184,47 +17265,47 @@
         <v>0</v>
       </c>
       <c r="L10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" si="1"/>
-        <v>755.37</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="2"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O10" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="M10" s="20">
+        <f t="shared" si="4"/>
+        <v>2547.6570000000002</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="5"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="20">
-        <f t="shared" si="4"/>
-        <v>1688.390046</v>
+        <f t="shared" si="7"/>
+        <v>3480.6770460000002</v>
       </c>
       <c r="Q10" s="20">
-        <f t="shared" si="5"/>
-        <v>793.54332161999992</v>
+        <f t="shared" si="8"/>
+        <v>1635.91821162</v>
       </c>
       <c r="R10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>451.05188127320127</v>
       </c>
       <c r="S10" s="20">
-        <f>$B$17*$B$18</f>
+        <f t="shared" si="1"/>
         <v>13.79</v>
       </c>
       <c r="T10" s="20">
-        <f>Q10/S10/$B$16</f>
-        <v>28.772419203045683</v>
+        <f t="shared" si="2"/>
+        <v>59.315381131979699</v>
       </c>
       <c r="U10" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6220.0054427574451</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>79.92</v>
       </c>
     </row>
@@ -17233,18 +17314,19 @@
         <v>128</v>
       </c>
       <c r="B11" s="26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="24">
-        <v>18</v>
+      <c r="E11" s="20">
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="F11" s="24">
-        <f>F10+$B$14*2</f>
-        <v>31.32</v>
+        <f t="shared" si="13"/>
+        <v>36</v>
       </c>
       <c r="G11" s="24">
         <v>1E-3</v>
@@ -17253,59 +17335,59 @@
         <v>0</v>
       </c>
       <c r="I11" s="24">
-        <f t="shared" si="10"/>
-        <v>43164000</v>
+        <f t="shared" si="15"/>
+        <v>145580400</v>
       </c>
       <c r="J11" s="24">
         <f>Table2[[#This Row],[Value]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" s="24">
         <f>ATAN2(100, J11)</f>
-        <v>0.2914567944778671</v>
+        <v>0.19739555984988078</v>
       </c>
       <c r="L11" s="24">
-        <f t="shared" si="0"/>
-        <v>31007.710331464335</v>
+        <f t="shared" si="3"/>
+        <v>71376.663499677219</v>
       </c>
       <c r="M11" s="24">
+        <f t="shared" si="4"/>
+        <v>2498.1832224887025</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="5"/>
+        <v>1.89315E-6</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="24">
+        <f t="shared" si="7"/>
+        <v>73874.846724059069</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="8"/>
+        <v>34721.177960307759</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="9"/>
+        <v>2.0317652309603661E-2</v>
+      </c>
+      <c r="S11" s="24">
         <f t="shared" si="1"/>
-        <v>723.51324106750121</v>
-      </c>
-      <c r="N11" s="24">
+        <v>13.79</v>
+      </c>
+      <c r="T11" s="24">
         <f t="shared" si="2"/>
-        <v>1.89315E-6</v>
-      </c>
-      <c r="O11" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" si="4"/>
-        <v>31731.223574424985</v>
-      </c>
-      <c r="Q11" s="24">
-        <f t="shared" si="5"/>
-        <v>14913.675079979743</v>
-      </c>
-      <c r="R11" s="24">
-        <f t="shared" si="6"/>
-        <v>2.0317652309603661E-2</v>
-      </c>
-      <c r="S11" s="24">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T11" s="24">
-        <f>Q11/S11/$B$16</f>
-        <v>540.74238868672023</v>
+        <v>1258.9259594020218</v>
       </c>
       <c r="U11" s="24">
         <f>R11*S11</f>
         <v>0.28018042534943444</v>
       </c>
       <c r="V11" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -17314,18 +17396,19 @@
         <v>129</v>
       </c>
       <c r="B12" s="26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="22">
-        <v>20</v>
+      <c r="E12" s="20">
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="F12" s="22">
-        <f>F11+$B$14*2</f>
-        <v>34.799999999999997</v>
+        <f t="shared" si="13"/>
+        <v>40</v>
       </c>
       <c r="G12" s="34">
         <v>2</v>
@@ -17334,58 +17417,58 @@
         <v>0</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="10"/>
-        <v>21582</v>
+        <f t="shared" si="15"/>
+        <v>72790.2</v>
       </c>
       <c r="J12" s="34">
         <v>5</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" ref="K12:K15" si="11">ATAN2(100, J12)</f>
+        <f t="shared" ref="K12:K15" si="16">ATAN2(100, J12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" si="0"/>
-        <v>5388.7682444154116</v>
+        <f t="shared" si="3"/>
+        <v>18174.845624346526</v>
       </c>
       <c r="M12" s="22">
+        <f t="shared" si="4"/>
+        <v>2544.4783874085133</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="5"/>
+        <v>7.5726000000000004</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="7"/>
+        <v>20726.896611755037</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="8"/>
+        <v>9741.6414075248667</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="9"/>
+        <v>40.635304619207325</v>
+      </c>
+      <c r="S12" s="22">
         <f t="shared" si="1"/>
-        <v>754.42755421815752</v>
-      </c>
-      <c r="N12" s="22">
+        <v>13.79</v>
+      </c>
+      <c r="T12" s="22">
         <f t="shared" si="2"/>
-        <v>7.5726000000000004</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="4"/>
-        <v>6150.7683986335696</v>
-      </c>
-      <c r="Q12" s="22">
-        <f t="shared" si="5"/>
-        <v>2890.8611473577776</v>
-      </c>
-      <c r="R12" s="22">
-        <f t="shared" si="6"/>
-        <v>40.635304619207325</v>
-      </c>
-      <c r="S12" s="22">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T12" s="22">
-        <f>Q12/S12/$B$16</f>
-        <v>104.81730048432841</v>
+        <v>353.21397416696402</v>
       </c>
       <c r="U12" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>560.36085069886894</v>
       </c>
       <c r="V12" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
@@ -17394,18 +17477,19 @@
         <v>130</v>
       </c>
       <c r="B13" s="26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="22">
-        <v>22</v>
+      <c r="E13" s="20">
+        <f t="shared" si="12"/>
+        <v>110</v>
       </c>
       <c r="F13" s="22">
-        <f>F12+$B$14*2</f>
-        <v>38.279999999999994</v>
+        <f t="shared" si="13"/>
+        <v>44</v>
       </c>
       <c r="G13" s="34">
         <v>1</v>
@@ -17414,58 +17498,58 @@
         <v>0</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="10"/>
-        <v>43164</v>
+        <f t="shared" si="15"/>
+        <v>145580.4</v>
       </c>
       <c r="J13" s="34">
         <v>10</v>
       </c>
       <c r="K13" s="22">
+        <f t="shared" si="16"/>
+        <v>9.9668652491162038E-2</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="3"/>
+        <v>36214.478041411581</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="4"/>
+        <v>2535.0134628988103</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="5"/>
+        <v>1.8931500000000001</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="7"/>
+        <v>38751.384654310394</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="8"/>
+        <v>18213.150787525883</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="9"/>
+        <v>20.317652309603663</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="1"/>
+        <v>13.79</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="2"/>
+        <v>660.37530049042368</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="10"/>
+        <v>280.18042534943447</v>
+      </c>
+      <c r="V13" s="22">
         <f t="shared" si="11"/>
-        <v>9.9668652491162038E-2</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="0"/>
-        <v>10737.446319555995</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="1"/>
-        <v>751.62124236891952</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="2"/>
-        <v>1.8931500000000001</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="4"/>
-        <v>11490.960711924914</v>
-      </c>
-      <c r="Q13" s="22">
-        <f t="shared" si="5"/>
-        <v>5400.7515346047094</v>
-      </c>
-      <c r="R13" s="22">
-        <f t="shared" si="6"/>
-        <v>20.317652309603663</v>
-      </c>
-      <c r="S13" s="22">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T13" s="22">
-        <f>Q13/S13/$B$16</f>
-        <v>195.8213029225783</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="7"/>
-        <v>280.18042534943447</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="8"/>
         <v>3.6</v>
       </c>
     </row>
@@ -17474,18 +17558,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="26">
-        <v>1.74</v>
+        <v>0.4</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="37"/>
-      <c r="E14" s="22">
-        <v>24</v>
+      <c r="E14" s="20">
+        <f t="shared" si="12"/>
+        <v>120</v>
       </c>
       <c r="F14" s="22">
-        <f>F13+$B$14*2</f>
-        <v>41.759999999999991</v>
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
       <c r="G14" s="34">
         <v>0.8</v>
@@ -17494,58 +17579,58 @@
         <v>0</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="10"/>
-        <v>53955</v>
+        <f t="shared" si="15"/>
+        <v>181975.49999999997</v>
       </c>
       <c r="J14" s="34">
         <v>20</v>
       </c>
       <c r="K14" s="22">
+        <f t="shared" si="16"/>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="3"/>
+        <v>71376.663499677219</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="4"/>
+        <v>2498.1832224887025</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="5"/>
+        <v>1.2116160000000002</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="7"/>
+        <v>73876.058338165923</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="8"/>
+        <v>34721.747418937979</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="9"/>
+        <v>16.254121847682928</v>
+      </c>
+      <c r="S14" s="22">
+        <f t="shared" si="1"/>
+        <v>13.79</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="2"/>
+        <v>1258.9466069230596</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="10"/>
+        <v>224.14434027954755</v>
+      </c>
+      <c r="V14" s="22">
         <f t="shared" si="11"/>
-        <v>0.19739555984988078</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="0"/>
-        <v>21162.89214276144</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="1"/>
-        <v>740.70122499665035</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="2"/>
-        <v>1.2116160000000002</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <f t="shared" si="4"/>
-        <v>21904.804983758091</v>
-      </c>
-      <c r="Q14" s="22">
-        <f t="shared" si="5"/>
-        <v>10295.258342366302</v>
-      </c>
-      <c r="R14" s="22">
-        <f t="shared" si="6"/>
-        <v>16.254121847682928</v>
-      </c>
-      <c r="S14" s="22">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T14" s="22">
-        <f>Q14/S14/$B$16</f>
-        <v>373.28710450929304</v>
-      </c>
-      <c r="U14" s="22">
-        <f t="shared" si="7"/>
-        <v>224.14434027954755</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="8"/>
         <v>2.88</v>
       </c>
     </row>
@@ -17560,75 +17645,76 @@
         <v>19</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="22">
-        <v>26</v>
+      <c r="E15" s="20">
+        <f t="shared" si="12"/>
+        <v>130</v>
       </c>
       <c r="F15" s="22">
-        <f>F14+$B$14*2</f>
-        <v>45.239999999999988</v>
+        <f t="shared" si="13"/>
+        <v>52</v>
       </c>
       <c r="G15" s="34">
         <f>B13</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H15" s="23">
         <v>0</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="10"/>
-        <v>86328</v>
+        <f t="shared" si="15"/>
+        <v>485268</v>
       </c>
       <c r="J15" s="34">
         <f>B12</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" s="22">
+        <f t="shared" si="16"/>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="L15" s="22">
+        <f t="shared" si="3"/>
+        <v>71376.663499677219</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="4"/>
+        <v>2498.1832224887025</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="5"/>
+        <v>0.17038349999999999</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="7"/>
+        <v>73875.017105665916</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="8"/>
+        <v>34721.258039662978</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="9"/>
+        <v>6.0952956928810984</v>
+      </c>
+      <c r="S15" s="22">
+        <f t="shared" si="1"/>
+        <v>13.79</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="2"/>
+        <v>1258.9288629319428</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="10"/>
+        <v>84.054127604830342</v>
+      </c>
+      <c r="V15" s="22">
         <f t="shared" si="11"/>
-        <v>0.2914567944778671</v>
-      </c>
-      <c r="L15" s="22">
-        <f t="shared" si="0"/>
-        <v>31007.710331464335</v>
-      </c>
-      <c r="M15" s="22">
-        <f t="shared" si="1"/>
-        <v>723.51324106750121</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="2"/>
-        <v>0.47328750000000003</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <f t="shared" si="4"/>
-        <v>31731.696860031836</v>
-      </c>
-      <c r="Q15" s="22">
-        <f t="shared" si="5"/>
-        <v>14913.897524214963</v>
-      </c>
-      <c r="R15" s="22">
-        <f t="shared" si="6"/>
-        <v>10.158826154801831</v>
-      </c>
-      <c r="S15" s="22">
-        <f>$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
-      <c r="T15" s="22">
-        <f>Q15/S15/$B$16</f>
-        <v>540.75045410496602</v>
-      </c>
-      <c r="U15" s="22">
-        <f t="shared" si="7"/>
-        <v>140.09021267471724</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -17753,7 +17839,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="12">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="17">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17784,7 +17870,7 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17816,7 +17902,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17847,7 +17933,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17876,11 +17962,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="13">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="18">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17908,11 +17994,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -17941,11 +18027,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -17973,11 +18059,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>50.938775510204088</v>
       </c>
     </row>
@@ -18006,11 +18092,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -18038,11 +18124,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>39.619047619047628</v>
       </c>
     </row>
@@ -18062,7 +18148,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>47</v>
       </c>
@@ -18081,7 +18167,7 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
     </row>
-    <row r="34" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
         <v>1</v>
       </c>
@@ -18112,7 +18198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>17</v>
       </c>
@@ -18137,11 +18223,11 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="14">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="19">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="28" t="s">
         <v>85</v>
       </c>
@@ -18165,15 +18251,15 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="15">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="20">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="28" t="s">
         <v>86</v>
       </c>
@@ -18197,15 +18283,15 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
         <v>5</v>
       </c>
@@ -18230,15 +18316,15 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="37"/>
       <c r="E39" s="5">
         <v>2000</v>
@@ -18256,15 +18342,24 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="52">
+        <v>10</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>86</v>
+      </c>
       <c r="D40" s="37"/>
       <c r="E40" s="5">
         <v>2650</v>
@@ -18282,15 +18377,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D41" s="37"/>
       <c r="E41" s="5">
         <v>3000</v>
@@ -18308,15 +18403,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>105.26896551724138</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" s="37"/>
       <c r="E42" s="5">
         <v>3500</v>
@@ -18334,15 +18429,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>90.23054187192119</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" s="37"/>
       <c r="E43" s="5">
         <v>4000</v>
@@ -18360,15 +18455,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>78.951724137931052</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D44" s="37"/>
       <c r="E44" s="5">
         <v>4500</v>
@@ -18386,15 +18481,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>70.179310344827584</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -18402,7 +18497,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46" s="36" t="s">
         <v>59</v>
       </c>
@@ -18414,7 +18509,7 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>50</v>
       </c>
@@ -18437,7 +18532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E48" s="5">
         <v>0</v>
       </c>
@@ -18458,7 +18553,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="16">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="21">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -18479,11 +18574,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="17">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="22">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18504,11 +18599,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18529,11 +18624,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18554,11 +18649,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18579,11 +18674,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18604,11 +18699,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18629,11 +18724,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>239.25</v>
       </c>
     </row>
@@ -18654,11 +18749,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -18679,11 +18774,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -18704,11 +18799,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -18729,11 +18824,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -18754,11 +18849,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>126.40374999999999</v>
       </c>
     </row>
@@ -21249,31 +21344,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="45">
         <v>15000</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="45">
         <v>300</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="45">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="45">
         <v>4000</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="45">
         <v>125</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="45">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -21281,26 +21376,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -21321,10 +21416,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -21345,23 +21440,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="45">
         <v>1106</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="45">
         <v>500</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="45">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -21369,79 +21464,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="42">
         <v>15000</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="42">
         <v>300</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="42">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="45">
         <v>5000</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="45">
         <v>3500</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="45">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -21449,96 +21544,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="42">
         <v>12000</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="42">
         <v>600</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="42">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -21546,43 +21641,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="42">
         <v>12000</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="42">
         <v>600</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="42">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -21590,79 +21685,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="42">
         <v>7500</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="42">
         <v>1200</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="42">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -21670,83 +21765,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42">
         <v>265</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="42">
         <v>12500</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="42" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -21754,25 +21849,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="42">
         <v>12500</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="42" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -21780,33 +21875,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -21823,17 +21912,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21841,12 +21936,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22067,15 +22159,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22100,10 +22196,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98FF66-6BE2-48D6-91EB-40BD2C03B266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F20DDC-01B5-47AC-BA43-7CC5C99840AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
   <si>
     <t>Value</t>
   </si>
@@ -434,6 +434,33 @@
   <si>
     <t>Time Step</t>
   </si>
+  <si>
+    <t>M34-P4-360V Ct</t>
+  </si>
+  <si>
+    <t>M34-P4-600V Ct</t>
+  </si>
+  <si>
+    <t>M34-P5-360V Ct</t>
+  </si>
+  <si>
+    <t>M34-P5-600V Ct</t>
+  </si>
+  <si>
+    <t>M34-P4-360V Pk</t>
+  </si>
+  <si>
+    <t>M34-P4-600V Pk</t>
+  </si>
+  <si>
+    <t>M34-P5-360V Pk</t>
+  </si>
+  <si>
+    <t>M34-P5-600V Pk</t>
+  </si>
+  <si>
+    <t>M34Px, 25°C Amb, 55°C Coolant, 78 Kg, 0.08 kgm^2</t>
+  </si>
 </sst>
 </file>
 
@@ -743,6 +770,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,22 +786,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -782,17 +804,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1822,6 +1849,990 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>M34</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$I$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M34-P5-600V Ct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$155:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$I$155:$I$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257.80333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.43454038997214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193.35249999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.32473118279569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A7C-4749-84AC-8836FDC378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$M$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M34-P5-600V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$155:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$M$155:$M$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999.90794016110476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>695.13599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>484.07799442896936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>434.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.72903225806454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A7C-4749-84AC-8836FDC378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$U$2:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1120.7217013977379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2241.4434027954758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3362.1651041932137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4482.8868055909516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5603.6085069886894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6220.0054427574451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6220.0054427574451</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6220.0054427574451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43.415474619289341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>296.82506446700512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298.373630964467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300.95457512690353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304.56789695431473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.21359644670048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.40675169035529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.315381131979699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.315381131979699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A7C-4749-84AC-8836FDC378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28018042534943444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1258.9259594020218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A7C-4749-84AC-8836FDC378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Grade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$U$12:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>560.36085069886894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280.18042534943447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.14434027954755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.054127604830342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$T$12:$T$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>353.21397416696402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>660.37530049042368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1258.9466069230596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1258.9288629319428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A7C-4749-84AC-8836FDC378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="814780968"/>
+        <c:axId val="814778344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="814780968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814778344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="814778344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814780968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>LV</a:t>
             </a:r>
             <a:r>
@@ -3323,7 +4334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5603,7 +6614,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8255,7 +9266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10567,7 +11578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -12893,6 +13904,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15944,6 +16995,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95D0F4A2-D7A5-4DAF-9BFA-7435D72E787A}">
   <sheetPr/>
@@ -15988,6 +17541,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC7F55E-6FA4-40FC-B596-111EA0F86E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16498,10 +18087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V47" sqref="V47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16524,7 +18113,7 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -16592,7 +18181,7 @@
       <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
@@ -16671,7 +18260,7 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="20">
         <f>E2+$B$40</f>
         <v>10</v>
@@ -16753,7 +18342,7 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="20">
         <f t="shared" ref="E4:E15" si="12">E3+$B$40</f>
         <v>20</v>
@@ -16835,7 +18424,7 @@
       <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="20">
         <f t="shared" si="12"/>
         <v>30</v>
@@ -16915,7 +18504,7 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="20">
         <f t="shared" si="12"/>
         <v>40</v>
@@ -16995,7 +18584,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="20">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -17075,7 +18664,7 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="37"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="20">
         <f t="shared" si="12"/>
         <v>60</v>
@@ -17157,7 +18746,7 @@
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="20">
         <f t="shared" si="12"/>
         <v>70</v>
@@ -17237,7 +18826,7 @@
         <v>0.95</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="20">
         <f t="shared" si="12"/>
         <v>80</v>
@@ -17319,7 +18908,7 @@
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="20">
         <f t="shared" si="12"/>
         <v>90</v>
@@ -17401,7 +18990,7 @@
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="20">
         <f t="shared" si="12"/>
         <v>100</v>
@@ -17482,7 +19071,7 @@
       <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="20">
         <f t="shared" si="12"/>
         <v>110</v>
@@ -17563,7 +19152,7 @@
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="20">
         <f t="shared" si="12"/>
         <v>120</v>
@@ -17644,7 +19233,7 @@
       <c r="C15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="20">
         <f t="shared" si="12"/>
         <v>130</v>
@@ -17725,7 +19314,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="39"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
@@ -17738,7 +19327,7 @@
         <v>3.94</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="39"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -17750,15 +19339,15 @@
         <v>3.5</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -17768,17 +19357,17 @@
       <c r="C20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -17788,7 +19377,7 @@
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
@@ -17819,7 +19408,7 @@
         <f>B22*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -17850,7 +19439,7 @@
       <c r="C23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -17882,7 +19471,7 @@
         <f>B24*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D24" s="37"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -17913,7 +19502,7 @@
       <c r="C25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="37"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -17945,7 +19534,7 @@
         <f>B26*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -17977,7 +19566,7 @@
       <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -18010,7 +19599,7 @@
         <f>B28/2.23694</f>
         <v>22.351962949386213</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -18042,7 +19631,7 @@
       <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -18075,7 +19664,7 @@
         <f>B30*0.277778</f>
         <v>27.777800000000003</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -18107,7 +19696,7 @@
       <c r="C31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -18140,7 +19729,7 @@
         <f>B32*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D32" s="37"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -18155,17 +19744,17 @@
       <c r="C33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="39"/>
+      <c r="E33" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
@@ -18175,7 +19764,7 @@
         <f>B34*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="4" t="s">
         <v>50</v>
       </c>
@@ -18203,7 +19792,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="33"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -18234,7 +19823,7 @@
       <c r="C36" s="28">
         <v>100</v>
       </c>
-      <c r="D36" s="37"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -18266,7 +19855,7 @@
       <c r="C37" s="28">
         <v>16</v>
       </c>
-      <c r="D37" s="37"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -18299,7 +19888,7 @@
         <f>1000*C36/3600/C37</f>
         <v>1.7361111111111112</v>
       </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -18325,7 +19914,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="37"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -18351,16 +19940,16 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="36">
         <v>10</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="37"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -18386,7 +19975,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="37"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -18412,7 +20001,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="37"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -18438,7 +20027,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="37"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -18464,7 +20053,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="37"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -18498,16 +20087,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
@@ -18858,17 +20447,17 @@
       </c>
     </row>
     <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
     </row>
     <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
@@ -19364,16 +20953,16 @@
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="36" t="s">
+      <c r="E81" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
     </row>
     <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
@@ -20159,16 +21748,16 @@
       </c>
     </row>
     <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="38"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="38"/>
     </row>
     <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
@@ -20751,16 +22340,16 @@
       </c>
     </row>
     <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="36" t="s">
+      <c r="E133" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="38"/>
     </row>
     <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
@@ -21255,8 +22844,160 @@
         <v>189.39412011557931</v>
       </c>
     </row>
+    <row r="153" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E153" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="38"/>
+      <c r="L153" s="38"/>
+    </row>
+    <row r="154" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E154" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>445</v>
+      </c>
+      <c r="M155">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="156" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>500</v>
+      </c>
+      <c r="I156">
+        <v>445</v>
+      </c>
+      <c r="M156">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="157" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>1000</v>
+      </c>
+      <c r="I157">
+        <v>445</v>
+      </c>
+      <c r="M157">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="158" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>1560</v>
+      </c>
+      <c r="I158">
+        <v>445</v>
+      </c>
+      <c r="M158">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="159" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>1738</v>
+      </c>
+      <c r="I159">
+        <v>445</v>
+      </c>
+      <c r="M159">
+        <v>999.90794016110476</v>
+      </c>
+    </row>
+    <row r="160" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>2500</v>
+      </c>
+      <c r="I160">
+        <v>309.36399999999998</v>
+      </c>
+      <c r="M160">
+        <v>695.13599999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>3000</v>
+      </c>
+      <c r="I161">
+        <v>257.80333333333334</v>
+      </c>
+      <c r="M161">
+        <v>579.28</v>
+      </c>
+    </row>
+    <row r="162" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>3590</v>
+      </c>
+      <c r="I162">
+        <v>215.43454038997214</v>
+      </c>
+      <c r="M162">
+        <v>484.07799442896936</v>
+      </c>
+    </row>
+    <row r="163" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>4000</v>
+      </c>
+      <c r="I163">
+        <v>193.35249999999999</v>
+      </c>
+      <c r="M163">
+        <v>434.46</v>
+      </c>
+    </row>
+    <row r="164" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>4650</v>
+      </c>
+      <c r="I164">
+        <v>166.32473118279569</v>
+      </c>
+      <c r="M164">
+        <v>373.72903225806454</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E153:L153"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E133:L133"/>
     <mergeCell ref="E111:L111"/>
@@ -21344,31 +23085,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>15000</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="44">
         <v>300</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="44">
         <v>4000</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <v>125</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="44">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -21376,26 +23117,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -21416,10 +23157,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -21440,23 +23181,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="44">
         <v>1106</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <v>500</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="44">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -21464,79 +23205,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="49">
         <v>15000</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="49">
         <v>300</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="49">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>5000</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>3500</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -21544,96 +23285,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="49">
         <v>12000</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="49">
         <v>600</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="49">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -21641,43 +23382,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="49">
         <v>12000</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="49">
         <v>600</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="49">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -21685,79 +23426,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="49">
         <v>7500</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="49">
         <v>1200</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="49">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -21765,83 +23506,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49">
         <v>265</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="49">
         <v>12500</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -21849,25 +23590,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="49">
         <v>12500</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="49" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -21875,27 +23616,33 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -21912,23 +23659,17 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -21942,6 +23683,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -22158,15 +23908,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
@@ -22177,6 +23918,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22193,12 +23942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/TrovaCV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F20DDC-01B5-47AC-BA43-7CC5C99840AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{3866E8CC-F120-4580-BB5C-0FAD16DD0AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33D09417-6CE8-4396-9E9D-DE66292ECF97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
   <si>
     <t>Value</t>
   </si>
@@ -461,6 +461,12 @@
   <si>
     <t>M34Px, 25°C Amb, 55°C Coolant, 78 Kg, 0.08 kgm^2</t>
   </si>
+  <si>
+    <t>kW/Motor</t>
+  </si>
+  <si>
+    <t>Total kW</t>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -690,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,14 +789,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +828,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1014,7 +1032,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Application!$G$1</c:f>
+              <c:f>Application!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1087,7 +1105,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Application!$V$2:$V$15</c:f>
+              <c:f>Application!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1249,7 +1267,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Application!$G$2:$G$15</c:f>
+              <c:f>Application!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1300,7 +1318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Application!$J$2:$J$15</c:f>
+              <c:f>Application!$K$2:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1823,37 +1841,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>M34</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1893,27 +1880,25 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Application!$I$154</c:f>
+              <c:f>Application!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M34-P5-600V Ct</c:v>
+                  <c:v>Total kW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -1928,36 +1913,11 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
               <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
                 <a:round/>
               </a:ln>
               <a:effectLst>
@@ -1971,602 +1931,110 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Application!$E$155:$E$164</c:f>
+              <c:f>Application!$V$2:$V$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>1136.7320114177055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>2273.464022835411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1560</c:v>
+                  <c:v>3410.1960342531165</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1738</c:v>
+                  <c:v>4546.928045670822</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>5683.6600570885275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>6308.8626633682652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3590</c:v>
+                  <c:v>6308.8626633682652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>6308.8626633682652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4650</c:v>
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.254900856327907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Application!$I$155:$I$164</c:f>
+              <c:f>Application!$X$2:$X$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>445</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>445</c:v>
+                  <c:v>21.83435957894736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>445</c:v>
+                  <c:v>44.433950315789474</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445</c:v>
+                  <c:v>68.564003368421055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>445</c:v>
+                  <c:v>94.98974989473686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>309.36399999999998</c:v>
+                  <c:v>124.47642105263157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257.80333333333334</c:v>
+                  <c:v>96.0065884433684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215.43454038997214</c:v>
+                  <c:v>39.455009495999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>193.35249999999999</c:v>
+                  <c:v>39.455009495999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.32473118279569</c:v>
+                  <c:v>2.3056414073317096E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.948986102386463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.095748117815699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.446151565269972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9169780267130818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A7C-4749-84AC-8836FDC378F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Application!$M$154</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M34-P5-600V Pk</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Application!$E$155:$E$164</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1738</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3590</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4650</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$M$155:$M$164</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>999.90794016110476</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>695.13599999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>579.28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>484.07799442896936</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>434.46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>373.72903225806454</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A7C-4749-84AC-8836FDC378F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Acc</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent3">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Application!$U$2:$U$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A7C-4749-84AC-8836FDC378F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Start</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Application!$U$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5A7C-4749-84AC-8836FDC378F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Grade</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="9525" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Application!$U$12:$U$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5A7C-4749-84AC-8836FDC378F1}"/>
+              <c16:uniqueId val="{00000000-BC44-49F3-84F6-01DE4B74F2B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2578,11 +2046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="814780968"/>
-        <c:axId val="814778344"/>
+        <c:axId val="830448608"/>
+        <c:axId val="830442048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="814780968"/>
+        <c:axId val="830448608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,6 +2070,181 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Motor Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [rpm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830442048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="830442048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>system</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> power [kW]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2636,66 +2279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="814778344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="814778344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="814780968"/>
+        <c:crossAx val="830448608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2707,36 +2291,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3776,72 +3330,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.359168099701604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
+                  <c:v>91.711491046197025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
+                  <c:v>93.318602311168661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
+                  <c:v>95.997121086121339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
+                  <c:v>99.747047371055103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
+                  <c:v>104.56838116596991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>72.659323568125274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,24 +3448,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
+                  <c:v>387.37808731175505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3964,42 +3518,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
+                  <c:v>108.78000050263884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
+                  <c:v>203.22448042372844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
+                  <c:v>387.39951542847319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
+                  <c:v>387.38110061189542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6046,72 +5600,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.359168099701604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
+                  <c:v>91.711491046197025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
+                  <c:v>93.318602311168661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
+                  <c:v>95.997121086121339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
+                  <c:v>99.747047371055103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
+                  <c:v>104.56838116596991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>72.659323568125274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6168,24 +5722,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
+                  <c:v>387.37808731175505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6238,42 +5792,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
+                  <c:v>108.78000050263884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
+                  <c:v>203.22448042372844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
+                  <c:v>387.39951542847319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
+                  <c:v>387.38110061189542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8804,72 +8358,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.359168099701604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
+                  <c:v>91.711491046197025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
+                  <c:v>93.318602311168661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
+                  <c:v>95.997121086121339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
+                  <c:v>99.747047371055103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
+                  <c:v>104.56838116596991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>72.659323568125274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8926,24 +8480,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
+                  <c:v>387.37808731175505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8996,42 +8550,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
+                  <c:v>108.78000050263884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
+                  <c:v>203.22448042372844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
+                  <c:v>387.39951542847319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
+                  <c:v>387.38110061189542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9059,6 +8613,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9076,6 +8631,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [rpm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9135,6 +8748,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>torque</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [nm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11120,72 +10791,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.359168099701604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
+                  <c:v>91.711491046197025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
+                  <c:v>93.318602311168661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
+                  <c:v>95.997121086121339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
+                  <c:v>99.747047371055103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
+                  <c:v>104.56838116596991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>72.659323568125274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11238,24 +10909,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
+                  <c:v>387.37808731175505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11308,42 +10979,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
+                  <c:v>108.78000050263884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
+                  <c:v>203.22448042372844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
+                  <c:v>387.39951542847319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
+                  <c:v>387.38110061189542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11388,6 +11059,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>speed [rpm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11447,6 +11171,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>torque [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12464,6 +12241,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -12659,6 +12437,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -12856,6 +12635,7 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -13058,6 +12838,7 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -13280,72 +13061,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$2:$U$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.359168099701604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1120.7217013977379</c:v>
+                  <c:v>91.711491046197025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2241.4434027954758</c:v>
+                  <c:v>93.318602311168661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3362.1651041932137</c:v>
+                  <c:v>95.997121086121339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4482.8868055909516</c:v>
+                  <c:v>99.747047371055103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5603.6085069886894</c:v>
+                  <c:v>104.56838116596991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>72.659323568125274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6220.0054427574451</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6220.0054427574451</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$2:$T$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>43.415474619289341</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>296.82506446700512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>298.373630964467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300.95457512690353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>304.56789695431473</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309.21359644670048</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>198.40675169035529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.315381131979699</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>59.315381131979699</c:v>
+                  <c:v>29.860183012797599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13398,24 +13179,24 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28018042534943444</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1258.9259594020218</c:v>
+                  <c:v>387.37808731175505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13468,42 +13249,42 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Application!$U$12:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>560.36085069886894</c:v>
+                  <c:v>108.78000050263884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280.18042534943447</c:v>
+                  <c:v>203.22448042372844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224.14434027954755</c:v>
+                  <c:v>387.39951542847319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.054127604830342</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Application!$T$12:$T$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>353.21397416696402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.37530049042368</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1258.9466069230596</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1258.9288629319428</c:v>
+                  <c:v>387.38110061189542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13547,6 +13328,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>speed [rpm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13606,6 +13440,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Torque [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13641,6 +13528,973 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="911859352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M34</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$I$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M34-P5-600V Ct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$155:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$I$155:$I$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257.80333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.43454038997214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>193.35249999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.32473118279569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D6E-4521-916A-5D052154DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Application!$M$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M34-P5-600V Pk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$E$155:$E$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$M$155:$M$164</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999.90794016110476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>695.13599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579.28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>484.07799442896936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>434.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.72903225806454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D6E-4521-916A-5D052154DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Acc</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136.7320114177055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2273.464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3410.1960342531165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4546.928045670822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5683.6600570885275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6308.8626633682652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$U$2:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>13.359168099701604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.711491046197025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.318602311168661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.997121086121339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.747047371055103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104.56838116596991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.659323568125274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.860183012797599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.860183012797599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D6E-4521-916A-5D052154DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Start</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.28418300285442638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>387.37808731175505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D6E-4521-916A-5D052154DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Grade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Application!$V$12:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>568.36600570885275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284.18300285442638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227.3464022835411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.254900856327907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$U$12:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>108.78000050263884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>203.22448042372844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>387.39951542847319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>387.38110061189542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5D6E-4521-916A-5D052154DCDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="814780968"/>
+        <c:axId val="814778344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="814780968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>speed [rpm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814778344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="814778344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>torque [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="814780968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13944,6 +14798,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17497,6 +18391,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{95D0F4A2-D7A5-4DAF-9BFA-7435D72E787A}">
   <sheetPr/>
@@ -17512,16 +18908,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>604836</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17549,22 +18945,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC7F55E-6FA4-40FC-B596-111EA0F86E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF0B538-0300-4F38-9027-4DC692D72082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17759,6 +19155,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFA53B9-1127-4F33-A724-98954BEC4ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18087,10 +19519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V47" sqref="V47"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18101,9 +19533,10 @@
     <col min="5" max="8" width="11.5703125" customWidth="1"/>
     <col min="9" max="10" width="12" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
@@ -18113,144 +19546,158 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>127</v>
+      <c r="W1" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="26">
-        <v>37100</v>
+        <v>11000</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
       <c r="F2" s="20">
+        <f>3600*H2/1000</f>
         <v>0</v>
       </c>
       <c r="G2" s="20">
-        <f t="shared" ref="G2:G10" si="0">IF(F2&gt;$B$15,$B$15,F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
+        <f t="shared" ref="H2:H10" si="0">IF(G2&gt;$B$15,$B$15,G2)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="21">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
         <f>$B$2*$B$3*$B$8</f>
-        <v>145580.4</v>
-      </c>
-      <c r="J2" s="20">
-        <v>0</v>
+        <v>43164</v>
       </c>
       <c r="K2" s="20">
         <v>0</v>
       </c>
       <c r="L2" s="20">
-        <f>$B$2*$B$3*SIN(K2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="20">
-        <f>$B$2*$B$3*$B$7*COS(K2)</f>
-        <v>2547.6570000000002</v>
+        <f>$B$2*$B$3*SIN(L2)</f>
+        <v>0</v>
       </c>
       <c r="N2" s="20">
-        <f>0.5*$B$5*$B$6*$B$4*G2^2</f>
+        <f>$B$2*$B$3*$B$7*COS(L2)</f>
+        <v>755.37</v>
+      </c>
+      <c r="O2" s="20">
+        <f>0.5*$B$5*$B$6*$B$4*H2^2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="20">
-        <f>$B$2*H2</f>
+      <c r="P2" s="20">
+        <f>$B$2*I2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="20">
-        <f>SUM(L2,M2,N2,O2)</f>
-        <v>2547.6570000000002</v>
-      </c>
       <c r="Q2" s="20">
-        <f>P2*$B$9</f>
-        <v>1197.39879</v>
+        <f>SUM(M2,N2,O2,P2)</f>
+        <v>755.37</v>
       </c>
       <c r="R2" s="20">
-        <f>G2*60/2/PI()/$B$9</f>
+        <f>Q2*$B$9</f>
+        <v>355.02389999999997</v>
+      </c>
+      <c r="S2" s="20">
+        <f>H2*60/2/PI()/$B$9</f>
         <v>0</v>
       </c>
-      <c r="S2" s="20">
-        <f t="shared" ref="S2:S15" si="1">$B$17*$B$18</f>
-        <v>13.79</v>
-      </c>
       <c r="T2" s="20">
-        <f t="shared" ref="T2:T15" si="2">Q2/S2/$B$16</f>
-        <v>43.415474619289341</v>
+        <f t="shared" ref="T2:T15" si="1">$B$17*$B$18</f>
+        <v>13.986999999999998</v>
       </c>
       <c r="U2" s="20">
-        <f>R2*S2</f>
+        <f>R2/T2/$B$16/$B$10</f>
+        <v>13.359168099701604</v>
+      </c>
+      <c r="V2" s="20">
+        <f>S2*T2</f>
         <v>0</v>
       </c>
-      <c r="V2" s="20">
-        <f>3600*G2/1000</f>
+      <c r="W2" s="56">
+        <f>U2*V2*2*PI()/60/1000</f>
         <v>0</v>
       </c>
+      <c r="X2" s="56">
+        <f>W2*$B$16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -18260,79 +19707,87 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="20">
         <f>E2+$B$40</f>
         <v>10</v>
       </c>
       <c r="F3" s="20">
-        <f>F2+$B$14*(E3-E2)</f>
+        <f>3600*H3/1000</f>
+        <v>14.4</v>
+      </c>
+      <c r="G3" s="20">
+        <f>G2+$B$14*(E3-E2)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H3" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H3" s="21">
-        <f>(G3-G2)/(E3-E2)</f>
+      <c r="I3" s="21">
+        <f>(H3-H2)/(E3-E2)</f>
         <v>0.4</v>
       </c>
-      <c r="I3" s="20">
-        <f>$I$2/G3</f>
-        <v>36395.1</v>
-      </c>
       <c r="J3" s="20">
-        <v>0</v>
+        <f>$J$2/H3</f>
+        <v>10791</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:L15" si="3">$B$2*$B$3*SIN(K3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="4">$B$2*$B$3*$B$7*COS(K3)</f>
-        <v>2547.6570000000002</v>
+        <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*SIN(L3)</f>
+        <v>0</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="5">0.5*$B$5*$B$6*$B$4*G3^2</f>
+        <f t="shared" ref="N3:N15" si="3">$B$2*$B$3*$B$7*COS(L3)</f>
+        <v>755.37</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O15" si="4">0.5*$B$5*$B$6*$B$4*H3^2</f>
         <v>30.290400000000002</v>
       </c>
-      <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="6">$B$2*H3</f>
-        <v>14840</v>
-      </c>
       <c r="P3" s="20">
-        <f t="shared" ref="P3:P15" si="7">SUM(L3,M3,N3,O3)</f>
-        <v>17417.947400000001</v>
+        <f t="shared" ref="P3:P15" si="5">$B$2*I3</f>
+        <v>4400</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q15" si="8">P3*$B$9</f>
-        <v>8186.4352779999999</v>
+        <f t="shared" ref="Q3:Q15" si="6">SUM(M3,N3,O3,P3)</f>
+        <v>5185.6603999999998</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R15" si="9">G3*60/2/PI()/$B$9</f>
+        <f t="shared" ref="R3:R15" si="7">Q3*$B$9</f>
+        <v>2437.2603879999997</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" ref="S3:S15" si="8">H3*60/2/PI()/$B$9</f>
         <v>81.27060923841465</v>
       </c>
-      <c r="S3" s="20">
+      <c r="T3" s="20">
         <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T3" s="20">
-        <f t="shared" si="2"/>
-        <v>296.82506446700512</v>
+        <v>13.986999999999998</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U15" si="10">R3*S3</f>
-        <v>1120.7217013977379</v>
+        <f t="shared" ref="U3:U15" si="9">R3/T3/$B$16/$B$10</f>
+        <v>91.711491046197025</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V15" si="11">3600*G3/1000</f>
-        <v>14.4</v>
+        <f t="shared" ref="V3:V15" si="10">S3*T3</f>
+        <v>1136.7320114177055</v>
+      </c>
+      <c r="W3" s="56">
+        <f t="shared" ref="W3:W15" si="11">U3*V3*2*PI()/60/1000</f>
+        <v>10.91717978947368</v>
+      </c>
+      <c r="X3" s="56">
+        <f t="shared" ref="X3:X15" si="12">W3*$B$16</f>
+        <v>21.83435957894736</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
@@ -18342,79 +19797,87 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="20">
-        <f t="shared" ref="E4:E15" si="12">E3+$B$40</f>
+        <f t="shared" ref="E4:E15" si="13">E3+$B$40</f>
         <v>20</v>
       </c>
       <c r="F4" s="20">
-        <f t="shared" ref="F4:F15" si="13">F3+$B$14*(E4-E3)</f>
+        <f>3600*H4/1000</f>
+        <v>28.8</v>
+      </c>
+      <c r="G4" s="20">
+        <f>G3+$B$14*(E4-E3)</f>
         <v>8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H4" s="21">
-        <f t="shared" ref="H4:H10" si="14">(G4-G3)/(E4-E3)</f>
+      <c r="I4" s="21">
+        <f>(H4-H3)/(E4-E3)</f>
         <v>0.4</v>
       </c>
-      <c r="I4" s="20">
-        <f>$I$2/G4</f>
-        <v>18197.55</v>
-      </c>
       <c r="J4" s="20">
-        <v>0</v>
+        <f>$J$2/H4</f>
+        <v>5395.5</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
       </c>
       <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N4" s="20">
+        <v>121.16160000000001</v>
+      </c>
+      <c r="P4" s="20">
         <f t="shared" si="5"/>
-        <v>121.16160000000001</v>
-      </c>
-      <c r="O4" s="20">
+        <v>4400</v>
+      </c>
+      <c r="Q4" s="20">
         <f t="shared" si="6"/>
-        <v>14840</v>
-      </c>
-      <c r="P4" s="20">
+        <v>5276.5316000000003</v>
+      </c>
+      <c r="R4" s="20">
         <f t="shared" si="7"/>
-        <v>17508.818599999999</v>
-      </c>
-      <c r="Q4" s="20">
+        <v>2479.9698520000002</v>
+      </c>
+      <c r="S4" s="20">
         <f t="shared" si="8"/>
-        <v>8229.1447419999986</v>
-      </c>
-      <c r="R4" s="20">
+        <v>162.5412184768293</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U4" s="20">
         <f t="shared" si="9"/>
-        <v>162.5412184768293</v>
-      </c>
-      <c r="S4" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T4" s="20">
-        <f t="shared" si="2"/>
-        <v>298.373630964467</v>
-      </c>
-      <c r="U4" s="20">
+        <v>93.318602311168661</v>
+      </c>
+      <c r="V4" s="20">
         <f t="shared" si="10"/>
-        <v>2241.4434027954758</v>
-      </c>
-      <c r="V4" s="20">
+        <v>2273.464022835411</v>
+      </c>
+      <c r="W4" s="56">
         <f t="shared" si="11"/>
-        <v>28.8</v>
+        <v>22.216975157894737</v>
+      </c>
+      <c r="X4" s="56">
+        <f t="shared" si="12"/>
+        <v>44.433950315789474</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -18424,79 +19887,87 @@
       <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="F5" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H5/1000</f>
+        <v>43.2</v>
+      </c>
+      <c r="G5" s="20">
+        <f>G4+$B$14*(E5-E4)</f>
         <v>12</v>
       </c>
-      <c r="G5" s="20">
+      <c r="H5" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H5" s="21">
-        <f t="shared" si="14"/>
+      <c r="I5" s="21">
+        <f>(H5-H4)/(E5-E4)</f>
         <v>0.4</v>
       </c>
-      <c r="I5" s="20">
-        <f t="shared" ref="I5:I15" si="15">$I$2/G5</f>
-        <v>12131.699999999999</v>
-      </c>
       <c r="J5" s="20">
-        <v>0</v>
+        <f>$J$2/H5</f>
+        <v>3597</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
       </c>
       <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N5" s="20">
+        <v>272.61360000000002</v>
+      </c>
+      <c r="P5" s="20">
         <f t="shared" si="5"/>
-        <v>272.61360000000002</v>
-      </c>
-      <c r="O5" s="20">
+        <v>4400</v>
+      </c>
+      <c r="Q5" s="20">
         <f t="shared" si="6"/>
-        <v>14840</v>
-      </c>
-      <c r="P5" s="20">
+        <v>5427.9835999999996</v>
+      </c>
+      <c r="R5" s="20">
         <f t="shared" si="7"/>
-        <v>17660.2706</v>
-      </c>
-      <c r="Q5" s="20">
+        <v>2551.1522919999998</v>
+      </c>
+      <c r="S5" s="20">
         <f t="shared" si="8"/>
-        <v>8300.3271819999991</v>
-      </c>
-      <c r="R5" s="20">
+        <v>243.81182771524394</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U5" s="20">
         <f t="shared" si="9"/>
-        <v>243.81182771524394</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="2"/>
-        <v>300.95457512690353</v>
-      </c>
-      <c r="U5" s="20">
+        <v>95.997121086121339</v>
+      </c>
+      <c r="V5" s="20">
         <f t="shared" si="10"/>
-        <v>3362.1651041932137</v>
-      </c>
-      <c r="V5" s="20">
+        <v>3410.1960342531165</v>
+      </c>
+      <c r="W5" s="56">
         <f t="shared" si="11"/>
-        <v>43.2</v>
+        <v>34.282001684210528</v>
+      </c>
+      <c r="X5" s="56">
+        <f t="shared" si="12"/>
+        <v>68.564003368421055</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
@@ -18504,79 +19975,87 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="39"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="F6" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H6/1000</f>
+        <v>57.6</v>
+      </c>
+      <c r="G6" s="20">
+        <f>G5+$B$14*(E6-E5)</f>
         <v>16</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H6" s="21">
-        <f t="shared" si="14"/>
+      <c r="I6" s="21">
+        <f>(H6-H5)/(E6-E5)</f>
         <v>0.4</v>
       </c>
-      <c r="I6" s="20">
-        <f t="shared" si="15"/>
-        <v>9098.7749999999996</v>
-      </c>
       <c r="J6" s="20">
-        <v>0</v>
+        <f>$J$2/H6</f>
+        <v>2697.75</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
       </c>
       <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N6" s="20">
+        <v>484.64640000000003</v>
+      </c>
+      <c r="P6" s="20">
         <f t="shared" si="5"/>
-        <v>484.64640000000003</v>
-      </c>
-      <c r="O6" s="20">
+        <v>4400</v>
+      </c>
+      <c r="Q6" s="20">
         <f t="shared" si="6"/>
-        <v>14840</v>
-      </c>
-      <c r="P6" s="20">
+        <v>5640.0164000000004</v>
+      </c>
+      <c r="R6" s="20">
         <f t="shared" si="7"/>
-        <v>17872.303400000001</v>
-      </c>
-      <c r="Q6" s="20">
+        <v>2650.8077080000003</v>
+      </c>
+      <c r="S6" s="20">
         <f t="shared" si="8"/>
-        <v>8399.9825980000005</v>
-      </c>
-      <c r="R6" s="20">
+        <v>325.0824369536586</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U6" s="20">
         <f t="shared" si="9"/>
-        <v>325.0824369536586</v>
-      </c>
-      <c r="S6" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="2"/>
-        <v>304.56789695431473</v>
-      </c>
-      <c r="U6" s="20">
+        <v>99.747047371055103</v>
+      </c>
+      <c r="V6" s="20">
         <f t="shared" si="10"/>
-        <v>4482.8868055909516</v>
-      </c>
-      <c r="V6" s="20">
+        <v>4546.928045670822</v>
+      </c>
+      <c r="W6" s="56">
         <f t="shared" si="11"/>
-        <v>57.6</v>
+        <v>47.49487494736843</v>
+      </c>
+      <c r="X6" s="56">
+        <f t="shared" si="12"/>
+        <v>94.98974989473686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -18584,79 +20063,87 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="39"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="F7" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H7/1000</f>
+        <v>72</v>
+      </c>
+      <c r="G7" s="20">
+        <f>G6+$B$14*(E7-E6)</f>
         <v>20</v>
       </c>
-      <c r="G7" s="20">
+      <c r="H7" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="21">
-        <f t="shared" si="14"/>
+      <c r="I7" s="21">
+        <f>(H7-H6)/(E7-E6)</f>
         <v>0.4</v>
       </c>
-      <c r="I7" s="20">
-        <f t="shared" si="15"/>
-        <v>7279.0199999999995</v>
-      </c>
       <c r="J7" s="20">
-        <v>0</v>
+        <f>$J$2/H7</f>
+        <v>2158.1999999999998</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
       </c>
       <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N7" s="20">
+        <v>757.26</v>
+      </c>
+      <c r="P7" s="20">
         <f t="shared" si="5"/>
-        <v>757.26</v>
-      </c>
-      <c r="O7" s="20">
+        <v>4400</v>
+      </c>
+      <c r="Q7" s="20">
         <f t="shared" si="6"/>
-        <v>14840</v>
-      </c>
-      <c r="P7" s="20">
+        <v>5912.63</v>
+      </c>
+      <c r="R7" s="20">
         <f t="shared" si="7"/>
-        <v>18144.917000000001</v>
-      </c>
-      <c r="Q7" s="20">
+        <v>2778.9360999999999</v>
+      </c>
+      <c r="S7" s="20">
         <f t="shared" si="8"/>
-        <v>8528.1109899999992</v>
-      </c>
-      <c r="R7" s="20">
+        <v>406.35304619207324</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U7" s="20">
         <f t="shared" si="9"/>
-        <v>406.35304619207324</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="2"/>
-        <v>309.21359644670048</v>
-      </c>
-      <c r="U7" s="20">
+        <v>104.56838116596991</v>
+      </c>
+      <c r="V7" s="20">
         <f t="shared" si="10"/>
-        <v>5603.6085069886894</v>
-      </c>
-      <c r="V7" s="20">
+        <v>5683.6600570885275</v>
+      </c>
+      <c r="W7" s="56">
         <f t="shared" si="11"/>
-        <v>72</v>
+        <v>62.238210526315783</v>
+      </c>
+      <c r="X7" s="56">
+        <f t="shared" si="12"/>
+        <v>124.47642105263157</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
@@ -18664,79 +20151,87 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="39"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H8/1000</f>
+        <v>79.92</v>
+      </c>
+      <c r="G8" s="20">
+        <f>G7+$B$14*(E8-E7)</f>
         <v>24</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="20">
         <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
-      <c r="H8" s="21">
-        <f t="shared" si="14"/>
+      <c r="I8" s="21">
+        <f>(H8-H7)/(E8-E7)</f>
         <v>0.21999999999999992</v>
       </c>
-      <c r="I8" s="20">
-        <f t="shared" si="15"/>
-        <v>6557.6756756756758</v>
-      </c>
       <c r="J8" s="20">
-        <v>0</v>
+        <f>$J$2/H8</f>
+        <v>1944.3243243243244</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
       </c>
       <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
+        <v>755.37</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N8" s="20">
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P8" s="20">
         <f t="shared" si="5"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O8" s="20">
+        <v>2419.9999999999991</v>
+      </c>
+      <c r="Q8" s="20">
         <f t="shared" si="6"/>
-        <v>8161.9999999999973</v>
-      </c>
-      <c r="P8" s="20">
+        <v>4108.3900459999986</v>
+      </c>
+      <c r="R8" s="20">
         <f t="shared" si="7"/>
-        <v>11642.677045999997</v>
-      </c>
-      <c r="Q8" s="20">
+        <v>1930.9433216199993</v>
+      </c>
+      <c r="S8" s="20">
         <f t="shared" si="8"/>
-        <v>5472.0582116199985</v>
-      </c>
-      <c r="R8" s="20">
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U8" s="20">
         <f t="shared" si="9"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S8" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T8" s="20">
-        <f t="shared" si="2"/>
-        <v>198.40675169035529</v>
-      </c>
-      <c r="U8" s="20">
+        <v>72.659323568125274</v>
+      </c>
+      <c r="V8" s="20">
         <f t="shared" si="10"/>
-        <v>6220.0054427574451</v>
-      </c>
-      <c r="V8" s="20">
+        <v>6308.8626633682652</v>
+      </c>
+      <c r="W8" s="56">
         <f t="shared" si="11"/>
-        <v>79.92</v>
+        <v>48.0032942216842</v>
+      </c>
+      <c r="X8" s="56">
+        <f t="shared" si="12"/>
+        <v>96.0065884433684</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -18746,79 +20241,87 @@
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H9/1000</f>
+        <v>79.92</v>
+      </c>
+      <c r="G9" s="20">
+        <f>G8+$B$14*(E9-E8)</f>
         <v>28</v>
       </c>
-      <c r="G9" s="20">
+      <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
-      <c r="H9" s="21">
-        <f t="shared" si="14"/>
+      <c r="I9" s="21">
+        <f>(H9-H8)/(E9-E8)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="20">
-        <f t="shared" si="15"/>
-        <v>6557.6756756756758</v>
-      </c>
       <c r="J9" s="20">
-        <v>0</v>
+        <f>$J$2/H9</f>
+        <v>1944.3243243243244</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
       </c>
       <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="3"/>
+        <v>755.37</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="4"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="20">
-        <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="5"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O9" s="20">
+      <c r="Q9" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
+        <v>1688.390046</v>
+      </c>
+      <c r="R9" s="20">
         <f t="shared" si="7"/>
-        <v>3480.6770460000002</v>
-      </c>
-      <c r="Q9" s="20">
+        <v>793.54332161999992</v>
+      </c>
+      <c r="S9" s="20">
         <f t="shared" si="8"/>
-        <v>1635.91821162</v>
-      </c>
-      <c r="R9" s="20">
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U9" s="20">
         <f t="shared" si="9"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S9" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T9" s="20">
-        <f t="shared" si="2"/>
-        <v>59.315381131979699</v>
-      </c>
-      <c r="U9" s="20">
+        <v>29.860183012797599</v>
+      </c>
+      <c r="V9" s="20">
         <f t="shared" si="10"/>
-        <v>6220.0054427574451</v>
-      </c>
-      <c r="V9" s="20">
+        <v>6308.8626633682652</v>
+      </c>
+      <c r="W9" s="56">
         <f t="shared" si="11"/>
-        <v>79.92</v>
+        <v>19.727504747999998</v>
+      </c>
+      <c r="X9" s="56">
+        <f t="shared" si="12"/>
+        <v>39.455009495999995</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
@@ -18826,79 +20329,87 @@
         <v>0.95</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="39"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="13"/>
+        <f>3600*H10/1000</f>
+        <v>79.92</v>
+      </c>
+      <c r="G10" s="20">
+        <f>G9+$B$14*(E10-E9)</f>
         <v>32</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>22.2</v>
       </c>
-      <c r="H10" s="21">
-        <f t="shared" si="14"/>
+      <c r="I10" s="21">
+        <f>(H10-H9)/(E10-E9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="20">
-        <f t="shared" si="15"/>
-        <v>6557.6756756756758</v>
-      </c>
       <c r="J10" s="20">
-        <v>0</v>
+        <f>$J$2/H10</f>
+        <v>1944.3243243243244</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
       </c>
       <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="3"/>
+        <v>755.37</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="4"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M10" s="20">
-        <f t="shared" si="4"/>
-        <v>2547.6570000000002</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="5"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="O10" s="20">
+      <c r="Q10" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
+        <v>1688.390046</v>
+      </c>
+      <c r="R10" s="20">
         <f t="shared" si="7"/>
-        <v>3480.6770460000002</v>
-      </c>
-      <c r="Q10" s="20">
+        <v>793.54332161999992</v>
+      </c>
+      <c r="S10" s="20">
         <f t="shared" si="8"/>
-        <v>1635.91821162</v>
-      </c>
-      <c r="R10" s="20">
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U10" s="20">
         <f t="shared" si="9"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="S10" s="20">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T10" s="20">
-        <f t="shared" si="2"/>
-        <v>59.315381131979699</v>
-      </c>
-      <c r="U10" s="20">
+        <v>29.860183012797599</v>
+      </c>
+      <c r="V10" s="20">
         <f t="shared" si="10"/>
-        <v>6220.0054427574451</v>
-      </c>
-      <c r="V10" s="20">
+        <v>6308.8626633682652</v>
+      </c>
+      <c r="W10" s="56">
         <f t="shared" si="11"/>
-        <v>79.92</v>
+        <v>19.727504747999998</v>
+      </c>
+      <c r="X10" s="56">
+        <f t="shared" si="12"/>
+        <v>39.455009495999995</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -18908,79 +20419,87 @@
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="20">
-        <f t="shared" si="12"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="24">
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="F11" s="24">
-        <f t="shared" si="13"/>
+        <f>3600*H11/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G11" s="24">
+        <f>G10+$B$14*(E11-E10)</f>
         <v>36</v>
       </c>
-      <c r="G11" s="24">
+      <c r="H11" s="24">
         <v>1E-3</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>0</v>
       </c>
-      <c r="I11" s="24">
-        <f t="shared" si="15"/>
-        <v>145580400</v>
-      </c>
       <c r="J11" s="24">
+        <f>$J$2/H11</f>
+        <v>43164000</v>
+      </c>
+      <c r="K11" s="24">
         <f>Table2[[#This Row],[Value]]</f>
         <v>20</v>
       </c>
-      <c r="K11" s="24">
-        <f>ATAN2(100, J11)</f>
+      <c r="L11" s="24">
+        <f>ATAN2(100, K11)</f>
         <v>0.19739555984988078</v>
       </c>
-      <c r="L11" s="24">
+      <c r="M11" s="24">
+        <f t="shared" si="2"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N11" s="24">
         <f t="shared" si="3"/>
-        <v>71376.663499677219</v>
-      </c>
-      <c r="M11" s="24">
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O11" s="24">
         <f t="shared" si="4"/>
-        <v>2498.1832224887025</v>
-      </c>
-      <c r="N11" s="24">
+        <v>1.89315E-6</v>
+      </c>
+      <c r="P11" s="24">
         <f t="shared" si="5"/>
-        <v>1.89315E-6</v>
-      </c>
-      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="24">
+        <v>21903.59336965124</v>
+      </c>
+      <c r="R11" s="24">
         <f t="shared" si="7"/>
-        <v>73874.846724059069</v>
-      </c>
-      <c r="Q11" s="24">
+        <v>10294.688883736082</v>
+      </c>
+      <c r="S11" s="24">
         <f t="shared" si="8"/>
-        <v>34721.177960307759</v>
-      </c>
-      <c r="R11" s="24">
+        <v>2.0317652309603661E-2</v>
+      </c>
+      <c r="T11" s="24">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U11" s="24">
         <f t="shared" si="9"/>
-        <v>2.0317652309603661E-2</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T11" s="24">
-        <f t="shared" si="2"/>
-        <v>1258.9259594020218</v>
-      </c>
-      <c r="U11" s="24">
-        <f>R11*S11</f>
-        <v>0.28018042534943444</v>
+        <v>387.37808731175505</v>
       </c>
       <c r="V11" s="24">
+        <f>S11*T11</f>
+        <v>0.28418300285442638</v>
+      </c>
+      <c r="W11" s="54">
         <f t="shared" si="11"/>
-        <v>3.5999999999999999E-3</v>
+        <v>1.1528207036658548E-2</v>
+      </c>
+      <c r="X11" s="54">
+        <f t="shared" si="12"/>
+        <v>2.3056414073317096E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -18990,78 +20509,86 @@
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="20">
+      <c r="D12" s="38"/>
+      <c r="E12" s="22">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="22">
+        <f>3600*H12/1000</f>
+        <v>7.2</v>
+      </c>
+      <c r="G12" s="22">
+        <f>G11+$B$14*(E12-E11)</f>
+        <v>40</v>
+      </c>
+      <c r="H12" s="34">
+        <v>2</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <f>$J$2/H12</f>
+        <v>21582</v>
+      </c>
+      <c r="K12" s="34">
+        <v>5</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" ref="L12:L15" si="14">ATAN2(100, K12)</f>
+        <v>4.9958395721942765E-2</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="2"/>
+        <v>5388.7682444154116</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="3"/>
+        <v>754.42755421815752</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="4"/>
+        <v>7.5726000000000004</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="6"/>
+        <v>6150.7683986335696</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="7"/>
+        <v>2890.8611473577776</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" si="8"/>
+        <v>40.635304619207325</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="9"/>
+        <v>108.78000050263884</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="10"/>
+        <v>568.36600570885275</v>
+      </c>
+      <c r="W12" s="55">
+        <f t="shared" si="11"/>
+        <v>6.4744930511932317</v>
+      </c>
+      <c r="X12" s="55">
         <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" si="13"/>
-        <v>40</v>
-      </c>
-      <c r="G12" s="34">
-        <v>2</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="15"/>
-        <v>72790.2</v>
-      </c>
-      <c r="J12" s="34">
-        <v>5</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" ref="K12:K15" si="16">ATAN2(100, J12)</f>
-        <v>4.9958395721942765E-2</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" si="3"/>
-        <v>18174.845624346526</v>
-      </c>
-      <c r="M12" s="22">
-        <f t="shared" si="4"/>
-        <v>2544.4783874085133</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="5"/>
-        <v>7.5726000000000004</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="7"/>
-        <v>20726.896611755037</v>
-      </c>
-      <c r="Q12" s="22">
-        <f t="shared" si="8"/>
-        <v>9741.6414075248667</v>
-      </c>
-      <c r="R12" s="22">
-        <f t="shared" si="9"/>
-        <v>40.635304619207325</v>
-      </c>
-      <c r="S12" s="22">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="2"/>
-        <v>353.21397416696402</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" si="10"/>
-        <v>560.36085069886894</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="11"/>
-        <v>7.2</v>
+        <v>12.948986102386463</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -19071,78 +20598,86 @@
       <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="20">
+      <c r="D13" s="38"/>
+      <c r="E13" s="22">
+        <f t="shared" si="13"/>
+        <v>110</v>
+      </c>
+      <c r="F13" s="22">
+        <f>3600*H13/1000</f>
+        <v>3.6</v>
+      </c>
+      <c r="G13" s="22">
+        <f>G12+$B$14*(E13-E12)</f>
+        <v>44</v>
+      </c>
+      <c r="H13" s="34">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <f>$J$2/H13</f>
+        <v>43164</v>
+      </c>
+      <c r="K13" s="34">
+        <v>10</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="14"/>
+        <v>9.9668652491162038E-2</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="2"/>
+        <v>10737.446319555995</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="3"/>
+        <v>751.62124236891952</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="4"/>
+        <v>1.8931500000000001</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="6"/>
+        <v>11490.960711924914</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="7"/>
+        <v>5400.7515346047094</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="8"/>
+        <v>20.317652309603663</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="9"/>
+        <v>203.22448042372844</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="10"/>
+        <v>284.18300285442638</v>
+      </c>
+      <c r="W13" s="55">
+        <f t="shared" si="11"/>
+        <v>6.0478740589078495</v>
+      </c>
+      <c r="X13" s="55">
         <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="13"/>
-        <v>44</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" si="15"/>
-        <v>145580.4</v>
-      </c>
-      <c r="J13" s="34">
-        <v>10</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="16"/>
-        <v>9.9668652491162038E-2</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="3"/>
-        <v>36214.478041411581</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="4"/>
-        <v>2535.0134628988103</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="5"/>
-        <v>1.8931500000000001</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="7"/>
-        <v>38751.384654310394</v>
-      </c>
-      <c r="Q13" s="22">
-        <f t="shared" si="8"/>
-        <v>18213.150787525883</v>
-      </c>
-      <c r="R13" s="22">
-        <f t="shared" si="9"/>
-        <v>20.317652309603663</v>
-      </c>
-      <c r="S13" s="22">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T13" s="22">
-        <f t="shared" si="2"/>
-        <v>660.37530049042368</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="10"/>
-        <v>280.18042534943447</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="11"/>
-        <v>3.6</v>
+        <v>12.095748117815699</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
@@ -19152,78 +20687,86 @@
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="20">
+      <c r="D14" s="38"/>
+      <c r="E14" s="22">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="22">
+        <f>3600*H14/1000</f>
+        <v>2.88</v>
+      </c>
+      <c r="G14" s="22">
+        <f>G13+$B$14*(E14-E13)</f>
+        <v>48</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <f>$J$2/H14</f>
+        <v>53955</v>
+      </c>
+      <c r="K14" s="34">
+        <v>20</v>
+      </c>
+      <c r="L14" s="22">
+        <f t="shared" si="14"/>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="2"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="3"/>
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="4"/>
+        <v>1.2116160000000002</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="6"/>
+        <v>21904.804983758091</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="7"/>
+        <v>10295.258342366302</v>
+      </c>
+      <c r="S14" s="22">
+        <f t="shared" si="8"/>
+        <v>16.254121847682928</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="9"/>
+        <v>387.39951542847319</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" si="10"/>
+        <v>227.3464022835411</v>
+      </c>
+      <c r="W14" s="55">
+        <f t="shared" si="11"/>
+        <v>9.2230757826349858</v>
+      </c>
+      <c r="X14" s="55">
         <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="13"/>
-        <v>48</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <f t="shared" si="15"/>
-        <v>181975.49999999997</v>
-      </c>
-      <c r="J14" s="34">
-        <v>20</v>
-      </c>
-      <c r="K14" s="22">
-        <f t="shared" si="16"/>
-        <v>0.19739555984988078</v>
-      </c>
-      <c r="L14" s="22">
-        <f t="shared" si="3"/>
-        <v>71376.663499677219</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="4"/>
-        <v>2498.1832224887025</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="5"/>
-        <v>1.2116160000000002</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <f t="shared" si="7"/>
-        <v>73876.058338165923</v>
-      </c>
-      <c r="Q14" s="22">
-        <f t="shared" si="8"/>
-        <v>34721.747418937979</v>
-      </c>
-      <c r="R14" s="22">
-        <f t="shared" si="9"/>
-        <v>16.254121847682928</v>
-      </c>
-      <c r="S14" s="22">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T14" s="22">
-        <f t="shared" si="2"/>
-        <v>1258.9466069230596</v>
-      </c>
-      <c r="U14" s="22">
-        <f t="shared" si="10"/>
-        <v>224.14434027954755</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="11"/>
-        <v>2.88</v>
+        <v>18.446151565269972</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -19233,80 +20776,88 @@
       <c r="C15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="20">
-        <f t="shared" si="12"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="22">
+        <f t="shared" si="13"/>
         <v>130</v>
       </c>
       <c r="F15" s="22">
-        <f t="shared" si="13"/>
+        <f>3600*H15/1000</f>
+        <v>1.08</v>
+      </c>
+      <c r="G15" s="22">
+        <f>G14+$B$14*(E15-E14)</f>
         <v>52</v>
       </c>
-      <c r="G15" s="34">
+      <c r="H15" s="34">
         <f>B13</f>
         <v>0.3</v>
       </c>
-      <c r="H15" s="23">
+      <c r="I15" s="23">
         <v>0</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="15"/>
-        <v>485268</v>
-      </c>
-      <c r="J15" s="34">
+      <c r="J15" s="22">
+        <f>$J$2/H15</f>
+        <v>143880</v>
+      </c>
+      <c r="K15" s="34">
         <f>B12</f>
         <v>20</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" si="16"/>
+      <c r="L15" s="22">
+        <f t="shared" si="14"/>
         <v>0.19739555984988078</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="22">
+        <f t="shared" si="2"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="3"/>
-        <v>71376.663499677219</v>
-      </c>
-      <c r="M15" s="22">
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="4"/>
-        <v>2498.1832224887025</v>
-      </c>
-      <c r="N15" s="22">
+        <v>0.17038349999999999</v>
+      </c>
+      <c r="P15" s="22">
         <f t="shared" si="5"/>
-        <v>0.17038349999999999</v>
-      </c>
-      <c r="O15" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
+        <v>21903.763751258091</v>
+      </c>
+      <c r="R15" s="22">
         <f t="shared" si="7"/>
-        <v>73875.017105665916</v>
-      </c>
-      <c r="Q15" s="22">
+        <v>10294.768963091303</v>
+      </c>
+      <c r="S15" s="22">
         <f t="shared" si="8"/>
-        <v>34721.258039662978</v>
-      </c>
-      <c r="R15" s="22">
+        <v>6.0952956928810984</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="1"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U15" s="22">
         <f t="shared" si="9"/>
-        <v>6.0952956928810984</v>
-      </c>
-      <c r="S15" s="22">
-        <f t="shared" si="1"/>
-        <v>13.79</v>
-      </c>
-      <c r="T15" s="22">
-        <f t="shared" si="2"/>
-        <v>1258.9288629319428</v>
-      </c>
-      <c r="U15" s="22">
+        <v>387.38110061189542</v>
+      </c>
+      <c r="V15" s="22">
         <f t="shared" si="10"/>
-        <v>84.054127604830342</v>
-      </c>
-      <c r="V15" s="22">
+        <v>85.254900856327907</v>
+      </c>
+      <c r="W15" s="55">
         <f t="shared" si="11"/>
-        <v>1.08</v>
+        <v>3.4584890133565409</v>
+      </c>
+      <c r="X15" s="55">
+        <f t="shared" si="12"/>
+        <v>6.9169780267130818</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
@@ -19314,7 +20865,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="39"/>
+      <c r="D16" s="38"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
@@ -19327,7 +20878,7 @@
         <v>3.94</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="39"/>
+      <c r="D17" s="38"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -19336,20 +20887,20 @@
         <v>84</v>
       </c>
       <c r="B18" s="26">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="38"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="29" t="s">
         <v>124</v>
@@ -19357,19 +20908,19 @@
       <c r="C20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="29" t="s">
         <v>38</v>
@@ -19377,7 +20928,7 @@
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
@@ -19408,7 +20959,7 @@
         <f>B22*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -19428,7 +20979,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="17">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="15">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19439,7 +20990,7 @@
       <c r="C23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -19459,7 +21010,7 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19471,7 +21022,7 @@
         <f>B24*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -19491,7 +21042,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19502,7 +21053,7 @@
       <c r="C25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -19522,7 +21073,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19534,7 +21085,7 @@
         <f>B26*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -19551,11 +21102,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="18">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="16">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19566,7 +21117,7 @@
       <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -19583,11 +21134,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -19599,7 +21150,7 @@
         <f>B28/2.23694</f>
         <v>22.351962949386213</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -19616,11 +21167,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -19631,7 +21182,7 @@
       <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -19648,11 +21199,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>50.938775510204088</v>
       </c>
     </row>
@@ -19664,7 +21215,7 @@
         <f>B30*0.277778</f>
         <v>27.777800000000003</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -19681,11 +21232,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -19696,7 +21247,7 @@
       <c r="C31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -19713,15 +21264,15 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>39.619047619047628</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="31">
         <v>1</v>
       </c>
@@ -19729,7 +21280,7 @@
         <f>B32*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -19737,26 +21288,26 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
     </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
         <v>1</v>
       </c>
@@ -19764,7 +21315,7 @@
         <f>B34*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4" t="s">
         <v>50</v>
       </c>
@@ -19792,7 +21343,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="33"/>
-      <c r="D35" s="39"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -19812,7 +21363,7 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="19">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="17">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -19823,7 +21374,7 @@
       <c r="C36" s="28">
         <v>100</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -19840,11 +21391,11 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="20">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="18">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -19855,7 +21406,7 @@
       <c r="C37" s="28">
         <v>16</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -19872,11 +21423,11 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -19888,7 +21439,7 @@
         <f>1000*C36/3600/C37</f>
         <v>1.7361111111111112</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -19905,16 +21456,16 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="39"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -19931,11 +21482,11 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -19949,7 +21500,7 @@
       <c r="C40" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -19966,16 +21517,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="39"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -19992,16 +21543,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="39"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -20018,16 +21569,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="39"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -20044,16 +21595,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="39"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -20070,15 +21621,15 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>70.179310344827584</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -20086,19 +21637,19 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E46" s="38" t="s">
+    <row r="46" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
     </row>
-    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>50</v>
       </c>
@@ -20142,7 +21693,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="21">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="19">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -20163,11 +21714,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="22">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="20">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20188,11 +21739,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20213,11 +21764,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20238,11 +21789,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20263,11 +21814,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20288,11 +21839,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20313,11 +21864,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>239.25</v>
       </c>
     </row>
@@ -20338,11 +21889,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -20363,11 +21914,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -20388,11 +21939,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -20413,11 +21964,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -20438,28 +21989,29 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>126.40374999999999</v>
       </c>
     </row>
-    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E62" s="38" t="s">
+    <row r="61" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
     </row>
-    <row r="63" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
         <v>50</v>
       </c>
@@ -20952,19 +22504,20 @@
         <v>69.982186014267725</v>
       </c>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="38" t="s">
+    <row r="80" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
     </row>
-    <row r="82" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
         <v>50</v>
       </c>
@@ -21747,19 +23300,20 @@
         <v>77.091557109238693</v>
       </c>
     </row>
-    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E111" s="38" t="s">
+    <row r="110" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
-      <c r="K111" s="38"/>
-      <c r="L111" s="38"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
     </row>
-    <row r="112" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
         <v>50</v>
       </c>
@@ -22339,19 +23893,20 @@
         <v>148.8627063789969</v>
       </c>
     </row>
-    <row r="133" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E133" s="38" t="s">
+    <row r="132" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
+      <c r="H133" s="52"/>
+      <c r="I133" s="52"/>
+      <c r="J133" s="52"/>
+      <c r="K133" s="52"/>
+      <c r="L133" s="52"/>
     </row>
-    <row r="134" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
         <v>50</v>
       </c>
@@ -22844,19 +24399,20 @@
         <v>189.39412011557931</v>
       </c>
     </row>
-    <row r="153" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E153" s="38" t="s">
+    <row r="152" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E153" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F153" s="38"/>
-      <c r="G153" s="38"/>
-      <c r="H153" s="38"/>
-      <c r="I153" s="38"/>
-      <c r="J153" s="38"/>
-      <c r="K153" s="38"/>
-      <c r="L153" s="38"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
+      <c r="H153" s="52"/>
+      <c r="I153" s="52"/>
+      <c r="J153" s="52"/>
+      <c r="K153" s="52"/>
+      <c r="L153" s="52"/>
     </row>
-    <row r="154" spans="5:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E154" s="4" t="s">
         <v>50</v>
       </c>
@@ -23022,8 +24578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23085,31 +24641,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="42">
         <v>15000</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="42">
         <v>300</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="42">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="42">
         <v>4000</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="42">
         <v>125</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="42">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -23117,26 +24673,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -23157,10 +24713,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -23181,23 +24737,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <v>1106</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="42">
         <v>500</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="42">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -23205,79 +24761,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>15000</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="47">
         <v>300</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="47">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="42">
         <v>5000</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="42">
         <v>3500</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="42">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -23285,96 +24841,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>12000</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="47">
         <v>600</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -23382,43 +24938,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <v>12000</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="47">
         <v>600</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="47">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -23426,79 +24982,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="47">
         <v>7500</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="47">
         <v>1200</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="47">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -23506,83 +25062,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47">
         <v>265</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="47">
         <v>12500</v>
       </c>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="47" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -23590,25 +25146,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="47">
         <v>12500</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="47" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -23616,10 +25172,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
@@ -23677,12 +25233,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -23691,7 +25241,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -23908,16 +25458,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -23925,7 +25472,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -23942,4 +25489,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Customer_Related/TrovaCV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{3866E8CC-F120-4580-BB5C-0FAD16DD0AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{33D09417-6CE8-4396-9E9D-DE66292ECF97}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DF4F0-C78B-4A37-A7D7-AD785BCAB201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>Value</t>
   </si>
@@ -467,6 +467,12 @@
   <si>
     <t>Total kW</t>
   </si>
+  <si>
+    <t>Battery Voltage [V]</t>
+  </si>
+  <si>
+    <t>Battery Current [A]</t>
+  </si>
 </sst>
 </file>
 
@@ -786,19 +792,40 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -810,36 +837,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -19519,10 +19525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:X164"/>
+  <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19536,7 +19542,7 @@
     <col min="23" max="23" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
@@ -19546,7 +19552,7 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -19603,14 +19609,20 @@
       <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="53" t="s">
+      <c r="W1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="37" t="s">
         <v>142</v>
       </c>
+      <c r="Y1" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="37" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -19620,19 +19632,19 @@
       <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="20">
         <v>0</v>
       </c>
       <c r="F2" s="20">
-        <f>3600*H2/1000</f>
+        <f t="shared" ref="F2:F15" si="0">3600*H2/1000</f>
         <v>0</v>
       </c>
       <c r="G2" s="20">
         <v>0</v>
       </c>
       <c r="H2" s="20">
-        <f t="shared" ref="H2:H10" si="0">IF(G2&gt;$B$15,$B$15,G2)</f>
+        <f t="shared" ref="H2:H10" si="1">IF(G2&gt;$B$15,$B$15,G2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="21">
@@ -19677,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="20">
-        <f t="shared" ref="T2:T15" si="1">$B$17*$B$18</f>
+        <f t="shared" ref="T2:T15" si="2">$B$17*$B$18</f>
         <v>13.986999999999998</v>
       </c>
       <c r="U2" s="20">
@@ -19688,16 +19700,19 @@
         <f>S2*T2</f>
         <v>0</v>
       </c>
-      <c r="W2" s="56">
+      <c r="W2" s="40">
         <f>U2*V2*2*PI()/60/1000</f>
         <v>0</v>
       </c>
-      <c r="X2" s="56">
+      <c r="X2" s="40">
         <f>W2*$B$16</f>
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>600</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -19707,29 +19722,29 @@
       <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="20">
         <f>E2+$B$40</f>
         <v>10</v>
       </c>
       <c r="F3" s="20">
-        <f>3600*H3/1000</f>
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
       <c r="G3" s="20">
-        <f>G2+$B$14*(E3-E2)</f>
+        <f t="shared" ref="G3:G15" si="3">G2+$B$14*(E3-E2)</f>
         <v>4</v>
       </c>
       <c r="H3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I3" s="21">
-        <f>(H3-H2)/(E3-E2)</f>
+        <f t="shared" ref="I3:I10" si="4">(H3-H2)/(E3-E2)</f>
         <v>0.4</v>
       </c>
       <c r="J3" s="20">
-        <f>$J$2/H3</f>
+        <f t="shared" ref="J3:J15" si="5">$J$2/H3</f>
         <v>10791</v>
       </c>
       <c r="K3" s="20">
@@ -19739,55 +19754,58 @@
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="2">$B$2*$B$3*SIN(L3)</f>
+        <f t="shared" ref="M3:M15" si="6">$B$2*$B$3*SIN(L3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="3">$B$2*$B$3*$B$7*COS(L3)</f>
+        <f t="shared" ref="N3:N15" si="7">$B$2*$B$3*$B$7*COS(L3)</f>
         <v>755.37</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="4">0.5*$B$5*$B$6*$B$4*H3^2</f>
+        <f t="shared" ref="O3:O15" si="8">0.5*$B$5*$B$6*$B$4*H3^2</f>
         <v>30.290400000000002</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" ref="P3:P15" si="5">$B$2*I3</f>
+        <f t="shared" ref="P3:P15" si="9">$B$2*I3</f>
         <v>4400</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q15" si="6">SUM(M3,N3,O3,P3)</f>
+        <f t="shared" ref="Q3:Q15" si="10">SUM(M3,N3,O3,P3)</f>
         <v>5185.6603999999998</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R15" si="7">Q3*$B$9</f>
+        <f t="shared" ref="R3:R15" si="11">Q3*$B$9</f>
         <v>2437.2603879999997</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S15" si="8">H3*60/2/PI()/$B$9</f>
+        <f t="shared" ref="S3:S15" si="12">H3*60/2/PI()/$B$9</f>
         <v>81.27060923841465</v>
       </c>
       <c r="T3" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U15" si="9">R3/T3/$B$16/$B$10</f>
+        <f t="shared" ref="U3:U15" si="13">R3/T3/$B$16/$B$10</f>
         <v>91.711491046197025</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V15" si="10">S3*T3</f>
+        <f t="shared" ref="V3:V15" si="14">S3*T3</f>
         <v>1136.7320114177055</v>
       </c>
-      <c r="W3" s="56">
-        <f t="shared" ref="W3:W15" si="11">U3*V3*2*PI()/60/1000</f>
+      <c r="W3" s="40">
+        <f t="shared" ref="W3:W15" si="15">U3*V3*2*PI()/60/1000</f>
         <v>10.91717978947368</v>
       </c>
-      <c r="X3" s="56">
-        <f t="shared" ref="X3:X15" si="12">W3*$B$16</f>
+      <c r="X3" s="40">
+        <f t="shared" ref="X3:X15" si="16">W3*$B$16</f>
         <v>21.83435957894736</v>
       </c>
+      <c r="Y3">
+        <v>600</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
@@ -19797,29 +19815,29 @@
       <c r="C4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="20">
-        <f t="shared" ref="E4:E15" si="13">E3+$B$40</f>
+        <f t="shared" ref="E4:E15" si="17">E3+$B$40</f>
         <v>20</v>
       </c>
       <c r="F4" s="20">
-        <f>3600*H4/1000</f>
+        <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
       <c r="G4" s="20">
-        <f>G3+$B$14*(E4-E3)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I4" s="21">
-        <f>(H4-H3)/(E4-E3)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="J4" s="20">
-        <f>$J$2/H4</f>
+        <f t="shared" si="5"/>
         <v>5395.5</v>
       </c>
       <c r="K4" s="20">
@@ -19829,55 +19847,58 @@
         <v>0</v>
       </c>
       <c r="M4" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="8"/>
+        <v>121.16160000000001</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="10"/>
+        <v>5276.5316000000003</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="11"/>
+        <v>2479.9698520000002</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="12"/>
+        <v>162.5412184768293</v>
+      </c>
+      <c r="T4" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O4" s="20">
-        <f t="shared" si="4"/>
-        <v>121.16160000000001</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="Q4" s="20">
-        <f t="shared" si="6"/>
-        <v>5276.5316000000003</v>
-      </c>
-      <c r="R4" s="20">
-        <f t="shared" si="7"/>
-        <v>2479.9698520000002</v>
-      </c>
-      <c r="S4" s="20">
-        <f t="shared" si="8"/>
-        <v>162.5412184768293</v>
-      </c>
-      <c r="T4" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U4" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>93.318602311168661</v>
       </c>
       <c r="V4" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2273.464022835411</v>
       </c>
-      <c r="W4" s="56">
-        <f t="shared" si="11"/>
+      <c r="W4" s="40">
+        <f t="shared" si="15"/>
         <v>22.216975157894737</v>
       </c>
-      <c r="X4" s="56">
-        <f t="shared" si="12"/>
+      <c r="X4" s="40">
+        <f t="shared" si="16"/>
         <v>44.433950315789474</v>
       </c>
+      <c r="Y4">
+        <v>600</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -19887,29 +19908,29 @@
       <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="F5" s="20">
-        <f>3600*H5/1000</f>
+        <f t="shared" si="0"/>
         <v>43.2</v>
       </c>
       <c r="G5" s="20">
-        <f>G4+$B$14*(E5-E4)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I5" s="21">
-        <f>(H5-H4)/(E5-E4)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="J5" s="20">
-        <f>$J$2/H5</f>
+        <f t="shared" si="5"/>
         <v>3597</v>
       </c>
       <c r="K5" s="20">
@@ -19919,55 +19940,58 @@
         <v>0</v>
       </c>
       <c r="M5" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="8"/>
+        <v>272.61360000000002</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="10"/>
+        <v>5427.9835999999996</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="11"/>
+        <v>2551.1522919999998</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="12"/>
+        <v>243.81182771524394</v>
+      </c>
+      <c r="T5" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O5" s="20">
-        <f t="shared" si="4"/>
-        <v>272.61360000000002</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" si="6"/>
-        <v>5427.9835999999996</v>
-      </c>
-      <c r="R5" s="20">
-        <f t="shared" si="7"/>
-        <v>2551.1522919999998</v>
-      </c>
-      <c r="S5" s="20">
-        <f t="shared" si="8"/>
-        <v>243.81182771524394</v>
-      </c>
-      <c r="T5" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>95.997121086121339</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3410.1960342531165</v>
       </c>
-      <c r="W5" s="56">
-        <f t="shared" si="11"/>
+      <c r="W5" s="40">
+        <f t="shared" si="15"/>
         <v>34.282001684210528</v>
       </c>
-      <c r="X5" s="56">
-        <f t="shared" si="12"/>
+      <c r="X5" s="40">
+        <f t="shared" si="16"/>
         <v>68.564003368421055</v>
       </c>
+      <c r="Y5">
+        <v>600</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
@@ -19975,29 +19999,29 @@
         <v>0.75</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="D6" s="38"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="F6" s="20">
-        <f>3600*H6/1000</f>
+        <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
       <c r="G6" s="20">
-        <f>G5+$B$14*(E6-E5)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I6" s="21">
-        <f>(H6-H5)/(E6-E5)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="J6" s="20">
-        <f>$J$2/H6</f>
+        <f t="shared" si="5"/>
         <v>2697.75</v>
       </c>
       <c r="K6" s="20">
@@ -20007,55 +20031,58 @@
         <v>0</v>
       </c>
       <c r="M6" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="8"/>
+        <v>484.64640000000003</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="10"/>
+        <v>5640.0164000000004</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="11"/>
+        <v>2650.8077080000003</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="12"/>
+        <v>325.0824369536586</v>
+      </c>
+      <c r="T6" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O6" s="20">
-        <f t="shared" si="4"/>
-        <v>484.64640000000003</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="Q6" s="20">
-        <f t="shared" si="6"/>
-        <v>5640.0164000000004</v>
-      </c>
-      <c r="R6" s="20">
-        <f t="shared" si="7"/>
-        <v>2650.8077080000003</v>
-      </c>
-      <c r="S6" s="20">
-        <f t="shared" si="8"/>
-        <v>325.0824369536586</v>
-      </c>
-      <c r="T6" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U6" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>99.747047371055103</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4546.928045670822</v>
       </c>
-      <c r="W6" s="56">
-        <f t="shared" si="11"/>
+      <c r="W6" s="40">
+        <f t="shared" si="15"/>
         <v>47.49487494736843</v>
       </c>
-      <c r="X6" s="56">
-        <f t="shared" si="12"/>
+      <c r="X6" s="40">
+        <f t="shared" si="16"/>
         <v>94.98974989473686</v>
       </c>
+      <c r="Y6">
+        <v>600</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -20063,29 +20090,29 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C7" s="26"/>
-      <c r="D7" s="38"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="F7" s="20">
-        <f>3600*H7/1000</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G7" s="20">
-        <f>G6+$B$14*(E7-E6)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I7" s="21">
-        <f>(H7-H6)/(E7-E6)</f>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="J7" s="20">
-        <f>$J$2/H7</f>
+        <f t="shared" si="5"/>
         <v>2158.1999999999998</v>
       </c>
       <c r="K7" s="20">
@@ -20095,55 +20122,58 @@
         <v>0</v>
       </c>
       <c r="M7" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="8"/>
+        <v>757.26</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="9"/>
+        <v>4400</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="10"/>
+        <v>5912.63</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="11"/>
+        <v>2778.9360999999999</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="12"/>
+        <v>406.35304619207324</v>
+      </c>
+      <c r="T7" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="4"/>
-        <v>757.26</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="5"/>
-        <v>4400</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="6"/>
-        <v>5912.63</v>
-      </c>
-      <c r="R7" s="20">
-        <f t="shared" si="7"/>
-        <v>2778.9360999999999</v>
-      </c>
-      <c r="S7" s="20">
-        <f t="shared" si="8"/>
-        <v>406.35304619207324</v>
-      </c>
-      <c r="T7" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U7" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>104.56838116596991</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5683.6600570885275</v>
       </c>
-      <c r="W7" s="56">
-        <f t="shared" si="11"/>
+      <c r="W7" s="40">
+        <f t="shared" si="15"/>
         <v>62.238210526315783</v>
       </c>
-      <c r="X7" s="56">
-        <f t="shared" si="12"/>
+      <c r="X7" s="40">
+        <f t="shared" si="16"/>
         <v>124.47642105263157</v>
       </c>
+      <c r="Y7">
+        <v>600</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
@@ -20151,29 +20181,29 @@
         <v>0.4</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="38"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>60</v>
       </c>
       <c r="F8" s="20">
-        <f>3600*H8/1000</f>
+        <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G8" s="20">
-        <f>G7+$B$14*(E8-E7)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="H8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I8" s="21">
-        <f>(H8-H7)/(E8-E7)</f>
+        <f t="shared" si="4"/>
         <v>0.21999999999999992</v>
       </c>
       <c r="J8" s="20">
-        <f>$J$2/H8</f>
+        <f t="shared" si="5"/>
         <v>1944.3243243243244</v>
       </c>
       <c r="K8" s="20">
@@ -20183,55 +20213,58 @@
         <v>0</v>
       </c>
       <c r="M8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="8"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="9"/>
+        <v>2419.9999999999991</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="10"/>
+        <v>4108.3900459999986</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="11"/>
+        <v>1930.9433216199993</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="12"/>
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T8" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" si="4"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="5"/>
-        <v>2419.9999999999991</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" si="6"/>
-        <v>4108.3900459999986</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" si="7"/>
-        <v>1930.9433216199993</v>
-      </c>
-      <c r="S8" s="20">
-        <f t="shared" si="8"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="T8" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U8" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>72.659323568125274</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6308.8626633682652</v>
       </c>
-      <c r="W8" s="56">
-        <f t="shared" si="11"/>
+      <c r="W8" s="40">
+        <f t="shared" si="15"/>
         <v>48.0032942216842</v>
       </c>
-      <c r="X8" s="56">
-        <f t="shared" si="12"/>
+      <c r="X8" s="40">
+        <f t="shared" si="16"/>
         <v>96.0065884433684</v>
       </c>
+      <c r="Y8">
+        <v>600</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -20241,29 +20274,29 @@
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
       <c r="F9" s="20">
-        <f>3600*H9/1000</f>
+        <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G9" s="20">
-        <f>G8+$B$14*(E9-E8)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="H9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I9" s="21">
-        <f>(H9-H8)/(E9-E8)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="20">
-        <f>$J$2/H9</f>
+        <f t="shared" si="5"/>
         <v>1944.3243243243244</v>
       </c>
       <c r="K9" s="20">
@@ -20273,55 +20306,58 @@
         <v>0</v>
       </c>
       <c r="M9" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="8"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="10"/>
+        <v>1688.390046</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="11"/>
+        <v>793.54332161999992</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="12"/>
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T9" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O9" s="20">
-        <f t="shared" si="4"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="6"/>
-        <v>1688.390046</v>
-      </c>
-      <c r="R9" s="20">
-        <f t="shared" si="7"/>
-        <v>793.54332161999992</v>
-      </c>
-      <c r="S9" s="20">
-        <f t="shared" si="8"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="T9" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29.860183012797599</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6308.8626633682652</v>
       </c>
-      <c r="W9" s="56">
-        <f t="shared" si="11"/>
+      <c r="W9" s="40">
+        <f t="shared" si="15"/>
         <v>19.727504747999998</v>
       </c>
-      <c r="X9" s="56">
-        <f t="shared" si="12"/>
+      <c r="X9" s="40">
+        <f t="shared" si="16"/>
         <v>39.455009495999995</v>
       </c>
+      <c r="Y9">
+        <v>600</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
@@ -20329,29 +20365,29 @@
         <v>0.95</v>
       </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>80</v>
       </c>
       <c r="F10" s="20">
-        <f>3600*H10/1000</f>
+        <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G10" s="20">
-        <f>G9+$B$14*(E10-E9)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="H10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I10" s="21">
-        <f>(H10-H9)/(E10-E9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10" s="20">
-        <f>$J$2/H10</f>
+        <f t="shared" si="5"/>
         <v>1944.3243243243244</v>
       </c>
       <c r="K10" s="20">
@@ -20361,55 +20397,58 @@
         <v>0</v>
       </c>
       <c r="M10" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="7"/>
+        <v>755.37</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="8"/>
+        <v>933.02004599999998</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="10"/>
+        <v>1688.390046</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="11"/>
+        <v>793.54332161999992</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="12"/>
+        <v>451.05188127320127</v>
+      </c>
+      <c r="T10" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="3"/>
-        <v>755.37</v>
-      </c>
-      <c r="O10" s="20">
-        <f t="shared" si="4"/>
-        <v>933.02004599999998</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <f t="shared" si="6"/>
-        <v>1688.390046</v>
-      </c>
-      <c r="R10" s="20">
-        <f t="shared" si="7"/>
-        <v>793.54332161999992</v>
-      </c>
-      <c r="S10" s="20">
-        <f t="shared" si="8"/>
-        <v>451.05188127320127</v>
-      </c>
-      <c r="T10" s="20">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>29.860183012797599</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6308.8626633682652</v>
       </c>
-      <c r="W10" s="56">
-        <f t="shared" si="11"/>
+      <c r="W10" s="40">
+        <f t="shared" si="15"/>
         <v>19.727504747999998</v>
       </c>
-      <c r="X10" s="56">
-        <f t="shared" si="12"/>
+      <c r="X10" s="40">
+        <f t="shared" si="16"/>
         <v>39.455009495999995</v>
       </c>
+      <c r="Y10">
+        <v>600</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -20419,17 +20458,17 @@
       <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="F11" s="24">
-        <f>3600*H11/1000</f>
+        <f t="shared" si="0"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G11" s="24">
-        <f>G10+$B$14*(E11-E10)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="H11" s="24">
@@ -20439,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="24">
-        <f>$J$2/H11</f>
+        <f t="shared" si="5"/>
         <v>43164000</v>
       </c>
       <c r="K11" s="24">
@@ -20451,55 +20490,58 @@
         <v>0.19739555984988078</v>
       </c>
       <c r="M11" s="24">
+        <f t="shared" si="6"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="7"/>
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="8"/>
+        <v>1.89315E-6</v>
+      </c>
+      <c r="P11" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="10"/>
+        <v>21903.59336965124</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="11"/>
+        <v>10294.688883736082</v>
+      </c>
+      <c r="S11" s="24">
+        <f t="shared" si="12"/>
+        <v>2.0317652309603661E-2</v>
+      </c>
+      <c r="T11" s="24">
         <f t="shared" si="2"/>
-        <v>21162.89214276144</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="3"/>
-        <v>740.70122499665035</v>
-      </c>
-      <c r="O11" s="24">
-        <f t="shared" si="4"/>
-        <v>1.89315E-6</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24">
-        <f t="shared" si="6"/>
-        <v>21903.59336965124</v>
-      </c>
-      <c r="R11" s="24">
-        <f t="shared" si="7"/>
-        <v>10294.688883736082</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" si="8"/>
-        <v>2.0317652309603661E-2</v>
-      </c>
-      <c r="T11" s="24">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>387.37808731175505</v>
       </c>
       <c r="V11" s="24">
         <f>S11*T11</f>
         <v>0.28418300285442638</v>
       </c>
-      <c r="W11" s="54">
-        <f t="shared" si="11"/>
+      <c r="W11" s="38">
+        <f t="shared" si="15"/>
         <v>1.1528207036658548E-2</v>
       </c>
-      <c r="X11" s="54">
-        <f t="shared" si="12"/>
+      <c r="X11" s="38">
+        <f t="shared" si="16"/>
         <v>2.3056414073317096E-2</v>
       </c>
+      <c r="Y11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -20509,17 +20551,17 @@
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="F12" s="22">
-        <f>3600*H12/1000</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="G12" s="22">
-        <f>G11+$B$14*(E12-E11)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="H12" s="34">
@@ -20529,66 +20571,69 @@
         <v>0</v>
       </c>
       <c r="J12" s="22">
-        <f>$J$2/H12</f>
+        <f t="shared" si="5"/>
         <v>21582</v>
       </c>
       <c r="K12" s="34">
         <v>5</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" ref="L12:L15" si="14">ATAN2(100, K12)</f>
+        <f t="shared" ref="L12:L15" si="18">ATAN2(100, K12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="M12" s="22">
+        <f t="shared" si="6"/>
+        <v>5388.7682444154116</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="7"/>
+        <v>754.42755421815752</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="8"/>
+        <v>7.5726000000000004</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="10"/>
+        <v>6150.7683986335696</v>
+      </c>
+      <c r="R12" s="22">
+        <f t="shared" si="11"/>
+        <v>2890.8611473577776</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" si="12"/>
+        <v>40.635304619207325</v>
+      </c>
+      <c r="T12" s="22">
         <f t="shared" si="2"/>
-        <v>5388.7682444154116</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="3"/>
-        <v>754.42755421815752</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="4"/>
-        <v>7.5726000000000004</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="22">
-        <f t="shared" si="6"/>
-        <v>6150.7683986335696</v>
-      </c>
-      <c r="R12" s="22">
-        <f t="shared" si="7"/>
-        <v>2890.8611473577776</v>
-      </c>
-      <c r="S12" s="22">
-        <f t="shared" si="8"/>
-        <v>40.635304619207325</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="1"/>
         <v>13.986999999999998</v>
       </c>
       <c r="U12" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>108.78000050263884</v>
       </c>
       <c r="V12" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>568.36600570885275</v>
       </c>
-      <c r="W12" s="55">
-        <f t="shared" si="11"/>
+      <c r="W12" s="39">
+        <f t="shared" si="15"/>
         <v>6.4744930511932317</v>
       </c>
-      <c r="X12" s="55">
-        <f t="shared" si="12"/>
+      <c r="X12" s="39">
+        <f t="shared" si="16"/>
         <v>12.948986102386463</v>
       </c>
+      <c r="Y12">
+        <v>600</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -20598,17 +20643,17 @@
       <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>110</v>
       </c>
       <c r="F13" s="22">
-        <f>3600*H13/1000</f>
+        <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="G13" s="22">
-        <f>G12+$B$14*(E13-E12)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="H13" s="34">
@@ -20618,66 +20663,69 @@
         <v>0</v>
       </c>
       <c r="J13" s="22">
-        <f>$J$2/H13</f>
+        <f t="shared" si="5"/>
         <v>43164</v>
       </c>
       <c r="K13" s="34">
         <v>10</v>
       </c>
       <c r="L13" s="22">
+        <f t="shared" si="18"/>
+        <v>9.9668652491162038E-2</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="6"/>
+        <v>10737.446319555995</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="7"/>
+        <v>751.62124236891952</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8931500000000001</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="10"/>
+        <v>11490.960711924914</v>
+      </c>
+      <c r="R13" s="22">
+        <f t="shared" si="11"/>
+        <v>5400.7515346047094</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="12"/>
+        <v>20.317652309603663</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="2"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="13"/>
+        <v>203.22448042372844</v>
+      </c>
+      <c r="V13" s="22">
         <f t="shared" si="14"/>
-        <v>9.9668652491162038E-2</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="2"/>
-        <v>10737.446319555995</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="3"/>
-        <v>751.62124236891952</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="4"/>
-        <v>1.8931500000000001</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="22">
-        <f t="shared" si="6"/>
-        <v>11490.960711924914</v>
-      </c>
-      <c r="R13" s="22">
-        <f t="shared" si="7"/>
-        <v>5400.7515346047094</v>
-      </c>
-      <c r="S13" s="22">
-        <f t="shared" si="8"/>
-        <v>20.317652309603663</v>
-      </c>
-      <c r="T13" s="22">
-        <f t="shared" si="1"/>
-        <v>13.986999999999998</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="9"/>
-        <v>203.22448042372844</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="10"/>
         <v>284.18300285442638</v>
       </c>
-      <c r="W13" s="55">
-        <f t="shared" si="11"/>
+      <c r="W13" s="39">
+        <f t="shared" si="15"/>
         <v>6.0478740589078495</v>
       </c>
-      <c r="X13" s="55">
-        <f t="shared" si="12"/>
+      <c r="X13" s="39">
+        <f t="shared" si="16"/>
         <v>12.095748117815699</v>
       </c>
+      <c r="Y13">
+        <v>600</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
@@ -20687,17 +20735,17 @@
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>120</v>
       </c>
       <c r="F14" s="22">
-        <f>3600*H14/1000</f>
+        <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
       <c r="G14" s="22">
-        <f>G13+$B$14*(E14-E13)</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="H14" s="34">
@@ -20707,66 +20755,69 @@
         <v>0</v>
       </c>
       <c r="J14" s="22">
-        <f>$J$2/H14</f>
+        <f t="shared" si="5"/>
         <v>53955</v>
       </c>
       <c r="K14" s="34">
         <v>20</v>
       </c>
       <c r="L14" s="22">
+        <f t="shared" si="18"/>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="M14" s="22">
+        <f t="shared" si="6"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N14" s="22">
+        <f t="shared" si="7"/>
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O14" s="22">
+        <f t="shared" si="8"/>
+        <v>1.2116160000000002</v>
+      </c>
+      <c r="P14" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="10"/>
+        <v>21904.804983758091</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="11"/>
+        <v>10295.258342366302</v>
+      </c>
+      <c r="S14" s="22">
+        <f t="shared" si="12"/>
+        <v>16.254121847682928</v>
+      </c>
+      <c r="T14" s="22">
+        <f t="shared" si="2"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U14" s="22">
+        <f t="shared" si="13"/>
+        <v>387.39951542847319</v>
+      </c>
+      <c r="V14" s="22">
         <f t="shared" si="14"/>
-        <v>0.19739555984988078</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" si="2"/>
-        <v>21162.89214276144</v>
-      </c>
-      <c r="N14" s="22">
-        <f t="shared" si="3"/>
-        <v>740.70122499665035</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="4"/>
-        <v>1.2116160000000002</v>
-      </c>
-      <c r="P14" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="22">
-        <f t="shared" si="6"/>
-        <v>21904.804983758091</v>
-      </c>
-      <c r="R14" s="22">
-        <f t="shared" si="7"/>
-        <v>10295.258342366302</v>
-      </c>
-      <c r="S14" s="22">
-        <f t="shared" si="8"/>
-        <v>16.254121847682928</v>
-      </c>
-      <c r="T14" s="22">
-        <f t="shared" si="1"/>
-        <v>13.986999999999998</v>
-      </c>
-      <c r="U14" s="22">
-        <f t="shared" si="9"/>
-        <v>387.39951542847319</v>
-      </c>
-      <c r="V14" s="22">
-        <f t="shared" si="10"/>
         <v>227.3464022835411</v>
       </c>
-      <c r="W14" s="55">
-        <f t="shared" si="11"/>
+      <c r="W14" s="39">
+        <f t="shared" si="15"/>
         <v>9.2230757826349858</v>
       </c>
-      <c r="X14" s="55">
-        <f t="shared" si="12"/>
+      <c r="X14" s="39">
+        <f t="shared" si="16"/>
         <v>18.446151565269972</v>
       </c>
+      <c r="Y14">
+        <v>600</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -20776,17 +20827,17 @@
       <c r="C15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="F15" s="22">
-        <f>3600*H15/1000</f>
+        <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
       <c r="G15" s="22">
-        <f>G14+$B$14*(E15-E14)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="H15" s="34">
@@ -20797,7 +20848,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <f>$J$2/H15</f>
+        <f t="shared" si="5"/>
         <v>143880</v>
       </c>
       <c r="K15" s="34">
@@ -20805,59 +20856,62 @@
         <v>20</v>
       </c>
       <c r="L15" s="22">
+        <f t="shared" si="18"/>
+        <v>0.19739555984988078</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="6"/>
+        <v>21162.89214276144</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="7"/>
+        <v>740.70122499665035</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="8"/>
+        <v>0.17038349999999999</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="10"/>
+        <v>21903.763751258091</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="11"/>
+        <v>10294.768963091303</v>
+      </c>
+      <c r="S15" s="22">
+        <f t="shared" si="12"/>
+        <v>6.0952956928810984</v>
+      </c>
+      <c r="T15" s="22">
+        <f t="shared" si="2"/>
+        <v>13.986999999999998</v>
+      </c>
+      <c r="U15" s="22">
+        <f t="shared" si="13"/>
+        <v>387.38110061189542</v>
+      </c>
+      <c r="V15" s="22">
         <f t="shared" si="14"/>
-        <v>0.19739555984988078</v>
-      </c>
-      <c r="M15" s="22">
-        <f t="shared" si="2"/>
-        <v>21162.89214276144</v>
-      </c>
-      <c r="N15" s="22">
-        <f t="shared" si="3"/>
-        <v>740.70122499665035</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="4"/>
-        <v>0.17038349999999999</v>
-      </c>
-      <c r="P15" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="22">
-        <f t="shared" si="6"/>
-        <v>21903.763751258091</v>
-      </c>
-      <c r="R15" s="22">
-        <f t="shared" si="7"/>
-        <v>10294.768963091303</v>
-      </c>
-      <c r="S15" s="22">
-        <f t="shared" si="8"/>
-        <v>6.0952956928810984</v>
-      </c>
-      <c r="T15" s="22">
-        <f t="shared" si="1"/>
-        <v>13.986999999999998</v>
-      </c>
-      <c r="U15" s="22">
-        <f t="shared" si="9"/>
-        <v>387.38110061189542</v>
-      </c>
-      <c r="V15" s="22">
-        <f t="shared" si="10"/>
         <v>85.254900856327907</v>
       </c>
-      <c r="W15" s="55">
-        <f t="shared" si="11"/>
+      <c r="W15" s="39">
+        <f t="shared" si="15"/>
         <v>3.4584890133565409</v>
       </c>
-      <c r="X15" s="55">
-        <f t="shared" si="12"/>
+      <c r="X15" s="39">
+        <f t="shared" si="16"/>
         <v>6.9169780267130818</v>
       </c>
+      <c r="Y15">
+        <v>600</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
@@ -20865,7 +20919,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="43"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
@@ -20878,7 +20932,7 @@
         <v>3.94</v>
       </c>
       <c r="C17" s="26"/>
-      <c r="D17" s="38"/>
+      <c r="D17" s="43"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
@@ -20890,15 +20944,15 @@
         <v>3.55</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -20908,17 +20962,17 @@
       <c r="C20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -20928,7 +20982,7 @@
       <c r="C21" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
@@ -20959,7 +21013,7 @@
         <f>B22*0.453592</f>
         <v>29483.48</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -20979,7 +21033,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="15">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="19">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -20990,7 +21044,7 @@
       <c r="C23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="5">
         <v>500</v>
       </c>
@@ -21010,7 +21064,7 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21022,7 +21076,7 @@
         <f>B24*0.0254</f>
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="5">
         <v>1000</v>
       </c>
@@ -21042,7 +21096,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21053,7 +21107,7 @@
       <c r="C25" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="5">
         <v>1800</v>
       </c>
@@ -21073,7 +21127,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21085,7 +21139,7 @@
         <f>B26*4.44822</f>
         <v>4.4482200000000001</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="5">
         <v>2000</v>
       </c>
@@ -21102,11 +21156,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="16">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="20">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21117,7 +21171,7 @@
       <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="43"/>
       <c r="E27" s="5">
         <v>2500</v>
       </c>
@@ -21134,11 +21188,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>149.76</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21150,7 +21204,7 @@
         <f>B28/2.23694</f>
         <v>22.351962949386213</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="5">
         <v>3000</v>
       </c>
@@ -21167,11 +21221,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>124.8</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -21182,7 +21236,7 @@
       <c r="C29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="5">
         <v>3500</v>
       </c>
@@ -21199,11 +21253,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>106.97142857142858</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>50.938775510204088</v>
       </c>
     </row>
@@ -21215,7 +21269,7 @@
         <f>B30*0.277778</f>
         <v>27.777800000000003</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="5">
         <v>4000</v>
       </c>
@@ -21232,11 +21286,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>93.6</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -21247,7 +21301,7 @@
       <c r="C31" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="5">
         <v>4500</v>
       </c>
@@ -21264,11 +21318,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>83.2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>39.619047619047628</v>
       </c>
     </row>
@@ -21280,7 +21334,7 @@
         <f>B32*1.35582</f>
         <v>1.35582</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -21295,17 +21349,17 @@
       <c r="C33" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31">
@@ -21315,7 +21369,7 @@
         <f>B34*0.7457</f>
         <v>0.74570000000000003</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="4" t="s">
         <v>50</v>
       </c>
@@ -21343,7 +21397,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="33"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -21363,7 +21417,7 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="17">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="21">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21374,7 +21428,7 @@
       <c r="C36" s="28">
         <v>100</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="5">
         <v>500</v>
       </c>
@@ -21391,11 +21445,11 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="18">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="22">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21406,7 +21460,7 @@
       <c r="C37" s="28">
         <v>16</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="5">
         <v>1000</v>
       </c>
@@ -21423,11 +21477,11 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>384</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21439,7 +21493,7 @@
         <f>1000*C36/3600/C37</f>
         <v>1.7361111111111112</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="5">
         <v>1500</v>
       </c>
@@ -21456,16 +21510,16 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>384</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="38"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="5">
         <v>2000</v>
       </c>
@@ -21482,11 +21536,11 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>384</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21500,7 +21554,7 @@
       <c r="C40" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="38"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="5">
         <v>2650</v>
       </c>
@@ -21517,16 +21571,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>289.81132075471697</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="38"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="5">
         <v>3000</v>
       </c>
@@ -21543,16 +21597,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>256</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>105.26896551724138</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D42" s="38"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="5">
         <v>3500</v>
       </c>
@@ -21569,16 +21623,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>219.42857142857147</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>90.23054187192119</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D43" s="38"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="5">
         <v>4000</v>
       </c>
@@ -21595,16 +21649,16 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>192</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>78.951724137931052</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44" s="38"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="5">
         <v>4500</v>
       </c>
@@ -21621,11 +21675,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>170.66666666666669</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -21638,16 +21692,16 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
@@ -21693,7 +21747,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="19">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="23">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -21714,11 +21768,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="20">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="24">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21739,11 +21793,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>638</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21764,11 +21818,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>638</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21789,11 +21843,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>638</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21814,11 +21868,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>638</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21839,11 +21893,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>588.92307692307691</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21864,11 +21918,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>483.02839116719241</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21889,11 +21943,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>382.8</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -21914,11 +21968,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>340.26666666666665</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -21939,11 +21993,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>306.24</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -21964,11 +22018,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>278.39999999999998</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -21989,27 +22043,27 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>255.2</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>126.40374999999999</v>
       </c>
     </row>
     <row r="61" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
     </row>
     <row r="63" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
@@ -22506,16 +22560,16 @@
     </row>
     <row r="80" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="52" t="s">
+      <c r="E81" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
     </row>
     <row r="82" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E82" s="4" t="s">
@@ -23302,16 +23356,16 @@
     </row>
     <row r="110" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E111" s="52" t="s">
+      <c r="E111" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F111" s="52"/>
-      <c r="G111" s="52"/>
-      <c r="H111" s="52"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
     </row>
     <row r="112" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
@@ -23895,16 +23949,16 @@
     </row>
     <row r="132" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E133" s="52" t="s">
+      <c r="E133" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
-      <c r="J133" s="52"/>
-      <c r="K133" s="52"/>
-      <c r="L133" s="52"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
     </row>
     <row r="134" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E134" s="4" t="s">
@@ -24401,16 +24455,16 @@
     </row>
     <row r="152" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E153" s="52" t="s">
+      <c r="E153" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F153" s="52"/>
-      <c r="G153" s="52"/>
-      <c r="H153" s="52"/>
-      <c r="I153" s="52"/>
-      <c r="J153" s="52"/>
-      <c r="K153" s="52"/>
-      <c r="L153" s="52"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="41"/>
     </row>
     <row r="154" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E154" s="4" t="s">
@@ -24578,7 +24632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -24594,7 +24648,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C28" sqref="C28:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24641,31 +24695,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="51">
         <v>15000</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="51">
         <v>300</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="51">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="51">
         <v>4000</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="51">
         <v>125</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="51">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -24673,26 +24727,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -24713,10 +24767,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -24737,23 +24791,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="51">
         <v>1106</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="51">
         <v>500</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="51">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -24764,76 +24818,76 @@
       <c r="A7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="48">
         <v>15000</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="48">
         <v>300</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="48">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="51">
         <v>5000</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="51">
         <v>3500</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="51">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -24841,81 +24895,81 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
@@ -24924,13 +24978,13 @@
       <c r="A16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="48">
         <v>12000</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="48">
         <v>600</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="48">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -24938,28 +24992,28 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
@@ -24968,13 +25022,13 @@
       <c r="A20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="48">
         <v>12000</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="48">
         <v>600</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="48">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -24982,64 +25036,64 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
@@ -25048,13 +25102,13 @@
       <c r="A28" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="48">
         <v>7500</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="48">
         <v>1200</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="48">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -25062,37 +25116,37 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
@@ -25101,29 +25155,29 @@
       <c r="A33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48">
         <v>265</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
@@ -25132,13 +25186,13 @@
       <c r="A36" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="48">
         <v>12500</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="48" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -25146,10 +25200,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
@@ -25158,13 +25212,13 @@
       <c r="A38" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="48">
         <v>12500</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="48" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -25172,33 +25226,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -25215,17 +25263,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -25242,6 +25296,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -25458,12 +25518,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
@@ -25473,6 +25527,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25489,13 +25552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838DF4F0-C78B-4A37-A7D7-AD785BCAB201}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD40EA-3990-4040-8A71-531EEF31C58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -810,22 +810,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -837,13 +828,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18914,16 +18914,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>61911</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300036</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18950,16 +18950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19525,10 +19525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:Z164"/>
+  <dimension ref="A1:AB164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19542,7 +19542,7 @@
     <col min="23" max="23" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
@@ -19708,11 +19708,17 @@
         <f>W2*$B$16</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="40">
         <v>600</v>
       </c>
+      <c r="Z2" s="40">
+        <f>1000*X2/Y2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
@@ -19801,11 +19807,17 @@
         <f t="shared" ref="X3:X15" si="16">W3*$B$16</f>
         <v>21.83435957894736</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="40">
         <v>600</v>
       </c>
+      <c r="Z3" s="40">
+        <f t="shared" ref="Z3:Z15" si="17">1000*X3/Y3</f>
+        <v>36.390599298245604</v>
+      </c>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
@@ -19817,7 +19829,7 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="20">
-        <f t="shared" ref="E4:E15" si="17">E3+$B$40</f>
+        <f t="shared" ref="E4:E15" si="18">E3+$B$40</f>
         <v>20</v>
       </c>
       <c r="F4" s="20">
@@ -19894,11 +19906,17 @@
         <f t="shared" si="16"/>
         <v>44.433950315789474</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="40">
         <v>600</v>
       </c>
+      <c r="Z4" s="40">
+        <f t="shared" si="17"/>
+        <v>74.056583859649123</v>
+      </c>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -19910,7 +19928,7 @@
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="F5" s="20">
@@ -19987,11 +20005,17 @@
         <f t="shared" si="16"/>
         <v>68.564003368421055</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="40">
         <v>600</v>
       </c>
+      <c r="Z5" s="40">
+        <f t="shared" si="17"/>
+        <v>114.27333894736842</v>
+      </c>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
@@ -20001,7 +20025,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="43"/>
       <c r="E6" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="F6" s="20">
@@ -20078,11 +20102,17 @@
         <f t="shared" si="16"/>
         <v>94.98974989473686</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="40">
         <v>600</v>
       </c>
+      <c r="Z6" s="40">
+        <f t="shared" si="17"/>
+        <v>158.31624982456142</v>
+      </c>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
@@ -20092,7 +20122,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="43"/>
       <c r="E7" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="F7" s="20">
@@ -20169,11 +20199,17 @@
         <f t="shared" si="16"/>
         <v>124.47642105263157</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="40">
         <v>600</v>
       </c>
+      <c r="Z7" s="40">
+        <f t="shared" si="17"/>
+        <v>207.46070175438592</v>
+      </c>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
@@ -20183,7 +20219,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="43"/>
       <c r="E8" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="F8" s="20">
@@ -20260,11 +20296,17 @@
         <f t="shared" si="16"/>
         <v>96.0065884433684</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="40">
         <v>600</v>
       </c>
+      <c r="Z8" s="40">
+        <f t="shared" si="17"/>
+        <v>160.01098073894732</v>
+      </c>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
@@ -20276,7 +20318,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70</v>
       </c>
       <c r="F9" s="20">
@@ -20353,11 +20395,17 @@
         <f t="shared" si="16"/>
         <v>39.455009495999995</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="40">
         <v>600</v>
       </c>
+      <c r="Z9" s="40">
+        <f t="shared" si="17"/>
+        <v>65.758349159999995</v>
+      </c>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
@@ -20367,7 +20415,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="43"/>
       <c r="E10" s="20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>80</v>
       </c>
       <c r="F10" s="20">
@@ -20444,11 +20492,17 @@
         <f t="shared" si="16"/>
         <v>39.455009495999995</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="40">
         <v>600</v>
       </c>
+      <c r="Z10" s="40">
+        <f t="shared" si="17"/>
+        <v>65.758349159999995</v>
+      </c>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>128</v>
       </c>
@@ -20460,7 +20514,7 @@
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>90</v>
       </c>
       <c r="F11" s="24">
@@ -20537,11 +20591,17 @@
         <f t="shared" si="16"/>
         <v>2.3056414073317096E-2</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="38">
         <v>600</v>
       </c>
+      <c r="Z11" s="38">
+        <f t="shared" si="17"/>
+        <v>3.8427356788861826E-2</v>
+      </c>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
@@ -20553,7 +20613,7 @@
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="F12" s="22">
@@ -20578,7 +20638,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" ref="L12:L15" si="18">ATAN2(100, K12)</f>
+        <f t="shared" ref="L12:L15" si="19">ATAN2(100, K12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="M12" s="22">
@@ -20629,11 +20689,17 @@
         <f t="shared" si="16"/>
         <v>12.948986102386463</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="39">
         <v>600</v>
       </c>
+      <c r="Z12" s="39">
+        <f t="shared" si="17"/>
+        <v>21.581643503977439</v>
+      </c>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>130</v>
       </c>
@@ -20645,7 +20711,7 @@
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F13" s="22">
@@ -20670,7 +20736,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.9668652491162038E-2</v>
       </c>
       <c r="M13" s="22">
@@ -20721,11 +20787,17 @@
         <f t="shared" si="16"/>
         <v>12.095748117815699</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="39">
         <v>600</v>
       </c>
+      <c r="Z13" s="39">
+        <f t="shared" si="17"/>
+        <v>20.159580196359499</v>
+      </c>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>17</v>
       </c>
@@ -20737,7 +20809,7 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>120</v>
       </c>
       <c r="F14" s="22">
@@ -20762,7 +20834,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.19739555984988078</v>
       </c>
       <c r="M14" s="22">
@@ -20813,11 +20885,17 @@
         <f t="shared" si="16"/>
         <v>18.446151565269972</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="39">
         <v>600</v>
       </c>
+      <c r="Z14" s="39">
+        <f t="shared" si="17"/>
+        <v>30.743585942116617</v>
+      </c>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -20829,7 +20907,7 @@
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="F15" s="22">
@@ -20856,7 +20934,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.19739555984988078</v>
       </c>
       <c r="M15" s="22">
@@ -20907,11 +20985,17 @@
         <f t="shared" si="16"/>
         <v>6.9169780267130818</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="39">
         <v>600</v>
       </c>
+      <c r="Z15" s="39">
+        <f t="shared" si="17"/>
+        <v>11.528296711188469</v>
+      </c>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
@@ -21033,7 +21117,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="19">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="20">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21064,7 +21148,7 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21096,7 +21180,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21127,7 +21211,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21156,11 +21240,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="20">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="21">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21188,11 +21272,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
+        <f t="shared" si="21"/>
+        <v>149.76</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="20"/>
-        <v>149.76</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="19"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -21221,11 +21305,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="21"/>
+        <v>124.8</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="20"/>
-        <v>124.8</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="19"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -21253,11 +21337,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" si="21"/>
+        <v>106.97142857142858</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="20"/>
-        <v>106.97142857142858</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="19"/>
         <v>50.938775510204088</v>
       </c>
     </row>
@@ -21286,11 +21370,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="21"/>
+        <v>93.6</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="20"/>
-        <v>93.6</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="19"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -21318,11 +21402,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="21"/>
+        <v>83.2</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="20"/>
-        <v>83.2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="19"/>
         <v>39.619047619047628</v>
       </c>
     </row>
@@ -21417,7 +21501,7 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="21">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="22">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21445,11 +21529,11 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="22">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="23">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21477,11 +21561,11 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="23"/>
+        <v>384</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="22"/>
-        <v>384</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21510,11 +21594,11 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="23"/>
+        <v>384</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="22"/>
-        <v>384</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21536,11 +21620,11 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="23"/>
+        <v>384</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="22"/>
-        <v>384</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21571,11 +21655,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="23"/>
+        <v>289.81132075471697</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="22"/>
-        <v>289.81132075471697</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="21"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -21597,11 +21681,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="23"/>
+        <v>256</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="22"/>
-        <v>256</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="21"/>
         <v>105.26896551724138</v>
       </c>
     </row>
@@ -21623,11 +21707,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="23"/>
+        <v>219.42857142857147</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="22"/>
-        <v>219.42857142857147</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="21"/>
         <v>90.23054187192119</v>
       </c>
     </row>
@@ -21649,11 +21733,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="23"/>
+        <v>192</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="22"/>
-        <v>192</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="21"/>
         <v>78.951724137931052</v>
       </c>
     </row>
@@ -21675,11 +21759,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
+        <f t="shared" si="23"/>
+        <v>170.66666666666669</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="22"/>
-        <v>170.66666666666669</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="21"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -21747,7 +21831,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="23">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="24">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -21768,11 +21852,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="24">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="25">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21793,11 +21877,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="25"/>
+        <v>638</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="24"/>
-        <v>638</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21818,11 +21902,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="25"/>
+        <v>638</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="24"/>
-        <v>638</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21843,11 +21927,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="25"/>
+        <v>638</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="24"/>
-        <v>638</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21868,11 +21952,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="25"/>
+        <v>638</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="24"/>
-        <v>638</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21893,11 +21977,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="25"/>
+        <v>588.92307692307691</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="24"/>
-        <v>588.92307692307691</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21918,11 +22002,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="25"/>
+        <v>483.02839116719241</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="24"/>
-        <v>483.02839116719241</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="23"/>
         <v>239.25</v>
       </c>
     </row>
@@ -21943,11 +22027,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="25"/>
+        <v>382.8</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="24"/>
-        <v>382.8</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="23"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -21968,11 +22052,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="25"/>
+        <v>340.26666666666665</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="24"/>
-        <v>340.26666666666665</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="23"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -21993,11 +22077,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="25"/>
+        <v>306.24</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="24"/>
-        <v>306.24</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="23"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -22018,11 +22102,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="25"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="24"/>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="23"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -22043,11 +22127,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="25"/>
+        <v>255.2</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="24"/>
-        <v>255.2</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="23"/>
         <v>126.40374999999999</v>
       </c>
     </row>
@@ -24632,7 +24716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -24695,31 +24779,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="48">
         <v>15000</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="48">
         <v>300</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="48">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="48">
         <v>4000</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="48">
         <v>125</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="48">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -24727,26 +24811,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -24767,10 +24851,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -24791,23 +24875,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="48">
         <v>1106</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="48">
         <v>500</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="48">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -24815,79 +24899,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="53">
         <v>15000</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="53">
         <v>300</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="53">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="48">
         <v>5000</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>3500</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="48">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -24895,96 +24979,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="53">
         <v>12000</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="53">
         <v>600</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="53">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -24992,43 +25076,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="53">
         <v>12000</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="53">
         <v>600</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="53">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -25036,79 +25120,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="53">
         <v>7500</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="53">
         <v>1200</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="53">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -25116,83 +25200,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53">
         <v>265</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="53">
         <v>12500</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -25200,25 +25284,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="53">
         <v>12500</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -25226,27 +25310,33 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -25263,23 +25353,17 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -25296,12 +25380,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -25518,6 +25596,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
@@ -25527,15 +25611,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25552,4 +25627,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD40EA-3990-4040-8A71-531EEF31C58B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BF16E-FD1D-4579-AD1F-58D6E1CD6C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
   <si>
     <t>Value</t>
   </si>
@@ -473,6 +473,18 @@
   <si>
     <t>Battery Current [A]</t>
   </si>
+  <si>
+    <t>Battery Capacity</t>
+  </si>
+  <si>
+    <t>Machine Run Time</t>
+  </si>
+  <si>
+    <t>Hr</t>
+  </si>
+  <si>
+    <t>Battery Discharge Rate [unit/hr]</t>
+  </si>
 </sst>
 </file>
 
@@ -810,13 +822,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -828,22 +849,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2367,6 +2379,327 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Application!$AA$2:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3736037582878436E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7506826148140472E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3750909328110192E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1580360209001439E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4099788344665876E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1245902736696925E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6024410888527761E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6024410888527761E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0324742731261325E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3157107049673825E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.478980698320371E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6258266627543319E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3333952360157234E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B162-4D63-B8E7-759A7CECBEBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="358220560"/>
+        <c:axId val="358225808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="358220560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358225808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="358225808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358220560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3894,7 +4227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6174,7 +6507,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8943,7 +9276,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11361,7 +11694,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -13630,7 +13963,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14883,6 +15216,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -15888,6 +16261,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16389,7 +17278,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16891,7 +17780,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17393,7 +18282,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17895,7 +18784,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18397,7 +19286,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18979,6 +19868,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B049ECB7-CA36-4789-9F54-78136B947908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19206,8 +20131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C18" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:C18" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4FEEE63-CB1D-4571-9CD0-E159B3AE3D59}" name="Table2" displayName="Table2" ref="A1:C20" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:C20" xr:uid="{16B2851D-1C8E-4D41-84DE-C197FC5B0D16}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CCDE3EDB-E054-413C-AFDE-56A29684A6C8}" name="Input Parameters"/>
     <tableColumn id="2" xr3:uid="{FC7363B9-A23E-4AAE-9BB9-63CBCC8A657B}" name="Value"/>
@@ -19218,8 +20143,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98FDFAA6-6389-47BD-9831-E178C8BD82DB}" name="Table5" displayName="Table5" ref="B20:C38" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B20:C38" xr:uid="{04793704-1FFF-4B61-A846-74179FE748ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{98FDFAA6-6389-47BD-9831-E178C8BD82DB}" name="Table5" displayName="Table5" ref="B22:C40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B22:C40" xr:uid="{04793704-1FFF-4B61-A846-74179FE748ED}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{98CC5645-18D7-42BB-BD7B-D49FC4CDC906}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2D7F94C4-4A51-49FB-B113-8DBB0ABFFE7A}" name="Column2"/>
@@ -19525,10 +20450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335F5D5-EBE0-44CD-9439-894D8E00CE51}">
-  <dimension ref="A1:AB164"/>
+  <dimension ref="A1:AC164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19621,6 +20546,9 @@
       <c r="Z1" s="37" t="s">
         <v>144</v>
       </c>
+      <c r="AA1" s="37" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -19715,7 +20643,10 @@
         <f>1000*X2/Y2</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="40"/>
+      <c r="AA2" s="40">
+        <f>($B$19*$B$20/(Z2+0.01)/Y2/1000)</f>
+        <v>0.05</v>
+      </c>
       <c r="AB2" s="40"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -19730,7 +20661,7 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="20">
-        <f>E2+$B$40</f>
+        <f>E2+$B$42</f>
         <v>10</v>
       </c>
       <c r="F3" s="20">
@@ -19814,7 +20745,10 @@
         <f t="shared" ref="Z3:Z15" si="17">1000*X3/Y3</f>
         <v>36.390599298245604</v>
       </c>
-      <c r="AA3" s="40"/>
+      <c r="AA3" s="40">
+        <f t="shared" ref="AA3:AA15" si="18">($B$19*$B$20/(Z3+0.01)/Y3/1000)</f>
+        <v>1.3736037582878436E-5</v>
+      </c>
       <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -19829,7 +20763,7 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="20">
-        <f t="shared" ref="E4:E15" si="18">E3+$B$40</f>
+        <f>E3+$B$42</f>
         <v>20</v>
       </c>
       <c r="F4" s="20">
@@ -19913,7 +20847,10 @@
         <f t="shared" si="17"/>
         <v>74.056583859649123</v>
       </c>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="40">
+        <f t="shared" si="18"/>
+        <v>6.7506826148140472E-6</v>
+      </c>
       <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -19928,7 +20865,7 @@
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="20">
-        <f t="shared" si="18"/>
+        <f>E4+$B$42</f>
         <v>30</v>
       </c>
       <c r="F5" s="20">
@@ -20012,7 +20949,10 @@
         <f t="shared" si="17"/>
         <v>114.27333894736842</v>
       </c>
-      <c r="AA5" s="40"/>
+      <c r="AA5" s="40">
+        <f t="shared" si="18"/>
+        <v>4.3750909328110192E-6</v>
+      </c>
       <c r="AB5" s="40"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -20025,7 +20965,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="43"/>
       <c r="E6" s="20">
-        <f t="shared" si="18"/>
+        <f>E5+$B$42</f>
         <v>40</v>
       </c>
       <c r="F6" s="20">
@@ -20109,7 +21049,10 @@
         <f t="shared" si="17"/>
         <v>158.31624982456142</v>
       </c>
-      <c r="AA6" s="40"/>
+      <c r="AA6" s="40">
+        <f t="shared" si="18"/>
+        <v>3.1580360209001439E-6</v>
+      </c>
       <c r="AB6" s="40"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -20122,7 +21065,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="43"/>
       <c r="E7" s="20">
-        <f t="shared" si="18"/>
+        <f>E6+$B$42</f>
         <v>50</v>
       </c>
       <c r="F7" s="20">
@@ -20206,7 +21149,10 @@
         <f t="shared" si="17"/>
         <v>207.46070175438592</v>
       </c>
-      <c r="AA7" s="40"/>
+      <c r="AA7" s="40">
+        <f t="shared" si="18"/>
+        <v>2.4099788344665876E-6</v>
+      </c>
       <c r="AB7" s="40"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -20219,7 +21165,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="43"/>
       <c r="E8" s="20">
-        <f t="shared" si="18"/>
+        <f>E7+$B$42</f>
         <v>60</v>
       </c>
       <c r="F8" s="20">
@@ -20303,7 +21249,10 @@
         <f t="shared" si="17"/>
         <v>160.01098073894732</v>
       </c>
-      <c r="AA8" s="40"/>
+      <c r="AA8" s="40">
+        <f t="shared" si="18"/>
+        <v>3.1245902736696925E-6</v>
+      </c>
       <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -20318,7 +21267,7 @@
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="20">
-        <f t="shared" si="18"/>
+        <f>E8+$B$42</f>
         <v>70</v>
       </c>
       <c r="F9" s="20">
@@ -20402,7 +21351,10 @@
         <f t="shared" si="17"/>
         <v>65.758349159999995</v>
       </c>
-      <c r="AA9" s="40"/>
+      <c r="AA9" s="40">
+        <f t="shared" si="18"/>
+        <v>7.6024410888527761E-6</v>
+      </c>
       <c r="AB9" s="40"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -20415,7 +21367,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="43"/>
       <c r="E10" s="20">
-        <f t="shared" si="18"/>
+        <f>E9+$B$42</f>
         <v>80</v>
       </c>
       <c r="F10" s="20">
@@ -20499,7 +21451,10 @@
         <f t="shared" si="17"/>
         <v>65.758349159999995</v>
       </c>
-      <c r="AA10" s="40"/>
+      <c r="AA10" s="40">
+        <f t="shared" si="18"/>
+        <v>7.6024410888527761E-6</v>
+      </c>
       <c r="AB10" s="40"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -20514,7 +21469,7 @@
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="24">
-        <f t="shared" si="18"/>
+        <f>E10+$B$42</f>
         <v>90</v>
       </c>
       <c r="F11" s="24">
@@ -20598,7 +21553,10 @@
         <f t="shared" si="17"/>
         <v>3.8427356788861826E-2</v>
       </c>
-      <c r="AA11" s="38"/>
+      <c r="AA11" s="40">
+        <f t="shared" si="18"/>
+        <v>1.0324742731261325E-2</v>
+      </c>
       <c r="AB11" s="38"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -20613,7 +21571,7 @@
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="22">
-        <f t="shared" si="18"/>
+        <f>E11+$B$42</f>
         <v>100</v>
       </c>
       <c r="F12" s="22">
@@ -20696,7 +21654,10 @@
         <f t="shared" si="17"/>
         <v>21.581643503977439</v>
       </c>
-      <c r="AA12" s="39"/>
+      <c r="AA12" s="40">
+        <f t="shared" si="18"/>
+        <v>2.3157107049673825E-5</v>
+      </c>
       <c r="AB12" s="39"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -20711,7 +21672,7 @@
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="22">
-        <f t="shared" si="18"/>
+        <f>E12+$B$42</f>
         <v>110</v>
       </c>
       <c r="F13" s="22">
@@ -20794,7 +21755,10 @@
         <f t="shared" si="17"/>
         <v>20.159580196359499</v>
       </c>
-      <c r="AA13" s="39"/>
+      <c r="AA13" s="40">
+        <f t="shared" si="18"/>
+        <v>2.478980698320371E-5</v>
+      </c>
       <c r="AB13" s="39"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -20809,7 +21773,7 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="22">
-        <f t="shared" si="18"/>
+        <f>E13+$B$42</f>
         <v>120</v>
       </c>
       <c r="F14" s="22">
@@ -20892,7 +21856,10 @@
         <f t="shared" si="17"/>
         <v>30.743585942116617</v>
       </c>
-      <c r="AA14" s="39"/>
+      <c r="AA14" s="40">
+        <f t="shared" si="18"/>
+        <v>1.6258266627543319E-5</v>
+      </c>
       <c r="AB14" s="39"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -20907,7 +21874,7 @@
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="22">
-        <f t="shared" si="18"/>
+        <f>E14+$B$42</f>
         <v>130</v>
       </c>
       <c r="F15" s="22">
@@ -20992,7 +21959,10 @@
         <f t="shared" si="17"/>
         <v>11.528296711188469</v>
       </c>
-      <c r="AA15" s="39"/>
+      <c r="AA15" s="40">
+        <f t="shared" si="18"/>
+        <v>4.3333952360157234E-5</v>
+      </c>
       <c r="AB15" s="39"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -21008,7 +21978,7 @@
       <c r="J16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>83</v>
       </c>
@@ -21019,8 +21989,12 @@
       <c r="D17" s="43"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="AC17">
+        <f>SUM(X2:X15)*E15/3600</f>
+        <v>20.931661539827754</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>84</v>
       </c>
@@ -21030,21 +22004,27 @@
       <c r="C18" s="26"/>
       <c r="D18" s="43"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="26">
+        <v>100</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="43"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>125</v>
+    <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="26">
+        <v>3</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="44" t="s">
@@ -21058,14 +22038,12 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>2</v>
-      </c>
+    <row r="21" spans="1:29" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="2" t="s">
         <v>50</v>
@@ -21089,13 +22067,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
-        <v>65000</v>
-      </c>
-      <c r="C22" s="31">
-        <f>B22*0.453592</f>
-        <v>29483.48</v>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="5">
@@ -21121,12 +22099,13 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>40</v>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="5">
@@ -21152,13 +22131,13 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
-        <v>1</v>
+        <v>65000</v>
       </c>
       <c r="C24" s="31">
-        <f>B24*0.0254</f>
-        <v>2.5399999999999999E-2</v>
+        <f>B24*0.453592</f>
+        <v>29483.48</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="5">
@@ -21184,12 +22163,12 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="5">
@@ -21215,13 +22194,13 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" s="31">
         <v>1</v>
       </c>
       <c r="C26" s="31">
-        <f>B26*4.44822</f>
-        <v>4.4482200000000001</v>
+        <f>B26*0.0254</f>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="5">
@@ -21248,12 +22227,12 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="5">
@@ -21280,13 +22259,13 @@
         <v>71.314285714285717</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28" s="31">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C28" s="31">
-        <f>B28/2.23694</f>
-        <v>22.351962949386213</v>
+        <f>B28*4.44822</f>
+        <v>4.4482200000000001</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="5">
@@ -21313,9 +22292,9 @@
         <v>59.428571428571445</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>19</v>
@@ -21345,13 +22324,13 @@
         <v>50.938775510204088</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C30" s="31">
-        <f>B30*0.277778</f>
-        <v>27.777800000000003</v>
+        <f>B30/2.23694</f>
+        <v>22.351962949386213</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="5">
@@ -21378,12 +22357,12 @@
         <v>44.571428571428577</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="5">
@@ -21410,13 +22389,13 @@
         <v>39.619047619047628</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="31">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C32" s="31">
-        <f>B32*1.35582</f>
-        <v>1.35582</v>
+        <f>B32*0.277778</f>
+        <v>27.777800000000003</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="1"/>
@@ -21428,10 +22407,10 @@
     </row>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="41" t="s">
@@ -21450,8 +22429,8 @@
         <v>1</v>
       </c>
       <c r="C34" s="31">
-        <f>B34*0.7457</f>
-        <v>0.74570000000000003</v>
+        <f>B34*1.35582</f>
+        <v>1.35582</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="4" t="s">
@@ -21477,10 +22456,12 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="33"/>
+      <c r="B35" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="D35" s="43"/>
       <c r="E35" s="5">
         <v>0</v>
@@ -21506,11 +22487,12 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="28">
-        <v>100</v>
+      <c r="B36" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C36" s="31">
+        <f>B36*0.7457</f>
+        <v>745.7</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="5">
@@ -21538,12 +22520,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="28">
-        <v>16</v>
-      </c>
+      <c r="B37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="33"/>
       <c r="D37" s="43"/>
       <c r="E37" s="5">
         <v>1000</v>
@@ -21571,11 +22551,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="30">
-        <f>1000*C36/3600/C37</f>
-        <v>1.7361111111111112</v>
+        <v>85</v>
+      </c>
+      <c r="C38" s="28">
+        <v>100</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="5">
@@ -21602,7 +22581,13 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="28">
+        <v>16</v>
+      </c>
       <c r="D39" s="43"/>
       <c r="E39" s="5">
         <v>2000</v>
@@ -21628,15 +22613,13 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="36">
-        <v>10</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>86</v>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="30">
+        <f>1000*C38/3600/C39</f>
+        <v>1.7361111111111112</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="5">
@@ -21663,7 +22646,7 @@
         <v>119.17241379310344</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="43"/>
       <c r="E41" s="5">
         <v>3000</v>
@@ -21689,7 +22672,16 @@
         <v>105.26896551724138</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="36">
+        <v>10</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="43"/>
       <c r="E42" s="5">
         <v>3500</v>
@@ -21715,7 +22707,7 @@
         <v>90.23054187192119</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D43" s="43"/>
       <c r="E43" s="5">
         <v>4000</v>
@@ -24692,7 +25684,7 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E153:L153"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="E133:L133"/>
     <mergeCell ref="E111:L111"/>
     <mergeCell ref="E81:L81"/>
@@ -24779,31 +25771,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="51">
         <v>15000</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="51">
         <v>300</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="51">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H2" s="51">
         <v>4000</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="51">
         <v>125</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="51">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -24811,26 +25803,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -24851,10 +25843,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -24875,23 +25867,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="51">
         <v>1106</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="51">
         <v>500</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="51">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -24899,79 +25891,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="48">
         <v>15000</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="48">
         <v>300</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="48">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="51">
         <v>5000</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="51">
         <v>3500</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="51">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -24979,96 +25971,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="48">
         <v>12000</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="48">
         <v>600</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="48">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -25076,43 +26068,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="48">
         <v>12000</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="48">
         <v>600</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="48">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -25120,79 +26112,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="48">
         <v>7500</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="48">
         <v>1200</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="48">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -25200,83 +26192,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48">
         <v>265</v>
       </c>
-      <c r="D33" s="53"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="48">
         <v>12500</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="48" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -25284,25 +26276,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="48">
         <v>12500</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="48" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -25310,33 +26302,27 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -25353,17 +26339,23 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -25371,12 +26363,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25597,15 +26586,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25630,10 +26623,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BF16E-FD1D-4579-AD1F-58D6E1CD6C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985FAE4-486D-491E-9E6E-C83E17ABC8D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -822,22 +822,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,13 +840,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1131,19 +1131,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.8</c:v>
+                  <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.2</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.6</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>79.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>79.92</c:v>
@@ -1182,43 +1182,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,19 +1293,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>22.2</c:v>
@@ -1957,43 +1957,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,43 +2008,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.83435957894736</c:v>
+                  <c:v>117.17664749473686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.433950315789474</c:v>
+                  <c:v>239.25077440000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.564003368421055</c:v>
+                  <c:v>278.33527258837893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.98974989473686</c:v>
+                  <c:v>64.754213641010537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124.47642105263157</c:v>
+                  <c:v>64.754213641010537</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.0065884433684</c:v>
+                  <c:v>64.754213641010537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.455009495999995</c:v>
+                  <c:v>64.754213641010537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.455009495999995</c:v>
+                  <c:v>64.754213641010537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3056414073317096E-2</c:v>
+                  <c:v>6.1797477825671909E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.948986102386463</c:v>
+                  <c:v>34.676838394471481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.095748117815699</c:v>
+                  <c:v>32.41615680844329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.446151565269972</c:v>
+                  <c:v>49.438798505830583</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9169780267130818</c:v>
+                  <c:v>18.53928639147594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,43 +2451,43 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3736037582878436E-5</c:v>
+                  <c:v>2.5601060089846005E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7506826148140472E-6</c:v>
+                  <c:v>1.2538829914109215E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3750909328110192E-6</c:v>
+                  <c:v>1.0778135675324399E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1580360209001439E-6</c:v>
+                  <c:v>4.6324739084866102E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4099788344665876E-6</c:v>
+                  <c:v>4.6324739084866102E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1245902736696925E-6</c:v>
+                  <c:v>4.6324739084866102E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6024410888527761E-6</c:v>
+                  <c:v>4.6324739084866102E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6024410888527761E-6</c:v>
+                  <c:v>4.6324739084866102E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0324742731261325E-2</c:v>
+                  <c:v>4.4249433698904236E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3157107049673825E-5</c:v>
+                  <c:v>8.6498110848915019E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.478980698320371E-5</c:v>
+                  <c:v>9.2529316224229342E-6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6258266627543319E-5</c:v>
+                  <c:v>6.0673722831456914E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3333952360157234E-5</c:v>
+                  <c:v>1.6176617263667089E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,28 +3677,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,31 +3710,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3792,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,7 +3804,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,16 +3862,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,16 +3883,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5947,28 +5947,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5980,31 +5980,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +6066,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,7 +6078,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,16 +6136,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,16 +6157,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8705,28 +8705,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,31 +8738,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8824,7 +8824,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8836,7 +8836,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,16 +8894,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8915,16 +8915,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11138,28 +11138,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11171,31 +11171,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11253,7 +11253,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11265,7 +11265,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11323,16 +11323,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11344,16 +11344,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13408,28 +13408,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13441,31 +13441,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13523,7 +13523,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13535,7 +13535,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13593,16 +13593,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13614,16 +13614,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14373,28 +14373,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1136.7320114177055</c:v>
+                  <c:v>11549.763181846456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2273.464022835411</c:v>
+                  <c:v>23099.526363692912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3410.1960342531165</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4546.928045670822</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5683.6600570885275</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6308.8626633682652</c:v>
+                  <c:v>32050.592829623918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14406,31 +14406,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>13.359168099701604</c:v>
+                  <c:v>7.0481219269909898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.711491046197025</c:v>
+                  <c:v>48.440584547316611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.318602311168661</c:v>
+                  <c:v>49.45288849407784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.997121086121339</c:v>
+                  <c:v>41.464226298172747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.747047371055103</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>104.56838116596991</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.659323568125274</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.860183012797599</c:v>
+                  <c:v>9.6465796203337124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14488,7 +14488,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.28418300285442638</c:v>
+                  <c:v>1.4437203977308068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14500,7 +14500,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>387.37808731175505</c:v>
+                  <c:v>204.37559963881654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14560,16 +14560,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>568.36600570885275</c:v>
+                  <c:v>2887.440795461614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284.18300285442638</c:v>
+                  <c:v>1443.720397730807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>227.3464022835411</c:v>
+                  <c:v>1154.9763181846456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.254900856327907</c:v>
+                  <c:v>433.1161193192421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14581,16 +14581,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108.78000050263884</c:v>
+                  <c:v>57.341334062539367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.22448042372844</c:v>
+                  <c:v>107.20617926188748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>387.39951542847319</c:v>
+                  <c:v>204.37897398003335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>387.38110061189542</c:v>
+                  <c:v>204.37607415101917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19875,16 +19875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20453,7 +20453,7 @@
   <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20555,7 +20555,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="26">
-        <v>11000</v>
+        <v>29483</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>2</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="J2" s="20">
         <f>$B$2*$B$3*$B$8</f>
-        <v>43164</v>
+        <v>115691.29200000002</v>
       </c>
       <c r="K2" s="20">
         <v>0</v>
@@ -20594,7 +20594,7 @@
       </c>
       <c r="N2" s="20">
         <f>$B$2*$B$3*$B$7*COS(L2)</f>
-        <v>755.37</v>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O2" s="20">
         <f>0.5*$B$5*$B$6*$B$4*H2^2</f>
@@ -20606,11 +20606,11 @@
       </c>
       <c r="Q2" s="20">
         <f>SUM(M2,N2,O2,P2)</f>
-        <v>755.37</v>
+        <v>2024.5976100000003</v>
       </c>
       <c r="R2" s="20">
         <f>Q2*$B$9</f>
-        <v>355.02389999999997</v>
+        <v>870.57697230000008</v>
       </c>
       <c r="S2" s="20">
         <f>H2*60/2/PI()/$B$9</f>
@@ -20618,11 +20618,11 @@
       </c>
       <c r="T2" s="20">
         <f t="shared" ref="T2:T15" si="2">$B$17*$B$18</f>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U2" s="20">
         <f>R2/T2/$B$16/$B$10</f>
-        <v>13.359168099701604</v>
+        <v>7.0481219269909898</v>
       </c>
       <c r="V2" s="20">
         <f>S2*T2</f>
@@ -20661,28 +20661,28 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="20">
-        <f>E2+$B$42</f>
-        <v>10</v>
+        <f t="shared" ref="E3:E15" si="3">E2+$B$42</f>
+        <v>20</v>
       </c>
       <c r="F3" s="20">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>28.8</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3:G15" si="3">G2+$B$14*(E3-E2)</f>
-        <v>4</v>
+        <f t="shared" ref="G3:G15" si="4">G2+$B$14*(E3-E2)</f>
+        <v>8</v>
       </c>
       <c r="H3" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" s="21">
-        <f t="shared" ref="I3:I10" si="4">(H3-H2)/(E3-E2)</f>
+        <f t="shared" ref="I3:I10" si="5">(H3-H2)/(E3-E2)</f>
         <v>0.4</v>
       </c>
       <c r="J3" s="20">
-        <f t="shared" ref="J3:J15" si="5">$J$2/H3</f>
-        <v>10791</v>
+        <f t="shared" ref="J3:J15" si="6">$J$2/H3</f>
+        <v>14461.411500000002</v>
       </c>
       <c r="K3" s="20">
         <v>0</v>
@@ -20691,63 +20691,63 @@
         <v>0</v>
       </c>
       <c r="M3" s="20">
-        <f t="shared" ref="M3:M15" si="6">$B$2*$B$3*SIN(L3)</f>
+        <f t="shared" ref="M3:M15" si="7">$B$2*$B$3*SIN(L3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N15" si="7">$B$2*$B$3*$B$7*COS(L3)</f>
-        <v>755.37</v>
+        <f t="shared" ref="N3:N15" si="8">$B$2*$B$3*$B$7*COS(L3)</f>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" si="8">0.5*$B$5*$B$6*$B$4*H3^2</f>
-        <v>30.290400000000002</v>
+        <f t="shared" ref="O3:O15" si="9">0.5*$B$5*$B$6*$B$4*H3^2</f>
+        <v>96.929279999999991</v>
       </c>
       <c r="P3" s="20">
-        <f t="shared" ref="P3:P15" si="9">$B$2*I3</f>
-        <v>4400</v>
+        <f t="shared" ref="P3:P15" si="10">$B$2*I3</f>
+        <v>11793.2</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q3:Q15" si="10">SUM(M3,N3,O3,P3)</f>
-        <v>5185.6603999999998</v>
+        <f t="shared" ref="Q3:Q15" si="11">SUM(M3,N3,O3,P3)</f>
+        <v>13914.726890000002</v>
       </c>
       <c r="R3" s="20">
-        <f t="shared" ref="R3:R15" si="11">Q3*$B$9</f>
-        <v>2437.2603879999997</v>
+        <f t="shared" ref="R3:R15" si="12">Q3*$B$9</f>
+        <v>5983.3325627000004</v>
       </c>
       <c r="S3" s="20">
-        <f t="shared" ref="S3:S15" si="12">H3*60/2/PI()/$B$9</f>
-        <v>81.27060923841465</v>
+        <f t="shared" ref="S3:S15" si="13">H3*60/2/PI()/$B$9</f>
+        <v>177.66133182351109</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U3" s="20">
-        <f t="shared" ref="U3:U15" si="13">R3/T3/$B$16/$B$10</f>
-        <v>91.711491046197025</v>
+        <f t="shared" ref="U3:U15" si="14">R3/T3/$B$16/$B$10</f>
+        <v>48.440584547316611</v>
       </c>
       <c r="V3" s="20">
-        <f t="shared" ref="V3:V15" si="14">S3*T3</f>
-        <v>1136.7320114177055</v>
+        <f t="shared" ref="V3:V15" si="15">S3*T3</f>
+        <v>11549.763181846456</v>
       </c>
       <c r="W3" s="40">
-        <f t="shared" ref="W3:W15" si="15">U3*V3*2*PI()/60/1000</f>
-        <v>10.91717978947368</v>
+        <f t="shared" ref="W3:W15" si="16">U3*V3*2*PI()/60/1000</f>
+        <v>58.588323747368428</v>
       </c>
       <c r="X3" s="40">
-        <f t="shared" ref="X3:X15" si="16">W3*$B$16</f>
-        <v>21.83435957894736</v>
+        <f t="shared" ref="X3:X15" si="17">W3*$B$16</f>
+        <v>117.17664749473686</v>
       </c>
       <c r="Y3" s="40">
         <v>600</v>
       </c>
       <c r="Z3" s="40">
-        <f t="shared" ref="Z3:Z15" si="17">1000*X3/Y3</f>
-        <v>36.390599298245604</v>
+        <f t="shared" ref="Z3:Z15" si="18">1000*X3/Y3</f>
+        <v>195.29441249122809</v>
       </c>
       <c r="AA3" s="40">
-        <f t="shared" ref="AA3:AA15" si="18">($B$19*$B$20/(Z3+0.01)/Y3/1000)</f>
-        <v>1.3736037582878436E-5</v>
+        <f t="shared" ref="AA3:AA15" si="19">($B$19*$B$20/(Z3+0.01)/Y3/1000)</f>
+        <v>2.5601060089846005E-6</v>
       </c>
       <c r="AB3" s="40"/>
     </row>
@@ -20763,28 +20763,28 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="20">
-        <f>E3+$B$42</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="0"/>
-        <v>28.8</v>
+        <v>57.6</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="H4" s="20">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
       <c r="J4" s="20">
-        <f t="shared" si="5"/>
-        <v>5395.5</v>
+        <f t="shared" si="6"/>
+        <v>7230.705750000001</v>
       </c>
       <c r="K4" s="20">
         <v>0</v>
@@ -20793,63 +20793,63 @@
         <v>0</v>
       </c>
       <c r="M4" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N4" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O4" s="20">
-        <f t="shared" si="8"/>
-        <v>121.16160000000001</v>
+        <f t="shared" si="9"/>
+        <v>387.71711999999997</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" si="9"/>
-        <v>4400</v>
+        <f t="shared" si="10"/>
+        <v>11793.2</v>
       </c>
       <c r="Q4" s="20">
-        <f t="shared" si="10"/>
-        <v>5276.5316000000003</v>
+        <f t="shared" si="11"/>
+        <v>14205.514730000001</v>
       </c>
       <c r="R4" s="20">
-        <f t="shared" si="11"/>
-        <v>2479.9698520000002</v>
+        <f t="shared" si="12"/>
+        <v>6108.3713339000005</v>
       </c>
       <c r="S4" s="20">
-        <f t="shared" si="12"/>
-        <v>162.5412184768293</v>
+        <f t="shared" si="13"/>
+        <v>355.32266364702218</v>
       </c>
       <c r="T4" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U4" s="20">
-        <f t="shared" si="13"/>
-        <v>93.318602311168661</v>
+        <f t="shared" si="14"/>
+        <v>49.45288849407784</v>
       </c>
       <c r="V4" s="20">
-        <f t="shared" si="14"/>
-        <v>2273.464022835411</v>
+        <f t="shared" si="15"/>
+        <v>23099.526363692912</v>
       </c>
       <c r="W4" s="40">
-        <f t="shared" si="15"/>
-        <v>22.216975157894737</v>
+        <f t="shared" si="16"/>
+        <v>119.62538720000002</v>
       </c>
       <c r="X4" s="40">
-        <f t="shared" si="16"/>
-        <v>44.433950315789474</v>
+        <f t="shared" si="17"/>
+        <v>239.25077440000004</v>
       </c>
       <c r="Y4" s="40">
         <v>600</v>
       </c>
       <c r="Z4" s="40">
-        <f t="shared" si="17"/>
-        <v>74.056583859649123</v>
+        <f t="shared" si="18"/>
+        <v>398.75129066666676</v>
       </c>
       <c r="AA4" s="40">
-        <f t="shared" si="18"/>
-        <v>6.7506826148140472E-6</v>
+        <f t="shared" si="19"/>
+        <v>1.2538829914109215E-6</v>
       </c>
       <c r="AB4" s="40"/>
     </row>
@@ -20865,28 +20865,28 @@
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="20">
-        <f>E4+$B$42</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="F5" s="20">
         <f t="shared" si="0"/>
-        <v>43.2</v>
+        <v>79.92</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="I5" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0.30999999999999994</v>
       </c>
       <c r="J5" s="20">
-        <f t="shared" si="5"/>
-        <v>3597</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -20895,63 +20895,63 @@
         <v>0</v>
       </c>
       <c r="M5" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N5" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O5" s="20">
-        <f t="shared" si="8"/>
-        <v>272.61360000000002</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="9"/>
-        <v>4400</v>
+        <f t="shared" si="10"/>
+        <v>9139.7299999999977</v>
       </c>
       <c r="Q5" s="20">
-        <f t="shared" si="10"/>
-        <v>5427.9835999999996</v>
+        <f t="shared" si="11"/>
+        <v>11910.743646799998</v>
       </c>
       <c r="R5" s="20">
-        <f t="shared" si="11"/>
-        <v>2551.1522919999998</v>
+        <f t="shared" si="12"/>
+        <v>5121.6197681239992</v>
       </c>
       <c r="S5" s="20">
-        <f t="shared" si="12"/>
-        <v>243.81182771524394</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U5" s="20">
-        <f t="shared" si="13"/>
-        <v>95.997121086121339</v>
+        <f t="shared" si="14"/>
+        <v>41.464226298172747</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="14"/>
-        <v>3410.1960342531165</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W5" s="40">
-        <f t="shared" si="15"/>
-        <v>34.282001684210528</v>
+        <f t="shared" si="16"/>
+        <v>139.16763629418946</v>
       </c>
       <c r="X5" s="40">
-        <f t="shared" si="16"/>
-        <v>68.564003368421055</v>
+        <f t="shared" si="17"/>
+        <v>278.33527258837893</v>
       </c>
       <c r="Y5" s="40">
         <v>600</v>
       </c>
       <c r="Z5" s="40">
-        <f t="shared" si="17"/>
-        <v>114.27333894736842</v>
+        <f t="shared" si="18"/>
+        <v>463.89212098063155</v>
       </c>
       <c r="AA5" s="40">
-        <f t="shared" si="18"/>
-        <v>4.3750909328110192E-6</v>
+        <f t="shared" si="19"/>
+        <v>1.0778135675324399E-6</v>
       </c>
       <c r="AB5" s="40"/>
     </row>
@@ -20960,33 +20960,33 @@
         <v>15</v>
       </c>
       <c r="B6" s="26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="43"/>
       <c r="E6" s="20">
-        <f>E5+$B$42</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>57.6</v>
+        <v>79.92</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="3"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>32</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>22.2</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J6" s="20">
-        <f t="shared" si="5"/>
-        <v>2697.75</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
@@ -20995,63 +20995,63 @@
         <v>0</v>
       </c>
       <c r="M6" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N6" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O6" s="20">
-        <f t="shared" si="8"/>
-        <v>484.64640000000003</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="9"/>
-        <v>4400</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Q6" s="20">
-        <f t="shared" si="10"/>
-        <v>5640.0164000000004</v>
+        <f t="shared" si="11"/>
+        <v>2771.0136468000001</v>
       </c>
       <c r="R6" s="20">
-        <f t="shared" si="11"/>
-        <v>2650.8077080000003</v>
+        <f t="shared" si="12"/>
+        <v>1191.535868124</v>
       </c>
       <c r="S6" s="20">
-        <f t="shared" si="12"/>
-        <v>325.0824369536586</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U6" s="20">
-        <f t="shared" si="13"/>
-        <v>99.747047371055103</v>
+        <f t="shared" si="14"/>
+        <v>9.6465796203337124</v>
       </c>
       <c r="V6" s="20">
-        <f t="shared" si="14"/>
-        <v>4546.928045670822</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W6" s="40">
-        <f t="shared" si="15"/>
-        <v>47.49487494736843</v>
+        <f t="shared" si="16"/>
+        <v>32.377106820505269</v>
       </c>
       <c r="X6" s="40">
-        <f t="shared" si="16"/>
-        <v>94.98974989473686</v>
+        <f t="shared" si="17"/>
+        <v>64.754213641010537</v>
       </c>
       <c r="Y6" s="40">
         <v>600</v>
       </c>
       <c r="Z6" s="40">
-        <f t="shared" si="17"/>
-        <v>158.31624982456142</v>
+        <f t="shared" si="18"/>
+        <v>107.92368940168423</v>
       </c>
       <c r="AA6" s="40">
-        <f t="shared" si="18"/>
-        <v>3.1580360209001439E-6</v>
+        <f t="shared" si="19"/>
+        <v>4.6324739084866102E-6</v>
       </c>
       <c r="AB6" s="40"/>
     </row>
@@ -21065,28 +21065,28 @@
       <c r="C7" s="26"/>
       <c r="D7" s="43"/>
       <c r="E7" s="20">
-        <f>E6+$B$42</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>79.92</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="I7" s="21">
-        <f t="shared" si="4"/>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J7" s="20">
-        <f t="shared" si="5"/>
-        <v>2158.1999999999998</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -21095,63 +21095,63 @@
         <v>0</v>
       </c>
       <c r="M7" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N7" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O7" s="20">
-        <f t="shared" si="8"/>
-        <v>757.26</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="9"/>
-        <v>4400</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Q7" s="20">
-        <f t="shared" si="10"/>
-        <v>5912.63</v>
+        <f t="shared" si="11"/>
+        <v>2771.0136468000001</v>
       </c>
       <c r="R7" s="20">
-        <f t="shared" si="11"/>
-        <v>2778.9360999999999</v>
+        <f t="shared" si="12"/>
+        <v>1191.535868124</v>
       </c>
       <c r="S7" s="20">
-        <f t="shared" si="12"/>
-        <v>406.35304619207324</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U7" s="20">
-        <f t="shared" si="13"/>
-        <v>104.56838116596991</v>
+        <f t="shared" si="14"/>
+        <v>9.6465796203337124</v>
       </c>
       <c r="V7" s="20">
-        <f t="shared" si="14"/>
-        <v>5683.6600570885275</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W7" s="40">
-        <f t="shared" si="15"/>
-        <v>62.238210526315783</v>
+        <f t="shared" si="16"/>
+        <v>32.377106820505269</v>
       </c>
       <c r="X7" s="40">
-        <f t="shared" si="16"/>
-        <v>124.47642105263157</v>
+        <f t="shared" si="17"/>
+        <v>64.754213641010537</v>
       </c>
       <c r="Y7" s="40">
         <v>600</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" si="17"/>
-        <v>207.46070175438592</v>
+        <f t="shared" si="18"/>
+        <v>107.92368940168423</v>
       </c>
       <c r="AA7" s="40">
-        <f t="shared" si="18"/>
-        <v>2.4099788344665876E-6</v>
+        <f t="shared" si="19"/>
+        <v>4.6324739084866102E-6</v>
       </c>
       <c r="AB7" s="40"/>
     </row>
@@ -21165,28 +21165,28 @@
       <c r="C8" s="26"/>
       <c r="D8" s="43"/>
       <c r="E8" s="20">
-        <f>E7+$B$42</f>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="3"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>48</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I8" s="21">
-        <f t="shared" si="4"/>
-        <v>0.21999999999999992</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J8" s="20">
-        <f t="shared" si="5"/>
-        <v>1944.3243243243244</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -21195,63 +21195,63 @@
         <v>0</v>
       </c>
       <c r="M8" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N8" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O8" s="20">
-        <f t="shared" si="8"/>
-        <v>933.02004599999998</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="9"/>
-        <v>2419.9999999999991</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="Q8" s="20">
-        <f t="shared" si="10"/>
-        <v>4108.3900459999986</v>
+        <f t="shared" si="11"/>
+        <v>2771.0136468000001</v>
       </c>
       <c r="R8" s="20">
-        <f t="shared" si="11"/>
-        <v>1930.9433216199993</v>
+        <f t="shared" si="12"/>
+        <v>1191.535868124</v>
       </c>
       <c r="S8" s="20">
-        <f t="shared" si="12"/>
-        <v>451.05188127320127</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U8" s="20">
-        <f t="shared" si="13"/>
-        <v>72.659323568125274</v>
+        <f t="shared" si="14"/>
+        <v>9.6465796203337124</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="14"/>
-        <v>6308.8626633682652</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W8" s="40">
-        <f t="shared" si="15"/>
-        <v>48.0032942216842</v>
+        <f t="shared" si="16"/>
+        <v>32.377106820505269</v>
       </c>
       <c r="X8" s="40">
-        <f t="shared" si="16"/>
-        <v>96.0065884433684</v>
+        <f t="shared" si="17"/>
+        <v>64.754213641010537</v>
       </c>
       <c r="Y8" s="40">
         <v>600</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="17"/>
-        <v>160.01098073894732</v>
+        <f t="shared" si="18"/>
+        <v>107.92368940168423</v>
       </c>
       <c r="AA8" s="40">
-        <f t="shared" si="18"/>
-        <v>3.1245902736696925E-6</v>
+        <f t="shared" si="19"/>
+        <v>4.6324739084866102E-6</v>
       </c>
       <c r="AB8" s="40"/>
     </row>
@@ -21260,35 +21260,35 @@
         <v>9</v>
       </c>
       <c r="B9" s="26">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="20">
-        <f>E8+$B$42</f>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="3"/>
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I9" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9" s="20">
-        <f t="shared" si="5"/>
-        <v>1944.3243243243244</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -21297,63 +21297,63 @@
         <v>0</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O9" s="20">
-        <f t="shared" si="8"/>
-        <v>933.02004599999998</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="10"/>
-        <v>1688.390046</v>
+        <f t="shared" si="11"/>
+        <v>2771.0136468000001</v>
       </c>
       <c r="R9" s="20">
-        <f t="shared" si="11"/>
-        <v>793.54332161999992</v>
+        <f t="shared" si="12"/>
+        <v>1191.535868124</v>
       </c>
       <c r="S9" s="20">
-        <f t="shared" si="12"/>
-        <v>451.05188127320127</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U9" s="20">
-        <f t="shared" si="13"/>
-        <v>29.860183012797599</v>
+        <f t="shared" si="14"/>
+        <v>9.6465796203337124</v>
       </c>
       <c r="V9" s="20">
-        <f t="shared" si="14"/>
-        <v>6308.8626633682652</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W9" s="40">
-        <f t="shared" si="15"/>
-        <v>19.727504747999998</v>
+        <f t="shared" si="16"/>
+        <v>32.377106820505269</v>
       </c>
       <c r="X9" s="40">
-        <f t="shared" si="16"/>
-        <v>39.455009495999995</v>
+        <f t="shared" si="17"/>
+        <v>64.754213641010537</v>
       </c>
       <c r="Y9" s="40">
         <v>600</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="17"/>
-        <v>65.758349159999995</v>
+        <f t="shared" si="18"/>
+        <v>107.92368940168423</v>
       </c>
       <c r="AA9" s="40">
-        <f t="shared" si="18"/>
-        <v>7.6024410888527761E-6</v>
+        <f t="shared" si="19"/>
+        <v>4.6324739084866102E-6</v>
       </c>
       <c r="AB9" s="40"/>
     </row>
@@ -21367,28 +21367,28 @@
       <c r="C10" s="26"/>
       <c r="D10" s="43"/>
       <c r="E10" s="20">
-        <f>E9+$B$42</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>79.92</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>64</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10" s="20">
-        <f t="shared" si="5"/>
-        <v>1944.3243243243244</v>
+        <f t="shared" si="6"/>
+        <v>5211.3194594594606</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
@@ -21397,63 +21397,63 @@
         <v>0</v>
       </c>
       <c r="M10" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N10" s="20">
-        <f t="shared" si="7"/>
-        <v>755.37</v>
+        <f t="shared" si="8"/>
+        <v>2024.5976100000003</v>
       </c>
       <c r="O10" s="20">
-        <f t="shared" si="8"/>
-        <v>933.02004599999998</v>
+        <f t="shared" si="9"/>
+        <v>746.41603679999992</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q10" s="20">
-        <f t="shared" si="10"/>
-        <v>1688.390046</v>
+        <f t="shared" si="11"/>
+        <v>2771.0136468000001</v>
       </c>
       <c r="R10" s="20">
-        <f t="shared" si="11"/>
-        <v>793.54332161999992</v>
+        <f t="shared" si="12"/>
+        <v>1191.535868124</v>
       </c>
       <c r="S10" s="20">
-        <f t="shared" si="12"/>
-        <v>451.05188127320127</v>
+        <f t="shared" si="13"/>
+        <v>493.01019581024326</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U10" s="20">
-        <f t="shared" si="13"/>
-        <v>29.860183012797599</v>
+        <f t="shared" si="14"/>
+        <v>9.6465796203337124</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="14"/>
-        <v>6308.8626633682652</v>
+        <f t="shared" si="15"/>
+        <v>32050.592829623918</v>
       </c>
       <c r="W10" s="40">
-        <f t="shared" si="15"/>
-        <v>19.727504747999998</v>
+        <f t="shared" si="16"/>
+        <v>32.377106820505269</v>
       </c>
       <c r="X10" s="40">
-        <f t="shared" si="16"/>
-        <v>39.455009495999995</v>
+        <f t="shared" si="17"/>
+        <v>64.754213641010537</v>
       </c>
       <c r="Y10" s="40">
         <v>600</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="17"/>
-        <v>65.758349159999995</v>
+        <f t="shared" si="18"/>
+        <v>107.92368940168423</v>
       </c>
       <c r="AA10" s="40">
-        <f t="shared" si="18"/>
-        <v>7.6024410888527761E-6</v>
+        <f t="shared" si="19"/>
+        <v>4.6324739084866102E-6</v>
       </c>
       <c r="AB10" s="40"/>
     </row>
@@ -21469,16 +21469,16 @@
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="24">
-        <f>E10+$B$42</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="G11" s="24">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="H11" s="24">
         <v>1E-3</v>
@@ -21487,8 +21487,8 @@
         <v>0</v>
       </c>
       <c r="J11" s="24">
-        <f t="shared" si="5"/>
-        <v>43164000</v>
+        <f t="shared" si="6"/>
+        <v>115691292.00000001</v>
       </c>
       <c r="K11" s="24">
         <f>Table2[[#This Row],[Value]]</f>
@@ -21499,63 +21499,63 @@
         <v>0.19739555984988078</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="6"/>
-        <v>21162.89214276144</v>
+        <f t="shared" si="7"/>
+        <v>56722.322640457787</v>
       </c>
       <c r="N11" s="24">
-        <f t="shared" si="7"/>
-        <v>740.70122499665035</v>
+        <f t="shared" si="8"/>
+        <v>1985.2812924160221</v>
       </c>
       <c r="O11" s="24">
-        <f t="shared" si="8"/>
-        <v>1.89315E-6</v>
+        <f t="shared" si="9"/>
+        <v>1.5145199999999998E-6</v>
       </c>
       <c r="P11" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="10"/>
-        <v>21903.59336965124</v>
+        <f t="shared" si="11"/>
+        <v>58707.603934388331</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="11"/>
-        <v>10294.688883736082</v>
+        <f t="shared" si="12"/>
+        <v>25244.269691786983</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" si="12"/>
-        <v>2.0317652309603661E-2</v>
+        <f t="shared" si="13"/>
+        <v>2.2207666477938884E-2</v>
       </c>
       <c r="T11" s="24">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U11" s="24">
-        <f t="shared" si="13"/>
-        <v>387.37808731175505</v>
+        <f t="shared" si="14"/>
+        <v>204.37559963881654</v>
       </c>
       <c r="V11" s="24">
         <f>S11*T11</f>
-        <v>0.28418300285442638</v>
+        <v>1.4437203977308068</v>
       </c>
       <c r="W11" s="38">
-        <f t="shared" si="15"/>
-        <v>1.1528207036658548E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.0898738912835955E-2</v>
       </c>
       <c r="X11" s="38">
-        <f t="shared" si="16"/>
-        <v>2.3056414073317096E-2</v>
+        <f t="shared" si="17"/>
+        <v>6.1797477825671909E-2</v>
       </c>
       <c r="Y11" s="38">
         <v>600</v>
       </c>
       <c r="Z11" s="38">
-        <f t="shared" si="17"/>
-        <v>3.8427356788861826E-2</v>
+        <f t="shared" si="18"/>
+        <v>0.10299579637611986</v>
       </c>
       <c r="AA11" s="40">
-        <f t="shared" si="18"/>
-        <v>1.0324742731261325E-2</v>
+        <f t="shared" si="19"/>
+        <v>4.4249433698904236E-3</v>
       </c>
       <c r="AB11" s="38"/>
     </row>
@@ -21571,16 +21571,16 @@
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="22">
-        <f>E11+$B$42</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="H12" s="34">
         <v>2</v>
@@ -21589,74 +21589,74 @@
         <v>0</v>
       </c>
       <c r="J12" s="22">
-        <f t="shared" si="5"/>
-        <v>21582</v>
+        <f t="shared" si="6"/>
+        <v>57845.646000000008</v>
       </c>
       <c r="K12" s="34">
         <v>5</v>
       </c>
       <c r="L12" s="22">
-        <f t="shared" ref="L12:L15" si="19">ATAN2(100, K12)</f>
+        <f t="shared" ref="L12:L15" si="20">ATAN2(100, K12)</f>
         <v>4.9958395721942765E-2</v>
       </c>
       <c r="M12" s="22">
-        <f t="shared" si="6"/>
-        <v>5388.7682444154116</v>
+        <f t="shared" si="7"/>
+        <v>14443.368559099963</v>
       </c>
       <c r="N12" s="22">
-        <f t="shared" si="7"/>
-        <v>754.42755421815752</v>
+        <f t="shared" si="8"/>
+        <v>2022.0715982739946</v>
       </c>
       <c r="O12" s="22">
-        <f t="shared" si="8"/>
-        <v>7.5726000000000004</v>
+        <f t="shared" si="9"/>
+        <v>6.0580799999999995</v>
       </c>
       <c r="P12" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q12" s="22">
-        <f t="shared" si="10"/>
-        <v>6150.7683986335696</v>
+        <f t="shared" si="11"/>
+        <v>16471.498237373955</v>
       </c>
       <c r="R12" s="22">
-        <f t="shared" si="11"/>
-        <v>2890.8611473577776</v>
+        <f t="shared" si="12"/>
+        <v>7082.7442420708003</v>
       </c>
       <c r="S12" s="22">
-        <f t="shared" si="12"/>
-        <v>40.635304619207325</v>
+        <f t="shared" si="13"/>
+        <v>44.415332955877773</v>
       </c>
       <c r="T12" s="22">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U12" s="22">
-        <f t="shared" si="13"/>
-        <v>108.78000050263884</v>
+        <f t="shared" si="14"/>
+        <v>57.341334062539367</v>
       </c>
       <c r="V12" s="22">
-        <f t="shared" si="14"/>
-        <v>568.36600570885275</v>
+        <f t="shared" si="15"/>
+        <v>2887.440795461614</v>
       </c>
       <c r="W12" s="39">
-        <f t="shared" si="15"/>
-        <v>6.4744930511932317</v>
+        <f t="shared" si="16"/>
+        <v>17.338419197235741</v>
       </c>
       <c r="X12" s="39">
-        <f t="shared" si="16"/>
-        <v>12.948986102386463</v>
+        <f t="shared" si="17"/>
+        <v>34.676838394471481</v>
       </c>
       <c r="Y12" s="39">
         <v>600</v>
       </c>
       <c r="Z12" s="39">
-        <f t="shared" si="17"/>
-        <v>21.581643503977439</v>
+        <f t="shared" si="18"/>
+        <v>57.794730657452469</v>
       </c>
       <c r="AA12" s="40">
-        <f t="shared" si="18"/>
-        <v>2.3157107049673825E-5</v>
+        <f t="shared" si="19"/>
+        <v>8.6498110848915019E-6</v>
       </c>
       <c r="AB12" s="39"/>
     </row>
@@ -21672,16 +21672,16 @@
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="22">
-        <f>E12+$B$42</f>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" si="3"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
       <c r="H13" s="34">
         <v>1</v>
@@ -21690,74 +21690,74 @@
         <v>0</v>
       </c>
       <c r="J13" s="22">
-        <f t="shared" si="5"/>
-        <v>43164</v>
+        <f t="shared" si="6"/>
+        <v>115691.29200000002</v>
       </c>
       <c r="K13" s="34">
         <v>10</v>
       </c>
       <c r="L13" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.9668652491162038E-2</v>
       </c>
       <c r="M13" s="22">
-        <f t="shared" si="6"/>
-        <v>10737.446319555995</v>
+        <f t="shared" si="7"/>
+        <v>28779.284530860856</v>
       </c>
       <c r="N13" s="22">
-        <f t="shared" si="7"/>
-        <v>751.62124236891952</v>
+        <f t="shared" si="8"/>
+        <v>2014.5499171602596</v>
       </c>
       <c r="O13" s="22">
-        <f t="shared" si="8"/>
-        <v>1.8931500000000001</v>
+        <f t="shared" si="9"/>
+        <v>1.5145199999999999</v>
       </c>
       <c r="P13" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q13" s="22">
-        <f t="shared" si="10"/>
-        <v>11490.960711924914</v>
+        <f t="shared" si="11"/>
+        <v>30795.348968021117</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" si="11"/>
-        <v>5400.7515346047094</v>
+        <f t="shared" si="12"/>
+        <v>13242.00005624908</v>
       </c>
       <c r="S13" s="22">
-        <f t="shared" si="12"/>
-        <v>20.317652309603663</v>
+        <f t="shared" si="13"/>
+        <v>22.207666477938886</v>
       </c>
       <c r="T13" s="22">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U13" s="22">
-        <f t="shared" si="13"/>
-        <v>203.22448042372844</v>
+        <f t="shared" si="14"/>
+        <v>107.20617926188748</v>
       </c>
       <c r="V13" s="22">
-        <f t="shared" si="14"/>
-        <v>284.18300285442638</v>
+        <f t="shared" si="15"/>
+        <v>1443.720397730807</v>
       </c>
       <c r="W13" s="39">
-        <f t="shared" si="15"/>
-        <v>6.0478740589078495</v>
+        <f t="shared" si="16"/>
+        <v>16.208078404221645</v>
       </c>
       <c r="X13" s="39">
-        <f t="shared" si="16"/>
-        <v>12.095748117815699</v>
+        <f t="shared" si="17"/>
+        <v>32.41615680844329</v>
       </c>
       <c r="Y13" s="39">
         <v>600</v>
       </c>
       <c r="Z13" s="39">
-        <f t="shared" si="17"/>
-        <v>20.159580196359499</v>
+        <f t="shared" si="18"/>
+        <v>54.026928014072155</v>
       </c>
       <c r="AA13" s="40">
-        <f t="shared" si="18"/>
-        <v>2.478980698320371E-5</v>
+        <f t="shared" si="19"/>
+        <v>9.2529316224229342E-6</v>
       </c>
       <c r="AB13" s="39"/>
     </row>
@@ -21773,16 +21773,16 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="22">
-        <f>E13+$B$42</f>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>2.88</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="H14" s="34">
         <v>0.8</v>
@@ -21791,74 +21791,74 @@
         <v>0</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" si="5"/>
-        <v>53955</v>
+        <f t="shared" si="6"/>
+        <v>144614.11500000002</v>
       </c>
       <c r="K14" s="34">
         <v>20</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.19739555984988078</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="6"/>
-        <v>21162.89214276144</v>
+        <f t="shared" si="7"/>
+        <v>56722.322640457787</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="7"/>
-        <v>740.70122499665035</v>
+        <f t="shared" si="8"/>
+        <v>1985.2812924160221</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="8"/>
-        <v>1.2116160000000002</v>
+        <f t="shared" si="9"/>
+        <v>0.96929280000000007</v>
       </c>
       <c r="P14" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="10"/>
-        <v>21904.804983758091</v>
+        <f t="shared" si="11"/>
+        <v>58708.573225673812</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="11"/>
-        <v>10295.258342366302</v>
+        <f t="shared" si="12"/>
+        <v>25244.68648703974</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" si="12"/>
-        <v>16.254121847682928</v>
+        <f t="shared" si="13"/>
+        <v>17.766133182351108</v>
       </c>
       <c r="T14" s="22">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U14" s="22">
-        <f t="shared" si="13"/>
-        <v>387.39951542847319</v>
+        <f t="shared" si="14"/>
+        <v>204.37897398003335</v>
       </c>
       <c r="V14" s="22">
-        <f t="shared" si="14"/>
-        <v>227.3464022835411</v>
+        <f t="shared" si="15"/>
+        <v>1154.9763181846456</v>
       </c>
       <c r="W14" s="39">
-        <f t="shared" si="15"/>
-        <v>9.2230757826349858</v>
+        <f t="shared" si="16"/>
+        <v>24.719399252915291</v>
       </c>
       <c r="X14" s="39">
-        <f t="shared" si="16"/>
-        <v>18.446151565269972</v>
+        <f t="shared" si="17"/>
+        <v>49.438798505830583</v>
       </c>
       <c r="Y14" s="39">
         <v>600</v>
       </c>
       <c r="Z14" s="39">
-        <f t="shared" si="17"/>
-        <v>30.743585942116617</v>
+        <f t="shared" si="18"/>
+        <v>82.397997509717641</v>
       </c>
       <c r="AA14" s="40">
-        <f t="shared" si="18"/>
-        <v>1.6258266627543319E-5</v>
+        <f t="shared" si="19"/>
+        <v>6.0673722831456914E-6</v>
       </c>
       <c r="AB14" s="39"/>
     </row>
@@ -21874,16 +21874,16 @@
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="22">
-        <f>E14+$B$42</f>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>260</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" si="3"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>104</v>
       </c>
       <c r="H15" s="34">
         <f>B13</f>
@@ -21893,75 +21893,75 @@
         <v>0</v>
       </c>
       <c r="J15" s="22">
-        <f t="shared" si="5"/>
-        <v>143880</v>
+        <f t="shared" si="6"/>
+        <v>385637.64000000007</v>
       </c>
       <c r="K15" s="34">
         <f>B12</f>
         <v>20</v>
       </c>
       <c r="L15" s="22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.19739555984988078</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="6"/>
-        <v>21162.89214276144</v>
+        <f t="shared" si="7"/>
+        <v>56722.322640457787</v>
       </c>
       <c r="N15" s="22">
-        <f t="shared" si="7"/>
-        <v>740.70122499665035</v>
+        <f t="shared" si="8"/>
+        <v>1985.2812924160221</v>
       </c>
       <c r="O15" s="22">
-        <f t="shared" si="8"/>
-        <v>0.17038349999999999</v>
+        <f t="shared" si="9"/>
+        <v>0.13630679999999998</v>
       </c>
       <c r="P15" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q15" s="22">
-        <f t="shared" si="10"/>
-        <v>21903.763751258091</v>
+        <f t="shared" si="11"/>
+        <v>58707.740239673811</v>
       </c>
       <c r="R15" s="22">
-        <f t="shared" si="11"/>
-        <v>10294.768963091303</v>
+        <f t="shared" si="12"/>
+        <v>25244.328303059738</v>
       </c>
       <c r="S15" s="22">
-        <f t="shared" si="12"/>
-        <v>6.0952956928810984</v>
+        <f t="shared" si="13"/>
+        <v>6.6622999433816652</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="2"/>
-        <v>13.986999999999998</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="U15" s="22">
-        <f t="shared" si="13"/>
-        <v>387.38110061189542</v>
+        <f t="shared" si="14"/>
+        <v>204.37607415101917</v>
       </c>
       <c r="V15" s="22">
-        <f t="shared" si="14"/>
-        <v>85.254900856327907</v>
+        <f t="shared" si="15"/>
+        <v>433.1161193192421</v>
       </c>
       <c r="W15" s="39">
-        <f t="shared" si="15"/>
-        <v>3.4584890133565409</v>
+        <f t="shared" si="16"/>
+        <v>9.2696431957379701</v>
       </c>
       <c r="X15" s="39">
-        <f t="shared" si="16"/>
-        <v>6.9169780267130818</v>
+        <f t="shared" si="17"/>
+        <v>18.53928639147594</v>
       </c>
       <c r="Y15" s="39">
         <v>600</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="17"/>
-        <v>11.528296711188469</v>
+        <f t="shared" si="18"/>
+        <v>30.8988106524599</v>
       </c>
       <c r="AA15" s="40">
-        <f t="shared" si="18"/>
-        <v>4.3333952360157234E-5</v>
+        <f t="shared" si="19"/>
+        <v>1.6176617263667089E-5</v>
       </c>
       <c r="AB15" s="39"/>
     </row>
@@ -21991,7 +21991,7 @@
       <c r="J17" s="1"/>
       <c r="AC17">
         <f>SUM(X2:X15)*E15/3600</f>
-        <v>20.931661539827754</v>
+        <v>78.987035130337787</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -21999,7 +21999,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="26">
-        <v>3.55</v>
+        <v>16.5</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="43"/>
@@ -22095,7 +22095,7 @@
         <v>208</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" ref="K22:K31" si="20">H22*$J$22/$F$22</f>
+        <f t="shared" ref="K22:K31" si="21">H22*$J$22/$F$22</f>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -22127,17 +22127,17 @@
         <v>208</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.314285714285717</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
-        <v>65000</v>
+        <v>597</v>
       </c>
       <c r="C24" s="31">
         <f>B24*0.453592</f>
-        <v>29483.48</v>
+        <v>270.79442399999999</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="5">
@@ -22159,7 +22159,7 @@
         <v>208</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -22190,7 +22190,7 @@
         <v>208</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -22219,11 +22219,11 @@
         <v>2.5130890052356021</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J31" si="21">F26*$J$22/$F$22</f>
+        <f t="shared" ref="J26:J31" si="22">F26*$J$22/$F$22</f>
         <v>187.2</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -22251,11 +22251,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J27" s="1">
+        <f t="shared" si="22"/>
+        <v>149.76</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="21"/>
-        <v>149.76</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="20"/>
         <v>71.314285714285717</v>
       </c>
     </row>
@@ -22284,11 +22284,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="22"/>
+        <v>124.8</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="21"/>
-        <v>124.8</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="20"/>
         <v>59.428571428571445</v>
       </c>
     </row>
@@ -22316,21 +22316,21 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" si="22"/>
+        <v>106.97142857142858</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="21"/>
-        <v>106.97142857142858</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="20"/>
         <v>50.938775510204088</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" s="31">
-        <v>50</v>
+        <v>1.9</v>
       </c>
       <c r="C30" s="31">
         <f>B30/2.23694</f>
-        <v>22.351962949386213</v>
+        <v>0.84937459207667609</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="5">
@@ -22349,11 +22349,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="22"/>
+        <v>93.6</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="21"/>
-        <v>93.6</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="20"/>
         <v>44.571428571428577</v>
       </c>
     </row>
@@ -22381,11 +22381,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="22"/>
+        <v>83.2</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="21"/>
-        <v>83.2</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="20"/>
         <v>39.619047619047628</v>
       </c>
     </row>
@@ -22482,17 +22482,17 @@
         <v>384</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K44" si="22">H35*$J$35/$F$35</f>
+        <f t="shared" ref="K35:K44" si="23">H35*$J$35/$F$35</f>
         <v>119.17241379310344</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="31">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C36" s="31">
         <f>B36*0.7457</f>
-        <v>745.7</v>
+        <v>74.570000000000007</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="5">
@@ -22511,11 +22511,11 @@
         <v>0.94240837696335078</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ref="J36:J44" si="23">F36*$J$35/$F$35</f>
+        <f t="shared" ref="J36:J44" si="24">F36*$J$35/$F$35</f>
         <v>384</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -22541,11 +22541,11 @@
         <v>1.8848167539267016</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="24"/>
+        <v>384</v>
+      </c>
+      <c r="K37" s="1">
         <f t="shared" si="23"/>
-        <v>384</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="22"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -22573,11 +22573,11 @@
         <v>2.8272251308900525</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="24"/>
+        <v>384</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="23"/>
-        <v>384</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="22"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -22586,7 +22586,7 @@
         <v>86</v>
       </c>
       <c r="C39" s="28">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="5">
@@ -22605,11 +22605,11 @@
         <v>3.7696335078534031</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="24"/>
+        <v>384</v>
+      </c>
+      <c r="K39" s="1">
         <f t="shared" si="23"/>
-        <v>384</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="22"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -22619,7 +22619,7 @@
       </c>
       <c r="C40" s="30">
         <f>1000*C38/3600/C39</f>
-        <v>1.7361111111111112</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="5">
@@ -22638,11 +22638,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="24"/>
+        <v>289.81132075471697</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="23"/>
-        <v>289.81132075471697</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="22"/>
         <v>119.17241379310344</v>
       </c>
     </row>
@@ -22664,11 +22664,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="24"/>
+        <v>256</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="23"/>
-        <v>256</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="22"/>
         <v>105.26896551724138</v>
       </c>
     </row>
@@ -22677,7 +22677,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>86</v>
@@ -22699,11 +22699,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="24"/>
+        <v>219.42857142857147</v>
+      </c>
+      <c r="K42" s="1">
         <f t="shared" si="23"/>
-        <v>219.42857142857147</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="22"/>
         <v>90.23054187192119</v>
       </c>
     </row>
@@ -22725,11 +22725,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="24"/>
+        <v>192</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="23"/>
-        <v>192</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="22"/>
         <v>78.951724137931052</v>
       </c>
     </row>
@@ -22751,11 +22751,11 @@
         <v>4.994764397905759</v>
       </c>
       <c r="J44" s="1">
+        <f t="shared" si="24"/>
+        <v>170.66666666666669</v>
+      </c>
+      <c r="K44" s="1">
         <f t="shared" si="23"/>
-        <v>170.66666666666669</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="22"/>
         <v>70.179310344827584</v>
       </c>
     </row>
@@ -22823,7 +22823,7 @@
         <v>638</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ref="K48:K60" si="24">H48*$J$48/$F$48</f>
+        <f t="shared" ref="K48:K60" si="25">H48*$J$48/$F$48</f>
         <v>239.25</v>
       </c>
     </row>
@@ -22844,11 +22844,11 @@
         <v>1.5706806282722514</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ref="J49:J60" si="25">F49*$J$48/$F$48</f>
+        <f t="shared" ref="J49:J60" si="26">F49*$J$48/$F$48</f>
         <v>638</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22869,11 +22869,11 @@
         <v>3.1413612565445028</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="26"/>
+        <v>638</v>
+      </c>
+      <c r="K50" s="1">
         <f t="shared" si="25"/>
-        <v>638</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22894,11 +22894,11 @@
         <v>4.7120418848167542</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="26"/>
+        <v>638</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="25"/>
-        <v>638</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22919,11 +22919,11 @@
         <v>6.2827225130890056</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="26"/>
+        <v>638</v>
+      </c>
+      <c r="K52" s="1">
         <f t="shared" si="25"/>
-        <v>638</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22944,11 +22944,11 @@
         <v>7.5392670157068062</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="26"/>
+        <v>638</v>
+      </c>
+      <c r="K53" s="1">
         <f t="shared" si="25"/>
-        <v>638</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22969,11 +22969,11 @@
         <v>8.167539267015707</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="26"/>
+        <v>588.92307692307691</v>
+      </c>
+      <c r="K54" s="1">
         <f t="shared" si="25"/>
-        <v>588.92307692307691</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -22994,11 +22994,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="26"/>
+        <v>483.02839116719241</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="25"/>
-        <v>483.02839116719241</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="24"/>
         <v>239.25</v>
       </c>
     </row>
@@ -23019,11 +23019,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="26"/>
+        <v>382.8</v>
+      </c>
+      <c r="K56" s="1">
         <f t="shared" si="25"/>
-        <v>382.8</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="24"/>
         <v>189.60562499999997</v>
       </c>
     </row>
@@ -23044,11 +23044,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="26"/>
+        <v>340.26666666666665</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="25"/>
-        <v>340.26666666666665</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="24"/>
         <v>168.53833333333333</v>
       </c>
     </row>
@@ -23069,11 +23069,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="26"/>
+        <v>306.24</v>
+      </c>
+      <c r="K58" s="1">
         <f t="shared" si="25"/>
-        <v>306.24</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="24"/>
         <v>151.68450000000001</v>
       </c>
     </row>
@@ -23094,11 +23094,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="26"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="25"/>
-        <v>278.39999999999998</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="24"/>
         <v>137.89499999999998</v>
       </c>
     </row>
@@ -23119,11 +23119,11 @@
         <v>9.9581151832460737</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="26"/>
+        <v>255.2</v>
+      </c>
+      <c r="K60" s="1">
         <f t="shared" si="25"/>
-        <v>255.2</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="24"/>
         <v>126.40374999999999</v>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AE949E-7169-46AC-B298-A5EDE4A34403}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -25771,31 +25771,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="48">
         <v>15000</v>
       </c>
-      <c r="C2" s="51">
+      <c r="C2" s="48">
         <v>300</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="48">
         <v>1330</v>
       </c>
       <c r="E2" s="12">
         <v>1.35</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="48">
         <v>4000</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="48">
         <v>125</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="48">
         <v>250</v>
       </c>
       <c r="K2" s="15">
@@ -25803,26 +25803,26 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="13">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="16">
         <v>47.74</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="13">
         <v>3.5</v>
       </c>
@@ -25843,10 +25843,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="13">
         <v>4</v>
       </c>
@@ -25867,23 +25867,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="14">
         <v>4.43</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="48">
         <v>1106</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="48">
         <v>500</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="48">
         <v>1000</v>
       </c>
       <c r="K6" s="15">
@@ -25891,79 +25891,79 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="53">
         <v>15000</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="53">
         <v>300</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="53">
         <v>4000</v>
       </c>
       <c r="E7" s="12">
         <v>5.2</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="18">
         <v>30.68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="13">
         <v>6.04</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
       <c r="K8" s="18">
         <v>45.13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="13">
         <v>7.04</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="16">
         <v>50.62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="13">
         <v>8.08</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="48">
         <v>5000</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="48">
         <v>3500</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="48">
         <v>7000</v>
       </c>
       <c r="K10" s="15">
@@ -25971,96 +25971,96 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="13">
         <v>9.1</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
       <c r="K11" s="18">
         <v>24.92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="13">
         <v>10.11</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="18">
         <v>25.92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="13">
         <v>11.05</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
       <c r="K13" s="18">
         <v>47.6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="13">
         <v>11.9</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
       <c r="K14" s="18">
         <v>57.49</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="14">
         <v>13.35</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="16">
         <v>64.08</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="53">
         <v>12000</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="53">
         <v>600</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="53">
         <v>2100</v>
       </c>
       <c r="E16" s="12">
@@ -26068,43 +26068,43 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="13">
         <v>1.97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="13">
         <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="14">
         <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="53">
         <v>12000</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="53">
         <v>600</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="53">
         <v>6500</v>
       </c>
       <c r="E20" s="12">
@@ -26112,79 +26112,79 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="13">
         <v>7.42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="13">
         <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="13">
         <v>9.4600000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="13">
         <v>9.94</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="13">
         <v>10.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="13">
         <v>12.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="14">
         <v>13.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="53">
         <v>7500</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="53">
         <v>1200</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="53">
         <v>4770</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -26192,83 +26192,83 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="13">
         <v>2.97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="14">
         <v>3.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53">
         <v>265</v>
       </c>
-      <c r="D33" s="48"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="12">
         <v>2.98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="13">
         <v>3.98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="14">
         <v>6.03</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="53">
         <v>12500</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="12">
@@ -26276,25 +26276,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="48">
+      <c r="B38" s="53">
         <v>12500</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="53" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="12">
@@ -26302,27 +26302,33 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="14">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="J10:J15"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
@@ -26339,23 +26345,17 @@
     <mergeCell ref="A20:A27"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="C20:C27"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="J10:J15"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -26363,12 +26363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63d68cde8d91d9cfd93ef1e7c2dce69f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490d39c642ce3fbaaaf8418555bb1ddb" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -26585,6 +26579,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26595,15 +26595,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08470758-3E41-49AE-BF09-F8ECFDDA61D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26622,6 +26613,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F324A3B8-30FC-4358-B87B-0224BB51D402}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31769C09-66BF-4C90-9A3A-4FD4D5E2DB91}">
   <ds:schemaRefs>

--- a/Sizing/Sizing.xlsx
+++ b/Sizing/Sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985FAE4-486D-491E-9E6E-C83E17ABC8D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD34608-F665-4374-92A5-65C08DEB6BC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0626AE80-454B-4539-8E37-8436CB968B23}"/>
   </bookViews>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>m/s^2</t>
-  </si>
-  <si>
-    <t>Air Desnsity</t>
   </si>
   <si>
     <t>Kg/m^2</t>
@@ -426,9 +423,6 @@
     <t>Startability</t>
   </si>
   <si>
-    <t xml:space="preserve">Gradability </t>
-  </si>
-  <si>
     <t>Max Speed on Max Grade</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>Battery Discharge Rate [unit/hr]</t>
+  </si>
+  <si>
+    <t>Air Density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradeability </t>
   </si>
 </sst>
 </file>
@@ -822,13 +822,22 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -840,22 +849,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,22 +1137,22 @@
                   <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.92</c:v>
+                  <c:v>64.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.5999999999999999E-3</c:v>
@@ -1299,22 +1299,22 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1E-3</c:v>
@@ -1957,43 +1957,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,28 +2014,28 @@
                   <c:v>239.25077440000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278.33527258837893</c:v>
+                  <c:v>103.52088170526318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.754213641010537</c:v>
+                  <c:v>47.658355389473698</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.754213641010537</c:v>
+                  <c:v>47.658355389473698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.754213641010537</c:v>
+                  <c:v>47.658355389473698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.754213641010537</c:v>
+                  <c:v>47.658355389473698</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.754213641010537</c:v>
+                  <c:v>47.658355389473698</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1797477825671909E-2</c:v>
+                  <c:v>6.1797477825671923E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.676838394471481</c:v>
+                  <c:v>34.676838394471488</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>32.41615680844329</c:v>
@@ -2457,28 +2457,28 @@
                   <c:v>1.2538829914109215E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0778135675324399E-6</c:v>
+                  <c:v>2.897798089331888E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6324739084866102E-6</c:v>
+                  <c:v>6.2940114798290683E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6324739084866102E-6</c:v>
+                  <c:v>6.2940114798290683E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6324739084866102E-6</c:v>
+                  <c:v>6.2940114798290683E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6324739084866102E-6</c:v>
+                  <c:v>6.2940114798290683E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6324739084866102E-6</c:v>
+                  <c:v>6.2940114798290683E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.4249433698904236E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6498110848915019E-6</c:v>
+                  <c:v>8.6498110848915002E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9.2529316224229342E-6</c:v>
@@ -3677,28 +3677,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3710,31 +3710,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3792,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3804,7 +3804,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,16 +3862,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,16 +3883,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5947,28 +5947,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5980,31 +5980,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,7 +6066,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,7 +6078,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,16 +6136,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,16 +6157,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6193,7 +6193,6 @@
         <c:axId val="808007032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8705,28 +8704,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8738,31 +8737,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8824,7 +8823,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8836,7 +8835,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,16 +8893,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8915,16 +8914,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8951,7 +8950,6 @@
         <c:axId val="944059008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12500"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11138,28 +11136,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11171,31 +11169,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11253,7 +11251,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11265,7 +11263,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11323,16 +11321,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11344,16 +11342,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11380,7 +11378,6 @@
         <c:axId val="943894736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="9000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13408,28 +13405,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13441,31 +13438,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13523,7 +13520,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13535,7 +13532,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13593,16 +13590,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13614,16 +13611,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14373,28 +14370,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11549.763181846456</c:v>
+                  <c:v>2931.4119750879331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23099.526363692912</c:v>
+                  <c:v>5862.8239501758662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32050.592829623918</c:v>
+                  <c:v>6595.6769439478494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14406,31 +14403,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>7.0481219269909898</c:v>
+                  <c:v>13.88480019617225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.440584547316611</c:v>
+                  <c:v>95.427951558213721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.45288849407784</c:v>
+                  <c:v>97.422190333333347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.464226298172747</c:v>
+                  <c:v>37.469679405103669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6465796203337124</c:v>
+                  <c:v>17.250078129186605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14488,7 +14485,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.4437203977308068</c:v>
+                  <c:v>0.3664264968859916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14500,7 +14497,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.37559963881654</c:v>
+                  <c:v>402.61993128846865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14560,16 +14557,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2887.440795461614</c:v>
+                  <c:v>732.85299377198328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1443.720397730807</c:v>
+                  <c:v>366.42649688599164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1154.9763181846456</c:v>
+                  <c:v>293.14119750879331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433.1161193192421</c:v>
+                  <c:v>109.92794906579748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14581,16 +14578,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>57.341334062539367</c:v>
+                  <c:v>112.96242810320257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.20617926188748</c:v>
+                  <c:v>211.19617314591835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204.37897398003335</c:v>
+                  <c:v>402.62657874066571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204.37607415101917</c:v>
+                  <c:v>402.6208660775078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20453,7 +20450,7 @@
   <dimension ref="A1:AC164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20469,7 +20466,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>0</v>
@@ -20478,76 +20475,76 @@
         <v>1</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="W1" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="37" t="s">
+      <c r="Z1" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Y1" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" s="37" t="s">
-        <v>144</v>
-      </c>
       <c r="AA1" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -20618,11 +20615,11 @@
       </c>
       <c r="T2" s="20">
         <f t="shared" ref="T2:T15" si="2">$B$17*$B$18</f>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U2" s="20">
         <f>R2/T2/$B$16/$B$10</f>
-        <v>7.0481219269909898</v>
+        <v>13.88480019617225</v>
       </c>
       <c r="V2" s="20">
         <f>S2*T2</f>
@@ -20720,19 +20717,19 @@
       </c>
       <c r="T3" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" ref="U3:U15" si="14">R3/T3/$B$16/$B$10</f>
-        <v>48.440584547316611</v>
+        <v>95.427951558213721</v>
       </c>
       <c r="V3" s="20">
         <f t="shared" ref="V3:V15" si="15">S3*T3</f>
-        <v>11549.763181846456</v>
+        <v>2931.4119750879331</v>
       </c>
       <c r="W3" s="40">
         <f t="shared" ref="W3:W15" si="16">U3*V3*2*PI()/60/1000</f>
-        <v>58.588323747368428</v>
+        <v>29.294161873684214</v>
       </c>
       <c r="X3" s="40">
         <f t="shared" ref="X3:X15" si="17">W3*$B$16</f>
@@ -20753,13 +20750,13 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="26">
         <v>4.2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="20">
@@ -20822,19 +20819,19 @@
       </c>
       <c r="T4" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U4" s="20">
         <f t="shared" si="14"/>
-        <v>49.45288849407784</v>
+        <v>97.422190333333347</v>
       </c>
       <c r="V4" s="20">
         <f t="shared" si="15"/>
-        <v>23099.526363692912</v>
+        <v>5862.8239501758662</v>
       </c>
       <c r="W4" s="40">
         <f t="shared" si="16"/>
-        <v>119.62538720000002</v>
+        <v>59.81269360000001</v>
       </c>
       <c r="X4" s="40">
         <f t="shared" si="17"/>
@@ -20855,13 +20852,13 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B5" s="26">
         <v>1.202</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="20">
@@ -20870,7 +20867,7 @@
       </c>
       <c r="F5" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G5" s="20">
         <f t="shared" si="4"/>
@@ -20878,15 +20875,15 @@
       </c>
       <c r="H5" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I5" s="21">
         <f t="shared" si="5"/>
-        <v>0.30999999999999994</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K5" s="20">
         <v>0</v>
@@ -20904,60 +20901,60 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="10"/>
-        <v>9139.7299999999977</v>
+        <v>2948.3</v>
       </c>
       <c r="Q5" s="20">
         <f t="shared" si="11"/>
-        <v>11910.743646799998</v>
+        <v>5463.6020900000003</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="12"/>
-        <v>5121.6197681239992</v>
+        <v>2349.3488987000001</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T5" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U5" s="20">
         <f t="shared" si="14"/>
-        <v>41.464226298172747</v>
+        <v>37.469679405103669</v>
       </c>
       <c r="V5" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" si="16"/>
-        <v>139.16763629418946</v>
+        <v>25.880220426315795</v>
       </c>
       <c r="X5" s="40">
         <f t="shared" si="17"/>
-        <v>278.33527258837893</v>
+        <v>103.52088170526318</v>
       </c>
       <c r="Y5" s="40">
         <v>600</v>
       </c>
       <c r="Z5" s="40">
         <f t="shared" si="18"/>
-        <v>463.89212098063155</v>
+        <v>172.53480284210531</v>
       </c>
       <c r="AA5" s="40">
         <f t="shared" si="19"/>
-        <v>1.0778135675324399E-6</v>
+        <v>2.897798089331888E-6</v>
       </c>
       <c r="AB5" s="40"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="26">
         <v>0.6</v>
@@ -20970,7 +20967,7 @@
       </c>
       <c r="F6" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" si="4"/>
@@ -20978,7 +20975,7 @@
       </c>
       <c r="H6" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="5"/>
@@ -20986,7 +20983,7 @@
       </c>
       <c r="J6" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K6" s="20">
         <v>0</v>
@@ -21004,7 +21001,7 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P6" s="20">
         <f t="shared" si="10"/>
@@ -21012,52 +21009,52 @@
       </c>
       <c r="Q6" s="20">
         <f t="shared" si="11"/>
-        <v>2771.0136468000001</v>
+        <v>2515.3020900000001</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="12"/>
-        <v>1191.535868124</v>
+        <v>1081.5798987000001</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T6" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U6" s="20">
         <f t="shared" si="14"/>
-        <v>9.6465796203337124</v>
+        <v>17.250078129186605</v>
       </c>
       <c r="V6" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W6" s="40">
         <f t="shared" si="16"/>
-        <v>32.377106820505269</v>
+        <v>11.914588847368424</v>
       </c>
       <c r="X6" s="40">
         <f t="shared" si="17"/>
-        <v>64.754213641010537</v>
+        <v>47.658355389473698</v>
       </c>
       <c r="Y6" s="40">
         <v>600</v>
       </c>
       <c r="Z6" s="40">
         <f t="shared" si="18"/>
-        <v>107.92368940168423</v>
+        <v>79.430592315789497</v>
       </c>
       <c r="AA6" s="40">
         <f t="shared" si="19"/>
-        <v>4.6324739084866102E-6</v>
+        <v>6.2940114798290683E-6</v>
       </c>
       <c r="AB6" s="40"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="26">
         <v>7.0000000000000001E-3</v>
@@ -21070,7 +21067,7 @@
       </c>
       <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="4"/>
@@ -21078,7 +21075,7 @@
       </c>
       <c r="H7" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I7" s="21">
         <f t="shared" si="5"/>
@@ -21086,7 +21083,7 @@
       </c>
       <c r="J7" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K7" s="20">
         <v>0</v>
@@ -21104,7 +21101,7 @@
       </c>
       <c r="O7" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P7" s="20">
         <f t="shared" si="10"/>
@@ -21112,52 +21109,52 @@
       </c>
       <c r="Q7" s="20">
         <f t="shared" si="11"/>
-        <v>2771.0136468000001</v>
+        <v>2515.3020900000001</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="12"/>
-        <v>1191.535868124</v>
+        <v>1081.5798987000001</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T7" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U7" s="20">
         <f t="shared" si="14"/>
-        <v>9.6465796203337124</v>
+        <v>17.250078129186605</v>
       </c>
       <c r="V7" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="16"/>
-        <v>32.377106820505269</v>
+        <v>11.914588847368424</v>
       </c>
       <c r="X7" s="40">
         <f t="shared" si="17"/>
-        <v>64.754213641010537</v>
+        <v>47.658355389473698</v>
       </c>
       <c r="Y7" s="40">
         <v>600</v>
       </c>
       <c r="Z7" s="40">
         <f t="shared" si="18"/>
-        <v>107.92368940168423</v>
+        <v>79.430592315789497</v>
       </c>
       <c r="AA7" s="40">
         <f t="shared" si="19"/>
-        <v>4.6324739084866102E-6</v>
+        <v>6.2940114798290683E-6</v>
       </c>
       <c r="AB7" s="40"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="26">
         <v>0.4</v>
@@ -21170,7 +21167,7 @@
       </c>
       <c r="F8" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" si="4"/>
@@ -21178,7 +21175,7 @@
       </c>
       <c r="H8" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I8" s="21">
         <f t="shared" si="5"/>
@@ -21186,7 +21183,7 @@
       </c>
       <c r="J8" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K8" s="20">
         <v>0</v>
@@ -21204,7 +21201,7 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P8" s="20">
         <f t="shared" si="10"/>
@@ -21212,58 +21209,58 @@
       </c>
       <c r="Q8" s="20">
         <f t="shared" si="11"/>
-        <v>2771.0136468000001</v>
+        <v>2515.3020900000001</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="12"/>
-        <v>1191.535868124</v>
+        <v>1081.5798987000001</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T8" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U8" s="20">
         <f t="shared" si="14"/>
-        <v>9.6465796203337124</v>
+        <v>17.250078129186605</v>
       </c>
       <c r="V8" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="16"/>
-        <v>32.377106820505269</v>
+        <v>11.914588847368424</v>
       </c>
       <c r="X8" s="40">
         <f t="shared" si="17"/>
-        <v>64.754213641010537</v>
+        <v>47.658355389473698</v>
       </c>
       <c r="Y8" s="40">
         <v>600</v>
       </c>
       <c r="Z8" s="40">
         <f t="shared" si="18"/>
-        <v>107.92368940168423</v>
+        <v>79.430592315789497</v>
       </c>
       <c r="AA8" s="40">
         <f t="shared" si="19"/>
-        <v>4.6324739084866102E-6</v>
+        <v>6.2940114798290683E-6</v>
       </c>
       <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="26">
         <v>0.43</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="20">
@@ -21272,7 +21269,7 @@
       </c>
       <c r="F9" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="4"/>
@@ -21280,7 +21277,7 @@
       </c>
       <c r="H9" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I9" s="21">
         <f t="shared" si="5"/>
@@ -21288,7 +21285,7 @@
       </c>
       <c r="J9" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K9" s="20">
         <v>0</v>
@@ -21306,7 +21303,7 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P9" s="20">
         <f t="shared" si="10"/>
@@ -21314,52 +21311,52 @@
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="11"/>
-        <v>2771.0136468000001</v>
+        <v>2515.3020900000001</v>
       </c>
       <c r="R9" s="20">
         <f t="shared" si="12"/>
-        <v>1191.535868124</v>
+        <v>1081.5798987000001</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T9" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U9" s="20">
         <f t="shared" si="14"/>
-        <v>9.6465796203337124</v>
+        <v>17.250078129186605</v>
       </c>
       <c r="V9" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W9" s="40">
         <f t="shared" si="16"/>
-        <v>32.377106820505269</v>
+        <v>11.914588847368424</v>
       </c>
       <c r="X9" s="40">
         <f t="shared" si="17"/>
-        <v>64.754213641010537</v>
+        <v>47.658355389473698</v>
       </c>
       <c r="Y9" s="40">
         <v>600</v>
       </c>
       <c r="Z9" s="40">
         <f t="shared" si="18"/>
-        <v>107.92368940168423</v>
+        <v>79.430592315789497</v>
       </c>
       <c r="AA9" s="40">
         <f t="shared" si="19"/>
-        <v>4.6324739084866102E-6</v>
+        <v>6.2940114798290683E-6</v>
       </c>
       <c r="AB9" s="40"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="26">
         <v>0.95</v>
@@ -21372,7 +21369,7 @@
       </c>
       <c r="F10" s="20">
         <f t="shared" si="0"/>
-        <v>79.92</v>
+        <v>64.8</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="4"/>
@@ -21380,7 +21377,7 @@
       </c>
       <c r="H10" s="20">
         <f t="shared" si="1"/>
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="I10" s="21">
         <f t="shared" si="5"/>
@@ -21388,7 +21385,7 @@
       </c>
       <c r="J10" s="20">
         <f t="shared" si="6"/>
-        <v>5211.3194594594606</v>
+        <v>6427.2940000000008</v>
       </c>
       <c r="K10" s="20">
         <v>0</v>
@@ -21406,7 +21403,7 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" si="9"/>
-        <v>746.41603679999992</v>
+        <v>490.70447999999993</v>
       </c>
       <c r="P10" s="20">
         <f t="shared" si="10"/>
@@ -21414,58 +21411,58 @@
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="11"/>
-        <v>2771.0136468000001</v>
+        <v>2515.3020900000001</v>
       </c>
       <c r="R10" s="20">
         <f t="shared" si="12"/>
-        <v>1191.535868124</v>
+        <v>1081.5798987000001</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="13"/>
-        <v>493.01019581024326</v>
+        <v>399.73799660289995</v>
       </c>
       <c r="T10" s="20">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U10" s="20">
         <f t="shared" si="14"/>
-        <v>9.6465796203337124</v>
+        <v>17.250078129186605</v>
       </c>
       <c r="V10" s="20">
         <f t="shared" si="15"/>
-        <v>32050.592829623918</v>
+        <v>6595.6769439478494</v>
       </c>
       <c r="W10" s="40">
         <f t="shared" si="16"/>
-        <v>32.377106820505269</v>
+        <v>11.914588847368424</v>
       </c>
       <c r="X10" s="40">
         <f t="shared" si="17"/>
-        <v>64.754213641010537</v>
+        <v>47.658355389473698</v>
       </c>
       <c r="Y10" s="40">
         <v>600</v>
       </c>
       <c r="Z10" s="40">
         <f t="shared" si="18"/>
-        <v>107.92368940168423</v>
+        <v>79.430592315789497</v>
       </c>
       <c r="AA10" s="40">
         <f t="shared" si="19"/>
-        <v>4.6324739084866102E-6</v>
+        <v>6.2940114798290683E-6</v>
       </c>
       <c r="AB10" s="40"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="26">
         <v>20</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="24">
@@ -21528,30 +21525,30 @@
       </c>
       <c r="T11" s="24">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U11" s="24">
         <f t="shared" si="14"/>
-        <v>204.37559963881654</v>
+        <v>402.61993128846865</v>
       </c>
       <c r="V11" s="24">
         <f>S11*T11</f>
-        <v>1.4437203977308068</v>
+        <v>0.3664264968859916</v>
       </c>
       <c r="W11" s="38">
         <f t="shared" si="16"/>
-        <v>3.0898738912835955E-2</v>
+        <v>1.5449369456417981E-2</v>
       </c>
       <c r="X11" s="38">
         <f t="shared" si="17"/>
-        <v>6.1797477825671909E-2</v>
+        <v>6.1797477825671923E-2</v>
       </c>
       <c r="Y11" s="38">
         <v>600</v>
       </c>
       <c r="Z11" s="38">
         <f t="shared" si="18"/>
-        <v>0.10299579637611986</v>
+        <v>0.10299579637611987</v>
       </c>
       <c r="AA11" s="40">
         <f t="shared" si="19"/>
@@ -21561,13 +21558,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B12" s="26">
         <v>20</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="22">
@@ -21629,46 +21626,46 @@
       </c>
       <c r="T12" s="22">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U12" s="22">
         <f t="shared" si="14"/>
-        <v>57.341334062539367</v>
+        <v>112.96242810320257</v>
       </c>
       <c r="V12" s="22">
         <f t="shared" si="15"/>
-        <v>2887.440795461614</v>
+        <v>732.85299377198328</v>
       </c>
       <c r="W12" s="39">
         <f t="shared" si="16"/>
-        <v>17.338419197235741</v>
+        <v>8.6692095986178721</v>
       </c>
       <c r="X12" s="39">
         <f t="shared" si="17"/>
-        <v>34.676838394471481</v>
+        <v>34.676838394471488</v>
       </c>
       <c r="Y12" s="39">
         <v>600</v>
       </c>
       <c r="Z12" s="39">
         <f t="shared" si="18"/>
-        <v>57.794730657452469</v>
+        <v>57.794730657452483</v>
       </c>
       <c r="AA12" s="40">
         <f t="shared" si="19"/>
-        <v>8.6498110848915019E-6</v>
+        <v>8.6498110848915002E-6</v>
       </c>
       <c r="AB12" s="39"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="26">
         <v>0.3</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="22">
@@ -21730,19 +21727,19 @@
       </c>
       <c r="T13" s="22">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U13" s="22">
         <f t="shared" si="14"/>
-        <v>107.20617926188748</v>
+        <v>211.19617314591835</v>
       </c>
       <c r="V13" s="22">
         <f t="shared" si="15"/>
-        <v>1443.720397730807</v>
+        <v>366.42649688599164</v>
       </c>
       <c r="W13" s="39">
         <f t="shared" si="16"/>
-        <v>16.208078404221645</v>
+        <v>8.1040392021108225</v>
       </c>
       <c r="X13" s="39">
         <f t="shared" si="17"/>
@@ -21763,7 +21760,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="26">
         <v>0.4</v>
@@ -21831,19 +21828,19 @@
       </c>
       <c r="T14" s="22">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U14" s="22">
         <f t="shared" si="14"/>
-        <v>204.37897398003335</v>
+        <v>402.62657874066571</v>
       </c>
       <c r="V14" s="22">
         <f t="shared" si="15"/>
-        <v>1154.9763181846456</v>
+        <v>293.14119750879331</v>
       </c>
       <c r="W14" s="39">
         <f t="shared" si="16"/>
-        <v>24.719399252915291</v>
+        <v>12.359699626457646</v>
       </c>
       <c r="X14" s="39">
         <f t="shared" si="17"/>
@@ -21864,13 +21861,13 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="26">
         <v>18</v>
       </c>
-      <c r="B15" s="26">
-        <v>22.2</v>
-      </c>
       <c r="C15" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="22">
@@ -21934,19 +21931,19 @@
       </c>
       <c r="T15" s="22">
         <f t="shared" si="2"/>
-        <v>65.010000000000005</v>
+        <v>16.5</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="14"/>
-        <v>204.37607415101917</v>
+        <v>402.6208660775078</v>
       </c>
       <c r="V15" s="22">
         <f t="shared" si="15"/>
-        <v>433.1161193192421</v>
+        <v>109.92794906579748</v>
       </c>
       <c r="W15" s="39">
         <f t="shared" si="16"/>
-        <v>9.2696431957379701</v>
+        <v>4.6348215978689851</v>
       </c>
       <c r="X15" s="39">
         <f t="shared" si="17"/>
@@ -21967,10 +21964,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="43"/>
@@ -21980,10 +21977,10 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="26">
-        <v>3.94</v>
+        <v>1</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="43"/>
@@ -21991,12 +21988,12 @@
       <c r="J17" s="1"/>
       <c r="AC17">
         <f>SUM(X2:X15)*E15/3600</f>
-        <v>78.987035130337787</v>
+        <v>60.188046975724454</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="26">
         <v>16.5</v>
@@ -22006,29 +22003,29 @@
     </row>
     <row r="19" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="26">
         <v>100</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="43"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="26">
         <v>3</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
@@ -22040,40 +22037,40 @@
     </row>
     <row r="21" spans="1:29" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="5">
@@ -22102,7 +22099,7 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>2</v>
@@ -22133,11 +22130,11 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24" s="31">
-        <v>597</v>
+        <v>65000</v>
       </c>
       <c r="C24" s="31">
         <f>B24*0.453592</f>
-        <v>270.79442399999999</v>
+        <v>29483.48</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="5">
@@ -22165,10 +22162,10 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>40</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="5">
@@ -22229,10 +22226,10 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="5">
@@ -22294,10 +22291,10 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="5">
@@ -22359,10 +22356,10 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="5">
@@ -22391,11 +22388,11 @@
     </row>
     <row r="32" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C32" s="31">
         <f>B32*0.277778</f>
-        <v>27.777800000000003</v>
+        <v>13.888900000000001</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="1"/>
@@ -22407,14 +22404,14 @@
     </row>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>45</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>46</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
@@ -22434,33 +22431,33 @@
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="J34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>48</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="5">
@@ -22521,7 +22518,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="43"/>
@@ -22551,7 +22548,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="28">
         <v>100</v>
@@ -22583,7 +22580,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="28">
         <v>60</v>
@@ -22674,13 +22671,13 @@
     </row>
     <row r="42" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="36">
         <v>20</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="5">
@@ -22769,7 +22766,7 @@
     </row>
     <row r="46" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
@@ -22781,25 +22778,25 @@
     </row>
     <row r="47" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="J47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -23130,7 +23127,7 @@
     <row r="61" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="5:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E62" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
@@ -23143,31 +23140,31 @@
     </row>
     <row r="63" spans="5:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E63" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="L63" s="2" t="s">
         <v>92</v>
       </c>
-  